--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -124,10 +124,10 @@
     <t>AlShamal SC</t>
   </si>
   <si>
-    <t>AlArabi Doha</t>
+    <t>Al Markhiya</t>
   </si>
   <si>
-    <t>Al Markhiya</t>
+    <t>AlArabi Doha</t>
   </si>
   <si>
     <t>Al Gharafa</t>
@@ -800,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5682631</v>
+        <v>5682632</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,76 +975,76 @@
         <v>44937.52083333334</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
+        <v>2.25</v>
+      </c>
+      <c r="N6">
+        <v>2.4</v>
+      </c>
+      <c r="O6">
+        <v>3.6</v>
+      </c>
+      <c r="P6">
+        <v>2.4</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1.925</v>
+      </c>
+      <c r="S6">
+        <v>1.875</v>
+      </c>
+      <c r="T6">
+        <v>2.75</v>
+      </c>
+      <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
+        <v>1.825</v>
+      </c>
+      <c r="W6">
         <v>1.4</v>
       </c>
-      <c r="N6">
-        <v>7</v>
-      </c>
-      <c r="O6">
-        <v>6</v>
-      </c>
-      <c r="P6">
-        <v>1.25</v>
-      </c>
-      <c r="Q6">
-        <v>1.75</v>
-      </c>
-      <c r="R6">
-        <v>1.975</v>
-      </c>
-      <c r="S6">
-        <v>1.825</v>
-      </c>
-      <c r="T6">
-        <v>3.5</v>
-      </c>
-      <c r="U6">
-        <v>1.825</v>
-      </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.925</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>-1</v>
-      </c>
       <c r="AC6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5682632</v>
+        <v>5682631</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,76 +1064,76 @@
         <v>44937.52083333334</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7">
-        <v>2.625</v>
-      </c>
       <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>1.4</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>1.25</v>
+      </c>
+      <c r="Q7">
+        <v>1.75</v>
+      </c>
+      <c r="R7">
+        <v>1.975</v>
+      </c>
+      <c r="S7">
+        <v>1.825</v>
+      </c>
+      <c r="T7">
         <v>3.5</v>
       </c>
-      <c r="M7">
-        <v>2.25</v>
-      </c>
-      <c r="N7">
-        <v>2.4</v>
-      </c>
-      <c r="O7">
-        <v>3.6</v>
-      </c>
-      <c r="P7">
-        <v>2.4</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1.925</v>
-      </c>
-      <c r="S7">
-        <v>1.875</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
       <c r="U7">
+        <v>1.825</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC7">
-        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6046095</v>
+        <v>6046094</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1423,37 +1423,37 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N11">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
         <v>1.925</v>
@@ -1462,7 +1462,7 @@
         <v>1.875</v>
       </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U11">
         <v>1.825</v>
@@ -1474,22 +1474,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y11">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6046094</v>
+        <v>6046095</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1512,37 +1512,37 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1551,7 +1551,7 @@
         <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
         <v>1.825</v>
@@ -1563,22 +1563,22 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1586,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6046097</v>
+        <v>6046096</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1598,58 +1598,58 @@
         <v>44950.4375</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>42</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L13">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N13">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P13">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S13">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1658,13 +1658,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.925</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6046096</v>
+        <v>6046097</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,58 +1687,58 @@
         <v>44950.4375</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>42</v>
       </c>
       <c r="K14">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M14">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O14">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P14">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
+        <v>1.875</v>
+      </c>
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
+        <v>1.825</v>
+      </c>
+      <c r="V14">
         <v>1.975</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>1.95</v>
-      </c>
       <c r="W14">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1747,13 +1747,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.7250000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6046098</v>
+        <v>6046099</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,76 +1865,76 @@
         <v>44955.44097222222</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>1.222</v>
+        <v>4</v>
       </c>
       <c r="O16">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>8.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="T16">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V16">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W16">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC16">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6046099</v>
+        <v>6046098</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,76 +1954,76 @@
         <v>44955.44097222222</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N17">
-        <v>4</v>
+        <v>1.222</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P17">
-        <v>1.65</v>
+        <v>8.5</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R17">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6046102</v>
+        <v>6046101</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,55 +2132,55 @@
         <v>44956.44097222222</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>1</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N19">
         <v>3.1</v>
       </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2189,19 +2189,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6046101</v>
+        <v>6046102</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,55 +2221,55 @@
         <v>44956.44097222222</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>43</v>
       </c>
       <c r="K20">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M20">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N20">
         <v>3.1</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2278,19 +2278,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2580,7 +2580,7 @@
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>44962.44097222222</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -3025,7 +3025,7 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3289,7 +3289,7 @@
         <v>44972.44791666666</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -3645,10 +3645,10 @@
         <v>44978.44791666666</v>
       </c>
       <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
         <v>37</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4624,7 +4624,7 @@
         <v>44988.5625</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4716,7 +4716,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6145974</v>
+        <v>6145975</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,55 +4980,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>43</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N51">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5037,19 +5037,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6145975</v>
+        <v>6145974</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,55 +5069,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L52">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M52">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N52">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5126,19 +5126,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>45002.57291666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6270174</v>
+        <v>6270173</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,73 +5514,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K57">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N57">
+        <v>1.7</v>
+      </c>
+      <c r="O57">
+        <v>3.8</v>
+      </c>
+      <c r="P57">
+        <v>3.8</v>
+      </c>
+      <c r="Q57">
+        <v>-0.75</v>
+      </c>
+      <c r="R57">
+        <v>1.95</v>
+      </c>
+      <c r="S57">
+        <v>1.85</v>
+      </c>
+      <c r="T57">
         <v>3.25</v>
       </c>
-      <c r="O57">
-        <v>3.75</v>
-      </c>
-      <c r="P57">
-        <v>1.833</v>
-      </c>
-      <c r="Q57">
-        <v>0.5</v>
-      </c>
-      <c r="R57">
-        <v>1.85</v>
-      </c>
-      <c r="S57">
-        <v>1.95</v>
-      </c>
-      <c r="T57">
-        <v>2.75</v>
-      </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6270173</v>
+        <v>6270174</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,73 +5603,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K58">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L58">
+        <v>3.6</v>
+      </c>
+      <c r="M58">
+        <v>2.1</v>
+      </c>
+      <c r="N58">
+        <v>3.25</v>
+      </c>
+      <c r="O58">
         <v>3.75</v>
       </c>
-      <c r="M58">
-        <v>3.75</v>
-      </c>
-      <c r="N58">
-        <v>1.7</v>
-      </c>
-      <c r="O58">
-        <v>3.8</v>
-      </c>
       <c r="P58">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
         <v>1.95</v>
       </c>
-      <c r="S58">
-        <v>1.85</v>
-      </c>
       <c r="T58">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
         <v>0.95</v>
       </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
       <c r="AB58">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6419629</v>
+        <v>6419373</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,73 +5781,73 @@
         <v>45017.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L60">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M60">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N60">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="O60">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P60">
-        <v>1.222</v>
+        <v>3.1</v>
       </c>
       <c r="Q60">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA60">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5858,7 +5858,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6419373</v>
+        <v>6419629</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5870,73 +5870,73 @@
         <v>45017.65625</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="L61">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
+        <v>1.727</v>
+      </c>
+      <c r="N61">
+        <v>9</v>
+      </c>
+      <c r="O61">
         <v>5.5</v>
       </c>
-      <c r="N61">
+      <c r="P61">
+        <v>1.222</v>
+      </c>
+      <c r="Q61">
+        <v>1.75</v>
+      </c>
+      <c r="R61">
+        <v>1.975</v>
+      </c>
+      <c r="S61">
+        <v>1.825</v>
+      </c>
+      <c r="T61">
+        <v>3.5</v>
+      </c>
+      <c r="U61">
+        <v>1.95</v>
+      </c>
+      <c r="V61">
         <v>1.85</v>
       </c>
-      <c r="O61">
-        <v>3.8</v>
-      </c>
-      <c r="P61">
-        <v>3.1</v>
-      </c>
-      <c r="Q61">
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
+        <v>0.222</v>
+      </c>
+      <c r="Z61">
         <v>-0.5</v>
       </c>
-      <c r="R61">
-        <v>1.9</v>
-      </c>
-      <c r="S61">
-        <v>1.9</v>
-      </c>
-      <c r="T61">
-        <v>3.25</v>
-      </c>
-      <c r="U61">
-        <v>1.875</v>
-      </c>
-      <c r="V61">
-        <v>1.925</v>
-      </c>
-      <c r="W61">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
-      <c r="Z61">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB61">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5947,7 +5947,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6419377</v>
+        <v>6419630</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5959,10 +5959,10 @@
         <v>45018.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5974,40 +5974,40 @@
         <v>43</v>
       </c>
       <c r="K62">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L62">
+        <v>3.5</v>
+      </c>
+      <c r="M62">
+        <v>2.55</v>
+      </c>
+      <c r="N62">
+        <v>2.1</v>
+      </c>
+      <c r="O62">
         <v>3.6</v>
       </c>
-      <c r="M62">
-        <v>2</v>
-      </c>
-      <c r="N62">
-        <v>3.5</v>
-      </c>
-      <c r="O62">
-        <v>3.5</v>
-      </c>
       <c r="P62">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="Q62">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6016,19 +6016,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.909</v>
+        <v>1.9</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6419630</v>
+        <v>6419377</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6048,10 +6048,10 @@
         <v>45018.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6063,40 +6063,40 @@
         <v>43</v>
       </c>
       <c r="K63">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L63">
+        <v>3.6</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
         <v>3.5</v>
       </c>
-      <c r="M63">
-        <v>2.55</v>
-      </c>
-      <c r="N63">
-        <v>2.1</v>
-      </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6105,19 +6105,19 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.9</v>
+        <v>0.909</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>45019.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
         <v>40</v>
@@ -6226,7 +6226,7 @@
         <v>45029.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
@@ -6671,7 +6671,7 @@
         <v>45031.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
@@ -6849,7 +6849,7 @@
         <v>45035.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -7030,7 +7030,7 @@
         <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7294,7 +7294,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
         <v>33</v>
@@ -7650,7 +7650,7 @@
         <v>45049.625</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>45050.625</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
         <v>38</v>
@@ -8098,7 +8098,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6542547</v>
+        <v>6569804</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M87">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O87">
         <v>4.2</v>
       </c>
       <c r="P87">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6542548</v>
+        <v>6542547</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,40 +8273,40 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>42</v>
       </c>
       <c r="K88">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L88">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="N88">
-        <v>1.166</v>
+        <v>1.65</v>
       </c>
       <c r="O88">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P88">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="Q88">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
         <v>1.8</v>
@@ -8315,7 +8315,7 @@
         <v>2</v>
       </c>
       <c r="T88">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U88">
         <v>1.8</v>
@@ -8324,7 +8324,7 @@
         <v>2</v>
       </c>
       <c r="W88">
-        <v>0.1659999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6561638</v>
+        <v>6542548</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,76 +8362,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="M89">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N89">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P89">
-        <v>2.45</v>
+        <v>12</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X89">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6569804</v>
+        <v>6561638</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K90">
+        <v>2.15</v>
+      </c>
+      <c r="L90">
+        <v>3.4</v>
+      </c>
+      <c r="M90">
         <v>2.8</v>
       </c>
-      <c r="L90">
-        <v>3.9</v>
-      </c>
-      <c r="M90">
-        <v>2</v>
-      </c>
       <c r="N90">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="O90">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y90">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8718,7 +8718,7 @@
         <v>45154.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
         <v>35</v>
@@ -8896,7 +8896,7 @@
         <v>45155.60416666666</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
         <v>30</v>
@@ -9344,7 +9344,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9519,7 +9519,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9878,7 +9878,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -9964,7 +9964,7 @@
         <v>45171.51041666666</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -10234,7 +10234,7 @@
         <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10676,7 +10676,7 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
         <v>33</v>
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,73 +10857,73 @@
         <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K117">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L117">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M117">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N117">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O117">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P117">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q117">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T117">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,73 +10946,73 @@
         <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K118">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M118">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N118">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P118">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R118">
+        <v>1.775</v>
+      </c>
+      <c r="S118">
+        <v>2.025</v>
+      </c>
+      <c r="T118">
+        <v>3.5</v>
+      </c>
+      <c r="U118">
+        <v>1.975</v>
+      </c>
+      <c r="V118">
         <v>1.825</v>
       </c>
-      <c r="S118">
-        <v>1.975</v>
-      </c>
-      <c r="T118">
-        <v>3</v>
-      </c>
-      <c r="U118">
-        <v>2</v>
-      </c>
-      <c r="V118">
-        <v>1.8</v>
-      </c>
       <c r="W118">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z118">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11299,7 +11299,7 @@
         <v>45219.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>35</v>
@@ -11922,7 +11922,7 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
         <v>31</v>
@@ -12014,7 +12014,7 @@
         <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,73 +12189,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L132">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N132">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O132">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q132">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U132">
+        <v>1.85</v>
+      </c>
+      <c r="V132">
         <v>1.95</v>
       </c>
-      <c r="V132">
-        <v>1.85</v>
-      </c>
       <c r="W132">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K133">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M133">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N133">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P133">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U133">
+        <v>1.95</v>
+      </c>
+      <c r="V133">
         <v>1.85</v>
       </c>
-      <c r="V133">
-        <v>1.95</v>
-      </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7004610</v>
+        <v>7003482</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,76 +12456,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
+        <v>3.5</v>
+      </c>
+      <c r="M135">
+        <v>2.8</v>
+      </c>
+      <c r="N135">
+        <v>1.909</v>
+      </c>
+      <c r="O135">
         <v>3.6</v>
       </c>
-      <c r="M135">
-        <v>3.8</v>
-      </c>
-      <c r="N135">
-        <v>1.8</v>
-      </c>
-      <c r="O135">
-        <v>3.4</v>
-      </c>
       <c r="P135">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
+        <v>1.825</v>
+      </c>
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
+        <v>1.775</v>
+      </c>
+      <c r="V135">
         <v>1.925</v>
       </c>
-      <c r="T135">
-        <v>2.75</v>
-      </c>
-      <c r="U135">
-        <v>1.8</v>
-      </c>
-      <c r="V135">
-        <v>2</v>
-      </c>
       <c r="W135">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7003482</v>
+        <v>7004610</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,76 +12545,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L136">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N136">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q136">
         <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>5</v>
@@ -12812,7 +12812,7 @@
         <v>45254.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
         <v>31</v>
@@ -12990,7 +12990,7 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
         <v>33</v>
@@ -13168,10 +13168,10 @@
         <v>45261.47916666666</v>
       </c>
       <c r="F143" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143" t="s">
         <v>37</v>
-      </c>
-      <c r="G143" t="s">
-        <v>36</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13705,7 +13705,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13794,7 +13794,7 @@
         <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -14417,7 +14417,7 @@
         <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7609336</v>
+        <v>7004626</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,40 +14503,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K158">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M158">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N158">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O158">
         <v>3.75</v>
       </c>
       <c r="P158">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q158">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
         <v>1.925</v>
@@ -14554,25 +14554,25 @@
         <v>1.975</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7004626</v>
+        <v>7609336</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,40 +14592,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H159">
         <v>2</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K159">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L159">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="N159">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O159">
         <v>3.75</v>
       </c>
       <c r="P159">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R159">
         <v>1.925</v>
@@ -14643,25 +14643,25 @@
         <v>1.975</v>
       </c>
       <c r="W159">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z159">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>35</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14773,7 +14773,7 @@
         <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>6</v>
@@ -15099,7 +15099,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7003488</v>
+        <v>7004634</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15111,46 +15111,46 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K165">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L165">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M165">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N165">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="O165">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P165">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R165">
+        <v>1.9</v>
+      </c>
+      <c r="S165">
+        <v>1.9</v>
+      </c>
+      <c r="T165">
+        <v>3</v>
+      </c>
+      <c r="U165">
+        <v>1.85</v>
+      </c>
+      <c r="V165">
         <v>1.95</v>
-      </c>
-      <c r="S165">
-        <v>1.85</v>
-      </c>
-      <c r="T165">
-        <v>3.75</v>
-      </c>
-      <c r="U165">
-        <v>1.9</v>
-      </c>
-      <c r="V165">
-        <v>1.9</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15173,7 +15173,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7004634</v>
+        <v>7003488</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15185,46 +15185,46 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K166">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L166">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M166">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N166">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P166">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R166">
+        <v>1.95</v>
+      </c>
+      <c r="S166">
+        <v>1.85</v>
+      </c>
+      <c r="T166">
+        <v>3.75</v>
+      </c>
+      <c r="U166">
         <v>1.9</v>
       </c>
-      <c r="S166">
+      <c r="V166">
         <v>1.9</v>
-      </c>
-      <c r="T166">
-        <v>3</v>
-      </c>
-      <c r="U166">
-        <v>1.85</v>
-      </c>
-      <c r="V166">
-        <v>1.95</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15410,7 +15410,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K169">
         <v>2.45</v>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -124,10 +124,10 @@
     <t>AlShamal SC</t>
   </si>
   <si>
-    <t>Al Markhiya</t>
+    <t>AlArabi Doha</t>
   </si>
   <si>
-    <t>AlArabi Doha</t>
+    <t>Al Markhiya</t>
   </si>
   <si>
     <t>Al Gharafa</t>
@@ -800,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5682632</v>
+        <v>5682631</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,76 +975,76 @@
         <v>44937.52083333334</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6">
-        <v>2.625</v>
-      </c>
       <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>1.4</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>1.25</v>
+      </c>
+      <c r="Q6">
+        <v>1.75</v>
+      </c>
+      <c r="R6">
+        <v>1.975</v>
+      </c>
+      <c r="S6">
+        <v>1.825</v>
+      </c>
+      <c r="T6">
         <v>3.5</v>
       </c>
-      <c r="M6">
-        <v>2.25</v>
-      </c>
-      <c r="N6">
-        <v>2.4</v>
-      </c>
-      <c r="O6">
-        <v>3.6</v>
-      </c>
-      <c r="P6">
-        <v>2.4</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>1.925</v>
-      </c>
-      <c r="S6">
-        <v>1.875</v>
-      </c>
-      <c r="T6">
-        <v>2.75</v>
-      </c>
       <c r="U6">
+        <v>1.825</v>
+      </c>
+      <c r="V6">
         <v>1.975</v>
       </c>
-      <c r="V6">
-        <v>1.825</v>
-      </c>
       <c r="W6">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC6">
-        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5682631</v>
+        <v>5682632</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,76 +1064,76 @@
         <v>44937.52083333334</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
+        <v>2.25</v>
+      </c>
+      <c r="N7">
+        <v>2.4</v>
+      </c>
+      <c r="O7">
+        <v>3.6</v>
+      </c>
+      <c r="P7">
+        <v>2.4</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1.925</v>
+      </c>
+      <c r="S7">
+        <v>1.875</v>
+      </c>
+      <c r="T7">
+        <v>2.75</v>
+      </c>
+      <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
+        <v>1.825</v>
+      </c>
+      <c r="W7">
         <v>1.4</v>
       </c>
-      <c r="N7">
-        <v>7</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-      <c r="P7">
-        <v>1.25</v>
-      </c>
-      <c r="Q7">
-        <v>1.75</v>
-      </c>
-      <c r="R7">
-        <v>1.975</v>
-      </c>
-      <c r="S7">
-        <v>1.825</v>
-      </c>
-      <c r="T7">
-        <v>3.5</v>
-      </c>
-      <c r="U7">
-        <v>1.825</v>
-      </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
-      <c r="W7">
-        <v>-1</v>
-      </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
+        <v>0.925</v>
+      </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AC7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6046094</v>
+        <v>6046095</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1423,37 +1423,37 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
         <v>1.925</v>
@@ -1462,7 +1462,7 @@
         <v>1.875</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U11">
         <v>1.825</v>
@@ -1474,22 +1474,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6046095</v>
+        <v>6046094</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1512,37 +1512,37 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N12">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P12">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1551,7 +1551,7 @@
         <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U12">
         <v>1.825</v>
@@ -1563,22 +1563,22 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y12">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1586,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6046096</v>
+        <v>6046097</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1598,58 +1598,58 @@
         <v>44950.4375</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>42</v>
       </c>
       <c r="K13">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M13">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O13">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P13">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
+        <v>1.875</v>
+      </c>
+      <c r="T13">
+        <v>2.75</v>
+      </c>
+      <c r="U13">
+        <v>1.825</v>
+      </c>
+      <c r="V13">
         <v>1.975</v>
       </c>
-      <c r="T13">
-        <v>2.25</v>
-      </c>
-      <c r="U13">
-        <v>1.85</v>
-      </c>
-      <c r="V13">
-        <v>1.95</v>
-      </c>
       <c r="W13">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1658,13 +1658,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7250000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6046097</v>
+        <v>6046096</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,58 +1687,58 @@
         <v>44950.4375</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>42</v>
       </c>
       <c r="K14">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L14">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N14">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P14">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1747,13 +1747,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.925</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6046099</v>
+        <v>6046098</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,76 +1865,76 @@
         <v>44955.44097222222</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N16">
-        <v>4</v>
+        <v>1.222</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P16">
-        <v>1.65</v>
+        <v>8.5</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R16">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6046098</v>
+        <v>6046099</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,76 +1954,76 @@
         <v>44955.44097222222</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>1.222</v>
+        <v>4</v>
       </c>
       <c r="O17">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>8.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q17">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="T17">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W17">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC17">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6046101</v>
+        <v>6046102</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,55 +2132,55 @@
         <v>44956.44097222222</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M19">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N19">
         <v>3.1</v>
       </c>
       <c r="O19">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2189,19 +2189,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6046102</v>
+        <v>6046101</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,55 +2221,55 @@
         <v>44956.44097222222</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>1</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>43</v>
       </c>
       <c r="K20">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N20">
         <v>3.1</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2278,19 +2278,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2580,7 +2580,7 @@
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>44962.44097222222</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6046111</v>
+        <v>6046110</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,76 +2933,76 @@
         <v>44970.44791666666</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L28">
+        <v>4.5</v>
+      </c>
+      <c r="M28">
+        <v>9</v>
+      </c>
+      <c r="N28">
+        <v>1.25</v>
+      </c>
+      <c r="O28">
+        <v>5.25</v>
+      </c>
+      <c r="P28">
+        <v>8</v>
+      </c>
+      <c r="Q28">
+        <v>-1.75</v>
+      </c>
+      <c r="R28">
+        <v>1.9</v>
+      </c>
+      <c r="S28">
+        <v>1.9</v>
+      </c>
+      <c r="T28">
         <v>3.5</v>
       </c>
-      <c r="M28">
-        <v>3.1</v>
-      </c>
-      <c r="N28">
-        <v>2.8</v>
-      </c>
-      <c r="O28">
-        <v>3.4</v>
-      </c>
-      <c r="P28">
-        <v>2.1</v>
-      </c>
-      <c r="Q28">
+      <c r="U28">
+        <v>1.85</v>
+      </c>
+      <c r="V28">
+        <v>1.95</v>
+      </c>
+      <c r="W28">
         <v>0.25</v>
       </c>
-      <c r="R28">
-        <v>1.825</v>
-      </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.825</v>
-      </c>
-      <c r="V28">
-        <v>1.975</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
       <c r="X28">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.4125</v>
+        <v>0.45</v>
       </c>
       <c r="AA28">
         <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6046110</v>
+        <v>6046111</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,76 +3022,76 @@
         <v>44970.44791666666</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="O29">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q29">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.45</v>
+        <v>0.4125</v>
       </c>
       <c r="AA29">
         <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>44972.44791666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -3645,10 +3645,10 @@
         <v>44978.44791666666</v>
       </c>
       <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
         <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4624,7 +4624,7 @@
         <v>44988.5625</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4716,7 +4716,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5161,7 +5161,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>45002.57291666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6270173</v>
+        <v>6270174</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,73 +5514,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K57">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L57">
+        <v>3.6</v>
+      </c>
+      <c r="M57">
+        <v>2.1</v>
+      </c>
+      <c r="N57">
+        <v>3.25</v>
+      </c>
+      <c r="O57">
         <v>3.75</v>
       </c>
-      <c r="M57">
-        <v>3.75</v>
-      </c>
-      <c r="N57">
-        <v>1.7</v>
-      </c>
-      <c r="O57">
-        <v>3.8</v>
-      </c>
       <c r="P57">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R57">
+        <v>1.85</v>
+      </c>
+      <c r="S57">
         <v>1.95</v>
       </c>
-      <c r="S57">
-        <v>1.85</v>
-      </c>
       <c r="T57">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z57">
+        <v>-1</v>
+      </c>
+      <c r="AA57">
         <v>0.95</v>
       </c>
-      <c r="AA57">
-        <v>-1</v>
-      </c>
       <c r="AB57">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6270174</v>
+        <v>6270173</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,73 +5603,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K58">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M58">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N58">
+        <v>1.7</v>
+      </c>
+      <c r="O58">
+        <v>3.8</v>
+      </c>
+      <c r="P58">
+        <v>3.8</v>
+      </c>
+      <c r="Q58">
+        <v>-0.75</v>
+      </c>
+      <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>1.85</v>
+      </c>
+      <c r="T58">
         <v>3.25</v>
       </c>
-      <c r="O58">
-        <v>3.75</v>
-      </c>
-      <c r="P58">
-        <v>1.833</v>
-      </c>
-      <c r="Q58">
-        <v>0.5</v>
-      </c>
-      <c r="R58">
-        <v>1.85</v>
-      </c>
-      <c r="S58">
-        <v>1.95</v>
-      </c>
-      <c r="T58">
-        <v>2.75</v>
-      </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -6048,7 +6048,7 @@
         <v>45018.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6137,7 +6137,7 @@
         <v>45019.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>40</v>
@@ -6226,7 +6226,7 @@
         <v>45029.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
@@ -6671,7 +6671,7 @@
         <v>45031.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
@@ -6849,7 +6849,7 @@
         <v>45035.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -7030,7 +7030,7 @@
         <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7294,7 +7294,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
         <v>33</v>
@@ -7650,7 +7650,7 @@
         <v>45049.625</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
         <v>34</v>
@@ -8006,7 +8006,7 @@
         <v>45050.625</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>38</v>
@@ -8098,7 +8098,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6569804</v>
+        <v>6542547</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L87">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N87">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O87">
         <v>4.2</v>
       </c>
       <c r="P87">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6542547</v>
+        <v>6542548</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,40 +8273,40 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>42</v>
       </c>
       <c r="K88">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="M88">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="N88">
-        <v>1.65</v>
+        <v>1.166</v>
       </c>
       <c r="O88">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P88">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R88">
         <v>1.8</v>
@@ -8315,7 +8315,7 @@
         <v>2</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U88">
         <v>1.8</v>
@@ -8324,7 +8324,7 @@
         <v>2</v>
       </c>
       <c r="W88">
-        <v>0.6499999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6542548</v>
+        <v>6569804</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,76 +8362,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="L89">
-        <v>5.75</v>
+        <v>3.9</v>
       </c>
       <c r="M89">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N89">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="O89">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P89">
-        <v>12</v>
+        <v>1.909</v>
       </c>
       <c r="Q89">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8718,7 +8718,7 @@
         <v>45154.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>35</v>
@@ -8896,7 +8896,7 @@
         <v>45155.60416666666</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
         <v>30</v>
@@ -9344,7 +9344,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9519,7 +9519,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9878,7 +9878,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -9964,7 +9964,7 @@
         <v>45171.51041666666</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -10234,7 +10234,7 @@
         <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10676,7 +10676,7 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
         <v>33</v>
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,73 +10857,73 @@
         <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K117">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M117">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N117">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O117">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P117">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R117">
+        <v>1.775</v>
+      </c>
+      <c r="S117">
+        <v>2.025</v>
+      </c>
+      <c r="T117">
+        <v>3.5</v>
+      </c>
+      <c r="U117">
+        <v>1.975</v>
+      </c>
+      <c r="V117">
         <v>1.825</v>
       </c>
-      <c r="S117">
-        <v>1.975</v>
-      </c>
-      <c r="T117">
-        <v>3</v>
-      </c>
-      <c r="U117">
-        <v>2</v>
-      </c>
-      <c r="V117">
-        <v>1.8</v>
-      </c>
       <c r="W117">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z117">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,73 +10946,73 @@
         <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K118">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M118">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N118">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O118">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q118">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11299,7 +11299,7 @@
         <v>45219.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
         <v>35</v>
@@ -11922,7 +11922,7 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
         <v>31</v>
@@ -12014,7 +12014,7 @@
         <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12281,7 +12281,7 @@
         <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>5</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7003482</v>
+        <v>7004610</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,76 +12456,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N135">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P135">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7004610</v>
+        <v>7003482</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,76 +12545,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K136">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
+        <v>3.5</v>
+      </c>
+      <c r="M136">
+        <v>2.8</v>
+      </c>
+      <c r="N136">
+        <v>1.909</v>
+      </c>
+      <c r="O136">
         <v>3.6</v>
       </c>
-      <c r="M136">
-        <v>3.8</v>
-      </c>
-      <c r="N136">
-        <v>1.8</v>
-      </c>
-      <c r="O136">
-        <v>3.4</v>
-      </c>
       <c r="P136">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q136">
         <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
+        <v>1.825</v>
+      </c>
+      <c r="T136">
+        <v>3.25</v>
+      </c>
+      <c r="U136">
+        <v>1.775</v>
+      </c>
+      <c r="V136">
         <v>1.925</v>
       </c>
-      <c r="T136">
-        <v>2.75</v>
-      </c>
-      <c r="U136">
-        <v>1.8</v>
-      </c>
-      <c r="V136">
-        <v>2</v>
-      </c>
       <c r="W136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>5</v>
@@ -12812,7 +12812,7 @@
         <v>45254.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
         <v>31</v>
@@ -12990,7 +12990,7 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
         <v>33</v>
@@ -13168,10 +13168,10 @@
         <v>45261.47916666666</v>
       </c>
       <c r="F143" t="s">
+        <v>37</v>
+      </c>
+      <c r="G143" t="s">
         <v>36</v>
-      </c>
-      <c r="G143" t="s">
-        <v>37</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13705,7 +13705,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13794,7 +13794,7 @@
         <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7004622</v>
+        <v>7004621</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,10 +13969,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13993,38 +13993,38 @@
         <v>5</v>
       </c>
       <c r="N152">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O152">
+        <v>5</v>
+      </c>
+      <c r="P152">
+        <v>6</v>
+      </c>
+      <c r="Q152">
+        <v>-1.5</v>
+      </c>
+      <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
+        <v>1.825</v>
+      </c>
+      <c r="T152">
+        <v>3.75</v>
+      </c>
+      <c r="U152">
+        <v>1.975</v>
+      </c>
+      <c r="V152">
+        <v>1.825</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
         <v>4</v>
       </c>
-      <c r="P152">
-        <v>3.6</v>
-      </c>
-      <c r="Q152">
-        <v>-0.5</v>
-      </c>
-      <c r="R152">
-        <v>1.8</v>
-      </c>
-      <c r="S152">
-        <v>2</v>
-      </c>
-      <c r="T152">
-        <v>3</v>
-      </c>
-      <c r="U152">
-        <v>1.8</v>
-      </c>
-      <c r="V152">
-        <v>2</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>3</v>
-      </c>
       <c r="Y152">
         <v>-1</v>
       </c>
@@ -14032,13 +14032,13 @@
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7004621</v>
+        <v>7004622</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,10 +14058,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14082,37 +14082,37 @@
         <v>5</v>
       </c>
       <c r="N153">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O153">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y153">
         <v>-1</v>
@@ -14121,13 +14121,13 @@
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7004626</v>
+        <v>7609336</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,40 +14503,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K158">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L158">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="N158">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O158">
         <v>3.75</v>
       </c>
       <c r="P158">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R158">
         <v>1.925</v>
@@ -14554,25 +14554,25 @@
         <v>1.975</v>
       </c>
       <c r="W158">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z158">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7609336</v>
+        <v>7004626</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,40 +14592,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>2</v>
       </c>
       <c r="I159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K159">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M159">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N159">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O159">
         <v>3.75</v>
       </c>
       <c r="P159">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q159">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
         <v>1.925</v>
@@ -14643,25 +14643,25 @@
         <v>1.975</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>35</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14773,7 +14773,7 @@
         <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H161">
         <v>6</v>
@@ -15111,7 +15111,7 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
         <v>41</v>
@@ -15126,31 +15126,31 @@
         <v>2.375</v>
       </c>
       <c r="N165">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O165">
         <v>3.5</v>
       </c>
       <c r="P165">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q165">
         <v>0</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15212,10 +15212,10 @@
         <v>-1</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
         <v>3.75</v>
@@ -15286,19 +15286,19 @@
         <v>0.75</v>
       </c>
       <c r="R167">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
         <v>3.25</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -15360,10 +15360,10 @@
         <v>-1.5</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T168">
         <v>3.25</v>
@@ -15410,7 +15410,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K169">
         <v>2.45</v>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5682631</v>
+        <v>5682632</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,76 +975,76 @@
         <v>44937.52083333334</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
+        <v>2.25</v>
+      </c>
+      <c r="N6">
+        <v>2.4</v>
+      </c>
+      <c r="O6">
+        <v>3.6</v>
+      </c>
+      <c r="P6">
+        <v>2.4</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1.925</v>
+      </c>
+      <c r="S6">
+        <v>1.875</v>
+      </c>
+      <c r="T6">
+        <v>2.75</v>
+      </c>
+      <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
+        <v>1.825</v>
+      </c>
+      <c r="W6">
         <v>1.4</v>
       </c>
-      <c r="N6">
-        <v>7</v>
-      </c>
-      <c r="O6">
-        <v>6</v>
-      </c>
-      <c r="P6">
-        <v>1.25</v>
-      </c>
-      <c r="Q6">
-        <v>1.75</v>
-      </c>
-      <c r="R6">
-        <v>1.975</v>
-      </c>
-      <c r="S6">
-        <v>1.825</v>
-      </c>
-      <c r="T6">
-        <v>3.5</v>
-      </c>
-      <c r="U6">
-        <v>1.825</v>
-      </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.925</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>-1</v>
-      </c>
       <c r="AC6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5682632</v>
+        <v>5682631</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,76 +1064,76 @@
         <v>44937.52083333334</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7">
-        <v>2.625</v>
-      </c>
       <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>1.4</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>1.25</v>
+      </c>
+      <c r="Q7">
+        <v>1.75</v>
+      </c>
+      <c r="R7">
+        <v>1.975</v>
+      </c>
+      <c r="S7">
+        <v>1.825</v>
+      </c>
+      <c r="T7">
         <v>3.5</v>
       </c>
-      <c r="M7">
-        <v>2.25</v>
-      </c>
-      <c r="N7">
-        <v>2.4</v>
-      </c>
-      <c r="O7">
-        <v>3.6</v>
-      </c>
-      <c r="P7">
-        <v>2.4</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1.925</v>
-      </c>
-      <c r="S7">
-        <v>1.875</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
       <c r="U7">
+        <v>1.825</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC7">
-        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6046105</v>
+        <v>6046104</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,76 +2399,76 @@
         <v>44961.44097222222</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N22">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P22">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T22">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6046104</v>
+        <v>6046105</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,76 +2488,76 @@
         <v>44961.44097222222</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="L23">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M23">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O23">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q23">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6046107</v>
+        <v>6046106</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M24">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N24">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P24">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R24">
+        <v>1.9</v>
+      </c>
+      <c r="S24">
+        <v>1.9</v>
+      </c>
+      <c r="T24">
+        <v>3.75</v>
+      </c>
+      <c r="U24">
+        <v>1.975</v>
+      </c>
+      <c r="V24">
         <v>1.825</v>
       </c>
-      <c r="S24">
-        <v>1.975</v>
-      </c>
-      <c r="T24">
-        <v>2.75</v>
-      </c>
-      <c r="U24">
-        <v>1.8</v>
-      </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB24">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6046106</v>
+        <v>6046107</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,76 +2666,76 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>1.333</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N25">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O25">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P25">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="Q25">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB25">
+        <v>0.4</v>
+      </c>
+      <c r="AC25">
         <v>-0.5</v>
-      </c>
-      <c r="AA25">
-        <v>0.45</v>
-      </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
-      <c r="AC25">
-        <v>0.825</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6046110</v>
+        <v>6046111</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,76 +2933,76 @@
         <v>44970.44791666666</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="O28">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q28">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.45</v>
+        <v>0.4125</v>
       </c>
       <c r="AA28">
         <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6046111</v>
+        <v>6046110</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,76 +3022,76 @@
         <v>44970.44791666666</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L29">
+        <v>4.5</v>
+      </c>
+      <c r="M29">
+        <v>9</v>
+      </c>
+      <c r="N29">
+        <v>1.25</v>
+      </c>
+      <c r="O29">
+        <v>5.25</v>
+      </c>
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>-1.75</v>
+      </c>
+      <c r="R29">
+        <v>1.9</v>
+      </c>
+      <c r="S29">
+        <v>1.9</v>
+      </c>
+      <c r="T29">
         <v>3.5</v>
       </c>
-      <c r="M29">
-        <v>3.1</v>
-      </c>
-      <c r="N29">
-        <v>2.8</v>
-      </c>
-      <c r="O29">
-        <v>3.4</v>
-      </c>
-      <c r="P29">
-        <v>2.1</v>
-      </c>
-      <c r="Q29">
+      <c r="U29">
+        <v>1.85</v>
+      </c>
+      <c r="V29">
+        <v>1.95</v>
+      </c>
+      <c r="W29">
         <v>0.25</v>
       </c>
-      <c r="R29">
-        <v>1.825</v>
-      </c>
-      <c r="S29">
-        <v>1.975</v>
-      </c>
-      <c r="T29">
-        <v>2.5</v>
-      </c>
-      <c r="U29">
-        <v>1.825</v>
-      </c>
-      <c r="V29">
-        <v>1.975</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
       <c r="X29">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.4125</v>
+        <v>0.45</v>
       </c>
       <c r="AA29">
         <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3900,7 +3900,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6087480</v>
+        <v>6087445</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3912,76 +3912,76 @@
         <v>44982.44791666666</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="O39">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q39">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z39">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6087445</v>
+        <v>6087480</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,76 +4001,76 @@
         <v>44982.44791666666</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N40">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="O40">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P40">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="Q40">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4167,7 +4167,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6046120</v>
+        <v>6046121</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4179,76 +4179,76 @@
         <v>44987.45486111111</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K42">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L42">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
         <v>3.2</v>
-      </c>
-      <c r="N42">
-        <v>1.571</v>
       </c>
       <c r="O42">
         <v>3.4</v>
       </c>
       <c r="P42">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
         <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V42">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X42">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA42">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4256,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6046121</v>
+        <v>6046120</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,76 +4268,76 @@
         <v>44987.45486111111</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K43">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N43">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O43">
         <v>3.4</v>
       </c>
       <c r="P43">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q43">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R43">
         <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6046125</v>
+        <v>6046124</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,76 +4535,76 @@
         <v>44988.5625</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>4</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>1.181</v>
+        <v>2.875</v>
       </c>
       <c r="O46">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="Q46">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z46">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB46">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4612,7 +4612,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6046124</v>
+        <v>6046125</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4624,76 +4624,76 @@
         <v>44988.5625</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>4</v>
-      </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N47">
-        <v>2.875</v>
+        <v>1.181</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R47">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6145975</v>
+        <v>6145974</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,55 +4980,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>43</v>
       </c>
       <c r="K51">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N51">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5037,19 +5037,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6145974</v>
+        <v>6145975</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,55 +5069,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L52">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M52">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N52">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P52">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5126,19 +5126,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6270174</v>
+        <v>6270173</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,73 +5514,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K57">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N57">
+        <v>1.7</v>
+      </c>
+      <c r="O57">
+        <v>3.8</v>
+      </c>
+      <c r="P57">
+        <v>3.8</v>
+      </c>
+      <c r="Q57">
+        <v>-0.75</v>
+      </c>
+      <c r="R57">
+        <v>1.95</v>
+      </c>
+      <c r="S57">
+        <v>1.85</v>
+      </c>
+      <c r="T57">
         <v>3.25</v>
       </c>
-      <c r="O57">
-        <v>3.75</v>
-      </c>
-      <c r="P57">
-        <v>1.833</v>
-      </c>
-      <c r="Q57">
-        <v>0.5</v>
-      </c>
-      <c r="R57">
-        <v>1.85</v>
-      </c>
-      <c r="S57">
-        <v>1.95</v>
-      </c>
-      <c r="T57">
-        <v>2.75</v>
-      </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6270173</v>
+        <v>6270174</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,73 +5603,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K58">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L58">
+        <v>3.6</v>
+      </c>
+      <c r="M58">
+        <v>2.1</v>
+      </c>
+      <c r="N58">
+        <v>3.25</v>
+      </c>
+      <c r="O58">
         <v>3.75</v>
       </c>
-      <c r="M58">
-        <v>3.75</v>
-      </c>
-      <c r="N58">
-        <v>1.7</v>
-      </c>
-      <c r="O58">
-        <v>3.8</v>
-      </c>
       <c r="P58">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
         <v>1.95</v>
       </c>
-      <c r="S58">
-        <v>1.85</v>
-      </c>
       <c r="T58">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
         <v>0.95</v>
       </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
       <c r="AB58">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6419376</v>
+        <v>6419393</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,76 +6582,76 @@
         <v>45031.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L69">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
+        <v>2.5</v>
+      </c>
+      <c r="N69">
+        <v>2.375</v>
+      </c>
+      <c r="O69">
+        <v>3.6</v>
+      </c>
+      <c r="P69">
+        <v>2.45</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>1.825</v>
+      </c>
+      <c r="S69">
+        <v>1.975</v>
+      </c>
+      <c r="T69">
+        <v>2.75</v>
+      </c>
+      <c r="U69">
+        <v>1.85</v>
+      </c>
+      <c r="V69">
+        <v>1.95</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
         <v>1.45</v>
       </c>
-      <c r="N69">
-        <v>4.75</v>
-      </c>
-      <c r="O69">
-        <v>4.5</v>
-      </c>
-      <c r="P69">
-        <v>1.5</v>
-      </c>
-      <c r="Q69">
-        <v>1</v>
-      </c>
-      <c r="R69">
-        <v>1.975</v>
-      </c>
-      <c r="S69">
-        <v>1.825</v>
-      </c>
-      <c r="T69">
-        <v>3.25</v>
-      </c>
-      <c r="U69">
-        <v>1.9</v>
-      </c>
-      <c r="V69">
-        <v>1.9</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>0.5</v>
-      </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6419393</v>
+        <v>6419376</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,55 +6671,55 @@
         <v>45031.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>43</v>
       </c>
       <c r="K70">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M70">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="N70">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P70">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70">
+        <v>1.975</v>
+      </c>
+      <c r="S70">
         <v>1.825</v>
       </c>
-      <c r="S70">
-        <v>1.975</v>
-      </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6728,19 +6728,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7015,7 +7015,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6541222</v>
+        <v>6541221</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,76 +7027,76 @@
         <v>45044.52083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M74">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="N74">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O74">
+        <v>4.75</v>
+      </c>
+      <c r="P74">
+        <v>4</v>
+      </c>
+      <c r="Q74">
+        <v>-0.75</v>
+      </c>
+      <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
+        <v>1.95</v>
+      </c>
+      <c r="T74">
         <v>3.5</v>
       </c>
-      <c r="P74">
-        <v>2.25</v>
-      </c>
-      <c r="Q74">
-        <v>0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.8</v>
-      </c>
-      <c r="S74">
-        <v>2</v>
-      </c>
-      <c r="T74">
-        <v>2.75</v>
-      </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6541221</v>
+        <v>6541222</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,76 +7116,76 @@
         <v>45044.52083333334</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="L75">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6541313</v>
+        <v>6541312</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,10 +7294,10 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,40 +7309,40 @@
         <v>43</v>
       </c>
       <c r="K77">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="L77">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M77">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="N77">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P77">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R77">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
         <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7351,19 +7351,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA77">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6541312</v>
+        <v>6541313</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,10 +7383,10 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7398,40 +7398,40 @@
         <v>43</v>
       </c>
       <c r="K78">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="L78">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M78">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="N78">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q78">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
         <v>3.25</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7440,19 +7440,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
         <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6546394</v>
+        <v>6546393</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,76 +7650,76 @@
         <v>45049.625</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>44</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>3.6</v>
+      </c>
+      <c r="M81">
         <v>3</v>
       </c>
-      <c r="J81" t="s">
-        <v>43</v>
-      </c>
-      <c r="K81">
-        <v>2.3</v>
-      </c>
-      <c r="L81">
+      <c r="N81">
+        <v>2.15</v>
+      </c>
+      <c r="O81">
         <v>3.5</v>
       </c>
-      <c r="M81">
-        <v>2.625</v>
-      </c>
-      <c r="N81">
-        <v>3.75</v>
-      </c>
-      <c r="O81">
-        <v>3.8</v>
-      </c>
       <c r="P81">
+        <v>2.75</v>
+      </c>
+      <c r="Q81">
+        <v>-0.25</v>
+      </c>
+      <c r="R81">
+        <v>1.925</v>
+      </c>
+      <c r="S81">
+        <v>1.875</v>
+      </c>
+      <c r="T81">
+        <v>2.5</v>
+      </c>
+      <c r="U81">
         <v>1.8</v>
       </c>
-      <c r="Q81">
-        <v>0.75</v>
-      </c>
-      <c r="R81">
-        <v>1.75</v>
-      </c>
-      <c r="S81">
-        <v>1.95</v>
-      </c>
-      <c r="T81">
-        <v>3</v>
-      </c>
-      <c r="U81">
-        <v>1.925</v>
-      </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6546393</v>
+        <v>6546394</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,76 +7739,76 @@
         <v>45049.625</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
+        <v>2.625</v>
+      </c>
+      <c r="N82">
+        <v>3.75</v>
+      </c>
+      <c r="O82">
+        <v>3.8</v>
+      </c>
+      <c r="P82">
+        <v>1.8</v>
+      </c>
+      <c r="Q82">
+        <v>0.75</v>
+      </c>
+      <c r="R82">
+        <v>1.75</v>
+      </c>
+      <c r="S82">
+        <v>1.95</v>
+      </c>
+      <c r="T82">
         <v>3</v>
       </c>
-      <c r="N82">
-        <v>2.15</v>
-      </c>
-      <c r="O82">
-        <v>3.5</v>
-      </c>
-      <c r="P82">
-        <v>2.75</v>
-      </c>
-      <c r="Q82">
-        <v>-0.25</v>
-      </c>
-      <c r="R82">
+      <c r="U82">
         <v>1.925</v>
       </c>
-      <c r="S82">
+      <c r="V82">
         <v>1.875</v>
       </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.8</v>
-      </c>
-      <c r="V82">
-        <v>2</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC82">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6542546</v>
+        <v>6569803</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,76 +7917,76 @@
         <v>45050.625</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P84">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6569803</v>
+        <v>6542546</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,76 +8006,76 @@
         <v>45050.625</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
         <v>3</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
         <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W85">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6542547</v>
+        <v>6561638</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
+        <v>2.8</v>
+      </c>
+      <c r="N87">
+        <v>2.45</v>
+      </c>
+      <c r="O87">
         <v>3.4</v>
       </c>
-      <c r="N87">
-        <v>1.65</v>
-      </c>
-      <c r="O87">
-        <v>4.2</v>
-      </c>
       <c r="P87">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6542548</v>
+        <v>6569804</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="L88">
-        <v>5.75</v>
+        <v>3.9</v>
       </c>
       <c r="M88">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>1.166</v>
+        <v>2.8</v>
       </c>
       <c r="O88">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P88">
-        <v>12</v>
+        <v>1.909</v>
       </c>
       <c r="Q88">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T88">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6569804</v>
+        <v>6542548</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,76 +8362,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="L89">
-        <v>3.9</v>
+        <v>5.75</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N89">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="O89">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P89">
-        <v>1.909</v>
+        <v>12</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6561638</v>
+        <v>6542547</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L90">
+        <v>3.75</v>
+      </c>
+      <c r="M90">
         <v>3.4</v>
       </c>
-      <c r="M90">
-        <v>2.8</v>
-      </c>
       <c r="N90">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P90">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X90">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7004588</v>
+        <v>7004589</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,73 +9786,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N105">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O105">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X105">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7004589</v>
+        <v>7004588</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,73 +9875,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K106">
+        <v>2.9</v>
+      </c>
+      <c r="L106">
+        <v>3.3</v>
+      </c>
+      <c r="M106">
+        <v>2.25</v>
+      </c>
+      <c r="N106">
+        <v>3.75</v>
+      </c>
+      <c r="O106">
+        <v>3.4</v>
+      </c>
+      <c r="P106">
+        <v>1.909</v>
+      </c>
+      <c r="Q106">
+        <v>0.5</v>
+      </c>
+      <c r="R106">
+        <v>1.85</v>
+      </c>
+      <c r="S106">
+        <v>1.95</v>
+      </c>
+      <c r="T106">
+        <v>2.5</v>
+      </c>
+      <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
+        <v>1.95</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
         <v>2.4</v>
       </c>
-      <c r="L106">
-        <v>3.6</v>
-      </c>
-      <c r="M106">
-        <v>2.375</v>
-      </c>
-      <c r="N106">
-        <v>2.5</v>
-      </c>
-      <c r="O106">
-        <v>3.5</v>
-      </c>
-      <c r="P106">
-        <v>2.3</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="R106">
-        <v>1.975</v>
-      </c>
-      <c r="S106">
-        <v>1.825</v>
-      </c>
-      <c r="T106">
-        <v>3</v>
-      </c>
-      <c r="U106">
-        <v>2</v>
-      </c>
-      <c r="V106">
-        <v>1.8</v>
-      </c>
-      <c r="W106">
-        <v>1.5</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7003585</v>
+        <v>7004591</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,76 +10053,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M108">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N108">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O108">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q108">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10130,7 +10130,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7004591</v>
+        <v>7003585</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10142,76 +10142,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>44</v>
+      </c>
+      <c r="K109">
+        <v>1.615</v>
+      </c>
+      <c r="L109">
         <v>4</v>
       </c>
-      <c r="J109" t="s">
-        <v>43</v>
-      </c>
-      <c r="K109">
-        <v>4.5</v>
-      </c>
-      <c r="L109">
+      <c r="M109">
+        <v>4.333</v>
+      </c>
+      <c r="N109">
+        <v>1.533</v>
+      </c>
+      <c r="O109">
         <v>4.2</v>
       </c>
-      <c r="M109">
-        <v>1.55</v>
-      </c>
-      <c r="N109">
-        <v>3.3</v>
-      </c>
-      <c r="O109">
-        <v>3.8</v>
-      </c>
       <c r="P109">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7004592</v>
+        <v>7004593</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K114">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N114">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P114">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>1.85</v>
+      </c>
+      <c r="S114">
+        <v>1.95</v>
+      </c>
+      <c r="T114">
+        <v>3</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>0.571</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
+        <v>0.95</v>
+      </c>
+      <c r="AB114">
         <v>0</v>
       </c>
-      <c r="R114">
-        <v>1.925</v>
-      </c>
-      <c r="S114">
-        <v>1.875</v>
-      </c>
-      <c r="T114">
-        <v>2.75</v>
-      </c>
-      <c r="U114">
-        <v>1.75</v>
-      </c>
-      <c r="V114">
-        <v>1.95</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>2.6</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>0</v>
-      </c>
-      <c r="AA114">
+      <c r="AC114">
         <v>-0</v>
-      </c>
-      <c r="AB114">
-        <v>0.75</v>
-      </c>
-      <c r="AC114">
-        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7004593</v>
+        <v>7004592</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115" t="s">
+        <v>44</v>
+      </c>
+      <c r="K115">
+        <v>2.4</v>
+      </c>
+      <c r="L115">
+        <v>3.6</v>
+      </c>
+      <c r="M115">
+        <v>2.4</v>
+      </c>
+      <c r="N115">
+        <v>2.4</v>
+      </c>
+      <c r="O115">
+        <v>3.6</v>
+      </c>
+      <c r="P115">
+        <v>2.45</v>
+      </c>
+      <c r="Q115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>3</v>
-      </c>
-      <c r="J115" t="s">
-        <v>43</v>
-      </c>
-      <c r="K115">
-        <v>4</v>
-      </c>
-      <c r="L115">
-        <v>4</v>
-      </c>
-      <c r="M115">
-        <v>1.727</v>
-      </c>
-      <c r="N115">
-        <v>4.75</v>
-      </c>
-      <c r="O115">
-        <v>4.333</v>
-      </c>
-      <c r="P115">
-        <v>1.571</v>
-      </c>
-      <c r="Q115">
-        <v>1</v>
-      </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
+        <v>1.875</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>1.75</v>
+      </c>
+      <c r="V115">
         <v>1.95</v>
       </c>
-      <c r="T115">
-        <v>3</v>
-      </c>
-      <c r="U115">
-        <v>1.825</v>
-      </c>
-      <c r="V115">
-        <v>1.975</v>
-      </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y115">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,76 +10854,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K117">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L117">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M117">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N117">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O117">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P117">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q117">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T117">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,76 +10943,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K118">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M118">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N118">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P118">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R118">
+        <v>1.775</v>
+      </c>
+      <c r="S118">
+        <v>2.025</v>
+      </c>
+      <c r="T118">
+        <v>3.5</v>
+      </c>
+      <c r="U118">
+        <v>1.975</v>
+      </c>
+      <c r="V118">
         <v>1.825</v>
       </c>
-      <c r="S118">
-        <v>1.975</v>
-      </c>
-      <c r="T118">
-        <v>3</v>
-      </c>
-      <c r="U118">
-        <v>2</v>
-      </c>
-      <c r="V118">
-        <v>1.8</v>
-      </c>
       <c r="W118">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z118">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7004599</v>
+        <v>7004598</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,73 +11032,73 @@
         <v>45198.5</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K119">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L119">
         <v>3.5</v>
       </c>
       <c r="M119">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O119">
         <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T119">
         <v>2.75</v>
       </c>
       <c r="U119">
+        <v>1.85</v>
+      </c>
+      <c r="V119">
+        <v>1.95</v>
+      </c>
+      <c r="W119">
         <v>1.8</v>
       </c>
-      <c r="V119">
-        <v>2</v>
-      </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7004598</v>
+        <v>7004599</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,73 +11121,73 @@
         <v>45198.5</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>3</v>
       </c>
-      <c r="I120">
-        <v>2</v>
-      </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L120">
         <v>3.5</v>
       </c>
       <c r="M120">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N120">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O120">
         <v>3.4</v>
       </c>
       <c r="P120">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
         <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W120">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z120">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11732,7 +11732,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7003589</v>
+        <v>7004606</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11744,13 +11744,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -11759,40 +11759,40 @@
         <v>43</v>
       </c>
       <c r="K127">
+        <v>7</v>
+      </c>
+      <c r="L127">
+        <v>5.5</v>
+      </c>
+      <c r="M127">
+        <v>1.3</v>
+      </c>
+      <c r="N127">
         <v>8</v>
       </c>
-      <c r="L127">
-        <v>6.5</v>
-      </c>
-      <c r="M127">
-        <v>1.2</v>
-      </c>
-      <c r="N127">
-        <v>8.5</v>
-      </c>
       <c r="O127">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P127">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q127">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R127">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11801,19 +11801,19 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7004606</v>
+        <v>7003589</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,13 +11833,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>2</v>
@@ -11848,40 +11848,40 @@
         <v>43</v>
       </c>
       <c r="K128">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L128">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M128">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="N128">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O128">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P128">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q128">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11890,19 +11890,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Z128">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7004604</v>
+        <v>7004607</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,55 +12011,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
         <v>42</v>
       </c>
       <c r="K130">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L130">
         <v>3.75</v>
       </c>
       <c r="M130">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N130">
         <v>1.75</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
         <v>3</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>0.75</v>
@@ -12071,16 +12071,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7004607</v>
+        <v>7004604</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,55 +12100,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
         <v>42</v>
       </c>
       <c r="K131">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L131">
         <v>3.75</v>
       </c>
       <c r="M131">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N131">
         <v>1.75</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
+        <v>1.75</v>
+      </c>
+      <c r="S131">
         <v>1.95</v>
-      </c>
-      <c r="S131">
-        <v>1.85</v>
       </c>
       <c r="T131">
         <v>3</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
         <v>0.75</v>
@@ -12160,16 +12160,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -13245,7 +13245,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7003592</v>
+        <v>7004616</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13257,76 +13257,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L144">
+        <v>6.5</v>
+      </c>
+      <c r="M144">
+        <v>6.5</v>
+      </c>
+      <c r="N144">
+        <v>1.363</v>
+      </c>
+      <c r="O144">
         <v>5.75</v>
       </c>
-      <c r="M144">
-        <v>8</v>
-      </c>
-      <c r="N144">
-        <v>1.25</v>
-      </c>
-      <c r="O144">
-        <v>6</v>
-      </c>
       <c r="P144">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q144">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S144">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T144">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB144">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13334,7 +13334,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7004616</v>
+        <v>7003592</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13346,76 +13346,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H145">
+        <v>4</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K145">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L145">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="M145">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N145">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O145">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P145">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q145">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R145">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T145">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC145">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7004618</v>
+        <v>7004619</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,31 +13435,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L146">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M146">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N146">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O146">
         <v>3.8</v>
@@ -13471,40 +13471,40 @@
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T146">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U146">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X146">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7004619</v>
+        <v>7004618</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,31 +13524,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K147">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L147">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M147">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N147">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O147">
         <v>3.8</v>
@@ -13560,40 +13560,40 @@
         <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13779,7 +13779,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7004620</v>
+        <v>7003485</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13791,76 +13791,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K150">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L150">
+        <v>4.2</v>
+      </c>
+      <c r="M150">
+        <v>5</v>
+      </c>
+      <c r="N150">
+        <v>1.615</v>
+      </c>
+      <c r="O150">
         <v>3.75</v>
       </c>
-      <c r="M150">
-        <v>4</v>
-      </c>
-      <c r="N150">
-        <v>1.833</v>
-      </c>
-      <c r="O150">
-        <v>3.6</v>
-      </c>
       <c r="P150">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q150">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T150">
         <v>3</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V150">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X150">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA150">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13868,7 +13868,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7003485</v>
+        <v>7004620</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13880,76 +13880,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K151">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L151">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N151">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O151">
+        <v>3.6</v>
+      </c>
+      <c r="P151">
         <v>3.75</v>
       </c>
-      <c r="P151">
-        <v>4.75</v>
-      </c>
       <c r="Q151">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S151">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T151">
         <v>3</v>
       </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W151">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB151">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7004621</v>
+        <v>7004622</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,10 +13969,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13993,37 +13993,37 @@
         <v>5</v>
       </c>
       <c r="N152">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P152">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q152">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T152">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y152">
         <v>-1</v>
@@ -14032,13 +14032,13 @@
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7004622</v>
+        <v>7004621</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,10 +14058,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14082,38 +14082,38 @@
         <v>5</v>
       </c>
       <c r="N153">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O153">
+        <v>5</v>
+      </c>
+      <c r="P153">
+        <v>6</v>
+      </c>
+      <c r="Q153">
+        <v>-1.5</v>
+      </c>
+      <c r="R153">
+        <v>1.975</v>
+      </c>
+      <c r="S153">
+        <v>1.825</v>
+      </c>
+      <c r="T153">
+        <v>3.75</v>
+      </c>
+      <c r="U153">
+        <v>1.975</v>
+      </c>
+      <c r="V153">
+        <v>1.825</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
         <v>4</v>
       </c>
-      <c r="P153">
-        <v>3.6</v>
-      </c>
-      <c r="Q153">
-        <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.8</v>
-      </c>
-      <c r="S153">
-        <v>2</v>
-      </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>1.8</v>
-      </c>
-      <c r="V153">
-        <v>2</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>3</v>
-      </c>
       <c r="Y153">
         <v>-1</v>
       </c>
@@ -14121,13 +14121,13 @@
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -15064,19 +15064,19 @@
         <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
         <v>0</v>
@@ -15099,7 +15099,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7004634</v>
+        <v>7003488</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15111,46 +15111,46 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K165">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L165">
+        <v>4.333</v>
+      </c>
+      <c r="M165">
+        <v>4.333</v>
+      </c>
+      <c r="N165">
+        <v>1.6</v>
+      </c>
+      <c r="O165">
+        <v>4.333</v>
+      </c>
+      <c r="P165">
+        <v>4.2</v>
+      </c>
+      <c r="Q165">
+        <v>-1</v>
+      </c>
+      <c r="R165">
+        <v>1.975</v>
+      </c>
+      <c r="S165">
+        <v>1.825</v>
+      </c>
+      <c r="T165">
         <v>3.5</v>
       </c>
-      <c r="M165">
-        <v>2.375</v>
-      </c>
-      <c r="N165">
-        <v>2.375</v>
-      </c>
-      <c r="O165">
-        <v>3.5</v>
-      </c>
-      <c r="P165">
-        <v>2.625</v>
-      </c>
-      <c r="Q165">
-        <v>0</v>
-      </c>
-      <c r="R165">
-        <v>1.825</v>
-      </c>
-      <c r="S165">
-        <v>1.975</v>
-      </c>
-      <c r="T165">
-        <v>3</v>
-      </c>
       <c r="U165">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15173,7 +15173,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7003488</v>
+        <v>7004634</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15185,46 +15185,46 @@
         <v>45341.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K166">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L166">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M166">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N166">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="O166">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q166">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R166">
+        <v>1.85</v>
+      </c>
+      <c r="S166">
+        <v>1.95</v>
+      </c>
+      <c r="T166">
+        <v>3</v>
+      </c>
+      <c r="U166">
         <v>1.925</v>
       </c>
-      <c r="S166">
+      <c r="V166">
         <v>1.875</v>
-      </c>
-      <c r="T166">
-        <v>3.75</v>
-      </c>
-      <c r="U166">
-        <v>1.9</v>
-      </c>
-      <c r="V166">
-        <v>1.9</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15321,7 +15321,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7004636</v>
+        <v>7004635</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15333,46 +15333,46 @@
         <v>45342.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K168">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="L168">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M168">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N168">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O168">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P168">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q168">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R168">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S168">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T168">
         <v>3.25</v>
       </c>
       <c r="U168">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -15395,7 +15395,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7004635</v>
+        <v>7004636</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15407,46 +15407,46 @@
         <v>45342.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K169">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="L169">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M169">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N169">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P169">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R169">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S169">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T169">
         <v>3.25</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W169">
         <v>0</v>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -124,10 +124,10 @@
     <t>AlShamal SC</t>
   </si>
   <si>
-    <t>AlArabi Doha</t>
+    <t>Al Markhiya</t>
   </si>
   <si>
-    <t>Al Markhiya</t>
+    <t>AlArabi Doha</t>
   </si>
   <si>
     <t>Al Gharafa</t>
@@ -800,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5682632</v>
+        <v>5682631</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,76 +975,76 @@
         <v>44937.52083333334</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6">
-        <v>2.625</v>
-      </c>
       <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>1.4</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>1.25</v>
+      </c>
+      <c r="Q6">
+        <v>1.75</v>
+      </c>
+      <c r="R6">
+        <v>1.975</v>
+      </c>
+      <c r="S6">
+        <v>1.825</v>
+      </c>
+      <c r="T6">
         <v>3.5</v>
       </c>
-      <c r="M6">
-        <v>2.25</v>
-      </c>
-      <c r="N6">
-        <v>2.4</v>
-      </c>
-      <c r="O6">
-        <v>3.6</v>
-      </c>
-      <c r="P6">
-        <v>2.4</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>1.925</v>
-      </c>
-      <c r="S6">
-        <v>1.875</v>
-      </c>
-      <c r="T6">
-        <v>2.75</v>
-      </c>
       <c r="U6">
+        <v>1.825</v>
+      </c>
+      <c r="V6">
         <v>1.975</v>
       </c>
-      <c r="V6">
-        <v>1.825</v>
-      </c>
       <c r="W6">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC6">
-        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5682631</v>
+        <v>5682632</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,76 +1064,76 @@
         <v>44937.52083333334</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
+        <v>2.25</v>
+      </c>
+      <c r="N7">
+        <v>2.4</v>
+      </c>
+      <c r="O7">
+        <v>3.6</v>
+      </c>
+      <c r="P7">
+        <v>2.4</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1.925</v>
+      </c>
+      <c r="S7">
+        <v>1.875</v>
+      </c>
+      <c r="T7">
+        <v>2.75</v>
+      </c>
+      <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
+        <v>1.825</v>
+      </c>
+      <c r="W7">
         <v>1.4</v>
       </c>
-      <c r="N7">
-        <v>7</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-      <c r="P7">
-        <v>1.25</v>
-      </c>
-      <c r="Q7">
-        <v>1.75</v>
-      </c>
-      <c r="R7">
-        <v>1.975</v>
-      </c>
-      <c r="S7">
-        <v>1.825</v>
-      </c>
-      <c r="T7">
-        <v>3.5</v>
-      </c>
-      <c r="U7">
-        <v>1.825</v>
-      </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
-      <c r="W7">
-        <v>-1</v>
-      </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
+        <v>0.925</v>
+      </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AC7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6046095</v>
+        <v>6046094</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1423,37 +1423,37 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N11">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
         <v>1.925</v>
@@ -1462,7 +1462,7 @@
         <v>1.875</v>
       </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U11">
         <v>1.825</v>
@@ -1474,22 +1474,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y11">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6046094</v>
+        <v>6046095</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1512,37 +1512,37 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1551,7 +1551,7 @@
         <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
         <v>1.825</v>
@@ -1563,22 +1563,22 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6046102</v>
+        <v>6046101</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,55 +2132,55 @@
         <v>44956.44097222222</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>1</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N19">
         <v>3.1</v>
       </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2189,19 +2189,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6046101</v>
+        <v>6046102</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,55 +2221,55 @@
         <v>44956.44097222222</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>43</v>
       </c>
       <c r="K20">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M20">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N20">
         <v>3.1</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2278,19 +2278,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2669,7 +2669,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>44962.44097222222</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -3025,7 +3025,7 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3289,7 +3289,7 @@
         <v>44972.44791666666</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -3645,10 +3645,10 @@
         <v>44978.44791666666</v>
       </c>
       <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
         <v>37</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6087445</v>
+        <v>6087480</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3912,76 +3912,76 @@
         <v>44982.44791666666</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N39">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P39">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6087480</v>
+        <v>6087445</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,76 +4001,76 @@
         <v>44982.44791666666</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K40">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N40">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="O40">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P40">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q40">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R40">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC40">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4167,7 +4167,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6046121</v>
+        <v>6046120</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4179,76 +4179,76 @@
         <v>44987.45486111111</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K42">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N42">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O42">
         <v>3.4</v>
       </c>
       <c r="P42">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q42">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R42">
         <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W42">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4256,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6046120</v>
+        <v>6046121</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,76 +4268,76 @@
         <v>44987.45486111111</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L43">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
         <v>3.2</v>
-      </c>
-      <c r="N43">
-        <v>1.571</v>
       </c>
       <c r="O43">
         <v>3.4</v>
       </c>
       <c r="P43">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
         <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X43">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA43">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6046124</v>
+        <v>6046125</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,76 +4535,76 @@
         <v>44988.5625</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>4</v>
-      </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N46">
-        <v>2.875</v>
+        <v>1.181</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R46">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4612,7 +4612,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6046125</v>
+        <v>6046124</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4624,76 +4624,76 @@
         <v>44988.5625</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>4</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K47">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M47">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>1.181</v>
+        <v>2.875</v>
       </c>
       <c r="O47">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T47">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB47">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4701,7 +4701,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6145650</v>
+        <v>6145651</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4713,76 +4713,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K48">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L48">
         <v>3.4</v>
       </c>
       <c r="M48">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N48">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S48">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y48">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6145651</v>
+        <v>6145650</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K49">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L49">
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N49">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O49">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S49">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>1.1</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6145974</v>
+        <v>6145975</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,55 +4980,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>43</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N51">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5037,19 +5037,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6145975</v>
+        <v>6145974</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,55 +5069,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L52">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M52">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N52">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5126,19 +5126,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5235,7 +5235,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6270177</v>
+        <v>6270171</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5247,56 +5247,56 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>43</v>
       </c>
       <c r="K54">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M54">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="O54">
+        <v>6</v>
+      </c>
+      <c r="P54">
+        <v>1.222</v>
+      </c>
+      <c r="Q54">
+        <v>2</v>
+      </c>
+      <c r="R54">
+        <v>1.75</v>
+      </c>
+      <c r="S54">
+        <v>1.95</v>
+      </c>
+      <c r="T54">
         <v>3.5</v>
       </c>
-      <c r="P54">
+      <c r="U54">
+        <v>1.95</v>
+      </c>
+      <c r="V54">
         <v>1.85</v>
       </c>
-      <c r="Q54">
-        <v>0.5</v>
-      </c>
-      <c r="R54">
-        <v>1.875</v>
-      </c>
-      <c r="S54">
-        <v>1.925</v>
-      </c>
-      <c r="T54">
-        <v>3</v>
-      </c>
-      <c r="U54">
-        <v>1.975</v>
-      </c>
-      <c r="V54">
-        <v>1.825</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
@@ -5304,19 +5304,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.8500000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5324,7 +5324,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6270171</v>
+        <v>6270177</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5336,55 +5336,55 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>43</v>
       </c>
       <c r="K55">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="L55">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M55">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N55">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="O55">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="Q55">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5393,19 +5393,19 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.222</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
+        <v>0.925</v>
+      </c>
+      <c r="AB55">
         <v>0</v>
       </c>
-      <c r="AA55">
+      <c r="AC55">
         <v>-0</v>
-      </c>
-      <c r="AB55">
-        <v>0.95</v>
-      </c>
-      <c r="AC55">
-        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>45002.57291666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -5603,7 +5603,7 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>30</v>
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6419373</v>
+        <v>6419629</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,73 +5781,73 @@
         <v>45017.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="L60">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
+        <v>1.727</v>
+      </c>
+      <c r="N60">
+        <v>9</v>
+      </c>
+      <c r="O60">
         <v>5.5</v>
       </c>
-      <c r="N60">
+      <c r="P60">
+        <v>1.222</v>
+      </c>
+      <c r="Q60">
+        <v>1.75</v>
+      </c>
+      <c r="R60">
+        <v>1.975</v>
+      </c>
+      <c r="S60">
+        <v>1.825</v>
+      </c>
+      <c r="T60">
+        <v>3.5</v>
+      </c>
+      <c r="U60">
+        <v>1.95</v>
+      </c>
+      <c r="V60">
         <v>1.85</v>
       </c>
-      <c r="O60">
-        <v>3.8</v>
-      </c>
-      <c r="P60">
-        <v>3.1</v>
-      </c>
-      <c r="Q60">
+      <c r="W60">
+        <v>-1</v>
+      </c>
+      <c r="X60">
+        <v>-1</v>
+      </c>
+      <c r="Y60">
+        <v>0.222</v>
+      </c>
+      <c r="Z60">
         <v>-0.5</v>
       </c>
-      <c r="R60">
-        <v>1.9</v>
-      </c>
-      <c r="S60">
-        <v>1.9</v>
-      </c>
-      <c r="T60">
-        <v>3.25</v>
-      </c>
-      <c r="U60">
-        <v>1.875</v>
-      </c>
-      <c r="V60">
-        <v>1.925</v>
-      </c>
-      <c r="W60">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X60">
-        <v>-1</v>
-      </c>
-      <c r="Y60">
-        <v>-1</v>
-      </c>
-      <c r="Z60">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB60">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5858,7 +5858,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6419629</v>
+        <v>6419373</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5870,73 +5870,73 @@
         <v>45017.65625</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L61">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M61">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N61">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="O61">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>1.222</v>
+        <v>3.1</v>
       </c>
       <c r="Q61">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA61">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -6048,7 +6048,7 @@
         <v>45018.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6137,7 +6137,7 @@
         <v>45019.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
         <v>40</v>
@@ -6214,7 +6214,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6419631</v>
+        <v>6419632</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6226,58 +6226,58 @@
         <v>45029.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>42</v>
       </c>
       <c r="K65">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="L65">
         <v>4</v>
       </c>
       <c r="M65">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N65">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q65">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6286,13 +6286,13 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6419632</v>
+        <v>6419631</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,58 +6315,58 @@
         <v>45029.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
         <v>42</v>
       </c>
       <c r="K66">
-        <v>1.533</v>
+        <v>1.45</v>
       </c>
       <c r="L66">
         <v>4</v>
       </c>
       <c r="M66">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N66">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O66">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P66">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6375,13 +6375,13 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6392,7 +6392,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6419378</v>
+        <v>6419375</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6404,76 +6404,76 @@
         <v>45030.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K67">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="L67">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="N67">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O67">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P67">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6419375</v>
+        <v>6419378</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6493,76 +6493,76 @@
         <v>45030.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="N68">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P68">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="Q68">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X68">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6582,7 +6582,7 @@
         <v>45031.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
         <v>40</v>
@@ -6849,7 +6849,7 @@
         <v>45035.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -7015,7 +7015,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6541221</v>
+        <v>6541222</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,76 +7027,76 @@
         <v>45044.52083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="L74">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="N74">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6541222</v>
+        <v>6541221</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,76 +7116,76 @@
         <v>45044.52083333334</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="N75">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O75">
+        <v>4.75</v>
+      </c>
+      <c r="P75">
+        <v>4</v>
+      </c>
+      <c r="Q75">
+        <v>-0.75</v>
+      </c>
+      <c r="R75">
+        <v>1.85</v>
+      </c>
+      <c r="S75">
+        <v>1.95</v>
+      </c>
+      <c r="T75">
         <v>3.5</v>
       </c>
-      <c r="P75">
-        <v>2.25</v>
-      </c>
-      <c r="Q75">
-        <v>0.25</v>
-      </c>
-      <c r="R75">
-        <v>1.8</v>
-      </c>
-      <c r="S75">
-        <v>2</v>
-      </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6546393</v>
+        <v>6546394</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,76 +7650,76 @@
         <v>45049.625</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L81">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
+        <v>2.625</v>
+      </c>
+      <c r="N81">
+        <v>3.75</v>
+      </c>
+      <c r="O81">
+        <v>3.8</v>
+      </c>
+      <c r="P81">
+        <v>1.8</v>
+      </c>
+      <c r="Q81">
+        <v>0.75</v>
+      </c>
+      <c r="R81">
+        <v>1.75</v>
+      </c>
+      <c r="S81">
+        <v>1.95</v>
+      </c>
+      <c r="T81">
         <v>3</v>
       </c>
-      <c r="N81">
-        <v>2.15</v>
-      </c>
-      <c r="O81">
-        <v>3.5</v>
-      </c>
-      <c r="P81">
-        <v>2.75</v>
-      </c>
-      <c r="Q81">
-        <v>-0.25</v>
-      </c>
-      <c r="R81">
+      <c r="U81">
         <v>1.925</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.875</v>
       </c>
-      <c r="T81">
-        <v>2.5</v>
-      </c>
-      <c r="U81">
-        <v>1.8</v>
-      </c>
-      <c r="V81">
-        <v>2</v>
-      </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6546394</v>
+        <v>6546393</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,76 +7739,76 @@
         <v>45049.625</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>44</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>3.6</v>
+      </c>
+      <c r="M82">
         <v>3</v>
       </c>
-      <c r="J82" t="s">
-        <v>43</v>
-      </c>
-      <c r="K82">
-        <v>2.3</v>
-      </c>
-      <c r="L82">
+      <c r="N82">
+        <v>2.15</v>
+      </c>
+      <c r="O82">
         <v>3.5</v>
       </c>
-      <c r="M82">
-        <v>2.625</v>
-      </c>
-      <c r="N82">
-        <v>3.75</v>
-      </c>
-      <c r="O82">
-        <v>3.8</v>
-      </c>
       <c r="P82">
+        <v>2.75</v>
+      </c>
+      <c r="Q82">
+        <v>-0.25</v>
+      </c>
+      <c r="R82">
+        <v>1.925</v>
+      </c>
+      <c r="S82">
+        <v>1.875</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
         <v>1.8</v>
       </c>
-      <c r="Q82">
-        <v>0.75</v>
-      </c>
-      <c r="R82">
-        <v>1.75</v>
-      </c>
-      <c r="S82">
-        <v>1.95</v>
-      </c>
-      <c r="T82">
-        <v>3</v>
-      </c>
-      <c r="U82">
-        <v>1.925</v>
-      </c>
       <c r="V82">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB82">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6569803</v>
+        <v>6542546</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,76 +7917,76 @@
         <v>45050.625</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
         <v>3</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W84">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6542546</v>
+        <v>6569803</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,76 +8006,76 @@
         <v>45050.625</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N85">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
         <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6561638</v>
+        <v>6569804</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
         <v>2.8</v>
       </c>
-      <c r="N87">
-        <v>2.45</v>
-      </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
+        <v>1.925</v>
+      </c>
+      <c r="S87">
+        <v>1.775</v>
+      </c>
+      <c r="T87">
+        <v>3.5</v>
+      </c>
+      <c r="U87">
         <v>1.9</v>
       </c>
-      <c r="S87">
+      <c r="V87">
         <v>1.9</v>
       </c>
-      <c r="T87">
-        <v>2.5</v>
-      </c>
-      <c r="U87">
-        <v>1.75</v>
-      </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6569804</v>
+        <v>6542547</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L88">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N88">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O88">
         <v>4.2</v>
       </c>
       <c r="P88">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6542547</v>
+        <v>6561638</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K90">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
+        <v>2.8</v>
+      </c>
+      <c r="N90">
+        <v>2.45</v>
+      </c>
+      <c r="O90">
         <v>3.4</v>
       </c>
-      <c r="N90">
-        <v>1.65</v>
-      </c>
-      <c r="O90">
-        <v>4.2</v>
-      </c>
       <c r="P90">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8718,7 +8718,7 @@
         <v>45154.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
         <v>35</v>
@@ -8896,7 +8896,7 @@
         <v>45155.60416666666</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
         <v>30</v>
@@ -9344,7 +9344,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9519,7 +9519,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9789,7 +9789,7 @@
         <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>5</v>
@@ -9964,7 +9964,7 @@
         <v>45171.51041666666</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7004591</v>
+        <v>7003585</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,76 +10053,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>44</v>
+      </c>
+      <c r="K108">
+        <v>1.615</v>
+      </c>
+      <c r="L108">
         <v>4</v>
       </c>
-      <c r="J108" t="s">
-        <v>43</v>
-      </c>
-      <c r="K108">
-        <v>4.5</v>
-      </c>
-      <c r="L108">
+      <c r="M108">
+        <v>4.333</v>
+      </c>
+      <c r="N108">
+        <v>1.533</v>
+      </c>
+      <c r="O108">
         <v>4.2</v>
       </c>
-      <c r="M108">
-        <v>1.55</v>
-      </c>
-      <c r="N108">
-        <v>3.3</v>
-      </c>
-      <c r="O108">
-        <v>3.8</v>
-      </c>
       <c r="P108">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10130,7 +10130,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7003585</v>
+        <v>7004591</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10142,76 +10142,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K109">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M109">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N109">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O109">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q109">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7003478</v>
+        <v>7003586</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,73 +10320,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
         <v>3</v>
       </c>
-      <c r="I111">
+      <c r="J111" t="s">
+        <v>43</v>
+      </c>
+      <c r="K111">
+        <v>5</v>
+      </c>
+      <c r="L111">
+        <v>4.333</v>
+      </c>
+      <c r="M111">
+        <v>1.55</v>
+      </c>
+      <c r="N111">
+        <v>5</v>
+      </c>
+      <c r="O111">
+        <v>4.2</v>
+      </c>
+      <c r="P111">
+        <v>1.571</v>
+      </c>
+      <c r="Q111">
         <v>1</v>
       </c>
-      <c r="J111" t="s">
-        <v>42</v>
-      </c>
-      <c r="K111">
-        <v>2</v>
-      </c>
-      <c r="L111">
-        <v>3.6</v>
-      </c>
-      <c r="M111">
-        <v>3.25</v>
-      </c>
-      <c r="N111">
+      <c r="R111">
+        <v>1.85</v>
+      </c>
+      <c r="S111">
         <v>1.95</v>
-      </c>
-      <c r="O111">
-        <v>3.6</v>
-      </c>
-      <c r="P111">
-        <v>3.4</v>
-      </c>
-      <c r="Q111">
-        <v>-0.5</v>
-      </c>
-      <c r="R111">
-        <v>1.975</v>
-      </c>
-      <c r="S111">
-        <v>1.825</v>
       </c>
       <c r="T111">
         <v>3</v>
       </c>
       <c r="U111">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>0.571</v>
+      </c>
+      <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
         <v>0.95</v>
       </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
-      <c r="Z111">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
       <c r="AB111">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7003586</v>
+        <v>7003478</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,73 +10409,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>3</v>
-      </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N112">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q112">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10587,7 +10587,7 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>33</v>
@@ -10854,7 +10854,7 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -10943,7 +10943,7 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
         <v>29</v>
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7004598</v>
+        <v>7004599</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,73 +11032,73 @@
         <v>45198.5</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119">
-        <v>2</v>
-      </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L119">
         <v>3.5</v>
       </c>
       <c r="M119">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N119">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
         <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
         <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W119">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z119">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7004599</v>
+        <v>7004598</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,73 +11121,73 @@
         <v>45198.5</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L120">
         <v>3.5</v>
       </c>
       <c r="M120">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N120">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O120">
         <v>3.4</v>
       </c>
       <c r="P120">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T120">
         <v>2.75</v>
       </c>
       <c r="U120">
+        <v>1.85</v>
+      </c>
+      <c r="V120">
+        <v>1.95</v>
+      </c>
+      <c r="W120">
         <v>1.8</v>
       </c>
-      <c r="V120">
-        <v>2</v>
-      </c>
-      <c r="W120">
-        <v>-1</v>
-      </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11299,7 +11299,7 @@
         <v>45219.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>35</v>
@@ -11732,7 +11732,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7004606</v>
+        <v>7003589</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11744,13 +11744,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -11759,40 +11759,40 @@
         <v>43</v>
       </c>
       <c r="K127">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L127">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M127">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="N127">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O127">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P127">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q127">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R127">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T127">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11801,19 +11801,19 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Z127">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7003589</v>
+        <v>7004606</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,13 +11833,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>2</v>
@@ -11848,40 +11848,40 @@
         <v>43</v>
       </c>
       <c r="K128">
+        <v>7</v>
+      </c>
+      <c r="L128">
+        <v>5.5</v>
+      </c>
+      <c r="M128">
+        <v>1.3</v>
+      </c>
+      <c r="N128">
         <v>8</v>
       </c>
-      <c r="L128">
-        <v>6.5</v>
-      </c>
-      <c r="M128">
-        <v>1.2</v>
-      </c>
-      <c r="N128">
-        <v>8.5</v>
-      </c>
       <c r="O128">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P128">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q128">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T128">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11890,19 +11890,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11922,7 +11922,7 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
         <v>31</v>
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7004607</v>
+        <v>7004604</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,55 +12011,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>42</v>
       </c>
       <c r="K130">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L130">
         <v>3.75</v>
       </c>
       <c r="M130">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N130">
         <v>1.75</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
+        <v>1.75</v>
+      </c>
+      <c r="S130">
         <v>1.95</v>
-      </c>
-      <c r="S130">
-        <v>1.85</v>
       </c>
       <c r="T130">
         <v>3</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
         <v>0.75</v>
@@ -12071,16 +12071,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7004604</v>
+        <v>7004607</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,55 +12100,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>42</v>
       </c>
       <c r="K131">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L131">
         <v>3.75</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N131">
         <v>1.75</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
         <v>3</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>0.75</v>
@@ -12160,16 +12160,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,73 +12189,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M132">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N132">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P132">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="V132">
-        <v>1.95</v>
-      </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L133">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N133">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O133">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q133">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U133">
+        <v>1.85</v>
+      </c>
+      <c r="V133">
         <v>1.95</v>
       </c>
-      <c r="V133">
-        <v>1.85</v>
-      </c>
       <c r="W133">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12637,7 +12637,7 @@
         <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>5</v>
@@ -12812,7 +12812,7 @@
         <v>45254.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
         <v>31</v>
@@ -12990,7 +12990,7 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
         <v>33</v>
@@ -13168,10 +13168,10 @@
         <v>45261.47916666666</v>
       </c>
       <c r="F143" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143" t="s">
         <v>37</v>
-      </c>
-      <c r="G143" t="s">
-        <v>36</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7004619</v>
+        <v>7004618</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,31 +13435,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K146">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L146">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N146">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O146">
         <v>3.8</v>
@@ -13471,40 +13471,40 @@
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7004618</v>
+        <v>7004619</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,31 +13524,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M147">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O147">
         <v>3.8</v>
@@ -13560,40 +13560,40 @@
         <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X147">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13779,7 +13779,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7003485</v>
+        <v>7004620</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13791,76 +13791,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K150">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L150">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N150">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O150">
+        <v>3.6</v>
+      </c>
+      <c r="P150">
         <v>3.75</v>
       </c>
-      <c r="P150">
-        <v>4.75</v>
-      </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
         <v>3</v>
       </c>
       <c r="U150">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V150">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W150">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13868,7 +13868,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7004620</v>
+        <v>7003485</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13880,76 +13880,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K151">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L151">
+        <v>4.2</v>
+      </c>
+      <c r="M151">
+        <v>5</v>
+      </c>
+      <c r="N151">
+        <v>1.615</v>
+      </c>
+      <c r="O151">
         <v>3.75</v>
       </c>
-      <c r="M151">
-        <v>4</v>
-      </c>
-      <c r="N151">
-        <v>1.833</v>
-      </c>
-      <c r="O151">
-        <v>3.6</v>
-      </c>
       <c r="P151">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S151">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T151">
         <v>3</v>
       </c>
       <c r="U151">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X151">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA151">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC151">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7004622</v>
+        <v>7004621</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,10 +13969,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13993,38 +13993,38 @@
         <v>5</v>
       </c>
       <c r="N152">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O152">
+        <v>5</v>
+      </c>
+      <c r="P152">
+        <v>6</v>
+      </c>
+      <c r="Q152">
+        <v>-1.5</v>
+      </c>
+      <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
+        <v>1.825</v>
+      </c>
+      <c r="T152">
+        <v>3.75</v>
+      </c>
+      <c r="U152">
+        <v>1.975</v>
+      </c>
+      <c r="V152">
+        <v>1.825</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
         <v>4</v>
       </c>
-      <c r="P152">
-        <v>3.6</v>
-      </c>
-      <c r="Q152">
-        <v>-0.5</v>
-      </c>
-      <c r="R152">
-        <v>1.8</v>
-      </c>
-      <c r="S152">
-        <v>2</v>
-      </c>
-      <c r="T152">
-        <v>3</v>
-      </c>
-      <c r="U152">
-        <v>1.8</v>
-      </c>
-      <c r="V152">
-        <v>2</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>3</v>
-      </c>
       <c r="Y152">
         <v>-1</v>
       </c>
@@ -14032,13 +14032,13 @@
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7004621</v>
+        <v>7004622</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,10 +14058,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14082,37 +14082,37 @@
         <v>5</v>
       </c>
       <c r="N153">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O153">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y153">
         <v>-1</v>
@@ -14121,13 +14121,13 @@
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14669,7 +14669,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7609335</v>
+        <v>7004627</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14681,40 +14681,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
         <v>36</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K160">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="L160">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M160">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="N160">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P160">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q160">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R160">
         <v>2</v>
@@ -14723,19 +14723,19 @@
         <v>1.8</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X160">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
@@ -14747,10 +14747,10 @@
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC160">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14758,7 +14758,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7004627</v>
+        <v>7609335</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14770,40 +14770,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
       </c>
       <c r="H161">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K161">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="L161">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M161">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="N161">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O161">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P161">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q161">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R161">
         <v>2</v>
@@ -14812,19 +14812,19 @@
         <v>1.8</v>
       </c>
       <c r="T161">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V161">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W161">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y161">
         <v>-1</v>
@@ -14836,10 +14836,10 @@
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7004633</v>
+        <v>7003595</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,43 +15034,43 @@
         <v>28</v>
       </c>
       <c r="E164" s="2">
-        <v>45341.5</v>
+        <v>45342.5</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K164">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M164">
+        <v>1.65</v>
+      </c>
+      <c r="N164">
+        <v>5</v>
+      </c>
+      <c r="O164">
         <v>4</v>
       </c>
-      <c r="N164">
-        <v>1.909</v>
-      </c>
-      <c r="O164">
-        <v>3.5</v>
-      </c>
       <c r="P164">
-        <v>3.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R164">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U164">
         <v>1.875</v>
@@ -15099,7 +15099,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7003488</v>
+        <v>7004636</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15108,34 +15108,34 @@
         <v>28</v>
       </c>
       <c r="E165" s="2">
-        <v>45341.58333333334</v>
+        <v>45342.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K165">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="L165">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M165">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N165">
-        <v>1.6</v>
+        <v>1.363</v>
       </c>
       <c r="O165">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P165">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q165">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R165">
         <v>1.975</v>
@@ -15144,13 +15144,13 @@
         <v>1.825</v>
       </c>
       <c r="T165">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U165">
+        <v>1.95</v>
+      </c>
+      <c r="V165">
         <v>1.85</v>
-      </c>
-      <c r="V165">
-        <v>1.95</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15173,7 +15173,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7004634</v>
+        <v>7004635</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15182,31 +15182,31 @@
         <v>28</v>
       </c>
       <c r="E166" s="2">
-        <v>45341.58333333334</v>
+        <v>45342.58333333334</v>
       </c>
       <c r="F166" t="s">
+        <v>29</v>
+      </c>
+      <c r="G166" t="s">
         <v>37</v>
       </c>
-      <c r="G166" t="s">
-        <v>41</v>
-      </c>
       <c r="K166">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L166">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
+        <v>2.45</v>
+      </c>
+      <c r="N166">
         <v>2.375</v>
       </c>
-      <c r="N166">
+      <c r="O166">
+        <v>3.6</v>
+      </c>
+      <c r="P166">
         <v>2.5</v>
-      </c>
-      <c r="O166">
-        <v>3.4</v>
-      </c>
-      <c r="P166">
-        <v>2.55</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -15218,13 +15218,13 @@
         <v>1.95</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15247,7 +15247,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7003595</v>
+        <v>7839494</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15256,49 +15256,49 @@
         <v>28</v>
       </c>
       <c r="E167" s="2">
-        <v>45342.5</v>
+        <v>45346.5</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K167">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M167">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="N167">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="O167">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P167">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q167">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T167">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -15321,7 +15321,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7004635</v>
+        <v>7840798</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15330,49 +15330,49 @@
         <v>28</v>
       </c>
       <c r="E168" s="2">
-        <v>45342.58333333334</v>
+        <v>45346.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K168">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="L168">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M168">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N168">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P168">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R168">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S168">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T168">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U168">
+        <v>1.85</v>
+      </c>
+      <c r="V168">
         <v>1.95</v>
-      </c>
-      <c r="V168">
-        <v>1.85</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -15395,7 +15395,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7004636</v>
+        <v>7840799</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15404,49 +15404,49 @@
         <v>28</v>
       </c>
       <c r="E169" s="2">
-        <v>45342.58333333334</v>
+        <v>45346.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K169">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="L169">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M169">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N169">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="O169">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P169">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q169">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S169">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U169">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W169">
         <v>0</v>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -115,19 +115,19 @@
     <t>Qatar SC Doha</t>
   </si>
   <si>
-    <t>AlWakrah SC</t>
+    <t>Al Sailiya SC</t>
   </si>
   <si>
-    <t>Al Sailiya SC</t>
+    <t>AlWakrah SC</t>
   </si>
   <si>
     <t>AlShamal SC</t>
   </si>
   <si>
-    <t>Al Markhiya</t>
+    <t>AlArabi Doha</t>
   </si>
   <si>
-    <t>AlArabi Doha</t>
+    <t>Al Markhiya</t>
   </si>
   <si>
     <t>Al Gharafa</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC169"/>
+  <dimension ref="A1:AC168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,7 +711,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -800,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5682814</v>
+        <v>6122804</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,7 +1156,7 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1168,40 +1168,40 @@
         <v>43</v>
       </c>
       <c r="K8">
+        <v>2.3</v>
+      </c>
+      <c r="L8">
+        <v>3.6</v>
+      </c>
+      <c r="M8">
         <v>2.5</v>
       </c>
-      <c r="L8">
-        <v>3.4</v>
-      </c>
-      <c r="M8">
+      <c r="N8">
         <v>2.4</v>
       </c>
-      <c r="N8">
-        <v>2.45</v>
-      </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1210,19 +1210,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6122804</v>
+        <v>5682814</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,7 +1245,7 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1257,41 +1257,41 @@
         <v>43</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
+        <v>2.45</v>
+      </c>
+      <c r="O9">
+        <v>3.4</v>
+      </c>
+      <c r="P9">
         <v>2.4</v>
-      </c>
-      <c r="O9">
-        <v>3.75</v>
-      </c>
-      <c r="P9">
-        <v>2.375</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
+        <v>1.9</v>
+      </c>
+      <c r="S9">
+        <v>1.9</v>
+      </c>
+      <c r="T9">
+        <v>2.5</v>
+      </c>
+      <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.8</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
@@ -1299,19 +1299,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB9">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB9">
-        <v>0.4</v>
-      </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6046094</v>
+        <v>6046095</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1423,37 +1423,37 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
         <v>1.925</v>
@@ -1462,7 +1462,7 @@
         <v>1.875</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U11">
         <v>1.825</v>
@@ -1474,22 +1474,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6046095</v>
+        <v>6046094</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1512,37 +1512,37 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N12">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P12">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1551,7 +1551,7 @@
         <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U12">
         <v>1.825</v>
@@ -1563,22 +1563,22 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y12">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1598,10 +1598,10 @@
         <v>44950.4375</v>
       </c>
       <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -1868,7 +1868,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1954,7 +1954,7 @@
         <v>44955.44097222222</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2132,7 +2132,7 @@
         <v>44956.44097222222</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>29</v>
@@ -2313,7 +2313,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6046104</v>
+        <v>6046105</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,76 +2399,76 @@
         <v>44961.44097222222</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="L22">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O22">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q22">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6046105</v>
+        <v>6046104</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,76 +2488,76 @@
         <v>44961.44097222222</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N23">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P23">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T23">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>44962.44097222222</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -2847,7 +2847,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6046111</v>
+        <v>6046110</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,76 +2933,76 @@
         <v>44970.44791666666</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L28">
+        <v>4.5</v>
+      </c>
+      <c r="M28">
+        <v>9</v>
+      </c>
+      <c r="N28">
+        <v>1.25</v>
+      </c>
+      <c r="O28">
+        <v>5.25</v>
+      </c>
+      <c r="P28">
+        <v>8</v>
+      </c>
+      <c r="Q28">
+        <v>-1.75</v>
+      </c>
+      <c r="R28">
+        <v>1.9</v>
+      </c>
+      <c r="S28">
+        <v>1.9</v>
+      </c>
+      <c r="T28">
         <v>3.5</v>
       </c>
-      <c r="M28">
-        <v>3.1</v>
-      </c>
-      <c r="N28">
-        <v>2.8</v>
-      </c>
-      <c r="O28">
-        <v>3.4</v>
-      </c>
-      <c r="P28">
-        <v>2.1</v>
-      </c>
-      <c r="Q28">
+      <c r="U28">
+        <v>1.85</v>
+      </c>
+      <c r="V28">
+        <v>1.95</v>
+      </c>
+      <c r="W28">
         <v>0.25</v>
       </c>
-      <c r="R28">
-        <v>1.825</v>
-      </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.825</v>
-      </c>
-      <c r="V28">
-        <v>1.975</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
       <c r="X28">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.4125</v>
+        <v>0.45</v>
       </c>
       <c r="AA28">
         <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6046110</v>
+        <v>6046111</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,76 +3022,76 @@
         <v>44970.44791666666</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="O29">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q29">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.45</v>
+        <v>0.4125</v>
       </c>
       <c r="AA29">
         <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>44972.44791666666</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
@@ -3289,7 +3289,7 @@
         <v>44972.44791666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6046117</v>
+        <v>6046118</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>44978.44791666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="N36">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="O36">
         <v>4</v>
       </c>
       <c r="P36">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Q36">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y36">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6046118</v>
+        <v>6046117</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,76 +3734,76 @@
         <v>44978.44791666666</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="N37">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="O37">
         <v>4</v>
       </c>
       <c r="P37">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q37">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T37">
         <v>3</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4093,7 +4093,7 @@
         <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4360,7 +4360,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6046125</v>
+        <v>6046124</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,76 +4535,76 @@
         <v>44988.5625</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
         <v>34</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>4</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>1.181</v>
+        <v>2.875</v>
       </c>
       <c r="O46">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="Q46">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z46">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB46">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4612,7 +4612,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6046124</v>
+        <v>6046125</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4624,76 +4624,76 @@
         <v>44988.5625</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
       </c>
       <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>4</v>
-      </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N47">
-        <v>2.875</v>
+        <v>1.181</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R47">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4701,7 +4701,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6145651</v>
+        <v>6145650</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4713,76 +4713,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K48">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L48">
         <v>3.4</v>
       </c>
       <c r="M48">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N48">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>1.1</v>
+        <v>0.825</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6145650</v>
+        <v>6145651</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" t="s">
         <v>34</v>
-      </c>
-      <c r="G49" t="s">
-        <v>36</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K49">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L49">
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N49">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S49">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y49">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6145975</v>
+        <v>6145974</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,55 +4980,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>43</v>
       </c>
       <c r="K51">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N51">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5037,19 +5037,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6145974</v>
+        <v>6145975</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,55 +5069,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L52">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M52">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N52">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P52">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5126,19 +5126,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5235,7 +5235,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6270171</v>
+        <v>6270177</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5247,55 +5247,55 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>43</v>
       </c>
       <c r="K54">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="L54">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N54">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="O54">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="Q54">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5304,19 +5304,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.222</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
+        <v>0.925</v>
+      </c>
+      <c r="AB54">
         <v>0</v>
       </c>
-      <c r="AA54">
+      <c r="AC54">
         <v>-0</v>
-      </c>
-      <c r="AB54">
-        <v>0.95</v>
-      </c>
-      <c r="AC54">
-        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5324,7 +5324,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6270177</v>
+        <v>6270171</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5336,56 +5336,56 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
         <v>43</v>
       </c>
       <c r="K55">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M55">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="N55">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="O55">
+        <v>6</v>
+      </c>
+      <c r="P55">
+        <v>1.222</v>
+      </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+      <c r="R55">
+        <v>1.75</v>
+      </c>
+      <c r="S55">
+        <v>1.95</v>
+      </c>
+      <c r="T55">
         <v>3.5</v>
       </c>
-      <c r="P55">
+      <c r="U55">
+        <v>1.95</v>
+      </c>
+      <c r="V55">
         <v>1.85</v>
       </c>
-      <c r="Q55">
-        <v>0.5</v>
-      </c>
-      <c r="R55">
-        <v>1.875</v>
-      </c>
-      <c r="S55">
-        <v>1.925</v>
-      </c>
-      <c r="T55">
-        <v>3</v>
-      </c>
-      <c r="U55">
-        <v>1.975</v>
-      </c>
-      <c r="V55">
-        <v>1.825</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
@@ -5393,19 +5393,19 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.8500000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5425,10 +5425,10 @@
         <v>45002.57291666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>4</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6270173</v>
+        <v>6270174</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,73 +5514,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K57">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L57">
+        <v>3.6</v>
+      </c>
+      <c r="M57">
+        <v>2.1</v>
+      </c>
+      <c r="N57">
+        <v>3.25</v>
+      </c>
+      <c r="O57">
         <v>3.75</v>
       </c>
-      <c r="M57">
-        <v>3.75</v>
-      </c>
-      <c r="N57">
-        <v>1.7</v>
-      </c>
-      <c r="O57">
-        <v>3.8</v>
-      </c>
       <c r="P57">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R57">
+        <v>1.85</v>
+      </c>
+      <c r="S57">
         <v>1.95</v>
       </c>
-      <c r="S57">
-        <v>1.85</v>
-      </c>
       <c r="T57">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z57">
+        <v>-1</v>
+      </c>
+      <c r="AA57">
         <v>0.95</v>
       </c>
-      <c r="AA57">
-        <v>-1</v>
-      </c>
       <c r="AB57">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6270174</v>
+        <v>6270173</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,73 +5603,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K58">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M58">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N58">
+        <v>1.7</v>
+      </c>
+      <c r="O58">
+        <v>3.8</v>
+      </c>
+      <c r="P58">
+        <v>3.8</v>
+      </c>
+      <c r="Q58">
+        <v>-0.75</v>
+      </c>
+      <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>1.85</v>
+      </c>
+      <c r="T58">
         <v>3.25</v>
       </c>
-      <c r="O58">
-        <v>3.75</v>
-      </c>
-      <c r="P58">
-        <v>1.833</v>
-      </c>
-      <c r="Q58">
-        <v>0.5</v>
-      </c>
-      <c r="R58">
-        <v>1.85</v>
-      </c>
-      <c r="S58">
-        <v>1.95</v>
-      </c>
-      <c r="T58">
-        <v>2.75</v>
-      </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5781,7 +5781,7 @@
         <v>45017.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>29</v>
@@ -5873,7 +5873,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -5947,7 +5947,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6419630</v>
+        <v>6419377</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5959,10 +5959,10 @@
         <v>45018.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5974,40 +5974,40 @@
         <v>43</v>
       </c>
       <c r="K62">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L62">
+        <v>3.6</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
         <v>3.5</v>
       </c>
-      <c r="M62">
-        <v>2.55</v>
-      </c>
-      <c r="N62">
-        <v>2.1</v>
-      </c>
       <c r="O62">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6016,19 +6016,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.9</v>
+        <v>0.909</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6419377</v>
+        <v>6419630</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6048,10 +6048,10 @@
         <v>45018.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6063,40 +6063,40 @@
         <v>43</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L63">
+        <v>3.5</v>
+      </c>
+      <c r="M63">
+        <v>2.55</v>
+      </c>
+      <c r="N63">
+        <v>2.1</v>
+      </c>
+      <c r="O63">
         <v>3.6</v>
       </c>
-      <c r="M63">
-        <v>2</v>
-      </c>
-      <c r="N63">
-        <v>3.5</v>
-      </c>
-      <c r="O63">
-        <v>3.5</v>
-      </c>
       <c r="P63">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6105,19 +6105,19 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.909</v>
+        <v>1.9</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>45019.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>40</v>
@@ -6226,7 +6226,7 @@
         <v>45029.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>35</v>
@@ -6315,7 +6315,7 @@
         <v>45029.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
         <v>31</v>
@@ -6392,7 +6392,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6419375</v>
+        <v>6419378</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6404,76 +6404,76 @@
         <v>45030.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="N67">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P67">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="Q67">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X67">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6419378</v>
+        <v>6419375</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6493,76 +6493,76 @@
         <v>45030.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K68">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="L68">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="N68">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O68">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P68">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6419393</v>
+        <v>6419376</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,55 +6582,55 @@
         <v>45031.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M69">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="N69">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P69">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69">
+        <v>1.975</v>
+      </c>
+      <c r="S69">
         <v>1.825</v>
       </c>
-      <c r="S69">
-        <v>1.975</v>
-      </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6639,19 +6639,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6419376</v>
+        <v>6419393</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,76 +6671,76 @@
         <v>45031.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
         <v>43</v>
       </c>
       <c r="K70">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L70">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
+        <v>2.5</v>
+      </c>
+      <c r="N70">
+        <v>2.375</v>
+      </c>
+      <c r="O70">
+        <v>3.6</v>
+      </c>
+      <c r="P70">
+        <v>2.45</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>1.825</v>
+      </c>
+      <c r="S70">
+        <v>1.975</v>
+      </c>
+      <c r="T70">
+        <v>2.75</v>
+      </c>
+      <c r="U70">
+        <v>1.85</v>
+      </c>
+      <c r="V70">
+        <v>1.95</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>-1</v>
+      </c>
+      <c r="Y70">
         <v>1.45</v>
       </c>
-      <c r="N70">
-        <v>4.75</v>
-      </c>
-      <c r="O70">
-        <v>4.5</v>
-      </c>
-      <c r="P70">
-        <v>1.5</v>
-      </c>
-      <c r="Q70">
-        <v>1</v>
-      </c>
-      <c r="R70">
-        <v>1.975</v>
-      </c>
-      <c r="S70">
-        <v>1.825</v>
-      </c>
-      <c r="T70">
-        <v>3.25</v>
-      </c>
-      <c r="U70">
-        <v>1.9</v>
-      </c>
-      <c r="V70">
-        <v>1.9</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>0.5</v>
-      </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6849,7 +6849,7 @@
         <v>45035.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -7015,7 +7015,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6541222</v>
+        <v>6541221</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,76 +7027,76 @@
         <v>45044.52083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M74">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="N74">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O74">
+        <v>4.75</v>
+      </c>
+      <c r="P74">
+        <v>4</v>
+      </c>
+      <c r="Q74">
+        <v>-0.75</v>
+      </c>
+      <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
+        <v>1.95</v>
+      </c>
+      <c r="T74">
         <v>3.5</v>
       </c>
-      <c r="P74">
-        <v>2.25</v>
-      </c>
-      <c r="Q74">
-        <v>0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.8</v>
-      </c>
-      <c r="S74">
-        <v>2</v>
-      </c>
-      <c r="T74">
-        <v>2.75</v>
-      </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6541221</v>
+        <v>6541222</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,76 +7116,76 @@
         <v>45044.52083333334</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="L75">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7383,10 +7383,10 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7475,7 +7475,7 @@
         <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7561,7 +7561,7 @@
         <v>45049.52083333334</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>30</v>
@@ -7650,10 +7650,10 @@
         <v>45049.625</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6542546</v>
+        <v>6569803</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,76 +7917,76 @@
         <v>45050.625</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P84">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6569803</v>
+        <v>6542546</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,76 +8006,76 @@
         <v>45050.625</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
         <v>3</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
         <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W85">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6565829</v>
+        <v>6569804</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,55 +8095,55 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
         <v>1</v>
-      </c>
-      <c r="I86">
-        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>43</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M86">
-        <v>2.95</v>
+        <v>2</v>
       </c>
       <c r="N86">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="O86">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T86">
         <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8152,19 +8152,19 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6569804</v>
+        <v>6565829</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,55 +8184,55 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>43</v>
       </c>
       <c r="K87">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>2.95</v>
       </c>
       <c r="N87">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="O87">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P87">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T87">
         <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8241,19 +8241,19 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6542547</v>
+        <v>6561638</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
+        <v>2.8</v>
+      </c>
+      <c r="N88">
+        <v>2.45</v>
+      </c>
+      <c r="O88">
         <v>3.4</v>
       </c>
-      <c r="N88">
-        <v>1.65</v>
-      </c>
-      <c r="O88">
-        <v>4.2</v>
-      </c>
       <c r="P88">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6542548</v>
+        <v>6542547</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,40 +8362,40 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>42</v>
       </c>
       <c r="K89">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L89">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="N89">
-        <v>1.166</v>
+        <v>1.65</v>
       </c>
       <c r="O89">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P89">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="Q89">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R89">
         <v>1.8</v>
@@ -8404,7 +8404,7 @@
         <v>2</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U89">
         <v>1.8</v>
@@ -8413,7 +8413,7 @@
         <v>2</v>
       </c>
       <c r="W89">
-        <v>0.1659999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6561638</v>
+        <v>6542548</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="M90">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N90">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P90">
-        <v>2.45</v>
+        <v>12</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X90">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>45154.52083333334</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
         <v>41</v>
@@ -8718,7 +8718,7 @@
         <v>45154.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>35</v>
@@ -8896,7 +8896,7 @@
         <v>45155.60416666666</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
         <v>30</v>
@@ -9344,7 +9344,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9519,7 +9519,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9608,7 +9608,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9789,7 +9789,7 @@
         <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>5</v>
@@ -9964,7 +9964,7 @@
         <v>45171.51041666666</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -10056,7 +10056,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7003586</v>
+        <v>7003478</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,73 +10320,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
         <v>1</v>
       </c>
-      <c r="I111">
-        <v>3</v>
-      </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L111">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M111">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N111">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O111">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q111">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>3</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA111">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7003478</v>
+        <v>7003586</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,73 +10409,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>3</v>
       </c>
-      <c r="I112">
+      <c r="J112" t="s">
+        <v>43</v>
+      </c>
+      <c r="K112">
+        <v>5</v>
+      </c>
+      <c r="L112">
+        <v>4.333</v>
+      </c>
+      <c r="M112">
+        <v>1.55</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
+      </c>
+      <c r="O112">
+        <v>4.2</v>
+      </c>
+      <c r="P112">
+        <v>1.571</v>
+      </c>
+      <c r="Q112">
         <v>1</v>
       </c>
-      <c r="J112" t="s">
-        <v>42</v>
-      </c>
-      <c r="K112">
-        <v>2</v>
-      </c>
-      <c r="L112">
-        <v>3.6</v>
-      </c>
-      <c r="M112">
-        <v>3.25</v>
-      </c>
-      <c r="N112">
+      <c r="R112">
+        <v>1.85</v>
+      </c>
+      <c r="S112">
         <v>1.95</v>
-      </c>
-      <c r="O112">
-        <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>3.4</v>
-      </c>
-      <c r="Q112">
-        <v>-0.5</v>
-      </c>
-      <c r="R112">
-        <v>1.975</v>
-      </c>
-      <c r="S112">
-        <v>1.825</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>0.571</v>
+      </c>
+      <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
         <v>0.95</v>
       </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
-      <c r="Z112">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10587,10 +10587,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10854,7 +10854,7 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -10943,7 +10943,7 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
         <v>29</v>
@@ -11121,7 +11121,7 @@
         <v>45198.5</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
         <v>30</v>
@@ -11299,7 +11299,7 @@
         <v>45219.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
         <v>35</v>
@@ -11922,7 +11922,7 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
         <v>31</v>
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7004604</v>
+        <v>7004607</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,55 +12011,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
         <v>42</v>
       </c>
       <c r="K130">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L130">
         <v>3.75</v>
       </c>
       <c r="M130">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N130">
         <v>1.75</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
         <v>3</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>0.75</v>
@@ -12071,16 +12071,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7004607</v>
+        <v>7004604</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,55 +12100,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
         <v>42</v>
       </c>
       <c r="K131">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L131">
         <v>3.75</v>
       </c>
       <c r="M131">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N131">
         <v>1.75</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
+        <v>1.75</v>
+      </c>
+      <c r="S131">
         <v>1.95</v>
-      </c>
-      <c r="S131">
-        <v>1.85</v>
       </c>
       <c r="T131">
         <v>3</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
         <v>0.75</v>
@@ -12160,16 +12160,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,73 +12189,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L132">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N132">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O132">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q132">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U132">
+        <v>1.85</v>
+      </c>
+      <c r="V132">
         <v>1.95</v>
       </c>
-      <c r="V132">
-        <v>1.85</v>
-      </c>
       <c r="W132">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K133">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M133">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N133">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P133">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U133">
+        <v>1.95</v>
+      </c>
+      <c r="V133">
         <v>1.85</v>
       </c>
-      <c r="V133">
-        <v>1.95</v>
-      </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7004610</v>
+        <v>7003482</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,76 +12456,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
+        <v>3.5</v>
+      </c>
+      <c r="M135">
+        <v>2.8</v>
+      </c>
+      <c r="N135">
+        <v>1.909</v>
+      </c>
+      <c r="O135">
         <v>3.6</v>
       </c>
-      <c r="M135">
-        <v>3.8</v>
-      </c>
-      <c r="N135">
-        <v>1.8</v>
-      </c>
-      <c r="O135">
-        <v>3.4</v>
-      </c>
       <c r="P135">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
+        <v>1.825</v>
+      </c>
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
+        <v>1.775</v>
+      </c>
+      <c r="V135">
         <v>1.925</v>
       </c>
-      <c r="T135">
-        <v>2.75</v>
-      </c>
-      <c r="U135">
-        <v>1.8</v>
-      </c>
-      <c r="V135">
-        <v>2</v>
-      </c>
       <c r="W135">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7003482</v>
+        <v>7004610</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,76 +12545,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L136">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N136">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q136">
         <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>5</v>
@@ -12812,7 +12812,7 @@
         <v>45254.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
         <v>31</v>
@@ -12889,7 +12889,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7004613</v>
+        <v>7004615</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12901,40 +12901,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>2</v>
-      </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K140">
+        <v>2.1</v>
+      </c>
+      <c r="L140">
         <v>3.6</v>
       </c>
-      <c r="L140">
-        <v>4</v>
-      </c>
       <c r="M140">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O140">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
         <v>1.825</v>
@@ -12943,7 +12943,7 @@
         <v>1.975</v>
       </c>
       <c r="T140">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
         <v>1.975</v>
@@ -12952,25 +12952,25 @@
         <v>1.825</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12978,7 +12978,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7004615</v>
+        <v>7004613</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12990,40 +12990,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N141">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O141">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
         <v>1.825</v>
@@ -13032,7 +13032,7 @@
         <v>1.975</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U141">
         <v>1.975</v>
@@ -13041,25 +13041,25 @@
         <v>1.825</v>
       </c>
       <c r="W141">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
         <v>0.825</v>
-      </c>
-      <c r="AA141">
-        <v>-1</v>
-      </c>
-      <c r="AB141">
-        <v>0.4875</v>
-      </c>
-      <c r="AC141">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13168,10 +13168,10 @@
         <v>45261.47916666666</v>
       </c>
       <c r="F143" t="s">
+        <v>37</v>
+      </c>
+      <c r="G143" t="s">
         <v>36</v>
-      </c>
-      <c r="G143" t="s">
-        <v>37</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7004618</v>
+        <v>7004619</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,31 +13435,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L146">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M146">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N146">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O146">
         <v>3.8</v>
@@ -13471,40 +13471,40 @@
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T146">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U146">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X146">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7004619</v>
+        <v>7004618</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,31 +13524,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K147">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L147">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M147">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N147">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O147">
         <v>3.8</v>
@@ -13560,40 +13560,40 @@
         <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13794,7 +13794,7 @@
         <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13880,7 +13880,7 @@
         <v>45268.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
         <v>31</v>
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7004621</v>
+        <v>7004622</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,10 +13969,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13993,37 +13993,37 @@
         <v>5</v>
       </c>
       <c r="N152">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P152">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q152">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T152">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y152">
         <v>-1</v>
@@ -14032,13 +14032,13 @@
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7004622</v>
+        <v>7004621</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,10 +14058,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14082,38 +14082,38 @@
         <v>5</v>
       </c>
       <c r="N153">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O153">
+        <v>5</v>
+      </c>
+      <c r="P153">
+        <v>6</v>
+      </c>
+      <c r="Q153">
+        <v>-1.5</v>
+      </c>
+      <c r="R153">
+        <v>1.975</v>
+      </c>
+      <c r="S153">
+        <v>1.825</v>
+      </c>
+      <c r="T153">
+        <v>3.75</v>
+      </c>
+      <c r="U153">
+        <v>1.975</v>
+      </c>
+      <c r="V153">
+        <v>1.825</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
         <v>4</v>
       </c>
-      <c r="P153">
-        <v>3.6</v>
-      </c>
-      <c r="Q153">
-        <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.8</v>
-      </c>
-      <c r="S153">
-        <v>2</v>
-      </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>1.8</v>
-      </c>
-      <c r="V153">
-        <v>2</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>3</v>
-      </c>
       <c r="Y153">
         <v>-1</v>
       </c>
@@ -14121,13 +14121,13 @@
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14417,7 +14417,7 @@
         <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7609336</v>
+        <v>7004626</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,40 +14503,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K158">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M158">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N158">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O158">
         <v>3.75</v>
       </c>
       <c r="P158">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q158">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
         <v>1.925</v>
@@ -14554,25 +14554,25 @@
         <v>1.975</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7004626</v>
+        <v>7609336</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,40 +14592,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H159">
         <v>2</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K159">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L159">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="N159">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O159">
         <v>3.75</v>
       </c>
       <c r="P159">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R159">
         <v>1.925</v>
@@ -14643,25 +14643,25 @@
         <v>1.975</v>
       </c>
       <c r="W159">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z159">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14669,7 +14669,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7004627</v>
+        <v>7609335</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14681,40 +14681,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
         <v>36</v>
       </c>
       <c r="H160">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K160">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="L160">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M160">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="N160">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O160">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P160">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q160">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R160">
         <v>2</v>
@@ -14723,19 +14723,19 @@
         <v>1.8</v>
       </c>
       <c r="T160">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y160">
         <v>-1</v>
@@ -14747,10 +14747,10 @@
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14758,7 +14758,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7609335</v>
+        <v>7004627</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14770,40 +14770,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K161">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="L161">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M161">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="N161">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="O161">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P161">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q161">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R161">
         <v>2</v>
@@ -14812,19 +14812,19 @@
         <v>1.8</v>
       </c>
       <c r="T161">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X161">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
@@ -14836,10 +14836,10 @@
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC161">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7003595</v>
+        <v>7839494</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,49 +15034,49 @@
         <v>28</v>
       </c>
       <c r="E164" s="2">
-        <v>45342.5</v>
+        <v>45346.5</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K164">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M164">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="N164">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P164">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q164">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S164">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T164">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W164">
         <v>0</v>
@@ -15099,7 +15099,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7004636</v>
+        <v>7840799</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15108,43 +15108,43 @@
         <v>28</v>
       </c>
       <c r="E165" s="2">
-        <v>45342.58333333334</v>
+        <v>45346.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K165">
-        <v>1.363</v>
+        <v>2.55</v>
       </c>
       <c r="L165">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N165">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O165">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P165">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q165">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T165">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U165">
         <v>1.95</v>
@@ -15173,7 +15173,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7004635</v>
+        <v>7840798</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15182,49 +15182,49 @@
         <v>28</v>
       </c>
       <c r="E166" s="2">
-        <v>45342.58333333334</v>
+        <v>45346.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K166">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M166">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N166">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P166">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U166">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15247,7 +15247,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7839494</v>
+        <v>7864767</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15256,49 +15256,49 @@
         <v>28</v>
       </c>
       <c r="E167" s="2">
-        <v>45346.5</v>
+        <v>45347.5</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K167">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="N167">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="O167">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P167">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -15321,7 +15321,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7840798</v>
+        <v>7840684</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15330,49 +15330,49 @@
         <v>28</v>
       </c>
       <c r="E168" s="2">
-        <v>45346.58333333334</v>
+        <v>45347.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K168">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L168">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M168">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N168">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="O168">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q168">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R168">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S168">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T168">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -15387,80 +15387,6 @@
         <v>0</v>
       </c>
       <c r="AA168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:29">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>7840799</v>
-      </c>
-      <c r="C169" t="s">
-        <v>28</v>
-      </c>
-      <c r="D169" t="s">
-        <v>28</v>
-      </c>
-      <c r="E169" s="2">
-        <v>45346.58333333334</v>
-      </c>
-      <c r="F169" t="s">
-        <v>36</v>
-      </c>
-      <c r="G169" t="s">
-        <v>41</v>
-      </c>
-      <c r="K169">
-        <v>2.55</v>
-      </c>
-      <c r="L169">
-        <v>3.4</v>
-      </c>
-      <c r="M169">
-        <v>2.5</v>
-      </c>
-      <c r="N169">
-        <v>2.55</v>
-      </c>
-      <c r="O169">
-        <v>3.4</v>
-      </c>
-      <c r="P169">
-        <v>2.5</v>
-      </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169">
-        <v>1.925</v>
-      </c>
-      <c r="S169">
-        <v>1.875</v>
-      </c>
-      <c r="T169">
-        <v>3</v>
-      </c>
-      <c r="U169">
-        <v>1.925</v>
-      </c>
-      <c r="V169">
-        <v>1.875</v>
-      </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-      <c r="X169">
-        <v>0</v>
-      </c>
-      <c r="Y169">
-        <v>0</v>
-      </c>
-      <c r="Z169">
-        <v>0</v>
-      </c>
-      <c r="AA169">
         <v>0</v>
       </c>
     </row>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -124,10 +124,10 @@
     <t>AlShamal SC</t>
   </si>
   <si>
-    <t>AlArabi Doha</t>
+    <t>Al Markhiya</t>
   </si>
   <si>
-    <t>Al Markhiya</t>
+    <t>AlArabi Doha</t>
   </si>
   <si>
     <t>Al Gharafa</t>
@@ -800,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6046095</v>
+        <v>6046094</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1423,37 +1423,37 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N11">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
         <v>1.925</v>
@@ -1462,7 +1462,7 @@
         <v>1.875</v>
       </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U11">
         <v>1.825</v>
@@ -1474,22 +1474,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y11">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6046094</v>
+        <v>6046095</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1512,37 +1512,37 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1551,7 +1551,7 @@
         <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
         <v>1.825</v>
@@ -1563,22 +1563,22 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2313,7 +2313,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6046105</v>
+        <v>6046104</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,76 +2399,76 @@
         <v>44961.44097222222</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="L22">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N22">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P22">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T22">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6046104</v>
+        <v>6046105</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,76 +2488,76 @@
         <v>44961.44097222222</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="L23">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M23">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O23">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q23">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>44962.44097222222</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6046110</v>
+        <v>6046111</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,76 +2933,76 @@
         <v>44970.44791666666</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="O28">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q28">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.45</v>
+        <v>0.4125</v>
       </c>
       <c r="AA28">
         <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6046111</v>
+        <v>6046110</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,76 +3022,76 @@
         <v>44970.44791666666</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L29">
+        <v>4.5</v>
+      </c>
+      <c r="M29">
+        <v>9</v>
+      </c>
+      <c r="N29">
+        <v>1.25</v>
+      </c>
+      <c r="O29">
+        <v>5.25</v>
+      </c>
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>-1.75</v>
+      </c>
+      <c r="R29">
+        <v>1.9</v>
+      </c>
+      <c r="S29">
+        <v>1.9</v>
+      </c>
+      <c r="T29">
         <v>3.5</v>
       </c>
-      <c r="M29">
-        <v>3.1</v>
-      </c>
-      <c r="N29">
-        <v>2.8</v>
-      </c>
-      <c r="O29">
-        <v>3.4</v>
-      </c>
-      <c r="P29">
-        <v>2.1</v>
-      </c>
-      <c r="Q29">
+      <c r="U29">
+        <v>1.85</v>
+      </c>
+      <c r="V29">
+        <v>1.95</v>
+      </c>
+      <c r="W29">
         <v>0.25</v>
       </c>
-      <c r="R29">
-        <v>1.825</v>
-      </c>
-      <c r="S29">
-        <v>1.975</v>
-      </c>
-      <c r="T29">
-        <v>2.5</v>
-      </c>
-      <c r="U29">
-        <v>1.825</v>
-      </c>
-      <c r="V29">
-        <v>1.975</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
       <c r="X29">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.4125</v>
+        <v>0.45</v>
       </c>
       <c r="AA29">
         <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>44972.44791666666</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -3734,10 +3734,10 @@
         <v>44978.44791666666</v>
       </c>
       <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
         <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>36</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6087480</v>
+        <v>6087445</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3912,76 +3912,76 @@
         <v>44982.44791666666</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="O39">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q39">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z39">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6087445</v>
+        <v>6087480</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,76 +4001,76 @@
         <v>44982.44791666666</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N40">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="O40">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P40">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="Q40">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4535,7 +4535,7 @@
         <v>44988.5625</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
         <v>34</v>
@@ -4716,7 +4716,7 @@
         <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5161,7 +5161,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>45002.57291666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5514,7 +5514,7 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6419629</v>
+        <v>6419373</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,73 +5781,73 @@
         <v>45017.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L60">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M60">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N60">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="O60">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P60">
-        <v>1.222</v>
+        <v>3.1</v>
       </c>
       <c r="Q60">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA60">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5858,7 +5858,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6419373</v>
+        <v>6419629</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5870,73 +5870,73 @@
         <v>45017.65625</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="L61">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
+        <v>1.727</v>
+      </c>
+      <c r="N61">
+        <v>9</v>
+      </c>
+      <c r="O61">
         <v>5.5</v>
       </c>
-      <c r="N61">
+      <c r="P61">
+        <v>1.222</v>
+      </c>
+      <c r="Q61">
+        <v>1.75</v>
+      </c>
+      <c r="R61">
+        <v>1.975</v>
+      </c>
+      <c r="S61">
+        <v>1.825</v>
+      </c>
+      <c r="T61">
+        <v>3.5</v>
+      </c>
+      <c r="U61">
+        <v>1.95</v>
+      </c>
+      <c r="V61">
         <v>1.85</v>
       </c>
-      <c r="O61">
-        <v>3.8</v>
-      </c>
-      <c r="P61">
-        <v>3.1</v>
-      </c>
-      <c r="Q61">
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
+        <v>0.222</v>
+      </c>
+      <c r="Z61">
         <v>-0.5</v>
       </c>
-      <c r="R61">
-        <v>1.9</v>
-      </c>
-      <c r="S61">
-        <v>1.9</v>
-      </c>
-      <c r="T61">
-        <v>3.25</v>
-      </c>
-      <c r="U61">
-        <v>1.875</v>
-      </c>
-      <c r="V61">
-        <v>1.925</v>
-      </c>
-      <c r="W61">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
-      <c r="Z61">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB61">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5959,7 +5959,7 @@
         <v>45018.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
         <v>38</v>
@@ -6137,7 +6137,7 @@
         <v>45019.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
         <v>40</v>
@@ -6315,7 +6315,7 @@
         <v>45029.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
         <v>31</v>
@@ -6392,7 +6392,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6419378</v>
+        <v>6419375</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6404,76 +6404,76 @@
         <v>45030.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K67">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="L67">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="N67">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O67">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P67">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6419375</v>
+        <v>6419378</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6493,76 +6493,76 @@
         <v>45030.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="N68">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P68">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="Q68">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X68">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6671,7 +6671,7 @@
         <v>45031.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
@@ -6849,7 +6849,7 @@
         <v>45035.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -7015,7 +7015,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6541221</v>
+        <v>6541222</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,76 +7027,76 @@
         <v>45044.52083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="L74">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="N74">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6541222</v>
+        <v>6541221</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,76 +7116,76 @@
         <v>45044.52083333334</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="N75">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O75">
+        <v>4.75</v>
+      </c>
+      <c r="P75">
+        <v>4</v>
+      </c>
+      <c r="Q75">
+        <v>-0.75</v>
+      </c>
+      <c r="R75">
+        <v>1.85</v>
+      </c>
+      <c r="S75">
+        <v>1.95</v>
+      </c>
+      <c r="T75">
         <v>3.5</v>
       </c>
-      <c r="P75">
-        <v>2.25</v>
-      </c>
-      <c r="Q75">
-        <v>0.25</v>
-      </c>
-      <c r="R75">
-        <v>1.8</v>
-      </c>
-      <c r="S75">
-        <v>2</v>
-      </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6546394</v>
+        <v>6546393</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,76 +7650,76 @@
         <v>45049.625</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>44</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>3.6</v>
+      </c>
+      <c r="M81">
         <v>3</v>
       </c>
-      <c r="J81" t="s">
-        <v>43</v>
-      </c>
-      <c r="K81">
-        <v>2.3</v>
-      </c>
-      <c r="L81">
+      <c r="N81">
+        <v>2.15</v>
+      </c>
+      <c r="O81">
         <v>3.5</v>
       </c>
-      <c r="M81">
-        <v>2.625</v>
-      </c>
-      <c r="N81">
-        <v>3.75</v>
-      </c>
-      <c r="O81">
-        <v>3.8</v>
-      </c>
       <c r="P81">
+        <v>2.75</v>
+      </c>
+      <c r="Q81">
+        <v>-0.25</v>
+      </c>
+      <c r="R81">
+        <v>1.925</v>
+      </c>
+      <c r="S81">
+        <v>1.875</v>
+      </c>
+      <c r="T81">
+        <v>2.5</v>
+      </c>
+      <c r="U81">
         <v>1.8</v>
       </c>
-      <c r="Q81">
-        <v>0.75</v>
-      </c>
-      <c r="R81">
-        <v>1.75</v>
-      </c>
-      <c r="S81">
-        <v>1.95</v>
-      </c>
-      <c r="T81">
-        <v>3</v>
-      </c>
-      <c r="U81">
-        <v>1.925</v>
-      </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6546393</v>
+        <v>6546394</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,76 +7739,76 @@
         <v>45049.625</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
+        <v>2.625</v>
+      </c>
+      <c r="N82">
+        <v>3.75</v>
+      </c>
+      <c r="O82">
+        <v>3.8</v>
+      </c>
+      <c r="P82">
+        <v>1.8</v>
+      </c>
+      <c r="Q82">
+        <v>0.75</v>
+      </c>
+      <c r="R82">
+        <v>1.75</v>
+      </c>
+      <c r="S82">
+        <v>1.95</v>
+      </c>
+      <c r="T82">
         <v>3</v>
       </c>
-      <c r="N82">
-        <v>2.15</v>
-      </c>
-      <c r="O82">
-        <v>3.5</v>
-      </c>
-      <c r="P82">
-        <v>2.75</v>
-      </c>
-      <c r="Q82">
-        <v>-0.25</v>
-      </c>
-      <c r="R82">
+      <c r="U82">
         <v>1.925</v>
       </c>
-      <c r="S82">
+      <c r="V82">
         <v>1.875</v>
       </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.8</v>
-      </c>
-      <c r="V82">
-        <v>2</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC82">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6569803</v>
+        <v>6542546</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,76 +7917,76 @@
         <v>45050.625</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
         <v>3</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W84">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6542546</v>
+        <v>6569803</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,76 +8006,76 @@
         <v>45050.625</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N85">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
         <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6542547</v>
+        <v>6542548</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,40 +8362,40 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>42</v>
       </c>
       <c r="K89">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="M89">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="N89">
-        <v>1.65</v>
+        <v>1.166</v>
       </c>
       <c r="O89">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P89">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="Q89">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R89">
         <v>1.8</v>
@@ -8404,7 +8404,7 @@
         <v>2</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
         <v>1.8</v>
@@ -8413,7 +8413,7 @@
         <v>2</v>
       </c>
       <c r="W89">
-        <v>0.6499999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6542548</v>
+        <v>6542547</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,40 +8451,40 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>42</v>
       </c>
       <c r="K90">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L90">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="N90">
-        <v>1.166</v>
+        <v>1.65</v>
       </c>
       <c r="O90">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P90">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="Q90">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
         <v>1.8</v>
@@ -8493,7 +8493,7 @@
         <v>2</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U90">
         <v>1.8</v>
@@ -8502,7 +8502,7 @@
         <v>2</v>
       </c>
       <c r="W90">
-        <v>0.1659999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8543,7 +8543,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8718,7 +8718,7 @@
         <v>45154.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
         <v>35</v>
@@ -8896,7 +8896,7 @@
         <v>45155.60416666666</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
         <v>30</v>
@@ -9344,7 +9344,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9519,7 +9519,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7004589</v>
+        <v>7004588</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,73 +9786,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K105">
+        <v>2.9</v>
+      </c>
+      <c r="L105">
+        <v>3.3</v>
+      </c>
+      <c r="M105">
+        <v>2.25</v>
+      </c>
+      <c r="N105">
+        <v>3.75</v>
+      </c>
+      <c r="O105">
+        <v>3.4</v>
+      </c>
+      <c r="P105">
+        <v>1.909</v>
+      </c>
+      <c r="Q105">
+        <v>0.5</v>
+      </c>
+      <c r="R105">
+        <v>1.85</v>
+      </c>
+      <c r="S105">
+        <v>1.95</v>
+      </c>
+      <c r="T105">
+        <v>2.5</v>
+      </c>
+      <c r="U105">
+        <v>1.85</v>
+      </c>
+      <c r="V105">
+        <v>1.95</v>
+      </c>
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
         <v>2.4</v>
       </c>
-      <c r="L105">
-        <v>3.6</v>
-      </c>
-      <c r="M105">
-        <v>2.375</v>
-      </c>
-      <c r="N105">
-        <v>2.5</v>
-      </c>
-      <c r="O105">
-        <v>3.5</v>
-      </c>
-      <c r="P105">
-        <v>2.3</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>1.975</v>
-      </c>
-      <c r="S105">
-        <v>1.825</v>
-      </c>
-      <c r="T105">
-        <v>3</v>
-      </c>
-      <c r="U105">
-        <v>2</v>
-      </c>
-      <c r="V105">
-        <v>1.8</v>
-      </c>
-      <c r="W105">
-        <v>1.5</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7004588</v>
+        <v>7004589</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,73 +9875,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K106">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L106">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N106">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O106">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X106">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9964,7 +9964,7 @@
         <v>45171.51041666666</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7003585</v>
+        <v>7004591</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,76 +10053,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M108">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N108">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O108">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q108">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10130,7 +10130,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7004591</v>
+        <v>7003585</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10142,76 +10142,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>44</v>
+      </c>
+      <c r="K109">
+        <v>1.615</v>
+      </c>
+      <c r="L109">
         <v>4</v>
       </c>
-      <c r="J109" t="s">
-        <v>43</v>
-      </c>
-      <c r="K109">
-        <v>4.5</v>
-      </c>
-      <c r="L109">
+      <c r="M109">
+        <v>4.333</v>
+      </c>
+      <c r="N109">
+        <v>1.533</v>
+      </c>
+      <c r="O109">
         <v>4.2</v>
       </c>
-      <c r="M109">
-        <v>1.55</v>
-      </c>
-      <c r="N109">
-        <v>3.3</v>
-      </c>
-      <c r="O109">
-        <v>3.8</v>
-      </c>
       <c r="P109">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7004593</v>
+        <v>7004592</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114" t="s">
+        <v>44</v>
+      </c>
+      <c r="K114">
+        <v>2.4</v>
+      </c>
+      <c r="L114">
+        <v>3.6</v>
+      </c>
+      <c r="M114">
+        <v>2.4</v>
+      </c>
+      <c r="N114">
+        <v>2.4</v>
+      </c>
+      <c r="O114">
+        <v>3.6</v>
+      </c>
+      <c r="P114">
+        <v>2.45</v>
+      </c>
+      <c r="Q114">
         <v>0</v>
       </c>
-      <c r="I114">
-        <v>3</v>
-      </c>
-      <c r="J114" t="s">
-        <v>43</v>
-      </c>
-      <c r="K114">
-        <v>4</v>
-      </c>
-      <c r="L114">
-        <v>4</v>
-      </c>
-      <c r="M114">
-        <v>1.727</v>
-      </c>
-      <c r="N114">
-        <v>4.75</v>
-      </c>
-      <c r="O114">
-        <v>4.333</v>
-      </c>
-      <c r="P114">
-        <v>1.571</v>
-      </c>
-      <c r="Q114">
-        <v>1</v>
-      </c>
       <c r="R114">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
+        <v>1.875</v>
+      </c>
+      <c r="T114">
+        <v>2.75</v>
+      </c>
+      <c r="U114">
+        <v>1.75</v>
+      </c>
+      <c r="V114">
         <v>1.95</v>
       </c>
-      <c r="T114">
-        <v>3</v>
-      </c>
-      <c r="U114">
-        <v>1.825</v>
-      </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y114">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7004592</v>
+        <v>7004593</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K115">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M115">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N115">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="Q115">
+        <v>1</v>
+      </c>
+      <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
+        <v>1.95</v>
+      </c>
+      <c r="T115">
+        <v>3</v>
+      </c>
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
+        <v>1.975</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>0.571</v>
+      </c>
+      <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
+        <v>0.95</v>
+      </c>
+      <c r="AB115">
         <v>0</v>
       </c>
-      <c r="R115">
-        <v>1.925</v>
-      </c>
-      <c r="S115">
-        <v>1.875</v>
-      </c>
-      <c r="T115">
-        <v>2.75</v>
-      </c>
-      <c r="U115">
-        <v>1.75</v>
-      </c>
-      <c r="V115">
-        <v>1.95</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>2.6</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>0</v>
-      </c>
-      <c r="AA115">
+      <c r="AC115">
         <v>-0</v>
-      </c>
-      <c r="AB115">
-        <v>0.75</v>
-      </c>
-      <c r="AC115">
-        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,73 +10857,73 @@
         <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K117">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M117">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N117">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O117">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P117">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R117">
+        <v>1.775</v>
+      </c>
+      <c r="S117">
+        <v>2.025</v>
+      </c>
+      <c r="T117">
+        <v>3.5</v>
+      </c>
+      <c r="U117">
+        <v>1.975</v>
+      </c>
+      <c r="V117">
         <v>1.825</v>
       </c>
-      <c r="S117">
-        <v>1.975</v>
-      </c>
-      <c r="T117">
-        <v>3</v>
-      </c>
-      <c r="U117">
-        <v>2</v>
-      </c>
-      <c r="V117">
-        <v>1.8</v>
-      </c>
       <c r="W117">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z117">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,73 +10946,73 @@
         <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K118">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M118">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N118">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O118">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q118">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7004599</v>
+        <v>7004598</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,73 +11032,73 @@
         <v>45198.5</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K119">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L119">
         <v>3.5</v>
       </c>
       <c r="M119">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O119">
         <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T119">
         <v>2.75</v>
       </c>
       <c r="U119">
+        <v>1.85</v>
+      </c>
+      <c r="V119">
+        <v>1.95</v>
+      </c>
+      <c r="W119">
         <v>1.8</v>
       </c>
-      <c r="V119">
-        <v>2</v>
-      </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7004598</v>
+        <v>7004599</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,73 +11121,73 @@
         <v>45198.5</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>3</v>
       </c>
-      <c r="I120">
-        <v>2</v>
-      </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L120">
         <v>3.5</v>
       </c>
       <c r="M120">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N120">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O120">
         <v>3.4</v>
       </c>
       <c r="P120">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
         <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W120">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z120">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11299,7 +11299,7 @@
         <v>45219.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>35</v>
@@ -11922,7 +11922,7 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
         <v>31</v>
@@ -12103,7 +12103,7 @@
         <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H131">
         <v>4</v>
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,73 +12189,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M132">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N132">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P132">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="V132">
-        <v>1.95</v>
-      </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L133">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N133">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O133">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q133">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U133">
+        <v>1.85</v>
+      </c>
+      <c r="V133">
         <v>1.95</v>
       </c>
-      <c r="V133">
-        <v>1.85</v>
-      </c>
       <c r="W133">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7003482</v>
+        <v>7004610</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,76 +12456,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N135">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P135">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7004610</v>
+        <v>7003482</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,76 +12545,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K136">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
+        <v>3.5</v>
+      </c>
+      <c r="M136">
+        <v>2.8</v>
+      </c>
+      <c r="N136">
+        <v>1.909</v>
+      </c>
+      <c r="O136">
         <v>3.6</v>
       </c>
-      <c r="M136">
-        <v>3.8</v>
-      </c>
-      <c r="N136">
-        <v>1.8</v>
-      </c>
-      <c r="O136">
-        <v>3.4</v>
-      </c>
       <c r="P136">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q136">
         <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
+        <v>1.825</v>
+      </c>
+      <c r="T136">
+        <v>3.25</v>
+      </c>
+      <c r="U136">
+        <v>1.775</v>
+      </c>
+      <c r="V136">
         <v>1.925</v>
       </c>
-      <c r="T136">
-        <v>2.75</v>
-      </c>
-      <c r="U136">
-        <v>1.8</v>
-      </c>
-      <c r="V136">
-        <v>2</v>
-      </c>
       <c r="W136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>5</v>
@@ -12812,7 +12812,7 @@
         <v>45254.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
         <v>31</v>
@@ -12889,7 +12889,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7004615</v>
+        <v>7004613</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12901,40 +12901,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N140">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O140">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P140">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
         <v>1.825</v>
@@ -12943,7 +12943,7 @@
         <v>1.975</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U140">
         <v>1.975</v>
@@ -12952,25 +12952,25 @@
         <v>1.825</v>
       </c>
       <c r="W140">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.825</v>
-      </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
-      <c r="AB140">
-        <v>0.4875</v>
-      </c>
-      <c r="AC140">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12978,7 +12978,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7004613</v>
+        <v>7004615</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12990,40 +12990,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
         <v>1</v>
       </c>
-      <c r="I141">
-        <v>2</v>
-      </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K141">
+        <v>2.1</v>
+      </c>
+      <c r="L141">
         <v>3.6</v>
       </c>
-      <c r="L141">
-        <v>4</v>
-      </c>
       <c r="M141">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N141">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P141">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R141">
         <v>1.825</v>
@@ -13032,7 +13032,7 @@
         <v>1.975</v>
       </c>
       <c r="T141">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
         <v>1.975</v>
@@ -13041,25 +13041,25 @@
         <v>1.825</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13168,10 +13168,10 @@
         <v>45261.47916666666</v>
       </c>
       <c r="F143" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143" t="s">
         <v>37</v>
-      </c>
-      <c r="G143" t="s">
-        <v>36</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7004619</v>
+        <v>7004618</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,31 +13435,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K146">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L146">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N146">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O146">
         <v>3.8</v>
@@ -13471,40 +13471,40 @@
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7004618</v>
+        <v>7004619</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,31 +13524,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M147">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O147">
         <v>3.8</v>
@@ -13560,40 +13560,40 @@
         <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X147">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13779,7 +13779,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7004620</v>
+        <v>7003485</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13791,76 +13791,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K150">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L150">
+        <v>4.2</v>
+      </c>
+      <c r="M150">
+        <v>5</v>
+      </c>
+      <c r="N150">
+        <v>1.615</v>
+      </c>
+      <c r="O150">
         <v>3.75</v>
       </c>
-      <c r="M150">
-        <v>4</v>
-      </c>
-      <c r="N150">
-        <v>1.833</v>
-      </c>
-      <c r="O150">
-        <v>3.6</v>
-      </c>
       <c r="P150">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q150">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T150">
         <v>3</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V150">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X150">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA150">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13868,7 +13868,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7003485</v>
+        <v>7004620</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13880,76 +13880,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K151">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L151">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N151">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O151">
+        <v>3.6</v>
+      </c>
+      <c r="P151">
         <v>3.75</v>
       </c>
-      <c r="P151">
-        <v>4.75</v>
-      </c>
       <c r="Q151">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S151">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T151">
         <v>3</v>
       </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W151">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB151">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14669,7 +14669,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7609335</v>
+        <v>7004627</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14681,40 +14681,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
         <v>36</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K160">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="L160">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M160">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="N160">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P160">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q160">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R160">
         <v>2</v>
@@ -14723,19 +14723,19 @@
         <v>1.8</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X160">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
@@ -14747,10 +14747,10 @@
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC160">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14758,7 +14758,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7004627</v>
+        <v>7609335</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14770,40 +14770,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
       </c>
       <c r="H161">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K161">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="L161">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M161">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="N161">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O161">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P161">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q161">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R161">
         <v>2</v>
@@ -14812,19 +14812,19 @@
         <v>1.8</v>
       </c>
       <c r="T161">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V161">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W161">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y161">
         <v>-1</v>
@@ -14836,10 +14836,10 @@
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15099,7 +15099,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7840799</v>
+        <v>7840798</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15111,46 +15111,46 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K165">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M165">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N165">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O165">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P165">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
+        <v>1.975</v>
+      </c>
+      <c r="T165">
+        <v>3.75</v>
+      </c>
+      <c r="U165">
+        <v>2</v>
+      </c>
+      <c r="V165">
         <v>1.8</v>
-      </c>
-      <c r="T165">
-        <v>3</v>
-      </c>
-      <c r="U165">
-        <v>1.95</v>
-      </c>
-      <c r="V165">
-        <v>1.85</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15173,7 +15173,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7840798</v>
+        <v>7840799</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15185,46 +15185,46 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K166">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L166">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N166">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O166">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q166">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15274,31 +15274,31 @@
         <v>1.6</v>
       </c>
       <c r="N167">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O167">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q167">
         <v>1</v>
       </c>
       <c r="R167">
+        <v>1.95</v>
+      </c>
+      <c r="S167">
+        <v>1.85</v>
+      </c>
+      <c r="T167">
+        <v>3.5</v>
+      </c>
+      <c r="U167">
+        <v>1.975</v>
+      </c>
+      <c r="V167">
         <v>1.825</v>
-      </c>
-      <c r="S167">
-        <v>1.975</v>
-      </c>
-      <c r="T167">
-        <v>3.25</v>
-      </c>
-      <c r="U167">
-        <v>1.825</v>
-      </c>
-      <c r="V167">
-        <v>1.975</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -15336,7 +15336,7 @@
         <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K168">
         <v>2.3</v>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -124,10 +124,10 @@
     <t>AlShamal SC</t>
   </si>
   <si>
-    <t>Al Markhiya</t>
+    <t>AlArabi Doha</t>
   </si>
   <si>
-    <t>AlArabi Doha</t>
+    <t>Al Markhiya</t>
   </si>
   <si>
     <t>Al Gharafa</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC168"/>
+  <dimension ref="A1:AC169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -800,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5682631</v>
+        <v>5682632</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,76 +975,76 @@
         <v>44937.52083333334</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
+        <v>2.25</v>
+      </c>
+      <c r="N6">
+        <v>2.4</v>
+      </c>
+      <c r="O6">
+        <v>3.6</v>
+      </c>
+      <c r="P6">
+        <v>2.4</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1.925</v>
+      </c>
+      <c r="S6">
+        <v>1.875</v>
+      </c>
+      <c r="T6">
+        <v>2.75</v>
+      </c>
+      <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
+        <v>1.825</v>
+      </c>
+      <c r="W6">
         <v>1.4</v>
       </c>
-      <c r="N6">
-        <v>7</v>
-      </c>
-      <c r="O6">
-        <v>6</v>
-      </c>
-      <c r="P6">
-        <v>1.25</v>
-      </c>
-      <c r="Q6">
-        <v>1.75</v>
-      </c>
-      <c r="R6">
-        <v>1.975</v>
-      </c>
-      <c r="S6">
-        <v>1.825</v>
-      </c>
-      <c r="T6">
-        <v>3.5</v>
-      </c>
-      <c r="U6">
-        <v>1.825</v>
-      </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.925</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>-1</v>
-      </c>
       <c r="AC6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5682632</v>
+        <v>5682631</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,76 +1064,76 @@
         <v>44937.52083333334</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7">
-        <v>2.625</v>
-      </c>
       <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>1.4</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>1.25</v>
+      </c>
+      <c r="Q7">
+        <v>1.75</v>
+      </c>
+      <c r="R7">
+        <v>1.975</v>
+      </c>
+      <c r="S7">
+        <v>1.825</v>
+      </c>
+      <c r="T7">
         <v>3.5</v>
       </c>
-      <c r="M7">
-        <v>2.25</v>
-      </c>
-      <c r="N7">
-        <v>2.4</v>
-      </c>
-      <c r="O7">
-        <v>3.6</v>
-      </c>
-      <c r="P7">
-        <v>2.4</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1.925</v>
-      </c>
-      <c r="S7">
-        <v>1.875</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
       <c r="U7">
+        <v>1.825</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC7">
-        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6046094</v>
+        <v>6046095</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1423,37 +1423,37 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
         <v>1.925</v>
@@ -1462,7 +1462,7 @@
         <v>1.875</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U11">
         <v>1.825</v>
@@ -1474,22 +1474,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6046095</v>
+        <v>6046094</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1512,37 +1512,37 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N12">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P12">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1551,7 +1551,7 @@
         <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U12">
         <v>1.825</v>
@@ -1563,22 +1563,22 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y12">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6046098</v>
+        <v>6046099</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,76 +1865,76 @@
         <v>44955.44097222222</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>1.222</v>
+        <v>4</v>
       </c>
       <c r="O16">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>8.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="T16">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V16">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W16">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC16">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6046099</v>
+        <v>6046098</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,76 +1954,76 @@
         <v>44955.44097222222</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N17">
-        <v>4</v>
+        <v>1.222</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P17">
-        <v>1.65</v>
+        <v>8.5</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R17">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6046101</v>
+        <v>6046102</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,55 +2132,55 @@
         <v>44956.44097222222</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M19">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N19">
         <v>3.1</v>
       </c>
       <c r="O19">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2189,19 +2189,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6046102</v>
+        <v>6046101</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,55 +2221,55 @@
         <v>44956.44097222222</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>1</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>43</v>
       </c>
       <c r="K20">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N20">
         <v>3.1</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2278,19 +2278,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6046106</v>
+        <v>6046107</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>1.333</v>
+        <v>3.6</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N24">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O24">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="Q24">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB24">
+        <v>0.4</v>
+      </c>
+      <c r="AC24">
         <v>-0.5</v>
-      </c>
-      <c r="AA24">
-        <v>0.45</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
-      <c r="AC24">
-        <v>0.825</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6046107</v>
+        <v>6046106</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,76 +2666,76 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N25">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O25">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P25">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="Q25">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R25">
+        <v>1.9</v>
+      </c>
+      <c r="S25">
+        <v>1.9</v>
+      </c>
+      <c r="T25">
+        <v>3.75</v>
+      </c>
+      <c r="U25">
+        <v>1.975</v>
+      </c>
+      <c r="V25">
         <v>1.825</v>
       </c>
-      <c r="S25">
-        <v>1.975</v>
-      </c>
-      <c r="T25">
-        <v>2.75</v>
-      </c>
-      <c r="U25">
-        <v>1.8</v>
-      </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB25">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>44962.44097222222</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -3025,7 +3025,7 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3289,7 +3289,7 @@
         <v>44972.44791666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -3734,10 +3734,10 @@
         <v>44978.44791666666</v>
       </c>
       <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
         <v>36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6087445</v>
+        <v>6087480</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3912,76 +3912,76 @@
         <v>44982.44791666666</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N39">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P39">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6087480</v>
+        <v>6087445</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,76 +4001,76 @@
         <v>44982.44791666666</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K40">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N40">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="O40">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P40">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q40">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R40">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC40">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4535,7 +4535,7 @@
         <v>44988.5625</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
         <v>34</v>
@@ -4701,7 +4701,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6145650</v>
+        <v>6145651</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4713,76 +4713,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K48">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L48">
         <v>3.4</v>
       </c>
       <c r="M48">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N48">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S48">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y48">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6145651</v>
+        <v>6145650</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K49">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L49">
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N49">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O49">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S49">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>1.1</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6145974</v>
+        <v>6145975</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,55 +4980,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>43</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N51">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5037,19 +5037,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6145975</v>
+        <v>6145974</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,55 +5069,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L52">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M52">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N52">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5126,19 +5126,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5235,7 +5235,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6270177</v>
+        <v>6270171</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5247,56 +5247,56 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>43</v>
       </c>
       <c r="K54">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M54">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="O54">
+        <v>6</v>
+      </c>
+      <c r="P54">
+        <v>1.222</v>
+      </c>
+      <c r="Q54">
+        <v>2</v>
+      </c>
+      <c r="R54">
+        <v>1.75</v>
+      </c>
+      <c r="S54">
+        <v>1.95</v>
+      </c>
+      <c r="T54">
         <v>3.5</v>
       </c>
-      <c r="P54">
+      <c r="U54">
+        <v>1.95</v>
+      </c>
+      <c r="V54">
         <v>1.85</v>
       </c>
-      <c r="Q54">
-        <v>0.5</v>
-      </c>
-      <c r="R54">
-        <v>1.875</v>
-      </c>
-      <c r="S54">
-        <v>1.925</v>
-      </c>
-      <c r="T54">
-        <v>3</v>
-      </c>
-      <c r="U54">
-        <v>1.975</v>
-      </c>
-      <c r="V54">
-        <v>1.825</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
@@ -5304,19 +5304,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.8500000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5324,7 +5324,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6270171</v>
+        <v>6270177</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5336,55 +5336,55 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>43</v>
       </c>
       <c r="K55">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="L55">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M55">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N55">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="O55">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="Q55">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5393,19 +5393,19 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.222</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
+        <v>0.925</v>
+      </c>
+      <c r="AB55">
         <v>0</v>
       </c>
-      <c r="AA55">
+      <c r="AC55">
         <v>-0</v>
-      </c>
-      <c r="AB55">
-        <v>0.95</v>
-      </c>
-      <c r="AC55">
-        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>45002.57291666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5514,7 +5514,7 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6419373</v>
+        <v>6419629</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,73 +5781,73 @@
         <v>45017.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="L60">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
+        <v>1.727</v>
+      </c>
+      <c r="N60">
+        <v>9</v>
+      </c>
+      <c r="O60">
         <v>5.5</v>
       </c>
-      <c r="N60">
+      <c r="P60">
+        <v>1.222</v>
+      </c>
+      <c r="Q60">
+        <v>1.75</v>
+      </c>
+      <c r="R60">
+        <v>1.975</v>
+      </c>
+      <c r="S60">
+        <v>1.825</v>
+      </c>
+      <c r="T60">
+        <v>3.5</v>
+      </c>
+      <c r="U60">
+        <v>1.95</v>
+      </c>
+      <c r="V60">
         <v>1.85</v>
       </c>
-      <c r="O60">
-        <v>3.8</v>
-      </c>
-      <c r="P60">
-        <v>3.1</v>
-      </c>
-      <c r="Q60">
+      <c r="W60">
+        <v>-1</v>
+      </c>
+      <c r="X60">
+        <v>-1</v>
+      </c>
+      <c r="Y60">
+        <v>0.222</v>
+      </c>
+      <c r="Z60">
         <v>-0.5</v>
       </c>
-      <c r="R60">
-        <v>1.9</v>
-      </c>
-      <c r="S60">
-        <v>1.9</v>
-      </c>
-      <c r="T60">
-        <v>3.25</v>
-      </c>
-      <c r="U60">
-        <v>1.875</v>
-      </c>
-      <c r="V60">
-        <v>1.925</v>
-      </c>
-      <c r="W60">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X60">
-        <v>-1</v>
-      </c>
-      <c r="Y60">
-        <v>-1</v>
-      </c>
-      <c r="Z60">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB60">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5858,7 +5858,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6419629</v>
+        <v>6419373</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5870,73 +5870,73 @@
         <v>45017.65625</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L61">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M61">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N61">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="O61">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>1.222</v>
+        <v>3.1</v>
       </c>
       <c r="Q61">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA61">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5959,7 +5959,7 @@
         <v>45018.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
         <v>38</v>
@@ -6137,7 +6137,7 @@
         <v>45019.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>40</v>
@@ -6315,7 +6315,7 @@
         <v>45029.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
         <v>31</v>
@@ -6671,7 +6671,7 @@
         <v>45031.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
@@ -6849,7 +6849,7 @@
         <v>45035.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -7030,7 +7030,7 @@
         <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6541312</v>
+        <v>6541314</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,55 +7294,55 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
         <v>43</v>
       </c>
       <c r="K77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N77">
-        <v>8</v>
+        <v>2.05</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="Q77">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7351,19 +7351,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="Z77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC77">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -7460,7 +7460,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6541314</v>
+        <v>6541312</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7472,55 +7472,55 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>43</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M79">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N79">
-        <v>2.05</v>
+        <v>8</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P79">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R79">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7529,19 +7529,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7739,7 +7739,7 @@
         <v>45049.625</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
         <v>33</v>
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6542546</v>
+        <v>6569803</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,76 +7917,76 @@
         <v>45050.625</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P84">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6569803</v>
+        <v>6542546</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,76 +8006,76 @@
         <v>45050.625</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
         <v>3</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
         <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W85">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6561638</v>
+        <v>6542548</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="M88">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N88">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P88">
-        <v>2.45</v>
+        <v>12</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X88">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6542548</v>
+        <v>6561638</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,76 +8362,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K89">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="L89">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N89">
-        <v>1.166</v>
+        <v>2.45</v>
       </c>
       <c r="O89">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>12</v>
+        <v>2.45</v>
       </c>
       <c r="Q89">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8718,7 +8718,7 @@
         <v>45154.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>35</v>
@@ -8896,7 +8896,7 @@
         <v>45155.60416666666</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
         <v>30</v>
@@ -9344,7 +9344,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9519,7 +9519,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9878,7 +9878,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -9964,7 +9964,7 @@
         <v>45171.51041666666</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -10234,7 +10234,7 @@
         <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10676,7 +10676,7 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
         <v>34</v>
@@ -10854,7 +10854,7 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
         <v>29</v>
@@ -10943,7 +10943,7 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
         <v>32</v>
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7004598</v>
+        <v>7004599</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,73 +11032,73 @@
         <v>45198.5</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119">
-        <v>2</v>
-      </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L119">
         <v>3.5</v>
       </c>
       <c r="M119">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N119">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
         <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
         <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W119">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z119">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7004599</v>
+        <v>7004598</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,73 +11121,73 @@
         <v>45198.5</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L120">
         <v>3.5</v>
       </c>
       <c r="M120">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N120">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O120">
         <v>3.4</v>
       </c>
       <c r="P120">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T120">
         <v>2.75</v>
       </c>
       <c r="U120">
+        <v>1.85</v>
+      </c>
+      <c r="V120">
+        <v>1.95</v>
+      </c>
+      <c r="W120">
         <v>1.8</v>
       </c>
-      <c r="V120">
-        <v>2</v>
-      </c>
-      <c r="W120">
-        <v>-1</v>
-      </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11299,7 +11299,7 @@
         <v>45219.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
         <v>35</v>
@@ -11732,7 +11732,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7003589</v>
+        <v>7004606</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11744,13 +11744,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -11759,40 +11759,40 @@
         <v>43</v>
       </c>
       <c r="K127">
+        <v>7</v>
+      </c>
+      <c r="L127">
+        <v>5.5</v>
+      </c>
+      <c r="M127">
+        <v>1.3</v>
+      </c>
+      <c r="N127">
         <v>8</v>
       </c>
-      <c r="L127">
-        <v>6.5</v>
-      </c>
-      <c r="M127">
-        <v>1.2</v>
-      </c>
-      <c r="N127">
-        <v>8.5</v>
-      </c>
       <c r="O127">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P127">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q127">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R127">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11801,19 +11801,19 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7004606</v>
+        <v>7003589</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,13 +11833,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>2</v>
@@ -11848,40 +11848,40 @@
         <v>43</v>
       </c>
       <c r="K128">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L128">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M128">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="N128">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O128">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P128">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q128">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11890,19 +11890,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Z128">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11922,7 +11922,7 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
         <v>31</v>
@@ -12103,7 +12103,7 @@
         <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H131">
         <v>4</v>
@@ -12192,7 +12192,7 @@
         <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>5</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7004610</v>
+        <v>7003482</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,76 +12456,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
+        <v>3.5</v>
+      </c>
+      <c r="M135">
+        <v>2.8</v>
+      </c>
+      <c r="N135">
+        <v>1.909</v>
+      </c>
+      <c r="O135">
         <v>3.6</v>
       </c>
-      <c r="M135">
-        <v>3.8</v>
-      </c>
-      <c r="N135">
-        <v>1.8</v>
-      </c>
-      <c r="O135">
-        <v>3.4</v>
-      </c>
       <c r="P135">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
+        <v>1.825</v>
+      </c>
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
+        <v>1.775</v>
+      </c>
+      <c r="V135">
         <v>1.925</v>
       </c>
-      <c r="T135">
-        <v>2.75</v>
-      </c>
-      <c r="U135">
-        <v>1.8</v>
-      </c>
-      <c r="V135">
-        <v>2</v>
-      </c>
       <c r="W135">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7003482</v>
+        <v>7004610</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,76 +12545,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L136">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N136">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q136">
         <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>5</v>
@@ -12812,7 +12812,7 @@
         <v>45254.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
         <v>31</v>
@@ -12889,7 +12889,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7004613</v>
+        <v>7004615</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12901,40 +12901,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>2</v>
-      </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K140">
+        <v>2.1</v>
+      </c>
+      <c r="L140">
         <v>3.6</v>
       </c>
-      <c r="L140">
-        <v>4</v>
-      </c>
       <c r="M140">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O140">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
         <v>1.825</v>
@@ -12943,7 +12943,7 @@
         <v>1.975</v>
       </c>
       <c r="T140">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
         <v>1.975</v>
@@ -12952,25 +12952,25 @@
         <v>1.825</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12978,7 +12978,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7004615</v>
+        <v>7004613</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12990,40 +12990,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N141">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O141">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
         <v>1.825</v>
@@ -13032,7 +13032,7 @@
         <v>1.975</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U141">
         <v>1.975</v>
@@ -13041,25 +13041,25 @@
         <v>1.825</v>
       </c>
       <c r="W141">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
         <v>0.825</v>
-      </c>
-      <c r="AA141">
-        <v>-1</v>
-      </c>
-      <c r="AB141">
-        <v>0.4875</v>
-      </c>
-      <c r="AC141">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13168,10 +13168,10 @@
         <v>45261.47916666666</v>
       </c>
       <c r="F143" t="s">
+        <v>37</v>
+      </c>
+      <c r="G143" t="s">
         <v>36</v>
-      </c>
-      <c r="G143" t="s">
-        <v>37</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13245,7 +13245,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7004616</v>
+        <v>7003592</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13257,76 +13257,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K144">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L144">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="M144">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N144">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O144">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P144">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q144">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC144">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13334,7 +13334,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7003592</v>
+        <v>7004616</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13346,76 +13346,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K145">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L145">
+        <v>6.5</v>
+      </c>
+      <c r="M145">
+        <v>6.5</v>
+      </c>
+      <c r="N145">
+        <v>1.363</v>
+      </c>
+      <c r="O145">
         <v>5.75</v>
       </c>
-      <c r="M145">
-        <v>8</v>
-      </c>
-      <c r="N145">
-        <v>1.25</v>
-      </c>
-      <c r="O145">
-        <v>6</v>
-      </c>
       <c r="P145">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q145">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R145">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S145">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W145">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB145">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7004618</v>
+        <v>7004619</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,31 +13435,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L146">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M146">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N146">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O146">
         <v>3.8</v>
@@ -13471,40 +13471,40 @@
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T146">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U146">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X146">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7004619</v>
+        <v>7004618</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,31 +13524,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K147">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L147">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M147">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N147">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O147">
         <v>3.8</v>
@@ -13560,40 +13560,40 @@
         <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13883,7 +13883,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7004622</v>
+        <v>7004621</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,10 +13969,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13993,38 +13993,38 @@
         <v>5</v>
       </c>
       <c r="N152">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O152">
+        <v>5</v>
+      </c>
+      <c r="P152">
+        <v>6</v>
+      </c>
+      <c r="Q152">
+        <v>-1.5</v>
+      </c>
+      <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
+        <v>1.825</v>
+      </c>
+      <c r="T152">
+        <v>3.75</v>
+      </c>
+      <c r="U152">
+        <v>1.975</v>
+      </c>
+      <c r="V152">
+        <v>1.825</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
         <v>4</v>
       </c>
-      <c r="P152">
-        <v>3.6</v>
-      </c>
-      <c r="Q152">
-        <v>-0.5</v>
-      </c>
-      <c r="R152">
-        <v>1.8</v>
-      </c>
-      <c r="S152">
-        <v>2</v>
-      </c>
-      <c r="T152">
-        <v>3</v>
-      </c>
-      <c r="U152">
-        <v>1.8</v>
-      </c>
-      <c r="V152">
-        <v>2</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>3</v>
-      </c>
       <c r="Y152">
         <v>-1</v>
       </c>
@@ -14032,13 +14032,13 @@
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7004621</v>
+        <v>7004622</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,10 +14058,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14082,37 +14082,37 @@
         <v>5</v>
       </c>
       <c r="N153">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O153">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y153">
         <v>-1</v>
@@ -14121,13 +14121,13 @@
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7004626</v>
+        <v>7609336</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,40 +14503,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K158">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L158">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="N158">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O158">
         <v>3.75</v>
       </c>
       <c r="P158">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R158">
         <v>1.925</v>
@@ -14554,25 +14554,25 @@
         <v>1.975</v>
       </c>
       <c r="W158">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z158">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7609336</v>
+        <v>7004626</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,40 +14592,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>2</v>
       </c>
       <c r="I159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K159">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M159">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N159">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O159">
         <v>3.75</v>
       </c>
       <c r="P159">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q159">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
         <v>1.925</v>
@@ -14643,25 +14643,25 @@
         <v>1.975</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H160">
         <v>6</v>
@@ -14773,7 +14773,7 @@
         <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -15052,13 +15052,13 @@
         <v>3.6</v>
       </c>
       <c r="N164">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O164">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q164">
         <v>-0.5</v>
@@ -15073,10 +15073,10 @@
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W164">
         <v>0</v>
@@ -15099,7 +15099,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7840798</v>
+        <v>7840799</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15111,46 +15111,46 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K165">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L165">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N165">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O165">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P165">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T165">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U165">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15173,7 +15173,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7840799</v>
+        <v>7840798</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15185,46 +15185,46 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K166">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="L166">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M166">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N166">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O166">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P166">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15277,28 +15277,28 @@
         <v>5</v>
       </c>
       <c r="O167">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P167">
-        <v>1.533</v>
+        <v>1.45</v>
       </c>
       <c r="Q167">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R167">
+        <v>1.85</v>
+      </c>
+      <c r="S167">
         <v>1.95</v>
       </c>
-      <c r="S167">
-        <v>1.85</v>
-      </c>
       <c r="T167">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -15336,7 +15336,7 @@
         <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K168">
         <v>2.3</v>
@@ -15387,6 +15387,80 @@
         <v>0</v>
       </c>
       <c r="AA168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>7840800</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45347.58333333334</v>
+      </c>
+      <c r="F169" t="s">
+        <v>30</v>
+      </c>
+      <c r="G169" t="s">
+        <v>35</v>
+      </c>
+      <c r="K169">
+        <v>1.363</v>
+      </c>
+      <c r="L169">
+        <v>5</v>
+      </c>
+      <c r="M169">
+        <v>6</v>
+      </c>
+      <c r="N169">
+        <v>1.363</v>
+      </c>
+      <c r="O169">
+        <v>5</v>
+      </c>
+      <c r="P169">
+        <v>6</v>
+      </c>
+      <c r="Q169">
+        <v>-1.5</v>
+      </c>
+      <c r="R169">
+        <v>1.975</v>
+      </c>
+      <c r="S169">
+        <v>1.825</v>
+      </c>
+      <c r="T169">
+        <v>3.25</v>
+      </c>
+      <c r="U169">
+        <v>1.9</v>
+      </c>
+      <c r="V169">
+        <v>1.9</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
         <v>0</v>
       </c>
     </row>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -115,10 +115,10 @@
     <t>Qatar SC Doha</t>
   </si>
   <si>
-    <t>Al Sailiya SC</t>
+    <t>AlWakrah SC</t>
   </si>
   <si>
-    <t>AlWakrah SC</t>
+    <t>Al Sailiya SC</t>
   </si>
   <si>
     <t>AlShamal SC</t>
@@ -711,7 +711,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6122804</v>
+        <v>5682814</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,7 +1156,7 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1168,41 +1168,41 @@
         <v>43</v>
       </c>
       <c r="K8">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
+        <v>2.45</v>
+      </c>
+      <c r="O8">
+        <v>3.4</v>
+      </c>
+      <c r="P8">
         <v>2.4</v>
-      </c>
-      <c r="O8">
-        <v>3.75</v>
-      </c>
-      <c r="P8">
-        <v>2.375</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
+        <v>1.9</v>
+      </c>
+      <c r="S8">
+        <v>1.9</v>
+      </c>
+      <c r="T8">
+        <v>2.5</v>
+      </c>
+      <c r="U8">
+        <v>1.85</v>
+      </c>
+      <c r="V8">
         <v>1.95</v>
       </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
-      <c r="U8">
-        <v>1.8</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
       <c r="W8">
         <v>-1</v>
       </c>
@@ -1210,19 +1210,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.375</v>
+        <v>1.4</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB8">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB8">
-        <v>0.4</v>
-      </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5682814</v>
+        <v>6122804</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,7 +1245,7 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1257,40 +1257,40 @@
         <v>43</v>
       </c>
       <c r="K9">
+        <v>2.3</v>
+      </c>
+      <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
         <v>2.5</v>
       </c>
-      <c r="L9">
-        <v>3.4</v>
-      </c>
-      <c r="M9">
+      <c r="N9">
         <v>2.4</v>
       </c>
-      <c r="N9">
-        <v>2.45</v>
-      </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1299,19 +1299,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1598,10 +1598,10 @@
         <v>44950.4375</v>
       </c>
       <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6046099</v>
+        <v>6046098</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,76 +1865,76 @@
         <v>44955.44097222222</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N16">
-        <v>4</v>
+        <v>1.222</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P16">
-        <v>1.65</v>
+        <v>8.5</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R16">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6046098</v>
+        <v>6046099</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,76 +1954,76 @@
         <v>44955.44097222222</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>1.222</v>
+        <v>4</v>
       </c>
       <c r="O17">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>8.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q17">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="T17">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W17">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC17">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>44956.44097222222</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6046104</v>
+        <v>6046105</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,76 +2399,76 @@
         <v>44961.44097222222</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="L22">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O22">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q22">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6046105</v>
+        <v>6046104</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,76 +2488,76 @@
         <v>44961.44097222222</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N23">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P23">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T23">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6046107</v>
+        <v>6046106</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M24">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N24">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P24">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R24">
+        <v>1.9</v>
+      </c>
+      <c r="S24">
+        <v>1.9</v>
+      </c>
+      <c r="T24">
+        <v>3.75</v>
+      </c>
+      <c r="U24">
+        <v>1.975</v>
+      </c>
+      <c r="V24">
         <v>1.825</v>
       </c>
-      <c r="S24">
-        <v>1.975</v>
-      </c>
-      <c r="T24">
-        <v>2.75</v>
-      </c>
-      <c r="U24">
-        <v>1.8</v>
-      </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB24">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6046106</v>
+        <v>6046107</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,76 +2666,76 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>1.333</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N25">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O25">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P25">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="Q25">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB25">
+        <v>0.4</v>
+      </c>
+      <c r="AC25">
         <v>-0.5</v>
-      </c>
-      <c r="AA25">
-        <v>0.45</v>
-      </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
-      <c r="AC25">
-        <v>0.825</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6046111</v>
+        <v>6046110</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,76 +2933,76 @@
         <v>44970.44791666666</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L28">
+        <v>4.5</v>
+      </c>
+      <c r="M28">
+        <v>9</v>
+      </c>
+      <c r="N28">
+        <v>1.25</v>
+      </c>
+      <c r="O28">
+        <v>5.25</v>
+      </c>
+      <c r="P28">
+        <v>8</v>
+      </c>
+      <c r="Q28">
+        <v>-1.75</v>
+      </c>
+      <c r="R28">
+        <v>1.9</v>
+      </c>
+      <c r="S28">
+        <v>1.9</v>
+      </c>
+      <c r="T28">
         <v>3.5</v>
       </c>
-      <c r="M28">
-        <v>3.1</v>
-      </c>
-      <c r="N28">
-        <v>2.8</v>
-      </c>
-      <c r="O28">
-        <v>3.4</v>
-      </c>
-      <c r="P28">
-        <v>2.1</v>
-      </c>
-      <c r="Q28">
+      <c r="U28">
+        <v>1.85</v>
+      </c>
+      <c r="V28">
+        <v>1.95</v>
+      </c>
+      <c r="W28">
         <v>0.25</v>
       </c>
-      <c r="R28">
-        <v>1.825</v>
-      </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.825</v>
-      </c>
-      <c r="V28">
-        <v>1.975</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
       <c r="X28">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.4125</v>
+        <v>0.45</v>
       </c>
       <c r="AA28">
         <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6046110</v>
+        <v>6046111</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,76 +3022,76 @@
         <v>44970.44791666666</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="O29">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q29">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.45</v>
+        <v>0.4125</v>
       </c>
       <c r="AA29">
         <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6046114</v>
+        <v>6046113</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,76 +3200,76 @@
         <v>44972.44791666666</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="L31">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M31">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="N31">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P31">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3277,7 +3277,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6046113</v>
+        <v>6046114</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3289,76 +3289,76 @@
         <v>44972.44791666666</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>1.285</v>
+        <v>1.833</v>
       </c>
       <c r="L32">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="N32">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="O32">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="Q32">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
         <v>1.8</v>
       </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC32">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6046118</v>
+        <v>6046117</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>44978.44791666666</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K36">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M36">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="N36">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="O36">
         <v>4</v>
       </c>
       <c r="P36">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R36">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6046117</v>
+        <v>6046118</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,76 +3734,76 @@
         <v>44978.44791666666</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K37">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="L37">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="N37">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="O37">
         <v>4</v>
       </c>
       <c r="P37">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Q37">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S37">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
         <v>3</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y37">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6087480</v>
+        <v>6087445</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3912,76 +3912,76 @@
         <v>44982.44791666666</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="O39">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q39">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z39">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6087445</v>
+        <v>6087480</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,76 +4001,76 @@
         <v>44982.44791666666</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N40">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="O40">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P40">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="Q40">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6046120</v>
+        <v>6046121</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4179,76 +4179,76 @@
         <v>44987.45486111111</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K42">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L42">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
         <v>3.2</v>
-      </c>
-      <c r="N42">
-        <v>1.571</v>
       </c>
       <c r="O42">
         <v>3.4</v>
       </c>
       <c r="P42">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
         <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V42">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X42">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA42">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4256,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6046121</v>
+        <v>6046120</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,76 +4268,76 @@
         <v>44987.45486111111</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K43">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N43">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O43">
         <v>3.4</v>
       </c>
       <c r="P43">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q43">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R43">
         <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6046124</v>
+        <v>6046125</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,76 +4535,76 @@
         <v>44988.5625</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
         <v>34</v>
       </c>
       <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>4</v>
-      </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N46">
-        <v>2.875</v>
+        <v>1.181</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R46">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4612,7 +4612,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6046125</v>
+        <v>6046124</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4624,76 +4624,76 @@
         <v>44988.5625</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>4</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K47">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M47">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>1.181</v>
+        <v>2.875</v>
       </c>
       <c r="O47">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T47">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB47">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4802,7 +4802,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>37</v>
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6145975</v>
+        <v>6145974</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,55 +4980,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>43</v>
       </c>
       <c r="K51">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N51">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5037,19 +5037,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6145974</v>
+        <v>6145975</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,55 +5069,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L52">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M52">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N52">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P52">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5126,19 +5126,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5235,7 +5235,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6270171</v>
+        <v>6270177</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5247,55 +5247,55 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>43</v>
       </c>
       <c r="K54">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="L54">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N54">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="O54">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="Q54">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5304,19 +5304,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.222</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
+        <v>0.925</v>
+      </c>
+      <c r="AB54">
         <v>0</v>
       </c>
-      <c r="AA54">
+      <c r="AC54">
         <v>-0</v>
-      </c>
-      <c r="AB54">
-        <v>0.95</v>
-      </c>
-      <c r="AC54">
-        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5324,7 +5324,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6270177</v>
+        <v>6270171</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5336,56 +5336,56 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
         <v>43</v>
       </c>
       <c r="K55">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M55">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="N55">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="O55">
+        <v>6</v>
+      </c>
+      <c r="P55">
+        <v>1.222</v>
+      </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+      <c r="R55">
+        <v>1.75</v>
+      </c>
+      <c r="S55">
+        <v>1.95</v>
+      </c>
+      <c r="T55">
         <v>3.5</v>
       </c>
-      <c r="P55">
+      <c r="U55">
+        <v>1.95</v>
+      </c>
+      <c r="V55">
         <v>1.85</v>
       </c>
-      <c r="Q55">
-        <v>0.5</v>
-      </c>
-      <c r="R55">
-        <v>1.875</v>
-      </c>
-      <c r="S55">
-        <v>1.925</v>
-      </c>
-      <c r="T55">
-        <v>3</v>
-      </c>
-      <c r="U55">
-        <v>1.975</v>
-      </c>
-      <c r="V55">
-        <v>1.825</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
@@ -5393,19 +5393,19 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.8500000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>4</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6270174</v>
+        <v>6270173</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,73 +5514,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K57">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N57">
+        <v>1.7</v>
+      </c>
+      <c r="O57">
+        <v>3.8</v>
+      </c>
+      <c r="P57">
+        <v>3.8</v>
+      </c>
+      <c r="Q57">
+        <v>-0.75</v>
+      </c>
+      <c r="R57">
+        <v>1.95</v>
+      </c>
+      <c r="S57">
+        <v>1.85</v>
+      </c>
+      <c r="T57">
         <v>3.25</v>
       </c>
-      <c r="O57">
-        <v>3.75</v>
-      </c>
-      <c r="P57">
-        <v>1.833</v>
-      </c>
-      <c r="Q57">
-        <v>0.5</v>
-      </c>
-      <c r="R57">
-        <v>1.85</v>
-      </c>
-      <c r="S57">
-        <v>1.95</v>
-      </c>
-      <c r="T57">
-        <v>2.75</v>
-      </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6270173</v>
+        <v>6270174</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,73 +5603,73 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K58">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L58">
+        <v>3.6</v>
+      </c>
+      <c r="M58">
+        <v>2.1</v>
+      </c>
+      <c r="N58">
+        <v>3.25</v>
+      </c>
+      <c r="O58">
         <v>3.75</v>
       </c>
-      <c r="M58">
-        <v>3.75</v>
-      </c>
-      <c r="N58">
-        <v>1.7</v>
-      </c>
-      <c r="O58">
-        <v>3.8</v>
-      </c>
       <c r="P58">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R58">
+        <v>1.85</v>
+      </c>
+      <c r="S58">
         <v>1.95</v>
       </c>
-      <c r="S58">
-        <v>1.85</v>
-      </c>
       <c r="T58">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
         <v>0.95</v>
       </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
       <c r="AB58">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6419629</v>
+        <v>6419373</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,73 +5781,73 @@
         <v>45017.65625</v>
       </c>
       <c r="F60" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" t="s">
         <v>33</v>
       </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
       <c r="H60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L60">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M60">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N60">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="O60">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P60">
-        <v>1.222</v>
+        <v>3.1</v>
       </c>
       <c r="Q60">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA60">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5858,7 +5858,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6419373</v>
+        <v>6419629</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5870,73 +5870,73 @@
         <v>45017.65625</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="L61">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
+        <v>1.727</v>
+      </c>
+      <c r="N61">
+        <v>9</v>
+      </c>
+      <c r="O61">
         <v>5.5</v>
       </c>
-      <c r="N61">
+      <c r="P61">
+        <v>1.222</v>
+      </c>
+      <c r="Q61">
+        <v>1.75</v>
+      </c>
+      <c r="R61">
+        <v>1.975</v>
+      </c>
+      <c r="S61">
+        <v>1.825</v>
+      </c>
+      <c r="T61">
+        <v>3.5</v>
+      </c>
+      <c r="U61">
+        <v>1.95</v>
+      </c>
+      <c r="V61">
         <v>1.85</v>
       </c>
-      <c r="O61">
-        <v>3.8</v>
-      </c>
-      <c r="P61">
-        <v>3.1</v>
-      </c>
-      <c r="Q61">
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
+        <v>0.222</v>
+      </c>
+      <c r="Z61">
         <v>-0.5</v>
       </c>
-      <c r="R61">
-        <v>1.9</v>
-      </c>
-      <c r="S61">
-        <v>1.9</v>
-      </c>
-      <c r="T61">
-        <v>3.25</v>
-      </c>
-      <c r="U61">
-        <v>1.875</v>
-      </c>
-      <c r="V61">
-        <v>1.925</v>
-      </c>
-      <c r="W61">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
-      <c r="Z61">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB61">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -6226,7 +6226,7 @@
         <v>45029.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>35</v>
@@ -6404,7 +6404,7 @@
         <v>45030.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
         <v>30</v>
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6419376</v>
+        <v>6419393</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,76 +6582,76 @@
         <v>45031.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L69">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
+        <v>2.5</v>
+      </c>
+      <c r="N69">
+        <v>2.375</v>
+      </c>
+      <c r="O69">
+        <v>3.6</v>
+      </c>
+      <c r="P69">
+        <v>2.45</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>1.825</v>
+      </c>
+      <c r="S69">
+        <v>1.975</v>
+      </c>
+      <c r="T69">
+        <v>2.75</v>
+      </c>
+      <c r="U69">
+        <v>1.85</v>
+      </c>
+      <c r="V69">
+        <v>1.95</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
         <v>1.45</v>
       </c>
-      <c r="N69">
-        <v>4.75</v>
-      </c>
-      <c r="O69">
-        <v>4.5</v>
-      </c>
-      <c r="P69">
-        <v>1.5</v>
-      </c>
-      <c r="Q69">
-        <v>1</v>
-      </c>
-      <c r="R69">
-        <v>1.975</v>
-      </c>
-      <c r="S69">
-        <v>1.825</v>
-      </c>
-      <c r="T69">
-        <v>3.25</v>
-      </c>
-      <c r="U69">
-        <v>1.9</v>
-      </c>
-      <c r="V69">
-        <v>1.9</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>0.5</v>
-      </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6419393</v>
+        <v>6419376</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,55 +6671,55 @@
         <v>45031.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>43</v>
       </c>
       <c r="K70">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M70">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="N70">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P70">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70">
+        <v>1.975</v>
+      </c>
+      <c r="S70">
         <v>1.825</v>
       </c>
-      <c r="S70">
-        <v>1.975</v>
-      </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6728,19 +6728,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6541314</v>
+        <v>6541312</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,55 +7294,55 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>43</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M77">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N77">
-        <v>2.05</v>
+        <v>8</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P77">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7351,19 +7351,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7460,7 +7460,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6541312</v>
+        <v>6541314</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7472,55 +7472,55 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>43</v>
       </c>
       <c r="K79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L79">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N79">
-        <v>8</v>
+        <v>2.05</v>
       </c>
       <c r="O79">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="Q79">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7529,19 +7529,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="Z79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC79">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7561,7 +7561,7 @@
         <v>45049.52083333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
         <v>30</v>
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6546393</v>
+        <v>6546394</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,76 +7650,76 @@
         <v>45049.625</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L81">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
+        <v>2.625</v>
+      </c>
+      <c r="N81">
+        <v>3.75</v>
+      </c>
+      <c r="O81">
+        <v>3.8</v>
+      </c>
+      <c r="P81">
+        <v>1.8</v>
+      </c>
+      <c r="Q81">
+        <v>0.75</v>
+      </c>
+      <c r="R81">
+        <v>1.75</v>
+      </c>
+      <c r="S81">
+        <v>1.95</v>
+      </c>
+      <c r="T81">
         <v>3</v>
       </c>
-      <c r="N81">
-        <v>2.15</v>
-      </c>
-      <c r="O81">
-        <v>3.5</v>
-      </c>
-      <c r="P81">
-        <v>2.75</v>
-      </c>
-      <c r="Q81">
-        <v>-0.25</v>
-      </c>
-      <c r="R81">
+      <c r="U81">
         <v>1.925</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.875</v>
       </c>
-      <c r="T81">
-        <v>2.5</v>
-      </c>
-      <c r="U81">
-        <v>1.8</v>
-      </c>
-      <c r="V81">
-        <v>2</v>
-      </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6546394</v>
+        <v>6546393</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,76 +7739,76 @@
         <v>45049.625</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>44</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>3.6</v>
+      </c>
+      <c r="M82">
         <v>3</v>
       </c>
-      <c r="J82" t="s">
-        <v>43</v>
-      </c>
-      <c r="K82">
-        <v>2.3</v>
-      </c>
-      <c r="L82">
+      <c r="N82">
+        <v>2.15</v>
+      </c>
+      <c r="O82">
         <v>3.5</v>
       </c>
-      <c r="M82">
-        <v>2.625</v>
-      </c>
-      <c r="N82">
-        <v>3.75</v>
-      </c>
-      <c r="O82">
-        <v>3.8</v>
-      </c>
       <c r="P82">
+        <v>2.75</v>
+      </c>
+      <c r="Q82">
+        <v>-0.25</v>
+      </c>
+      <c r="R82">
+        <v>1.925</v>
+      </c>
+      <c r="S82">
+        <v>1.875</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
         <v>1.8</v>
       </c>
-      <c r="Q82">
-        <v>0.75</v>
-      </c>
-      <c r="R82">
-        <v>1.75</v>
-      </c>
-      <c r="S82">
-        <v>1.95</v>
-      </c>
-      <c r="T82">
-        <v>3</v>
-      </c>
-      <c r="U82">
-        <v>1.925</v>
-      </c>
       <c r="V82">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB82">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6569803</v>
+        <v>6542546</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,76 +7917,76 @@
         <v>45050.625</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
         <v>3</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W84">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6542546</v>
+        <v>6569803</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,76 +8006,76 @@
         <v>45050.625</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N85">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
         <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,10 +8095,10 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" t="s">
         <v>33</v>
-      </c>
-      <c r="G86" t="s">
-        <v>34</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6561638</v>
+        <v>6542547</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,76 +8362,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L89">
+        <v>3.75</v>
+      </c>
+      <c r="M89">
         <v>3.4</v>
       </c>
-      <c r="M89">
-        <v>2.8</v>
-      </c>
       <c r="N89">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P89">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U89">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X89">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6542547</v>
+        <v>6561638</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K90">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
+        <v>2.8</v>
+      </c>
+      <c r="N90">
+        <v>2.45</v>
+      </c>
+      <c r="O90">
         <v>3.4</v>
       </c>
-      <c r="N90">
-        <v>1.65</v>
-      </c>
-      <c r="O90">
-        <v>4.2</v>
-      </c>
       <c r="P90">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>45154.52083333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
         <v>41</v>
@@ -9608,7 +9608,7 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7004591</v>
+        <v>7003585</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,76 +10053,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>44</v>
+      </c>
+      <c r="K108">
+        <v>1.615</v>
+      </c>
+      <c r="L108">
         <v>4</v>
       </c>
-      <c r="J108" t="s">
-        <v>43</v>
-      </c>
-      <c r="K108">
-        <v>4.5</v>
-      </c>
-      <c r="L108">
+      <c r="M108">
+        <v>4.333</v>
+      </c>
+      <c r="N108">
+        <v>1.533</v>
+      </c>
+      <c r="O108">
         <v>4.2</v>
       </c>
-      <c r="M108">
-        <v>1.55</v>
-      </c>
-      <c r="N108">
-        <v>3.3</v>
-      </c>
-      <c r="O108">
-        <v>3.8</v>
-      </c>
       <c r="P108">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10130,7 +10130,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7003585</v>
+        <v>7004591</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10142,76 +10142,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K109">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M109">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N109">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O109">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q109">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7003478</v>
+        <v>7003586</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,73 +10320,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
         <v>3</v>
       </c>
-      <c r="I111">
+      <c r="J111" t="s">
+        <v>43</v>
+      </c>
+      <c r="K111">
+        <v>5</v>
+      </c>
+      <c r="L111">
+        <v>4.333</v>
+      </c>
+      <c r="M111">
+        <v>1.55</v>
+      </c>
+      <c r="N111">
+        <v>5</v>
+      </c>
+      <c r="O111">
+        <v>4.2</v>
+      </c>
+      <c r="P111">
+        <v>1.571</v>
+      </c>
+      <c r="Q111">
         <v>1</v>
       </c>
-      <c r="J111" t="s">
-        <v>42</v>
-      </c>
-      <c r="K111">
-        <v>2</v>
-      </c>
-      <c r="L111">
-        <v>3.6</v>
-      </c>
-      <c r="M111">
-        <v>3.25</v>
-      </c>
-      <c r="N111">
+      <c r="R111">
+        <v>1.85</v>
+      </c>
+      <c r="S111">
         <v>1.95</v>
-      </c>
-      <c r="O111">
-        <v>3.6</v>
-      </c>
-      <c r="P111">
-        <v>3.4</v>
-      </c>
-      <c r="Q111">
-        <v>-0.5</v>
-      </c>
-      <c r="R111">
-        <v>1.975</v>
-      </c>
-      <c r="S111">
-        <v>1.825</v>
       </c>
       <c r="T111">
         <v>3</v>
       </c>
       <c r="U111">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>0.571</v>
+      </c>
+      <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
         <v>0.95</v>
       </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
-      <c r="Z111">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
       <c r="AB111">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7003586</v>
+        <v>7003478</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,73 +10409,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>3</v>
-      </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N112">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q112">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7004592</v>
+        <v>7004593</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K114">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N114">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P114">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>1.85</v>
+      </c>
+      <c r="S114">
+        <v>1.95</v>
+      </c>
+      <c r="T114">
+        <v>3</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>0.571</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
+        <v>0.95</v>
+      </c>
+      <c r="AB114">
         <v>0</v>
       </c>
-      <c r="R114">
-        <v>1.925</v>
-      </c>
-      <c r="S114">
-        <v>1.875</v>
-      </c>
-      <c r="T114">
-        <v>2.75</v>
-      </c>
-      <c r="U114">
-        <v>1.75</v>
-      </c>
-      <c r="V114">
-        <v>1.95</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>2.6</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>0</v>
-      </c>
-      <c r="AA114">
+      <c r="AC114">
         <v>-0</v>
-      </c>
-      <c r="AB114">
-        <v>0.75</v>
-      </c>
-      <c r="AC114">
-        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7004593</v>
+        <v>7004592</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115" t="s">
+        <v>44</v>
+      </c>
+      <c r="K115">
+        <v>2.4</v>
+      </c>
+      <c r="L115">
+        <v>3.6</v>
+      </c>
+      <c r="M115">
+        <v>2.4</v>
+      </c>
+      <c r="N115">
+        <v>2.4</v>
+      </c>
+      <c r="O115">
+        <v>3.6</v>
+      </c>
+      <c r="P115">
+        <v>2.45</v>
+      </c>
+      <c r="Q115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>3</v>
-      </c>
-      <c r="J115" t="s">
-        <v>43</v>
-      </c>
-      <c r="K115">
-        <v>4</v>
-      </c>
-      <c r="L115">
-        <v>4</v>
-      </c>
-      <c r="M115">
-        <v>1.727</v>
-      </c>
-      <c r="N115">
-        <v>4.75</v>
-      </c>
-      <c r="O115">
-        <v>4.333</v>
-      </c>
-      <c r="P115">
-        <v>1.571</v>
-      </c>
-      <c r="Q115">
-        <v>1</v>
-      </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
+        <v>1.875</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>1.75</v>
+      </c>
+      <c r="V115">
         <v>1.95</v>
       </c>
-      <c r="T115">
-        <v>3</v>
-      </c>
-      <c r="U115">
-        <v>1.825</v>
-      </c>
-      <c r="V115">
-        <v>1.975</v>
-      </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y115">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,76 +10854,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K117">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L117">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M117">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N117">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O117">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P117">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q117">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T117">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,76 +10943,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K118">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M118">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N118">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P118">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R118">
+        <v>1.775</v>
+      </c>
+      <c r="S118">
+        <v>2.025</v>
+      </c>
+      <c r="T118">
+        <v>3.5</v>
+      </c>
+      <c r="U118">
+        <v>1.975</v>
+      </c>
+      <c r="V118">
         <v>1.825</v>
       </c>
-      <c r="S118">
-        <v>1.975</v>
-      </c>
-      <c r="T118">
-        <v>3</v>
-      </c>
-      <c r="U118">
-        <v>2</v>
-      </c>
-      <c r="V118">
-        <v>1.8</v>
-      </c>
       <c r="W118">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z118">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7004599</v>
+        <v>7004598</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,73 +11032,73 @@
         <v>45198.5</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K119">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L119">
         <v>3.5</v>
       </c>
       <c r="M119">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O119">
         <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T119">
         <v>2.75</v>
       </c>
       <c r="U119">
+        <v>1.85</v>
+      </c>
+      <c r="V119">
+        <v>1.95</v>
+      </c>
+      <c r="W119">
         <v>1.8</v>
       </c>
-      <c r="V119">
-        <v>2</v>
-      </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7004598</v>
+        <v>7004599</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,73 +11121,73 @@
         <v>45198.5</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>3</v>
       </c>
-      <c r="I120">
-        <v>2</v>
-      </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L120">
         <v>3.5</v>
       </c>
       <c r="M120">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N120">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O120">
         <v>3.4</v>
       </c>
       <c r="P120">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
         <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W120">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z120">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11732,7 +11732,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7004606</v>
+        <v>7003589</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11744,13 +11744,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -11759,40 +11759,40 @@
         <v>43</v>
       </c>
       <c r="K127">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L127">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M127">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="N127">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O127">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P127">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q127">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R127">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T127">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11801,19 +11801,19 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Z127">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7003589</v>
+        <v>7004606</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,13 +11833,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>2</v>
@@ -11848,40 +11848,40 @@
         <v>43</v>
       </c>
       <c r="K128">
+        <v>7</v>
+      </c>
+      <c r="L128">
+        <v>5.5</v>
+      </c>
+      <c r="M128">
+        <v>1.3</v>
+      </c>
+      <c r="N128">
         <v>8</v>
       </c>
-      <c r="L128">
-        <v>6.5</v>
-      </c>
-      <c r="M128">
-        <v>1.2</v>
-      </c>
-      <c r="N128">
-        <v>8.5</v>
-      </c>
       <c r="O128">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P128">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q128">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T128">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11890,19 +11890,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7004607</v>
+        <v>7004604</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,55 +12011,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>42</v>
       </c>
       <c r="K130">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L130">
         <v>3.75</v>
       </c>
       <c r="M130">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N130">
         <v>1.75</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
+        <v>1.75</v>
+      </c>
+      <c r="S130">
         <v>1.95</v>
-      </c>
-      <c r="S130">
-        <v>1.85</v>
       </c>
       <c r="T130">
         <v>3</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
         <v>0.75</v>
@@ -12071,16 +12071,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7004604</v>
+        <v>7004607</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,55 +12100,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>42</v>
       </c>
       <c r="K131">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L131">
         <v>3.75</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N131">
         <v>1.75</v>
       </c>
       <c r="O131">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
         <v>3</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>0.75</v>
@@ -12160,16 +12160,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,73 +12189,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L132">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N132">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O132">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q132">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U132">
+        <v>1.85</v>
+      </c>
+      <c r="V132">
         <v>1.95</v>
       </c>
-      <c r="V132">
-        <v>1.85</v>
-      </c>
       <c r="W132">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K133">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M133">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N133">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P133">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U133">
+        <v>1.95</v>
+      </c>
+      <c r="V133">
         <v>1.85</v>
       </c>
-      <c r="V133">
-        <v>1.95</v>
-      </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7003482</v>
+        <v>7004610</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,76 +12456,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N135">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P135">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7004610</v>
+        <v>7003482</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,76 +12545,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K136">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
+        <v>3.5</v>
+      </c>
+      <c r="M136">
+        <v>2.8</v>
+      </c>
+      <c r="N136">
+        <v>1.909</v>
+      </c>
+      <c r="O136">
         <v>3.6</v>
       </c>
-      <c r="M136">
-        <v>3.8</v>
-      </c>
-      <c r="N136">
-        <v>1.8</v>
-      </c>
-      <c r="O136">
-        <v>3.4</v>
-      </c>
       <c r="P136">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q136">
         <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
+        <v>1.825</v>
+      </c>
+      <c r="T136">
+        <v>3.25</v>
+      </c>
+      <c r="U136">
+        <v>1.775</v>
+      </c>
+      <c r="V136">
         <v>1.925</v>
       </c>
-      <c r="T136">
-        <v>2.75</v>
-      </c>
-      <c r="U136">
-        <v>1.8</v>
-      </c>
-      <c r="V136">
-        <v>2</v>
-      </c>
       <c r="W136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12889,7 +12889,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7004615</v>
+        <v>7004613</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12901,40 +12901,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N140">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O140">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P140">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
         <v>1.825</v>
@@ -12943,7 +12943,7 @@
         <v>1.975</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U140">
         <v>1.975</v>
@@ -12952,25 +12952,25 @@
         <v>1.825</v>
       </c>
       <c r="W140">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.825</v>
-      </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
-      <c r="AB140">
-        <v>0.4875</v>
-      </c>
-      <c r="AC140">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12978,7 +12978,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7004613</v>
+        <v>7004615</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12990,40 +12990,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
         <v>1</v>
       </c>
-      <c r="I141">
-        <v>2</v>
-      </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K141">
+        <v>2.1</v>
+      </c>
+      <c r="L141">
         <v>3.6</v>
       </c>
-      <c r="L141">
-        <v>4</v>
-      </c>
       <c r="M141">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N141">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P141">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R141">
         <v>1.825</v>
@@ -13032,7 +13032,7 @@
         <v>1.975</v>
       </c>
       <c r="T141">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
         <v>1.975</v>
@@ -13041,25 +13041,25 @@
         <v>1.825</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13791,7 +13791,7 @@
         <v>45268.5625</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
         <v>31</v>
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7004621</v>
+        <v>7004622</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,10 +13969,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13993,37 +13993,37 @@
         <v>5</v>
       </c>
       <c r="N152">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P152">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q152">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T152">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y152">
         <v>-1</v>
@@ -14032,13 +14032,13 @@
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7004622</v>
+        <v>7004621</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,10 +14058,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14082,38 +14082,38 @@
         <v>5</v>
       </c>
       <c r="N153">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O153">
+        <v>5</v>
+      </c>
+      <c r="P153">
+        <v>6</v>
+      </c>
+      <c r="Q153">
+        <v>-1.5</v>
+      </c>
+      <c r="R153">
+        <v>1.975</v>
+      </c>
+      <c r="S153">
+        <v>1.825</v>
+      </c>
+      <c r="T153">
+        <v>3.75</v>
+      </c>
+      <c r="U153">
+        <v>1.975</v>
+      </c>
+      <c r="V153">
+        <v>1.825</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
         <v>4</v>
       </c>
-      <c r="P153">
-        <v>3.6</v>
-      </c>
-      <c r="Q153">
-        <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.8</v>
-      </c>
-      <c r="S153">
-        <v>2</v>
-      </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>1.8</v>
-      </c>
-      <c r="V153">
-        <v>2</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>3</v>
-      </c>
       <c r="Y153">
         <v>-1</v>
       </c>
@@ -14121,13 +14121,13 @@
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14506,7 +14506,7 @@
         <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -15099,7 +15099,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7840799</v>
+        <v>7840798</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15111,46 +15111,46 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K165">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M165">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N165">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O165">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P165">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
+        <v>1.975</v>
+      </c>
+      <c r="T165">
+        <v>3.75</v>
+      </c>
+      <c r="U165">
+        <v>2</v>
+      </c>
+      <c r="V165">
         <v>1.8</v>
-      </c>
-      <c r="T165">
-        <v>3</v>
-      </c>
-      <c r="U165">
-        <v>1.95</v>
-      </c>
-      <c r="V165">
-        <v>1.85</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15173,7 +15173,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7840798</v>
+        <v>7840799</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15185,46 +15185,46 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K166">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L166">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N166">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="O166">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q166">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T166">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15259,7 +15259,7 @@
         <v>45347.5</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
         <v>39</v>
@@ -15369,10 +15369,10 @@
         <v>3.25</v>
       </c>
       <c r="U168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
         <v>0</v>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -124,10 +124,10 @@
     <t>AlShamal SC</t>
   </si>
   <si>
-    <t>AlArabi Doha</t>
+    <t>Al Markhiya</t>
   </si>
   <si>
-    <t>Al Markhiya</t>
+    <t>AlArabi Doha</t>
   </si>
   <si>
     <t>Al Gharafa</t>
@@ -800,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1156,7 +1156,7 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6046095</v>
+        <v>6046094</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1423,37 +1423,37 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N11">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
         <v>1.925</v>
@@ -1462,7 +1462,7 @@
         <v>1.875</v>
       </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U11">
         <v>1.825</v>
@@ -1474,22 +1474,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y11">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6046094</v>
+        <v>6046095</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1512,37 +1512,37 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1551,7 +1551,7 @@
         <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
         <v>1.825</v>
@@ -1563,22 +1563,22 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2313,7 +2313,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6046106</v>
+        <v>6046107</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>1.333</v>
+        <v>3.6</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N24">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O24">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="Q24">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB24">
+        <v>0.4</v>
+      </c>
+      <c r="AC24">
         <v>-0.5</v>
-      </c>
-      <c r="AA24">
-        <v>0.45</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
-      <c r="AC24">
-        <v>0.825</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6046107</v>
+        <v>6046106</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,76 +2666,76 @@
         <v>44961.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N25">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O25">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P25">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="Q25">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R25">
+        <v>1.9</v>
+      </c>
+      <c r="S25">
+        <v>1.9</v>
+      </c>
+      <c r="T25">
+        <v>3.75</v>
+      </c>
+      <c r="U25">
+        <v>1.975</v>
+      </c>
+      <c r="V25">
         <v>1.825</v>
       </c>
-      <c r="S25">
-        <v>1.975</v>
-      </c>
-      <c r="T25">
-        <v>2.75</v>
-      </c>
-      <c r="U25">
-        <v>1.8</v>
-      </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB25">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>44962.44097222222</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6046110</v>
+        <v>6046111</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,76 +2933,76 @@
         <v>44970.44791666666</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="O28">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q28">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.45</v>
+        <v>0.4125</v>
       </c>
       <c r="AA28">
         <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6046111</v>
+        <v>6046110</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,76 +3022,76 @@
         <v>44970.44791666666</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L29">
+        <v>4.5</v>
+      </c>
+      <c r="M29">
+        <v>9</v>
+      </c>
+      <c r="N29">
+        <v>1.25</v>
+      </c>
+      <c r="O29">
+        <v>5.25</v>
+      </c>
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <v>-1.75</v>
+      </c>
+      <c r="R29">
+        <v>1.9</v>
+      </c>
+      <c r="S29">
+        <v>1.9</v>
+      </c>
+      <c r="T29">
         <v>3.5</v>
       </c>
-      <c r="M29">
-        <v>3.1</v>
-      </c>
-      <c r="N29">
-        <v>2.8</v>
-      </c>
-      <c r="O29">
-        <v>3.4</v>
-      </c>
-      <c r="P29">
-        <v>2.1</v>
-      </c>
-      <c r="Q29">
+      <c r="U29">
+        <v>1.85</v>
+      </c>
+      <c r="V29">
+        <v>1.95</v>
+      </c>
+      <c r="W29">
         <v>0.25</v>
       </c>
-      <c r="R29">
-        <v>1.825</v>
-      </c>
-      <c r="S29">
-        <v>1.975</v>
-      </c>
-      <c r="T29">
-        <v>2.5</v>
-      </c>
-      <c r="U29">
-        <v>1.825</v>
-      </c>
-      <c r="V29">
-        <v>1.975</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
       <c r="X29">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.4125</v>
+        <v>0.45</v>
       </c>
       <c r="AA29">
         <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>44972.44791666666</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6046117</v>
+        <v>6046118</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>44978.44791666666</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="N36">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="O36">
         <v>4</v>
       </c>
       <c r="P36">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Q36">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y36">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3722,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6046118</v>
+        <v>6046117</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3734,76 +3734,76 @@
         <v>44978.44791666666</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M37">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="N37">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="O37">
         <v>4</v>
       </c>
       <c r="P37">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q37">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T37">
         <v>3</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6046125</v>
+        <v>6046124</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,76 +4535,76 @@
         <v>44988.5625</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>4</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>1.181</v>
+        <v>2.875</v>
       </c>
       <c r="O46">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="Q46">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z46">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB46">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4612,7 +4612,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6046124</v>
+        <v>6046125</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4624,76 +4624,76 @@
         <v>44988.5625</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>4</v>
-      </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N47">
-        <v>2.875</v>
+        <v>1.181</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R47">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6145974</v>
+        <v>6145975</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,55 +4980,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>43</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N51">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5037,19 +5037,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6145975</v>
+        <v>6145974</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,55 +5069,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L52">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M52">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N52">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5126,19 +5126,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>45002.57291666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -5603,7 +5603,7 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>30</v>
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6419373</v>
+        <v>6419629</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,73 +5781,73 @@
         <v>45017.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="L60">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
+        <v>1.727</v>
+      </c>
+      <c r="N60">
+        <v>9</v>
+      </c>
+      <c r="O60">
         <v>5.5</v>
       </c>
-      <c r="N60">
+      <c r="P60">
+        <v>1.222</v>
+      </c>
+      <c r="Q60">
+        <v>1.75</v>
+      </c>
+      <c r="R60">
+        <v>1.975</v>
+      </c>
+      <c r="S60">
+        <v>1.825</v>
+      </c>
+      <c r="T60">
+        <v>3.5</v>
+      </c>
+      <c r="U60">
+        <v>1.95</v>
+      </c>
+      <c r="V60">
         <v>1.85</v>
       </c>
-      <c r="O60">
-        <v>3.8</v>
-      </c>
-      <c r="P60">
-        <v>3.1</v>
-      </c>
-      <c r="Q60">
+      <c r="W60">
+        <v>-1</v>
+      </c>
+      <c r="X60">
+        <v>-1</v>
+      </c>
+      <c r="Y60">
+        <v>0.222</v>
+      </c>
+      <c r="Z60">
         <v>-0.5</v>
       </c>
-      <c r="R60">
-        <v>1.9</v>
-      </c>
-      <c r="S60">
-        <v>1.9</v>
-      </c>
-      <c r="T60">
-        <v>3.25</v>
-      </c>
-      <c r="U60">
-        <v>1.875</v>
-      </c>
-      <c r="V60">
-        <v>1.925</v>
-      </c>
-      <c r="W60">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X60">
-        <v>-1</v>
-      </c>
-      <c r="Y60">
-        <v>-1</v>
-      </c>
-      <c r="Z60">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB60">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5858,7 +5858,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6419629</v>
+        <v>6419373</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5870,73 +5870,73 @@
         <v>45017.65625</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L61">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M61">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="N61">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="O61">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>1.222</v>
+        <v>3.1</v>
       </c>
       <c r="Q61">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA61">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5959,7 +5959,7 @@
         <v>45018.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
         <v>38</v>
@@ -6137,7 +6137,7 @@
         <v>45019.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
         <v>40</v>
@@ -6315,7 +6315,7 @@
         <v>45029.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
         <v>31</v>
@@ -6582,7 +6582,7 @@
         <v>45031.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
         <v>40</v>
@@ -6849,7 +6849,7 @@
         <v>45035.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -7030,7 +7030,7 @@
         <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7383,7 +7383,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6546394</v>
+        <v>6546393</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,76 +7650,76 @@
         <v>45049.625</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>44</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>3.6</v>
+      </c>
+      <c r="M81">
         <v>3</v>
       </c>
-      <c r="J81" t="s">
-        <v>43</v>
-      </c>
-      <c r="K81">
-        <v>2.3</v>
-      </c>
-      <c r="L81">
+      <c r="N81">
+        <v>2.15</v>
+      </c>
+      <c r="O81">
         <v>3.5</v>
       </c>
-      <c r="M81">
-        <v>2.625</v>
-      </c>
-      <c r="N81">
-        <v>3.75</v>
-      </c>
-      <c r="O81">
-        <v>3.8</v>
-      </c>
       <c r="P81">
+        <v>2.75</v>
+      </c>
+      <c r="Q81">
+        <v>-0.25</v>
+      </c>
+      <c r="R81">
+        <v>1.925</v>
+      </c>
+      <c r="S81">
+        <v>1.875</v>
+      </c>
+      <c r="T81">
+        <v>2.5</v>
+      </c>
+      <c r="U81">
         <v>1.8</v>
       </c>
-      <c r="Q81">
-        <v>0.75</v>
-      </c>
-      <c r="R81">
-        <v>1.75</v>
-      </c>
-      <c r="S81">
-        <v>1.95</v>
-      </c>
-      <c r="T81">
-        <v>3</v>
-      </c>
-      <c r="U81">
-        <v>1.925</v>
-      </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6546393</v>
+        <v>6546394</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,76 +7739,76 @@
         <v>45049.625</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
+        <v>2.625</v>
+      </c>
+      <c r="N82">
+        <v>3.75</v>
+      </c>
+      <c r="O82">
+        <v>3.8</v>
+      </c>
+      <c r="P82">
+        <v>1.8</v>
+      </c>
+      <c r="Q82">
+        <v>0.75</v>
+      </c>
+      <c r="R82">
+        <v>1.75</v>
+      </c>
+      <c r="S82">
+        <v>1.95</v>
+      </c>
+      <c r="T82">
         <v>3</v>
       </c>
-      <c r="N82">
-        <v>2.15</v>
-      </c>
-      <c r="O82">
-        <v>3.5</v>
-      </c>
-      <c r="P82">
-        <v>2.75</v>
-      </c>
-      <c r="Q82">
-        <v>-0.25</v>
-      </c>
-      <c r="R82">
+      <c r="U82">
         <v>1.925</v>
       </c>
-      <c r="S82">
+      <c r="V82">
         <v>1.875</v>
       </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.8</v>
-      </c>
-      <c r="V82">
-        <v>2</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC82">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6542546</v>
+        <v>6569803</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,76 +7917,76 @@
         <v>45050.625</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P84">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6569803</v>
+        <v>6542546</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,76 +8006,76 @@
         <v>45050.625</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
         <v>3</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
         <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W85">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8543,7 +8543,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8718,7 +8718,7 @@
         <v>45154.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
         <v>35</v>
@@ -8896,7 +8896,7 @@
         <v>45155.60416666666</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
         <v>30</v>
@@ -9344,7 +9344,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9519,7 +9519,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7004588</v>
+        <v>7004589</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,73 +9786,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N105">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O105">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X105">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7004589</v>
+        <v>7004588</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,73 +9875,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K106">
+        <v>2.9</v>
+      </c>
+      <c r="L106">
+        <v>3.3</v>
+      </c>
+      <c r="M106">
+        <v>2.25</v>
+      </c>
+      <c r="N106">
+        <v>3.75</v>
+      </c>
+      <c r="O106">
+        <v>3.4</v>
+      </c>
+      <c r="P106">
+        <v>1.909</v>
+      </c>
+      <c r="Q106">
+        <v>0.5</v>
+      </c>
+      <c r="R106">
+        <v>1.85</v>
+      </c>
+      <c r="S106">
+        <v>1.95</v>
+      </c>
+      <c r="T106">
+        <v>2.5</v>
+      </c>
+      <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
+        <v>1.95</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
         <v>2.4</v>
       </c>
-      <c r="L106">
-        <v>3.6</v>
-      </c>
-      <c r="M106">
-        <v>2.375</v>
-      </c>
-      <c r="N106">
-        <v>2.5</v>
-      </c>
-      <c r="O106">
-        <v>3.5</v>
-      </c>
-      <c r="P106">
-        <v>2.3</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="R106">
-        <v>1.975</v>
-      </c>
-      <c r="S106">
-        <v>1.825</v>
-      </c>
-      <c r="T106">
-        <v>3</v>
-      </c>
-      <c r="U106">
-        <v>2</v>
-      </c>
-      <c r="V106">
-        <v>1.8</v>
-      </c>
-      <c r="W106">
-        <v>1.5</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9964,7 +9964,7 @@
         <v>45171.51041666666</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -10234,7 +10234,7 @@
         <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10587,7 +10587,7 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>33</v>
@@ -10854,7 +10854,7 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -10943,7 +10943,7 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
         <v>29</v>
@@ -11299,7 +11299,7 @@
         <v>45219.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>35</v>
@@ -11922,7 +11922,7 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
         <v>31</v>
@@ -12014,7 +12014,7 @@
         <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,73 +12189,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M132">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N132">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P132">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="V132">
-        <v>1.95</v>
-      </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L133">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N133">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O133">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q133">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U133">
+        <v>1.85</v>
+      </c>
+      <c r="V133">
         <v>1.95</v>
       </c>
-      <c r="V133">
-        <v>1.85</v>
-      </c>
       <c r="W133">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12637,7 +12637,7 @@
         <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>5</v>
@@ -12812,7 +12812,7 @@
         <v>45254.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
         <v>31</v>
@@ -12990,7 +12990,7 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
         <v>33</v>
@@ -13168,10 +13168,10 @@
         <v>45261.47916666666</v>
       </c>
       <c r="F143" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143" t="s">
         <v>37</v>
-      </c>
-      <c r="G143" t="s">
-        <v>36</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13245,7 +13245,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7003592</v>
+        <v>7004616</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13257,76 +13257,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L144">
+        <v>6.5</v>
+      </c>
+      <c r="M144">
+        <v>6.5</v>
+      </c>
+      <c r="N144">
+        <v>1.363</v>
+      </c>
+      <c r="O144">
         <v>5.75</v>
       </c>
-      <c r="M144">
-        <v>8</v>
-      </c>
-      <c r="N144">
-        <v>1.25</v>
-      </c>
-      <c r="O144">
-        <v>6</v>
-      </c>
       <c r="P144">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q144">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S144">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T144">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB144">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13334,7 +13334,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7004616</v>
+        <v>7003592</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13346,76 +13346,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H145">
+        <v>4</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K145">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L145">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="M145">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N145">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O145">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P145">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q145">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R145">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T145">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC145">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13883,7 +13883,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14417,7 +14417,7 @@
         <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7609336</v>
+        <v>7004626</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,40 +14503,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K158">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M158">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N158">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O158">
         <v>3.75</v>
       </c>
       <c r="P158">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q158">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
         <v>1.925</v>
@@ -14554,25 +14554,25 @@
         <v>1.975</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7004626</v>
+        <v>7609336</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,40 +14592,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H159">
         <v>2</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K159">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L159">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="N159">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O159">
         <v>3.75</v>
       </c>
       <c r="P159">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R159">
         <v>1.925</v>
@@ -14643,25 +14643,25 @@
         <v>1.975</v>
       </c>
       <c r="W159">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z159">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14684,7 +14684,7 @@
         <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H160">
         <v>6</v>
@@ -14773,7 +14773,7 @@
         <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -15064,10 +15064,10 @@
         <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
         <v>2.75</v>
@@ -15126,31 +15126,31 @@
         <v>4.2</v>
       </c>
       <c r="N165">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O165">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P165">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q165">
         <v>-1</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U165">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V165">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W165">
         <v>0</v>
@@ -15185,7 +15185,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
         <v>41</v>
@@ -15200,31 +15200,31 @@
         <v>2.5</v>
       </c>
       <c r="N166">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O166">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q166">
         <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15274,7 +15274,7 @@
         <v>1.6</v>
       </c>
       <c r="N167">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="O167">
         <v>4.5</v>
@@ -15292,13 +15292,13 @@
         <v>1.95</v>
       </c>
       <c r="T167">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -15321,7 +15321,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7840684</v>
+        <v>7840800</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15333,46 +15333,46 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K168">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L168">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M168">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N168">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P168">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R168">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
         <v>3.25</v>
       </c>
       <c r="U168">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -15395,7 +15395,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7840800</v>
+        <v>7840684</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15407,46 +15407,46 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K169">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L169">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M169">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N169">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O169">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="Q169">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T169">
         <v>3.25</v>
       </c>
       <c r="U169">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W169">
         <v>0</v>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -1586,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6046097</v>
+        <v>6046096</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1598,58 +1598,58 @@
         <v>44950.4375</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>42</v>
       </c>
       <c r="K13">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L13">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N13">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P13">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S13">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1658,13 +1658,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.925</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6046096</v>
+        <v>6046097</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,58 +1687,58 @@
         <v>44950.4375</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>42</v>
       </c>
       <c r="K14">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M14">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O14">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P14">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
+        <v>1.875</v>
+      </c>
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
+        <v>1.825</v>
+      </c>
+      <c r="V14">
         <v>1.975</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>1.95</v>
-      </c>
       <c r="W14">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1747,13 +1747,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.7250000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6046098</v>
+        <v>6046099</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,76 +1865,76 @@
         <v>44955.44097222222</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>1.222</v>
+        <v>4</v>
       </c>
       <c r="O16">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>8.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="T16">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V16">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W16">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC16">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6046099</v>
+        <v>6046098</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,76 +1954,76 @@
         <v>44955.44097222222</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N17">
-        <v>4</v>
+        <v>1.222</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P17">
-        <v>1.65</v>
+        <v>8.5</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R17">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6046102</v>
+        <v>6046101</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,55 +2132,55 @@
         <v>44956.44097222222</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>1</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N19">
         <v>3.1</v>
       </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2189,19 +2189,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6046101</v>
+        <v>6046102</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,55 +2221,55 @@
         <v>44956.44097222222</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>43</v>
       </c>
       <c r="K20">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M20">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N20">
         <v>3.1</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2278,19 +2278,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6046113</v>
+        <v>6046114</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,76 +3200,76 @@
         <v>44972.44791666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>1.285</v>
+        <v>1.833</v>
       </c>
       <c r="L31">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M31">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="N31">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="O31">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="Q31">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
         <v>1.8</v>
       </c>
-      <c r="S31">
-        <v>2</v>
-      </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC31">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3277,7 +3277,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6046114</v>
+        <v>6046113</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3289,76 +3289,76 @@
         <v>44972.44791666666</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M32">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="N32">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P32">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB32">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6046124</v>
+        <v>6046125</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,76 +4535,76 @@
         <v>44988.5625</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>4</v>
-      </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N46">
-        <v>2.875</v>
+        <v>1.181</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R46">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4612,7 +4612,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6046125</v>
+        <v>6046124</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4624,76 +4624,76 @@
         <v>44988.5625</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>4</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K47">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M47">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>1.181</v>
+        <v>2.875</v>
       </c>
       <c r="O47">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T47">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB47">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6145975</v>
+        <v>6145974</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,55 +4980,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>43</v>
       </c>
       <c r="K51">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N51">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5037,19 +5037,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6145974</v>
+        <v>6145975</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,55 +5069,55 @@
         <v>44998.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L52">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M52">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N52">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P52">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5126,19 +5126,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5235,7 +5235,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6270177</v>
+        <v>6270171</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5247,56 +5247,56 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>43</v>
       </c>
       <c r="K54">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M54">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="O54">
+        <v>6</v>
+      </c>
+      <c r="P54">
+        <v>1.222</v>
+      </c>
+      <c r="Q54">
+        <v>2</v>
+      </c>
+      <c r="R54">
+        <v>1.75</v>
+      </c>
+      <c r="S54">
+        <v>1.95</v>
+      </c>
+      <c r="T54">
         <v>3.5</v>
       </c>
-      <c r="P54">
+      <c r="U54">
+        <v>1.95</v>
+      </c>
+      <c r="V54">
         <v>1.85</v>
       </c>
-      <c r="Q54">
-        <v>0.5</v>
-      </c>
-      <c r="R54">
-        <v>1.875</v>
-      </c>
-      <c r="S54">
-        <v>1.925</v>
-      </c>
-      <c r="T54">
-        <v>3</v>
-      </c>
-      <c r="U54">
-        <v>1.975</v>
-      </c>
-      <c r="V54">
-        <v>1.825</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
@@ -5304,19 +5304,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.8500000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5324,7 +5324,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6270171</v>
+        <v>6270177</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5336,55 +5336,55 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>43</v>
       </c>
       <c r="K55">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="L55">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M55">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N55">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="O55">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="Q55">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5393,19 +5393,19 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.222</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
+        <v>0.925</v>
+      </c>
+      <c r="AB55">
         <v>0</v>
       </c>
-      <c r="AA55">
+      <c r="AC55">
         <v>-0</v>
-      </c>
-      <c r="AB55">
-        <v>0.95</v>
-      </c>
-      <c r="AC55">
-        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -7015,7 +7015,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6541222</v>
+        <v>6541221</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,76 +7027,76 @@
         <v>45044.52083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M74">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="N74">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O74">
+        <v>4.75</v>
+      </c>
+      <c r="P74">
+        <v>4</v>
+      </c>
+      <c r="Q74">
+        <v>-0.75</v>
+      </c>
+      <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
+        <v>1.95</v>
+      </c>
+      <c r="T74">
         <v>3.5</v>
       </c>
-      <c r="P74">
-        <v>2.25</v>
-      </c>
-      <c r="Q74">
-        <v>0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.8</v>
-      </c>
-      <c r="S74">
-        <v>2</v>
-      </c>
-      <c r="T74">
-        <v>2.75</v>
-      </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6541221</v>
+        <v>6541222</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,76 +7116,76 @@
         <v>45044.52083333334</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="L75">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6569803</v>
+        <v>6542546</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,76 +7917,76 @@
         <v>45050.625</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
         <v>3</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W84">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6542546</v>
+        <v>6569803</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,76 +8006,76 @@
         <v>45050.625</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N85">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
         <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6569804</v>
+        <v>6561638</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,76 +8095,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K86">
+        <v>2.15</v>
+      </c>
+      <c r="L86">
+        <v>3.4</v>
+      </c>
+      <c r="M86">
         <v>2.8</v>
       </c>
-      <c r="L86">
-        <v>3.9</v>
-      </c>
-      <c r="M86">
-        <v>2</v>
-      </c>
       <c r="N86">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="O86">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y86">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6565829</v>
+        <v>6542547</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
         <v>1</v>
       </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="N87">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O87">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6542547</v>
+        <v>6569804</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,76 +8362,76 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M89">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N89">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O89">
         <v>4.2</v>
       </c>
       <c r="P89">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q89">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6561638</v>
+        <v>6565829</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,64 +8451,64 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K90">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="N90">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P90">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U90">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8520,7 +8520,7 @@
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7004589</v>
+        <v>7004588</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,73 +9786,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K105">
+        <v>2.9</v>
+      </c>
+      <c r="L105">
+        <v>3.3</v>
+      </c>
+      <c r="M105">
+        <v>2.25</v>
+      </c>
+      <c r="N105">
+        <v>3.75</v>
+      </c>
+      <c r="O105">
+        <v>3.4</v>
+      </c>
+      <c r="P105">
+        <v>1.909</v>
+      </c>
+      <c r="Q105">
+        <v>0.5</v>
+      </c>
+      <c r="R105">
+        <v>1.85</v>
+      </c>
+      <c r="S105">
+        <v>1.95</v>
+      </c>
+      <c r="T105">
+        <v>2.5</v>
+      </c>
+      <c r="U105">
+        <v>1.85</v>
+      </c>
+      <c r="V105">
+        <v>1.95</v>
+      </c>
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
         <v>2.4</v>
       </c>
-      <c r="L105">
-        <v>3.6</v>
-      </c>
-      <c r="M105">
-        <v>2.375</v>
-      </c>
-      <c r="N105">
-        <v>2.5</v>
-      </c>
-      <c r="O105">
-        <v>3.5</v>
-      </c>
-      <c r="P105">
-        <v>2.3</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>1.975</v>
-      </c>
-      <c r="S105">
-        <v>1.825</v>
-      </c>
-      <c r="T105">
-        <v>3</v>
-      </c>
-      <c r="U105">
-        <v>2</v>
-      </c>
-      <c r="V105">
-        <v>1.8</v>
-      </c>
-      <c r="W105">
-        <v>1.5</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7004588</v>
+        <v>7004589</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,73 +9875,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K106">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L106">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N106">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O106">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X106">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,76 +10854,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K117">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M117">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N117">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O117">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P117">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R117">
+        <v>1.775</v>
+      </c>
+      <c r="S117">
+        <v>2.025</v>
+      </c>
+      <c r="T117">
+        <v>3.5</v>
+      </c>
+      <c r="U117">
+        <v>1.975</v>
+      </c>
+      <c r="V117">
         <v>1.825</v>
       </c>
-      <c r="S117">
-        <v>1.975</v>
-      </c>
-      <c r="T117">
-        <v>3</v>
-      </c>
-      <c r="U117">
-        <v>2</v>
-      </c>
-      <c r="V117">
-        <v>1.8</v>
-      </c>
       <c r="W117">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z117">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,76 +10943,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K118">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M118">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N118">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O118">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q118">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7004598</v>
+        <v>7004599</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,73 +11032,73 @@
         <v>45198.5</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119">
-        <v>2</v>
-      </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L119">
         <v>3.5</v>
       </c>
       <c r="M119">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N119">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
         <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
         <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W119">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z119">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7004599</v>
+        <v>7004598</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,73 +11121,73 @@
         <v>45198.5</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L120">
         <v>3.5</v>
       </c>
       <c r="M120">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N120">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O120">
         <v>3.4</v>
       </c>
       <c r="P120">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T120">
         <v>2.75</v>
       </c>
       <c r="U120">
+        <v>1.85</v>
+      </c>
+      <c r="V120">
+        <v>1.95</v>
+      </c>
+      <c r="W120">
         <v>1.8</v>
       </c>
-      <c r="V120">
-        <v>2</v>
-      </c>
-      <c r="W120">
-        <v>-1</v>
-      </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11732,7 +11732,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7003589</v>
+        <v>7004606</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11744,13 +11744,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -11759,40 +11759,40 @@
         <v>43</v>
       </c>
       <c r="K127">
+        <v>7</v>
+      </c>
+      <c r="L127">
+        <v>5.5</v>
+      </c>
+      <c r="M127">
+        <v>1.3</v>
+      </c>
+      <c r="N127">
         <v>8</v>
       </c>
-      <c r="L127">
-        <v>6.5</v>
-      </c>
-      <c r="M127">
-        <v>1.2</v>
-      </c>
-      <c r="N127">
-        <v>8.5</v>
-      </c>
       <c r="O127">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P127">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q127">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R127">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11801,19 +11801,19 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7004606</v>
+        <v>7003589</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,13 +11833,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>2</v>
@@ -11848,40 +11848,40 @@
         <v>43</v>
       </c>
       <c r="K128">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L128">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M128">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="N128">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O128">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P128">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q128">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11890,19 +11890,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Z128">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,73 +12189,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L132">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N132">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O132">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q132">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U132">
+        <v>1.85</v>
+      </c>
+      <c r="V132">
         <v>1.95</v>
       </c>
-      <c r="V132">
-        <v>1.85</v>
-      </c>
       <c r="W132">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K133">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M133">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N133">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P133">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U133">
+        <v>1.95</v>
+      </c>
+      <c r="V133">
         <v>1.85</v>
       </c>
-      <c r="V133">
-        <v>1.95</v>
-      </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12889,7 +12889,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7004613</v>
+        <v>7004615</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12901,40 +12901,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>2</v>
-      </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K140">
+        <v>2.1</v>
+      </c>
+      <c r="L140">
         <v>3.6</v>
       </c>
-      <c r="L140">
-        <v>4</v>
-      </c>
       <c r="M140">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O140">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
         <v>1.825</v>
@@ -12943,7 +12943,7 @@
         <v>1.975</v>
       </c>
       <c r="T140">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
         <v>1.975</v>
@@ -12952,25 +12952,25 @@
         <v>1.825</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12978,7 +12978,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7004615</v>
+        <v>7004613</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12990,40 +12990,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N141">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O141">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
         <v>1.825</v>
@@ -13032,7 +13032,7 @@
         <v>1.975</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U141">
         <v>1.975</v>
@@ -13041,25 +13041,25 @@
         <v>1.825</v>
       </c>
       <c r="W141">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
         <v>0.825</v>
-      </c>
-      <c r="AA141">
-        <v>-1</v>
-      </c>
-      <c r="AB141">
-        <v>0.4875</v>
-      </c>
-      <c r="AC141">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7004619</v>
+        <v>7004618</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,31 +13435,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K146">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L146">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N146">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O146">
         <v>3.8</v>
@@ -13471,40 +13471,40 @@
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7004618</v>
+        <v>7004619</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,31 +13524,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M147">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O147">
         <v>3.8</v>
@@ -13560,40 +13560,40 @@
         <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X147">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13779,7 +13779,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7003485</v>
+        <v>7004620</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13791,76 +13791,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K150">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L150">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N150">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O150">
+        <v>3.6</v>
+      </c>
+      <c r="P150">
         <v>3.75</v>
       </c>
-      <c r="P150">
-        <v>4.75</v>
-      </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
         <v>3</v>
       </c>
       <c r="U150">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V150">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W150">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13868,7 +13868,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7004620</v>
+        <v>7003485</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13880,76 +13880,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K151">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L151">
+        <v>4.2</v>
+      </c>
+      <c r="M151">
+        <v>5</v>
+      </c>
+      <c r="N151">
+        <v>1.615</v>
+      </c>
+      <c r="O151">
         <v>3.75</v>
       </c>
-      <c r="M151">
-        <v>4</v>
-      </c>
-      <c r="N151">
-        <v>1.833</v>
-      </c>
-      <c r="O151">
-        <v>3.6</v>
-      </c>
       <c r="P151">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S151">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T151">
         <v>3</v>
       </c>
       <c r="U151">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X151">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA151">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC151">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7004622</v>
+        <v>7004621</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,10 +13969,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13993,38 +13993,38 @@
         <v>5</v>
       </c>
       <c r="N152">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O152">
+        <v>5</v>
+      </c>
+      <c r="P152">
+        <v>6</v>
+      </c>
+      <c r="Q152">
+        <v>-1.5</v>
+      </c>
+      <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
+        <v>1.825</v>
+      </c>
+      <c r="T152">
+        <v>3.75</v>
+      </c>
+      <c r="U152">
+        <v>1.975</v>
+      </c>
+      <c r="V152">
+        <v>1.825</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
         <v>4</v>
       </c>
-      <c r="P152">
-        <v>3.6</v>
-      </c>
-      <c r="Q152">
-        <v>-0.5</v>
-      </c>
-      <c r="R152">
-        <v>1.8</v>
-      </c>
-      <c r="S152">
-        <v>2</v>
-      </c>
-      <c r="T152">
-        <v>3</v>
-      </c>
-      <c r="U152">
-        <v>1.8</v>
-      </c>
-      <c r="V152">
-        <v>2</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>3</v>
-      </c>
       <c r="Y152">
         <v>-1</v>
       </c>
@@ -14032,13 +14032,13 @@
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7004621</v>
+        <v>7004622</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,10 +14058,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14082,37 +14082,37 @@
         <v>5</v>
       </c>
       <c r="N153">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O153">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y153">
         <v>-1</v>
@@ -14121,13 +14121,13 @@
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -15042,6 +15042,15 @@
       <c r="G164" t="s">
         <v>40</v>
       </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>44</v>
+      </c>
       <c r="K164">
         <v>1.909</v>
       </c>
@@ -15052,16 +15061,16 @@
         <v>3.6</v>
       </c>
       <c r="N164">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
         <v>1.975</v>
@@ -15073,25 +15082,31 @@
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>0</v>
+        <v>0.4125</v>
+      </c>
+      <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15099,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7840798</v>
+        <v>7840799</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15111,61 +15126,76 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165" t="s">
+        <v>43</v>
       </c>
       <c r="K165">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L165">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N165">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O165">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P165">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q165">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
+        <v>1.925</v>
+      </c>
+      <c r="S165">
+        <v>1.875</v>
+      </c>
+      <c r="T165">
+        <v>3</v>
+      </c>
+      <c r="U165">
         <v>1.95</v>
       </c>
-      <c r="S165">
+      <c r="V165">
         <v>1.85</v>
       </c>
-      <c r="T165">
-        <v>3.5</v>
-      </c>
-      <c r="U165">
-        <v>1.8</v>
-      </c>
-      <c r="V165">
-        <v>2</v>
-      </c>
       <c r="W165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB165">
+        <v>-1</v>
+      </c>
+      <c r="AC165">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15173,7 +15203,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7840799</v>
+        <v>7840798</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15185,61 +15215,76 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166" t="s">
+        <v>43</v>
       </c>
       <c r="K166">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="L166">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M166">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N166">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O166">
+        <v>3.8</v>
+      </c>
+      <c r="P166">
+        <v>2.875</v>
+      </c>
+      <c r="Q166">
+        <v>-0.25</v>
+      </c>
+      <c r="R166">
+        <v>1.825</v>
+      </c>
+      <c r="S166">
+        <v>1.975</v>
+      </c>
+      <c r="T166">
         <v>3.5</v>
       </c>
-      <c r="P166">
-        <v>2.05</v>
-      </c>
-      <c r="Q166">
-        <v>0.25</v>
-      </c>
-      <c r="R166">
-        <v>1.975</v>
-      </c>
-      <c r="S166">
-        <v>1.825</v>
-      </c>
-      <c r="T166">
-        <v>3</v>
-      </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
+        <v>1.95</v>
+      </c>
+      <c r="W166">
+        <v>-1</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
         <v>1.875</v>
       </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-      <c r="X166">
-        <v>0</v>
-      </c>
-      <c r="Y166">
-        <v>0</v>
-      </c>
       <c r="Z166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB166">
+        <v>-1</v>
+      </c>
+      <c r="AC166">
+        <v>0.95</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15286,19 +15331,19 @@
         <v>1.25</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
         <v>3.5</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -15321,7 +15366,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7840800</v>
+        <v>7840684</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15333,46 +15378,46 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K168">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L168">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M168">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N168">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O168">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P168">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="Q168">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T168">
         <v>3.25</v>
       </c>
       <c r="U168">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -15395,7 +15440,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7840684</v>
+        <v>7840800</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15407,46 +15452,46 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K169">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L169">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M169">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N169">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P169">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R169">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T169">
         <v>3.25</v>
       </c>
       <c r="U169">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V169">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W169">
         <v>0</v>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N27">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R27">
+        <v>1.775</v>
+      </c>
+      <c r="S27">
+        <v>2.025</v>
+      </c>
+      <c r="T27">
+        <v>3.5</v>
+      </c>
+      <c r="U27">
+        <v>1.975</v>
+      </c>
+      <c r="V27">
         <v>1.825</v>
       </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
-      <c r="V27">
-        <v>1.8</v>
-      </c>
       <c r="W27">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z27">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7004604</v>
+        <v>7004607</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,55 +3998,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>41</v>
       </c>
       <c r="K40">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N40">
         <v>1.75</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
         <v>0.75</v>
@@ -4058,16 +4058,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7004607</v>
+        <v>7004604</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,55 +4087,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>41</v>
       </c>
       <c r="K41">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N41">
         <v>1.75</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
+        <v>1.75</v>
+      </c>
+      <c r="S41">
         <v>1.95</v>
-      </c>
-      <c r="S41">
-        <v>1.85</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
         <v>0.75</v>
@@ -4147,16 +4147,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,73 +4176,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M42">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N42">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P42">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U42">
+        <v>1.95</v>
+      </c>
+      <c r="V42">
         <v>1.85</v>
       </c>
-      <c r="V42">
-        <v>1.95</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,73 +4265,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K43">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N43">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O43">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q43">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U43">
+        <v>1.85</v>
+      </c>
+      <c r="V43">
         <v>1.95</v>
       </c>
-      <c r="V43">
-        <v>1.85</v>
-      </c>
       <c r="W43">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7004610</v>
+        <v>7003482</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
+        <v>3.5</v>
+      </c>
+      <c r="M45">
+        <v>2.8</v>
+      </c>
+      <c r="N45">
+        <v>1.909</v>
+      </c>
+      <c r="O45">
         <v>3.6</v>
       </c>
-      <c r="M45">
-        <v>3.8</v>
-      </c>
-      <c r="N45">
-        <v>1.8</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
+        <v>1.825</v>
+      </c>
+      <c r="T45">
+        <v>3.25</v>
+      </c>
+      <c r="U45">
+        <v>1.775</v>
+      </c>
+      <c r="V45">
         <v>1.925</v>
       </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>1.8</v>
-      </c>
-      <c r="V45">
-        <v>2</v>
-      </c>
       <c r="W45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7003482</v>
+        <v>7004610</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N46">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7004618</v>
+        <v>7004619</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,31 +5422,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M56">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N56">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O56">
         <v>3.8</v>
@@ -5458,40 +5458,40 @@
         <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X56">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7004619</v>
+        <v>7004618</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,31 +5511,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K57">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L57">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N57">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O57">
         <v>3.8</v>
@@ -5547,40 +5547,40 @@
         <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7840798</v>
+        <v>7840799</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,13 +7113,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -7128,41 +7128,41 @@
         <v>43</v>
       </c>
       <c r="K75">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N75">
+        <v>3.1</v>
+      </c>
+      <c r="O75">
+        <v>3.5</v>
+      </c>
+      <c r="P75">
         <v>2.05</v>
       </c>
-      <c r="O75">
-        <v>3.8</v>
-      </c>
-      <c r="P75">
-        <v>2.875</v>
-      </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
+        <v>1.95</v>
+      </c>
+      <c r="V75">
         <v>1.85</v>
       </c>
-      <c r="V75">
-        <v>1.95</v>
-      </c>
       <c r="W75">
         <v>-1</v>
       </c>
@@ -7170,19 +7170,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.875</v>
+        <v>1.05</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7840799</v>
+        <v>7840798</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,13 +7202,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -7217,61 +7217,61 @@
         <v>43</v>
       </c>
       <c r="K76">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N76">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O76">
+        <v>3.8</v>
+      </c>
+      <c r="P76">
+        <v>2.875</v>
+      </c>
+      <c r="Q76">
+        <v>-0.25</v>
+      </c>
+      <c r="R76">
+        <v>1.825</v>
+      </c>
+      <c r="S76">
+        <v>1.975</v>
+      </c>
+      <c r="T76">
         <v>3.5</v>
       </c>
-      <c r="P76">
-        <v>2.05</v>
-      </c>
-      <c r="Q76">
-        <v>0.25</v>
-      </c>
-      <c r="R76">
-        <v>1.925</v>
-      </c>
-      <c r="S76">
+      <c r="U76">
+        <v>1.85</v>
+      </c>
+      <c r="V76">
+        <v>1.95</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
         <v>1.875</v>
       </c>
-      <c r="T76">
-        <v>3</v>
-      </c>
-      <c r="U76">
-        <v>1.95</v>
-      </c>
-      <c r="V76">
-        <v>1.85</v>
-      </c>
-      <c r="W76">
-        <v>-1</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>1.05</v>
-      </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7840684</v>
+        <v>7840800</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,61 +7380,61 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M78">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R78">
+        <v>1.975</v>
+      </c>
+      <c r="S78">
+        <v>1.825</v>
+      </c>
+      <c r="T78">
+        <v>3.25</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
-        <v>3</v>
-      </c>
-      <c r="U78">
-        <v>1.8</v>
-      </c>
-      <c r="V78">
-        <v>2</v>
-      </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X78">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7443,13 +7443,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7840800</v>
+        <v>7840684</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,61 +7469,61 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K79">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N79">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O79">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q79">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y79">
         <v>-1</v>
@@ -7532,13 +7532,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
       <c r="AB79">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC79"/>
+  <dimension ref="A1:AC85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7003478</v>
+        <v>7003586</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="I21">
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>4.333</v>
+      </c>
+      <c r="M21">
+        <v>1.55</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>4.2</v>
+      </c>
+      <c r="P21">
+        <v>1.571</v>
+      </c>
+      <c r="Q21">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>3.6</v>
-      </c>
-      <c r="M21">
-        <v>3.25</v>
-      </c>
-      <c r="N21">
+      <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
         <v>1.95</v>
-      </c>
-      <c r="O21">
-        <v>3.6</v>
-      </c>
-      <c r="P21">
-        <v>3.4</v>
-      </c>
-      <c r="Q21">
-        <v>-0.5</v>
-      </c>
-      <c r="R21">
-        <v>1.975</v>
-      </c>
-      <c r="S21">
-        <v>1.825</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>0.571</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>0.95</v>
       </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7003586</v>
+        <v>7003478</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,73 +2396,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7004592</v>
+        <v>7004593</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N24">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P24">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>1.825</v>
+      </c>
+      <c r="V24">
+        <v>1.975</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
+        <v>0.571</v>
+      </c>
+      <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
+        <v>0.95</v>
+      </c>
+      <c r="AB24">
         <v>0</v>
       </c>
-      <c r="R24">
-        <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.875</v>
-      </c>
-      <c r="T24">
-        <v>2.75</v>
-      </c>
-      <c r="U24">
-        <v>1.75</v>
-      </c>
-      <c r="V24">
-        <v>1.95</v>
-      </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>2.6</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
+      <c r="AC24">
         <v>-0</v>
-      </c>
-      <c r="AB24">
-        <v>0.75</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7004593</v>
+        <v>7004592</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>2.4</v>
+      </c>
+      <c r="L25">
+        <v>3.6</v>
+      </c>
+      <c r="M25">
+        <v>2.4</v>
+      </c>
+      <c r="N25">
+        <v>2.4</v>
+      </c>
+      <c r="O25">
+        <v>3.6</v>
+      </c>
+      <c r="P25">
+        <v>2.45</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25">
-        <v>4</v>
-      </c>
-      <c r="L25">
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <v>1.727</v>
-      </c>
-      <c r="N25">
-        <v>4.75</v>
-      </c>
-      <c r="O25">
-        <v>4.333</v>
-      </c>
-      <c r="P25">
-        <v>1.571</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
+        <v>1.875</v>
+      </c>
+      <c r="T25">
+        <v>2.75</v>
+      </c>
+      <c r="U25">
+        <v>1.75</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <v>1.825</v>
-      </c>
-      <c r="V25">
-        <v>1.975</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y25">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7004606</v>
+        <v>7003589</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -3746,40 +3746,40 @@
         <v>43</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L37">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M37">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="N37">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O37">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P37">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3788,19 +3788,19 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7003589</v>
+        <v>7004606</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,13 +3820,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -3835,40 +3835,40 @@
         <v>43</v>
       </c>
       <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>5.5</v>
+      </c>
+      <c r="M38">
+        <v>1.3</v>
+      </c>
+      <c r="N38">
         <v>8</v>
       </c>
-      <c r="L38">
-        <v>6.5</v>
-      </c>
-      <c r="M38">
-        <v>1.2</v>
-      </c>
-      <c r="N38">
-        <v>8.5</v>
-      </c>
       <c r="O38">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P38">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R38">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3877,19 +3877,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,73 +4176,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K42">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N42">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O42">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q42">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U42">
+        <v>1.85</v>
+      </c>
+      <c r="V42">
         <v>1.95</v>
       </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
       <c r="W42">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,73 +4265,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M43">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N43">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P43">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U43">
+        <v>1.95</v>
+      </c>
+      <c r="V43">
         <v>1.85</v>
       </c>
-      <c r="V43">
-        <v>1.95</v>
-      </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7003482</v>
+        <v>7004610</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K45">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N45">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7004610</v>
+        <v>7003482</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L46">
+        <v>3.5</v>
+      </c>
+      <c r="M46">
+        <v>2.8</v>
+      </c>
+      <c r="N46">
+        <v>1.909</v>
+      </c>
+      <c r="O46">
         <v>3.6</v>
       </c>
-      <c r="M46">
-        <v>3.8</v>
-      </c>
-      <c r="N46">
-        <v>1.8</v>
-      </c>
-      <c r="O46">
-        <v>3.4</v>
-      </c>
       <c r="P46">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
+        <v>1.825</v>
+      </c>
+      <c r="T46">
+        <v>3.25</v>
+      </c>
+      <c r="U46">
+        <v>1.775</v>
+      </c>
+      <c r="V46">
         <v>1.925</v>
       </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>1.8</v>
-      </c>
-      <c r="V46">
-        <v>2</v>
-      </c>
       <c r="W46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7004613</v>
+        <v>7004615</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,40 +4888,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K50">
+        <v>2.1</v>
+      </c>
+      <c r="L50">
         <v>3.6</v>
       </c>
-      <c r="L50">
-        <v>4</v>
-      </c>
       <c r="M50">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N50">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O50">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>1.825</v>
@@ -4930,7 +4930,7 @@
         <v>1.975</v>
       </c>
       <c r="T50">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
         <v>1.975</v>
@@ -4939,25 +4939,25 @@
         <v>1.825</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7004615</v>
+        <v>7004613</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,40 +4977,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N51">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O51">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
         <v>1.825</v>
@@ -5019,7 +5019,7 @@
         <v>1.975</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U51">
         <v>1.975</v>
@@ -5028,25 +5028,25 @@
         <v>1.825</v>
       </c>
       <c r="W51">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>0.825</v>
-      </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
-      <c r="AB51">
-        <v>0.4875</v>
-      </c>
-      <c r="AC51">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7004616</v>
+        <v>7003592</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L54">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="M54">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N54">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O54">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P54">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q54">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7003592</v>
+        <v>7004616</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K55">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L55">
+        <v>6.5</v>
+      </c>
+      <c r="M55">
+        <v>6.5</v>
+      </c>
+      <c r="N55">
+        <v>1.363</v>
+      </c>
+      <c r="O55">
         <v>5.75</v>
       </c>
-      <c r="M55">
-        <v>8</v>
-      </c>
-      <c r="N55">
-        <v>1.25</v>
-      </c>
-      <c r="O55">
-        <v>6</v>
-      </c>
       <c r="P55">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q55">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7004620</v>
+        <v>7003485</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L60">
+        <v>4.2</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>1.615</v>
+      </c>
+      <c r="O60">
         <v>3.75</v>
       </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>1.833</v>
-      </c>
-      <c r="O60">
-        <v>3.6</v>
-      </c>
       <c r="P60">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X60">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA60">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7003485</v>
+        <v>7004620</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,76 +5867,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O61">
+        <v>3.6</v>
+      </c>
+      <c r="P61">
         <v>3.75</v>
       </c>
-      <c r="P61">
-        <v>4.75</v>
-      </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7840799</v>
+        <v>7840798</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,13 +7113,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -7128,61 +7128,61 @@
         <v>43</v>
       </c>
       <c r="K75">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O75">
+        <v>3.8</v>
+      </c>
+      <c r="P75">
+        <v>2.875</v>
+      </c>
+      <c r="Q75">
+        <v>-0.25</v>
+      </c>
+      <c r="R75">
+        <v>1.825</v>
+      </c>
+      <c r="S75">
+        <v>1.975</v>
+      </c>
+      <c r="T75">
         <v>3.5</v>
       </c>
-      <c r="P75">
-        <v>2.05</v>
-      </c>
-      <c r="Q75">
-        <v>0.25</v>
-      </c>
-      <c r="R75">
-        <v>1.925</v>
-      </c>
-      <c r="S75">
+      <c r="U75">
+        <v>1.85</v>
+      </c>
+      <c r="V75">
+        <v>1.95</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
         <v>1.875</v>
       </c>
-      <c r="T75">
-        <v>3</v>
-      </c>
-      <c r="U75">
-        <v>1.95</v>
-      </c>
-      <c r="V75">
-        <v>1.85</v>
-      </c>
-      <c r="W75">
-        <v>-1</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>1.05</v>
-      </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7840798</v>
+        <v>7840799</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,13 +7202,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -7217,41 +7217,41 @@
         <v>43</v>
       </c>
       <c r="K76">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L76">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N76">
+        <v>3.1</v>
+      </c>
+      <c r="O76">
+        <v>3.5</v>
+      </c>
+      <c r="P76">
         <v>2.05</v>
       </c>
-      <c r="O76">
-        <v>3.8</v>
-      </c>
-      <c r="P76">
-        <v>2.875</v>
-      </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U76">
+        <v>1.95</v>
+      </c>
+      <c r="V76">
         <v>1.85</v>
       </c>
-      <c r="V76">
-        <v>1.95</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
@@ -7259,19 +7259,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.875</v>
+        <v>1.05</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7840800</v>
+        <v>7840684</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,61 +7380,61 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K78">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N78">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O78">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q78">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7443,13 +7443,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7840684</v>
+        <v>7840800</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,61 +7469,61 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M79">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N79">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P79">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R79">
+        <v>1.975</v>
+      </c>
+      <c r="S79">
+        <v>1.825</v>
+      </c>
+      <c r="T79">
+        <v>3.25</v>
+      </c>
+      <c r="U79">
+        <v>1.95</v>
+      </c>
+      <c r="V79">
         <v>1.85</v>
       </c>
-      <c r="S79">
-        <v>1.95</v>
-      </c>
-      <c r="T79">
-        <v>3</v>
-      </c>
-      <c r="U79">
-        <v>1.8</v>
-      </c>
-      <c r="V79">
-        <v>2</v>
-      </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X79">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
@@ -7532,13 +7532,457 @@
         <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>7840801</v>
+      </c>
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45351.5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" t="s">
+        <v>39</v>
+      </c>
+      <c r="K80">
+        <v>2.25</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>2.4</v>
+      </c>
+      <c r="N80">
+        <v>2.4</v>
+      </c>
+      <c r="O80">
+        <v>4</v>
+      </c>
+      <c r="P80">
+        <v>2.25</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>1.95</v>
+      </c>
+      <c r="S80">
+        <v>1.85</v>
+      </c>
+      <c r="T80">
+        <v>3</v>
+      </c>
+      <c r="U80">
+        <v>1.9</v>
+      </c>
+      <c r="V80">
+        <v>1.9</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>7840805</v>
+      </c>
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45351.58333333334</v>
+      </c>
+      <c r="F81" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81">
+        <v>1.062</v>
+      </c>
+      <c r="L81">
+        <v>11</v>
+      </c>
+      <c r="M81">
+        <v>17</v>
+      </c>
+      <c r="N81">
+        <v>1.25</v>
+      </c>
+      <c r="O81">
+        <v>5.5</v>
+      </c>
+      <c r="P81">
+        <v>10</v>
+      </c>
+      <c r="Q81">
+        <v>-1.5</v>
+      </c>
+      <c r="R81">
+        <v>1.825</v>
+      </c>
+      <c r="S81">
+        <v>1.975</v>
+      </c>
+      <c r="T81">
+        <v>3.25</v>
+      </c>
+      <c r="U81">
+        <v>1.875</v>
+      </c>
+      <c r="V81">
+        <v>1.925</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>7840802</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45351.58333333334</v>
+      </c>
+      <c r="F82" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" t="s">
+        <v>34</v>
+      </c>
+      <c r="K82">
+        <v>2.4</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>2.25</v>
+      </c>
+      <c r="N82">
+        <v>2.2</v>
+      </c>
+      <c r="O82">
+        <v>4</v>
+      </c>
+      <c r="P82">
+        <v>2.5</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>1.825</v>
+      </c>
+      <c r="S82">
+        <v>1.975</v>
+      </c>
+      <c r="T82">
+        <v>3</v>
+      </c>
+      <c r="U82">
+        <v>1.825</v>
+      </c>
+      <c r="V82">
+        <v>1.975</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>7840803</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45352.5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="K83">
+        <v>1.285</v>
+      </c>
+      <c r="L83">
+        <v>5.75</v>
+      </c>
+      <c r="M83">
+        <v>7.5</v>
+      </c>
+      <c r="N83">
+        <v>1.285</v>
+      </c>
+      <c r="O83">
+        <v>5.75</v>
+      </c>
+      <c r="P83">
+        <v>7.5</v>
+      </c>
+      <c r="Q83">
+        <v>-1.75</v>
+      </c>
+      <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
+        <v>1.825</v>
+      </c>
+      <c r="T83">
+        <v>3.5</v>
+      </c>
+      <c r="U83">
+        <v>1.95</v>
+      </c>
+      <c r="V83">
+        <v>1.85</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>7840685</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45352.5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" t="s">
+        <v>37</v>
+      </c>
+      <c r="K84">
+        <v>2.1</v>
+      </c>
+      <c r="L84">
+        <v>3.8</v>
+      </c>
+      <c r="M84">
+        <v>2.9</v>
+      </c>
+      <c r="N84">
+        <v>1.909</v>
+      </c>
+      <c r="O84">
+        <v>4</v>
+      </c>
+      <c r="P84">
+        <v>3.3</v>
+      </c>
+      <c r="Q84">
+        <v>-0.5</v>
+      </c>
+      <c r="R84">
+        <v>1.925</v>
+      </c>
+      <c r="S84">
+        <v>1.875</v>
+      </c>
+      <c r="T84">
+        <v>3.5</v>
+      </c>
+      <c r="U84">
+        <v>1.9</v>
+      </c>
+      <c r="V84">
+        <v>1.9</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>7840804</v>
+      </c>
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45352.58333333334</v>
+      </c>
+      <c r="F85" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s">
+        <v>36</v>
+      </c>
+      <c r="K85">
+        <v>2.7</v>
+      </c>
+      <c r="L85">
+        <v>3.75</v>
+      </c>
+      <c r="M85">
+        <v>2.2</v>
+      </c>
+      <c r="N85">
+        <v>2.5</v>
+      </c>
+      <c r="O85">
+        <v>3.75</v>
+      </c>
+      <c r="P85">
+        <v>2.375</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>1.975</v>
+      </c>
+      <c r="S85">
+        <v>1.825</v>
+      </c>
+      <c r="T85">
+        <v>3.25</v>
+      </c>
+      <c r="U85">
+        <v>1.95</v>
+      </c>
+      <c r="V85">
+        <v>1.85</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7004589</v>
+        <v>7004588</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,73 +1773,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
+        <v>2.9</v>
+      </c>
+      <c r="L15">
+        <v>3.3</v>
+      </c>
+      <c r="M15">
+        <v>2.25</v>
+      </c>
+      <c r="N15">
+        <v>3.75</v>
+      </c>
+      <c r="O15">
+        <v>3.4</v>
+      </c>
+      <c r="P15">
+        <v>1.909</v>
+      </c>
+      <c r="Q15">
+        <v>0.5</v>
+      </c>
+      <c r="R15">
+        <v>1.85</v>
+      </c>
+      <c r="S15">
+        <v>1.95</v>
+      </c>
+      <c r="T15">
+        <v>2.5</v>
+      </c>
+      <c r="U15">
+        <v>1.85</v>
+      </c>
+      <c r="V15">
+        <v>1.95</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
         <v>2.4</v>
       </c>
-      <c r="L15">
-        <v>3.6</v>
-      </c>
-      <c r="M15">
-        <v>2.375</v>
-      </c>
-      <c r="N15">
-        <v>2.5</v>
-      </c>
-      <c r="O15">
-        <v>3.5</v>
-      </c>
-      <c r="P15">
-        <v>2.3</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
-      <c r="V15">
-        <v>1.8</v>
-      </c>
-      <c r="W15">
-        <v>1.5</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7004588</v>
+        <v>7004589</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,73 +1862,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N16">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7004591</v>
+        <v>7003585</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>1.615</v>
+      </c>
+      <c r="L18">
         <v>4</v>
       </c>
-      <c r="J18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>4.5</v>
-      </c>
-      <c r="L18">
+      <c r="M18">
+        <v>4.333</v>
+      </c>
+      <c r="N18">
+        <v>1.533</v>
+      </c>
+      <c r="O18">
         <v>4.2</v>
       </c>
-      <c r="M18">
-        <v>1.55</v>
-      </c>
-      <c r="N18">
-        <v>3.3</v>
-      </c>
-      <c r="O18">
-        <v>3.8</v>
-      </c>
       <c r="P18">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7003585</v>
+        <v>7004591</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M19">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N19">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O19">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N27">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N28">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R28">
+        <v>1.775</v>
+      </c>
+      <c r="S28">
+        <v>2.025</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
+        <v>1.975</v>
+      </c>
+      <c r="V28">
         <v>1.825</v>
       </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="U28">
-        <v>2</v>
-      </c>
-      <c r="V28">
-        <v>1.8</v>
-      </c>
       <c r="W28">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z28">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,73 +4176,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M42">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N42">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P42">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U42">
+        <v>1.95</v>
+      </c>
+      <c r="V42">
         <v>1.85</v>
       </c>
-      <c r="V42">
-        <v>1.95</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,73 +4265,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K43">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N43">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O43">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q43">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U43">
+        <v>1.85</v>
+      </c>
+      <c r="V43">
         <v>1.95</v>
       </c>
-      <c r="V43">
-        <v>1.85</v>
-      </c>
       <c r="W43">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7004615</v>
+        <v>7004613</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,40 +4888,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N50">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P50">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
         <v>1.825</v>
@@ -4930,7 +4930,7 @@
         <v>1.975</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U50">
         <v>1.975</v>
@@ -4939,25 +4939,25 @@
         <v>1.825</v>
       </c>
       <c r="W50">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>0.825</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
-      <c r="AB50">
-        <v>0.4875</v>
-      </c>
-      <c r="AC50">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7004613</v>
+        <v>7004615</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,40 +4977,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K51">
+        <v>2.1</v>
+      </c>
+      <c r="L51">
         <v>3.6</v>
       </c>
-      <c r="L51">
-        <v>4</v>
-      </c>
       <c r="M51">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N51">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>1.825</v>
@@ -5019,7 +5019,7 @@
         <v>1.975</v>
       </c>
       <c r="T51">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
         <v>1.975</v>
@@ -5028,25 +5028,25 @@
         <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7004619</v>
+        <v>7004618</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,31 +5422,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L56">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N56">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O56">
         <v>3.8</v>
@@ -5458,40 +5458,40 @@
         <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7004618</v>
+        <v>7004619</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,31 +5511,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K57">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M57">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N57">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O57">
         <v>3.8</v>
@@ -5547,40 +5547,40 @@
         <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X57">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7003485</v>
+        <v>7004620</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L60">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O60">
+        <v>3.6</v>
+      </c>
+      <c r="P60">
         <v>3.75</v>
       </c>
-      <c r="P60">
-        <v>4.75</v>
-      </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7004620</v>
+        <v>7003485</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,76 +5867,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L61">
+        <v>4.2</v>
+      </c>
+      <c r="M61">
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <v>1.615</v>
+      </c>
+      <c r="O61">
         <v>3.75</v>
       </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>1.833</v>
-      </c>
-      <c r="O61">
-        <v>3.6</v>
-      </c>
       <c r="P61">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA61">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC61">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7004626</v>
+        <v>7609336</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,40 +6490,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L68">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="N68">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O68">
         <v>3.75</v>
       </c>
       <c r="P68">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R68">
         <v>1.925</v>
@@ -6541,25 +6541,25 @@
         <v>1.975</v>
       </c>
       <c r="W68">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7609336</v>
+        <v>7004626</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M69">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O69">
         <v>3.75</v>
       </c>
       <c r="P69">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q69">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6630,25 +6630,25 @@
         <v>1.975</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7609335</v>
+        <v>7004627</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="L70">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M70">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="N70">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="O70">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R70">
         <v>2</v>
@@ -6710,19 +6710,19 @@
         <v>1.8</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X70">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
@@ -6734,10 +6734,10 @@
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7004627</v>
+        <v>7609335</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,40 +6757,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="L71">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M71">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="N71">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P71">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q71">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R71">
         <v>2</v>
@@ -6799,19 +6799,19 @@
         <v>1.8</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y71">
         <v>-1</v>
@@ -6823,10 +6823,10 @@
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7563,6 +7563,15 @@
       <c r="G80" t="s">
         <v>39</v>
       </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>42</v>
+      </c>
       <c r="K80">
         <v>2.25</v>
       </c>
@@ -7573,54 +7582,60 @@
         <v>2.4</v>
       </c>
       <c r="N80">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O80">
         <v>4</v>
       </c>
       <c r="P80">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q80">
         <v>0</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T80">
         <v>3</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7840805</v>
+        <v>7840802</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7632,69 +7647,84 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81" t="s">
+        <v>43</v>
       </c>
       <c r="K81">
-        <v>1.062</v>
+        <v>2.4</v>
       </c>
       <c r="L81">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="N81">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O81">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P81">
-        <v>10</v>
+        <v>2.375</v>
       </c>
       <c r="Q81">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
         <v>3.25</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27">
+        <v>0.925</v>
+      </c>
+      <c r="AB81">
+        <v>-0.5</v>
+      </c>
+      <c r="AC81">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7840802</v>
+        <v>7840805</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7706,64 +7736,79 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82" t="s">
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>2.4</v>
+        <v>1.062</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M82">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="N82">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
+        <v>1.75</v>
+      </c>
+      <c r="S82">
+        <v>1.95</v>
+      </c>
+      <c r="T82">
+        <v>3.25</v>
+      </c>
+      <c r="U82">
+        <v>1.975</v>
+      </c>
+      <c r="V82">
         <v>1.825</v>
       </c>
-      <c r="S82">
-        <v>1.975</v>
-      </c>
-      <c r="T82">
-        <v>3</v>
-      </c>
-      <c r="U82">
-        <v>1.825</v>
-      </c>
-      <c r="V82">
-        <v>1.975</v>
-      </c>
       <c r="W82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27">
+        <v>0.95</v>
+      </c>
+      <c r="AB82">
+        <v>-0.5</v>
+      </c>
+      <c r="AC82">
+        <v>0.4125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7785,6 +7830,15 @@
       <c r="G83" t="s">
         <v>31</v>
       </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>41</v>
+      </c>
       <c r="K83">
         <v>1.285</v>
       </c>
@@ -7795,22 +7849,22 @@
         <v>7.5</v>
       </c>
       <c r="N83">
-        <v>1.285</v>
+        <v>1.2</v>
       </c>
       <c r="O83">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="P83">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q83">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
         <v>3.5</v>
@@ -7822,22 +7876,28 @@
         <v>1.85</v>
       </c>
       <c r="W83">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7859,6 +7919,15 @@
       <c r="G84" t="s">
         <v>37</v>
       </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84" t="s">
+        <v>43</v>
+      </c>
       <c r="K84">
         <v>2.1</v>
       </c>
@@ -7869,49 +7938,55 @@
         <v>2.9</v>
       </c>
       <c r="N84">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O84">
         <v>4</v>
       </c>
       <c r="P84">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27">
+        <v>0.825</v>
+      </c>
+      <c r="AB84">
+        <v>0.825</v>
+      </c>
+      <c r="AC84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7933,6 +8008,15 @@
       <c r="G85" t="s">
         <v>36</v>
       </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+      <c r="J85" t="s">
+        <v>43</v>
+      </c>
       <c r="K85">
         <v>2.7</v>
       </c>
@@ -7943,46 +8027,52 @@
         <v>2.2</v>
       </c>
       <c r="N85">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O85">
         <v>3.75</v>
       </c>
       <c r="P85">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85">
+        <v>1.825</v>
+      </c>
+      <c r="S85">
         <v>1.975</v>
       </c>
-      <c r="S85">
-        <v>1.825</v>
-      </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB85">
+        <v>0.925</v>
+      </c>
+      <c r="AC85">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC85"/>
+  <dimension ref="A1:AC91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7004588</v>
+        <v>7004589</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,73 +1773,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N15">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X15">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7004589</v>
+        <v>7004588</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,73 +1862,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
+        <v>2.9</v>
+      </c>
+      <c r="L16">
+        <v>3.3</v>
+      </c>
+      <c r="M16">
+        <v>2.25</v>
+      </c>
+      <c r="N16">
+        <v>3.75</v>
+      </c>
+      <c r="O16">
+        <v>3.4</v>
+      </c>
+      <c r="P16">
+        <v>1.909</v>
+      </c>
+      <c r="Q16">
+        <v>0.5</v>
+      </c>
+      <c r="R16">
+        <v>1.85</v>
+      </c>
+      <c r="S16">
+        <v>1.95</v>
+      </c>
+      <c r="T16">
+        <v>2.5</v>
+      </c>
+      <c r="U16">
+        <v>1.85</v>
+      </c>
+      <c r="V16">
+        <v>1.95</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
         <v>2.4</v>
       </c>
-      <c r="L16">
-        <v>3.6</v>
-      </c>
-      <c r="M16">
-        <v>2.375</v>
-      </c>
-      <c r="N16">
-        <v>2.5</v>
-      </c>
-      <c r="O16">
-        <v>3.5</v>
-      </c>
-      <c r="P16">
-        <v>2.3</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>1.975</v>
-      </c>
-      <c r="S16">
-        <v>1.825</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
-      <c r="V16">
-        <v>1.8</v>
-      </c>
-      <c r="W16">
-        <v>1.5</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7003586</v>
+        <v>7003478</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7003478</v>
+        <v>7003586</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,73 +2396,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>3</v>
       </c>
-      <c r="I22">
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>4.333</v>
+      </c>
+      <c r="M22">
+        <v>1.55</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>4.2</v>
+      </c>
+      <c r="P22">
+        <v>1.571</v>
+      </c>
+      <c r="Q22">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>3.6</v>
-      </c>
-      <c r="M22">
-        <v>3.25</v>
-      </c>
-      <c r="N22">
+      <c r="R22">
+        <v>1.85</v>
+      </c>
+      <c r="S22">
         <v>1.95</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
-      <c r="P22">
-        <v>3.4</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.975</v>
-      </c>
-      <c r="S22">
-        <v>1.825</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>0.571</v>
+      </c>
+      <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
         <v>0.95</v>
       </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N27">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R27">
+        <v>1.775</v>
+      </c>
+      <c r="S27">
+        <v>2.025</v>
+      </c>
+      <c r="T27">
+        <v>3.5</v>
+      </c>
+      <c r="U27">
+        <v>1.975</v>
+      </c>
+      <c r="V27">
         <v>1.825</v>
       </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
-      <c r="V27">
-        <v>1.8</v>
-      </c>
       <c r="W27">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z27">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7004598</v>
+        <v>7004599</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,73 +3019,73 @@
         <v>45198.5</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>3</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L29">
         <v>3.5</v>
       </c>
       <c r="M29">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N29">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O29">
         <v>3.4</v>
       </c>
       <c r="P29">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q29">
         <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z29">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7004599</v>
+        <v>7004598</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,73 +3108,73 @@
         <v>45198.5</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N30">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O30">
         <v>3.4</v>
       </c>
       <c r="P30">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q30">
         <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
+        <v>1.85</v>
+      </c>
+      <c r="V30">
+        <v>1.95</v>
+      </c>
+      <c r="W30">
         <v>1.8</v>
       </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,73 +4176,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K42">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N42">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O42">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q42">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U42">
+        <v>1.85</v>
+      </c>
+      <c r="V42">
         <v>1.95</v>
       </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
       <c r="W42">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,73 +4265,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M43">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N43">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P43">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U43">
+        <v>1.95</v>
+      </c>
+      <c r="V43">
         <v>1.85</v>
       </c>
-      <c r="V43">
-        <v>1.95</v>
-      </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7004618</v>
+        <v>7004619</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,31 +5422,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M56">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N56">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O56">
         <v>3.8</v>
@@ -5458,40 +5458,40 @@
         <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X56">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7004619</v>
+        <v>7004618</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,31 +5511,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K57">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L57">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N57">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O57">
         <v>3.8</v>
@@ -5547,40 +5547,40 @@
         <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7004620</v>
+        <v>7003485</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L60">
+        <v>4.2</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>1.615</v>
+      </c>
+      <c r="O60">
         <v>3.75</v>
       </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>1.833</v>
-      </c>
-      <c r="O60">
-        <v>3.6</v>
-      </c>
       <c r="P60">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X60">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA60">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7003485</v>
+        <v>7004620</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,76 +5867,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O61">
+        <v>3.6</v>
+      </c>
+      <c r="P61">
         <v>3.75</v>
       </c>
-      <c r="P61">
-        <v>4.75</v>
-      </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7004621</v>
+        <v>7004622</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,10 +5956,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5980,37 +5980,37 @@
         <v>5</v>
       </c>
       <c r="N62">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q62">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y62">
         <v>-1</v>
@@ -6019,13 +6019,13 @@
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7004622</v>
+        <v>7004621</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,10 +6045,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6069,38 +6069,38 @@
         <v>5</v>
       </c>
       <c r="N63">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O63">
+        <v>5</v>
+      </c>
+      <c r="P63">
+        <v>6</v>
+      </c>
+      <c r="Q63">
+        <v>-1.5</v>
+      </c>
+      <c r="R63">
+        <v>1.975</v>
+      </c>
+      <c r="S63">
+        <v>1.825</v>
+      </c>
+      <c r="T63">
+        <v>3.75</v>
+      </c>
+      <c r="U63">
+        <v>1.975</v>
+      </c>
+      <c r="V63">
+        <v>1.825</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
         <v>4</v>
       </c>
-      <c r="P63">
-        <v>3.6</v>
-      </c>
-      <c r="Q63">
-        <v>-0.5</v>
-      </c>
-      <c r="R63">
-        <v>1.8</v>
-      </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>3</v>
-      </c>
-      <c r="U63">
-        <v>1.8</v>
-      </c>
-      <c r="V63">
-        <v>2</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>3</v>
-      </c>
       <c r="Y63">
         <v>-1</v>
       </c>
@@ -6108,13 +6108,13 @@
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7004627</v>
+        <v>7609335</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="L70">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M70">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="N70">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P70">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R70">
         <v>2</v>
@@ -6710,19 +6710,19 @@
         <v>1.8</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y70">
         <v>-1</v>
@@ -6734,10 +6734,10 @@
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7609335</v>
+        <v>7004627</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,40 +6757,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="L71">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M71">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="N71">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="O71">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P71">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R71">
         <v>2</v>
@@ -6799,19 +6799,19 @@
         <v>1.8</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X71">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
@@ -6823,10 +6823,10 @@
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7840803</v>
+        <v>7840685</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45352.5</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="M83">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="N83">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="O83">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q83">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
         <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7840685</v>
+        <v>7840803</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45352.5</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="M84">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N84">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8073,6 +8073,450 @@
       </c>
       <c r="AC85">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>7840686</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45356.5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" t="s">
+        <v>32</v>
+      </c>
+      <c r="K86">
+        <v>1.285</v>
+      </c>
+      <c r="L86">
+        <v>5.5</v>
+      </c>
+      <c r="M86">
+        <v>7.5</v>
+      </c>
+      <c r="N86">
+        <v>1.285</v>
+      </c>
+      <c r="O86">
+        <v>5.5</v>
+      </c>
+      <c r="P86">
+        <v>7.5</v>
+      </c>
+      <c r="Q86">
+        <v>-1.75</v>
+      </c>
+      <c r="R86">
+        <v>1.975</v>
+      </c>
+      <c r="S86">
+        <v>1.825</v>
+      </c>
+      <c r="T86">
+        <v>3.5</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
+        <v>1.95</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>7840807</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45356.58333333334</v>
+      </c>
+      <c r="F87" t="s">
+        <v>39</v>
+      </c>
+      <c r="G87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K87">
+        <v>2.875</v>
+      </c>
+      <c r="L87">
+        <v>4</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>2.875</v>
+      </c>
+      <c r="O87">
+        <v>4</v>
+      </c>
+      <c r="P87">
+        <v>2</v>
+      </c>
+      <c r="Q87">
+        <v>0.25</v>
+      </c>
+      <c r="R87">
+        <v>1.975</v>
+      </c>
+      <c r="S87">
+        <v>1.825</v>
+      </c>
+      <c r="T87">
+        <v>3.5</v>
+      </c>
+      <c r="U87">
+        <v>1.85</v>
+      </c>
+      <c r="V87">
+        <v>1.95</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>7840806</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45356.58333333334</v>
+      </c>
+      <c r="F88" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" t="s">
+        <v>40</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>3.6</v>
+      </c>
+      <c r="M88">
+        <v>3.2</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
+        <v>3.2</v>
+      </c>
+      <c r="Q88">
+        <v>-0.25</v>
+      </c>
+      <c r="R88">
+        <v>1.775</v>
+      </c>
+      <c r="S88">
+        <v>2.025</v>
+      </c>
+      <c r="T88">
+        <v>3</v>
+      </c>
+      <c r="U88">
+        <v>2</v>
+      </c>
+      <c r="V88">
+        <v>1.8</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>7840808</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45357.5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
+        <v>30</v>
+      </c>
+      <c r="K89">
+        <v>3.6</v>
+      </c>
+      <c r="L89">
+        <v>3.6</v>
+      </c>
+      <c r="M89">
+        <v>1.85</v>
+      </c>
+      <c r="N89">
+        <v>3.6</v>
+      </c>
+      <c r="O89">
+        <v>3.6</v>
+      </c>
+      <c r="P89">
+        <v>1.85</v>
+      </c>
+      <c r="Q89">
+        <v>0.5</v>
+      </c>
+      <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>1.9</v>
+      </c>
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
+        <v>1.8</v>
+      </c>
+      <c r="V89">
+        <v>2</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>7840810</v>
+      </c>
+      <c r="C90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45357.58333333334</v>
+      </c>
+      <c r="F90" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" t="s">
+        <v>29</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>3.6</v>
+      </c>
+      <c r="M90">
+        <v>3.1</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90">
+        <v>3.6</v>
+      </c>
+      <c r="P90">
+        <v>3.1</v>
+      </c>
+      <c r="Q90">
+        <v>-0.5</v>
+      </c>
+      <c r="R90">
+        <v>2.025</v>
+      </c>
+      <c r="S90">
+        <v>1.775</v>
+      </c>
+      <c r="T90">
+        <v>3.25</v>
+      </c>
+      <c r="U90">
+        <v>1.975</v>
+      </c>
+      <c r="V90">
+        <v>1.825</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>7840809</v>
+      </c>
+      <c r="C91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45357.58333333334</v>
+      </c>
+      <c r="F91" t="s">
+        <v>37</v>
+      </c>
+      <c r="G91" t="s">
+        <v>38</v>
+      </c>
+      <c r="K91">
+        <v>5</v>
+      </c>
+      <c r="L91">
+        <v>4.75</v>
+      </c>
+      <c r="M91">
+        <v>1.45</v>
+      </c>
+      <c r="N91">
+        <v>4.5</v>
+      </c>
+      <c r="O91">
+        <v>4.5</v>
+      </c>
+      <c r="P91">
+        <v>1.5</v>
+      </c>
+      <c r="Q91">
+        <v>1.25</v>
+      </c>
+      <c r="R91">
+        <v>1.8</v>
+      </c>
+      <c r="S91">
+        <v>2</v>
+      </c>
+      <c r="T91">
+        <v>3.75</v>
+      </c>
+      <c r="U91">
+        <v>1.9</v>
+      </c>
+      <c r="V91">
+        <v>1.9</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7004589</v>
+        <v>7004588</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,73 +1773,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
+        <v>2.9</v>
+      </c>
+      <c r="L15">
+        <v>3.3</v>
+      </c>
+      <c r="M15">
+        <v>2.25</v>
+      </c>
+      <c r="N15">
+        <v>3.75</v>
+      </c>
+      <c r="O15">
+        <v>3.4</v>
+      </c>
+      <c r="P15">
+        <v>1.909</v>
+      </c>
+      <c r="Q15">
+        <v>0.5</v>
+      </c>
+      <c r="R15">
+        <v>1.85</v>
+      </c>
+      <c r="S15">
+        <v>1.95</v>
+      </c>
+      <c r="T15">
+        <v>2.5</v>
+      </c>
+      <c r="U15">
+        <v>1.85</v>
+      </c>
+      <c r="V15">
+        <v>1.95</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
         <v>2.4</v>
       </c>
-      <c r="L15">
-        <v>3.6</v>
-      </c>
-      <c r="M15">
-        <v>2.375</v>
-      </c>
-      <c r="N15">
-        <v>2.5</v>
-      </c>
-      <c r="O15">
-        <v>3.5</v>
-      </c>
-      <c r="P15">
-        <v>2.3</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
-      <c r="V15">
-        <v>1.8</v>
-      </c>
-      <c r="W15">
-        <v>1.5</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7004588</v>
+        <v>7004589</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,73 +1862,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N16">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7003585</v>
+        <v>7004591</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M18">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N18">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O18">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7004591</v>
+        <v>7003585</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>1.615</v>
+      </c>
+      <c r="L19">
         <v>4</v>
       </c>
-      <c r="J19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>4.5</v>
-      </c>
-      <c r="L19">
+      <c r="M19">
+        <v>4.333</v>
+      </c>
+      <c r="N19">
+        <v>1.533</v>
+      </c>
+      <c r="O19">
         <v>4.2</v>
       </c>
-      <c r="M19">
-        <v>1.55</v>
-      </c>
-      <c r="N19">
-        <v>3.3</v>
-      </c>
-      <c r="O19">
-        <v>3.8</v>
-      </c>
       <c r="P19">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7003478</v>
+        <v>7003586</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="I21">
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>4.333</v>
+      </c>
+      <c r="M21">
+        <v>1.55</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>4.2</v>
+      </c>
+      <c r="P21">
+        <v>1.571</v>
+      </c>
+      <c r="Q21">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>3.6</v>
-      </c>
-      <c r="M21">
-        <v>3.25</v>
-      </c>
-      <c r="N21">
+      <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
         <v>1.95</v>
-      </c>
-      <c r="O21">
-        <v>3.6</v>
-      </c>
-      <c r="P21">
-        <v>3.4</v>
-      </c>
-      <c r="Q21">
-        <v>-0.5</v>
-      </c>
-      <c r="R21">
-        <v>1.975</v>
-      </c>
-      <c r="S21">
-        <v>1.825</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>0.571</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>0.95</v>
       </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7003586</v>
+        <v>7003478</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,73 +2396,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7004593</v>
+        <v>7004592</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>2.4</v>
+      </c>
+      <c r="L24">
+        <v>3.6</v>
+      </c>
+      <c r="M24">
+        <v>2.4</v>
+      </c>
+      <c r="N24">
+        <v>2.4</v>
+      </c>
+      <c r="O24">
+        <v>3.6</v>
+      </c>
+      <c r="P24">
+        <v>2.45</v>
+      </c>
+      <c r="Q24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-      <c r="M24">
-        <v>1.727</v>
-      </c>
-      <c r="N24">
-        <v>4.75</v>
-      </c>
-      <c r="O24">
-        <v>4.333</v>
-      </c>
-      <c r="P24">
-        <v>1.571</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
+        <v>1.875</v>
+      </c>
+      <c r="T24">
+        <v>2.75</v>
+      </c>
+      <c r="U24">
+        <v>1.75</v>
+      </c>
+      <c r="V24">
         <v>1.95</v>
       </c>
-      <c r="T24">
-        <v>3</v>
-      </c>
-      <c r="U24">
-        <v>1.825</v>
-      </c>
-      <c r="V24">
-        <v>1.975</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y24">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7004592</v>
+        <v>7004593</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N25">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P25">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1.85</v>
+      </c>
+      <c r="S25">
+        <v>1.95</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>1.825</v>
+      </c>
+      <c r="V25">
+        <v>1.975</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
+        <v>0.571</v>
+      </c>
+      <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
+        <v>0.95</v>
+      </c>
+      <c r="AB25">
         <v>0</v>
       </c>
-      <c r="R25">
-        <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.875</v>
-      </c>
-      <c r="T25">
-        <v>2.75</v>
-      </c>
-      <c r="U25">
-        <v>1.75</v>
-      </c>
-      <c r="V25">
-        <v>1.95</v>
-      </c>
-      <c r="W25">
-        <v>-1</v>
-      </c>
-      <c r="X25">
-        <v>2.6</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
+      <c r="AC25">
         <v>-0</v>
-      </c>
-      <c r="AB25">
-        <v>0.75</v>
-      </c>
-      <c r="AC25">
-        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N27">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N28">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R28">
+        <v>1.775</v>
+      </c>
+      <c r="S28">
+        <v>2.025</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
+        <v>1.975</v>
+      </c>
+      <c r="V28">
         <v>1.825</v>
       </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="U28">
-        <v>2</v>
-      </c>
-      <c r="V28">
-        <v>1.8</v>
-      </c>
       <c r="W28">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z28">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7004599</v>
+        <v>7004598</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,73 +3019,73 @@
         <v>45198.5</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L29">
         <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N29">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O29">
         <v>3.4</v>
       </c>
       <c r="P29">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q29">
         <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
+        <v>1.85</v>
+      </c>
+      <c r="V29">
+        <v>1.95</v>
+      </c>
+      <c r="W29">
         <v>1.8</v>
       </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7004598</v>
+        <v>7004599</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,73 +3108,73 @@
         <v>45198.5</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
         <v>3</v>
       </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N30">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O30">
         <v>3.4</v>
       </c>
       <c r="P30">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q30">
         <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,73 +4176,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M42">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N42">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P42">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U42">
+        <v>1.95</v>
+      </c>
+      <c r="V42">
         <v>1.85</v>
       </c>
-      <c r="V42">
-        <v>1.95</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,73 +4265,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K43">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N43">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O43">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q43">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U43">
+        <v>1.85</v>
+      </c>
+      <c r="V43">
         <v>1.95</v>
       </c>
-      <c r="V43">
-        <v>1.85</v>
-      </c>
       <c r="W43">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7004610</v>
+        <v>7003482</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
+        <v>3.5</v>
+      </c>
+      <c r="M45">
+        <v>2.8</v>
+      </c>
+      <c r="N45">
+        <v>1.909</v>
+      </c>
+      <c r="O45">
         <v>3.6</v>
       </c>
-      <c r="M45">
-        <v>3.8</v>
-      </c>
-      <c r="N45">
-        <v>1.8</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
+        <v>1.825</v>
+      </c>
+      <c r="T45">
+        <v>3.25</v>
+      </c>
+      <c r="U45">
+        <v>1.775</v>
+      </c>
+      <c r="V45">
         <v>1.925</v>
       </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>1.8</v>
-      </c>
-      <c r="V45">
-        <v>2</v>
-      </c>
       <c r="W45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7003482</v>
+        <v>7004610</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N46">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7004613</v>
+        <v>7004615</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,40 +4888,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K50">
+        <v>2.1</v>
+      </c>
+      <c r="L50">
         <v>3.6</v>
       </c>
-      <c r="L50">
-        <v>4</v>
-      </c>
       <c r="M50">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N50">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O50">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>1.825</v>
@@ -4930,7 +4930,7 @@
         <v>1.975</v>
       </c>
       <c r="T50">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
         <v>1.975</v>
@@ -4939,25 +4939,25 @@
         <v>1.825</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7004615</v>
+        <v>7004613</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,40 +4977,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N51">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O51">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
         <v>1.825</v>
@@ -5019,7 +5019,7 @@
         <v>1.975</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U51">
         <v>1.975</v>
@@ -5028,25 +5028,25 @@
         <v>1.825</v>
       </c>
       <c r="W51">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>0.825</v>
-      </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
-      <c r="AB51">
-        <v>0.4875</v>
-      </c>
-      <c r="AC51">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7003592</v>
+        <v>7004616</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L54">
+        <v>6.5</v>
+      </c>
+      <c r="M54">
+        <v>6.5</v>
+      </c>
+      <c r="N54">
+        <v>1.363</v>
+      </c>
+      <c r="O54">
         <v>5.75</v>
       </c>
-      <c r="M54">
-        <v>8</v>
-      </c>
-      <c r="N54">
-        <v>1.25</v>
-      </c>
-      <c r="O54">
-        <v>6</v>
-      </c>
       <c r="P54">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q54">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7004616</v>
+        <v>7003592</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L55">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="M55">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N55">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O55">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P55">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T55">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7004619</v>
+        <v>7004618</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,31 +5422,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L56">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N56">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O56">
         <v>3.8</v>
@@ -5458,40 +5458,40 @@
         <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7004618</v>
+        <v>7004619</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,31 +5511,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K57">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M57">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N57">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O57">
         <v>3.8</v>
@@ -5547,40 +5547,40 @@
         <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X57">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7609335</v>
+        <v>7004627</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="L70">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M70">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="N70">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="O70">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R70">
         <v>2</v>
@@ -6710,19 +6710,19 @@
         <v>1.8</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X70">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
@@ -6734,10 +6734,10 @@
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7004627</v>
+        <v>7609335</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,40 +6757,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="L71">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M71">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="N71">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P71">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q71">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R71">
         <v>2</v>
@@ -6799,19 +6799,19 @@
         <v>1.8</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y71">
         <v>-1</v>
@@ -6823,10 +6823,10 @@
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7840684</v>
+        <v>7840800</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,61 +7380,61 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M78">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R78">
+        <v>1.975</v>
+      </c>
+      <c r="S78">
+        <v>1.825</v>
+      </c>
+      <c r="T78">
+        <v>3.25</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
-        <v>3</v>
-      </c>
-      <c r="U78">
-        <v>1.8</v>
-      </c>
-      <c r="V78">
-        <v>2</v>
-      </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X78">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7443,13 +7443,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7840800</v>
+        <v>7840684</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,61 +7469,61 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K79">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N79">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O79">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q79">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y79">
         <v>-1</v>
@@ -7532,13 +7532,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
       <c r="AB79">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7840802</v>
+        <v>7840805</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,10 +7647,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7662,40 +7662,40 @@
         <v>43</v>
       </c>
       <c r="K81">
-        <v>2.4</v>
+        <v>1.062</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M81">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="N81">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P81">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R81">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
         <v>3.25</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7704,19 +7704,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.375</v>
+        <v>6</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
         <v>-0.5</v>
       </c>
       <c r="AC81">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7840805</v>
+        <v>7840802</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,10 +7736,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7751,40 +7751,40 @@
         <v>43</v>
       </c>
       <c r="K82">
-        <v>1.062</v>
+        <v>2.4</v>
       </c>
       <c r="L82">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M82">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="N82">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7793,19 +7793,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>6</v>
+        <v>1.375</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB82">
         <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7840685</v>
+        <v>7840803</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45352.5</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="L83">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="M83">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N83">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
         <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7840803</v>
+        <v>7840685</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45352.5</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="N84">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="O84">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8097,6 +8097,15 @@
       <c r="G86" t="s">
         <v>32</v>
       </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>42</v>
+      </c>
       <c r="K86">
         <v>1.285</v>
       </c>
@@ -8107,22 +8116,22 @@
         <v>7.5</v>
       </c>
       <c r="N86">
-        <v>1.285</v>
+        <v>1.333</v>
       </c>
       <c r="O86">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P86">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q86">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R86">
+        <v>1.825</v>
+      </c>
+      <c r="S86">
         <v>1.975</v>
-      </c>
-      <c r="S86">
-        <v>1.825</v>
       </c>
       <c r="T86">
         <v>3.5</v>
@@ -8134,19 +8143,25 @@
         <v>1.95</v>
       </c>
       <c r="W86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="Y86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB86">
+        <v>-1</v>
+      </c>
+      <c r="AC86">
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8154,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7840807</v>
+        <v>7840806</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8166,61 +8181,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+      <c r="J87" t="s">
+        <v>43</v>
       </c>
       <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>3.6</v>
+      </c>
+      <c r="M87">
+        <v>3.2</v>
+      </c>
+      <c r="N87">
+        <v>2.2</v>
+      </c>
+      <c r="O87">
+        <v>3.5</v>
+      </c>
+      <c r="P87">
         <v>2.875</v>
       </c>
-      <c r="L87">
-        <v>4</v>
-      </c>
-      <c r="M87">
-        <v>2</v>
-      </c>
-      <c r="N87">
-        <v>2.875</v>
-      </c>
-      <c r="O87">
-        <v>4</v>
-      </c>
-      <c r="P87">
-        <v>2</v>
-      </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
+        <v>1.95</v>
+      </c>
+      <c r="S87">
+        <v>1.85</v>
+      </c>
+      <c r="T87">
+        <v>2.75</v>
+      </c>
+      <c r="U87">
+        <v>1.825</v>
+      </c>
+      <c r="V87">
         <v>1.975</v>
       </c>
-      <c r="S87">
-        <v>1.825</v>
-      </c>
-      <c r="T87">
-        <v>3.5</v>
-      </c>
-      <c r="U87">
-        <v>1.85</v>
-      </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
       <c r="W87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB87">
+        <v>0.825</v>
+      </c>
+      <c r="AC87">
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8228,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7840806</v>
+        <v>7840807</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8240,61 +8270,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L88">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
+        <v>0.75</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8319,6 +8364,15 @@
       <c r="G89" t="s">
         <v>30</v>
       </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <v>4</v>
+      </c>
+      <c r="J89" t="s">
+        <v>43</v>
+      </c>
       <c r="K89">
         <v>3.6</v>
       </c>
@@ -8329,46 +8383,52 @@
         <v>1.85</v>
       </c>
       <c r="N89">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O89">
         <v>3.6</v>
       </c>
       <c r="P89">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q89">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="AB89">
+        <v>0.875</v>
+      </c>
+      <c r="AC89">
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8393,6 +8453,15 @@
       <c r="G90" t="s">
         <v>29</v>
       </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>41</v>
+      </c>
       <c r="K90">
         <v>2</v>
       </c>
@@ -8403,46 +8472,52 @@
         <v>3.1</v>
       </c>
       <c r="N90">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W90">
+        <v>1.15</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
         <v>0</v>
       </c>
-      <c r="X90">
-        <v>0</v>
-      </c>
-      <c r="Y90">
-        <v>0</v>
-      </c>
-      <c r="Z90">
-        <v>0</v>
-      </c>
-      <c r="AA90">
-        <v>0</v>
+      <c r="AC90">
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8467,6 +8542,15 @@
       <c r="G91" t="s">
         <v>38</v>
       </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91" t="s">
+        <v>42</v>
+      </c>
       <c r="K91">
         <v>5</v>
       </c>
@@ -8477,46 +8561,52 @@
         <v>1.45</v>
       </c>
       <c r="N91">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="O91">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P91">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q91">
         <v>1.25</v>
       </c>
       <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
         <v>1.8</v>
-      </c>
-      <c r="S91">
-        <v>2</v>
       </c>
       <c r="T91">
         <v>3.75</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V91">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA91">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>0.4375</v>
+      </c>
+      <c r="AC91">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC91"/>
+  <dimension ref="A1:AC97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7003586</v>
+        <v>7003478</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7003478</v>
+        <v>7003586</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,73 +2396,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>3</v>
       </c>
-      <c r="I22">
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>4.333</v>
+      </c>
+      <c r="M22">
+        <v>1.55</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>4.2</v>
+      </c>
+      <c r="P22">
+        <v>1.571</v>
+      </c>
+      <c r="Q22">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>3.6</v>
-      </c>
-      <c r="M22">
-        <v>3.25</v>
-      </c>
-      <c r="N22">
+      <c r="R22">
+        <v>1.85</v>
+      </c>
+      <c r="S22">
         <v>1.95</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
-      <c r="P22">
-        <v>3.4</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.975</v>
-      </c>
-      <c r="S22">
-        <v>1.825</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>0.571</v>
+      </c>
+      <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
         <v>0.95</v>
       </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N27">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R27">
+        <v>1.775</v>
+      </c>
+      <c r="S27">
+        <v>2.025</v>
+      </c>
+      <c r="T27">
+        <v>3.5</v>
+      </c>
+      <c r="U27">
+        <v>1.975</v>
+      </c>
+      <c r="V27">
         <v>1.825</v>
       </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
-      <c r="V27">
-        <v>1.8</v>
-      </c>
       <c r="W27">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z27">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,73 +4176,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K42">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N42">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O42">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q42">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U42">
+        <v>1.85</v>
+      </c>
+      <c r="V42">
         <v>1.95</v>
       </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
       <c r="W42">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,73 +4265,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M43">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N43">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P43">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U43">
+        <v>1.95</v>
+      </c>
+      <c r="V43">
         <v>1.85</v>
       </c>
-      <c r="V43">
-        <v>1.95</v>
-      </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7003485</v>
+        <v>7004620</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L60">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O60">
+        <v>3.6</v>
+      </c>
+      <c r="P60">
         <v>3.75</v>
       </c>
-      <c r="P60">
-        <v>4.75</v>
-      </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7004620</v>
+        <v>7003485</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,76 +5867,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L61">
+        <v>4.2</v>
+      </c>
+      <c r="M61">
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <v>1.615</v>
+      </c>
+      <c r="O61">
         <v>3.75</v>
       </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>1.833</v>
-      </c>
-      <c r="O61">
-        <v>3.6</v>
-      </c>
       <c r="P61">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA61">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC61">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7004627</v>
+        <v>7609335</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="L70">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M70">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="N70">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P70">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R70">
         <v>2</v>
@@ -6710,19 +6710,19 @@
         <v>1.8</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y70">
         <v>-1</v>
@@ -6734,10 +6734,10 @@
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7609335</v>
+        <v>7004627</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,40 +6757,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="L71">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M71">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="N71">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="O71">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P71">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R71">
         <v>2</v>
@@ -6799,19 +6799,19 @@
         <v>1.8</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X71">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
@@ -6823,10 +6823,10 @@
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7840798</v>
+        <v>7840799</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,13 +7113,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -7128,41 +7128,41 @@
         <v>43</v>
       </c>
       <c r="K75">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N75">
+        <v>3.1</v>
+      </c>
+      <c r="O75">
+        <v>3.5</v>
+      </c>
+      <c r="P75">
         <v>2.05</v>
       </c>
-      <c r="O75">
-        <v>3.8</v>
-      </c>
-      <c r="P75">
-        <v>2.875</v>
-      </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
+        <v>1.95</v>
+      </c>
+      <c r="V75">
         <v>1.85</v>
       </c>
-      <c r="V75">
-        <v>1.95</v>
-      </c>
       <c r="W75">
         <v>-1</v>
       </c>
@@ -7170,19 +7170,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.875</v>
+        <v>1.05</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7840799</v>
+        <v>7840798</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,13 +7202,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -7217,61 +7217,61 @@
         <v>43</v>
       </c>
       <c r="K76">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N76">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O76">
+        <v>3.8</v>
+      </c>
+      <c r="P76">
+        <v>2.875</v>
+      </c>
+      <c r="Q76">
+        <v>-0.25</v>
+      </c>
+      <c r="R76">
+        <v>1.825</v>
+      </c>
+      <c r="S76">
+        <v>1.975</v>
+      </c>
+      <c r="T76">
         <v>3.5</v>
       </c>
-      <c r="P76">
-        <v>2.05</v>
-      </c>
-      <c r="Q76">
-        <v>0.25</v>
-      </c>
-      <c r="R76">
-        <v>1.925</v>
-      </c>
-      <c r="S76">
+      <c r="U76">
+        <v>1.85</v>
+      </c>
+      <c r="V76">
+        <v>1.95</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
         <v>1.875</v>
       </c>
-      <c r="T76">
-        <v>3</v>
-      </c>
-      <c r="U76">
-        <v>1.95</v>
-      </c>
-      <c r="V76">
-        <v>1.85</v>
-      </c>
-      <c r="W76">
-        <v>-1</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>1.05</v>
-      </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7840805</v>
+        <v>7840802</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,10 +7647,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7662,40 +7662,40 @@
         <v>43</v>
       </c>
       <c r="K81">
-        <v>1.062</v>
+        <v>2.4</v>
       </c>
       <c r="L81">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="N81">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O81">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P81">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q81">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
         <v>3.25</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7704,19 +7704,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>6</v>
+        <v>1.375</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB81">
         <v>-0.5</v>
       </c>
       <c r="AC81">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7840802</v>
+        <v>7840805</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,10 +7736,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7751,40 +7751,40 @@
         <v>43</v>
       </c>
       <c r="K82">
-        <v>2.4</v>
+        <v>1.062</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M82">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="N82">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7793,19 +7793,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.375</v>
+        <v>6</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
         <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7840803</v>
+        <v>7840685</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45352.5</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="M83">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="N83">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="O83">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q83">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
         <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7840685</v>
+        <v>7840803</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45352.5</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="M84">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N84">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7840806</v>
+        <v>7840807</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>42</v>
+      </c>
+      <c r="K87">
+        <v>2.875</v>
+      </c>
+      <c r="L87">
         <v>4</v>
       </c>
-      <c r="J87" t="s">
-        <v>43</v>
-      </c>
-      <c r="K87">
-        <v>2</v>
-      </c>
-      <c r="L87">
-        <v>3.6</v>
-      </c>
       <c r="M87">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.925</v>
+      </c>
+      <c r="T87">
+        <v>3.25</v>
+      </c>
+      <c r="U87">
         <v>1.95</v>
       </c>
-      <c r="S87">
-        <v>1.85</v>
-      </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.825</v>
-      </c>
       <c r="V87">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y87">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7840807</v>
+        <v>7840806</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>3.6</v>
+      </c>
+      <c r="M88">
+        <v>3.2</v>
+      </c>
+      <c r="N88">
+        <v>2.2</v>
+      </c>
+      <c r="O88">
+        <v>3.5</v>
+      </c>
+      <c r="P88">
         <v>2.875</v>
       </c>
-      <c r="L88">
-        <v>4</v>
-      </c>
-      <c r="M88">
-        <v>2</v>
-      </c>
-      <c r="N88">
+      <c r="Q88">
+        <v>-0.25</v>
+      </c>
+      <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
         <v>1.85</v>
       </c>
-      <c r="O88">
-        <v>3.8</v>
-      </c>
-      <c r="P88">
-        <v>3.4</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
+      <c r="T88">
+        <v>2.75</v>
+      </c>
+      <c r="U88">
+        <v>1.825</v>
+      </c>
+      <c r="V88">
+        <v>1.975</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
         <v>1.875</v>
       </c>
-      <c r="S88">
-        <v>1.925</v>
-      </c>
-      <c r="T88">
-        <v>3.25</v>
-      </c>
-      <c r="U88">
-        <v>1.95</v>
-      </c>
-      <c r="V88">
-        <v>1.75</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
-      <c r="X88">
-        <v>2.8</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7840810</v>
+        <v>7840809</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M90">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="N90">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P90">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U90">
+        <v>1.875</v>
+      </c>
+      <c r="V90">
         <v>1.925</v>
       </c>
-      <c r="V90">
-        <v>1.875</v>
-      </c>
       <c r="W90">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7840809</v>
+        <v>7840810</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,520 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F91" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>41</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>3.6</v>
+      </c>
+      <c r="M91">
+        <v>3.1</v>
+      </c>
+      <c r="N91">
+        <v>2.15</v>
+      </c>
+      <c r="O91">
+        <v>3.4</v>
+      </c>
+      <c r="P91">
+        <v>2.9</v>
+      </c>
+      <c r="Q91">
+        <v>-0.25</v>
+      </c>
+      <c r="R91">
+        <v>1.975</v>
+      </c>
+      <c r="S91">
+        <v>1.825</v>
+      </c>
+      <c r="T91">
+        <v>3</v>
+      </c>
+      <c r="U91">
+        <v>1.925</v>
+      </c>
+      <c r="V91">
+        <v>1.875</v>
+      </c>
+      <c r="W91">
+        <v>1.15</v>
+      </c>
+      <c r="X91">
+        <v>-1</v>
+      </c>
+      <c r="Y91">
+        <v>-1</v>
+      </c>
+      <c r="Z91">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>7840811</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45361.60416666666</v>
+      </c>
+      <c r="F92" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s">
+        <v>38</v>
+      </c>
+      <c r="K92">
+        <v>4.75</v>
+      </c>
+      <c r="L92">
+        <v>4.2</v>
+      </c>
+      <c r="M92">
+        <v>1.55</v>
+      </c>
+      <c r="N92">
+        <v>4.333</v>
+      </c>
+      <c r="O92">
+        <v>4</v>
+      </c>
+      <c r="P92">
+        <v>1.615</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>1.8</v>
+      </c>
+      <c r="S92">
+        <v>2</v>
+      </c>
+      <c r="T92">
+        <v>3.25</v>
+      </c>
+      <c r="U92">
+        <v>1.8</v>
+      </c>
+      <c r="V92">
+        <v>2</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>7840687</v>
+      </c>
+      <c r="C93" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45361.60416666666</v>
+      </c>
+      <c r="F93" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" t="s">
+        <v>35</v>
+      </c>
+      <c r="K93">
+        <v>2.7</v>
+      </c>
+      <c r="L93">
+        <v>3.6</v>
+      </c>
+      <c r="M93">
+        <v>2.25</v>
+      </c>
+      <c r="N93">
+        <v>2.7</v>
+      </c>
+      <c r="O93">
+        <v>3.6</v>
+      </c>
+      <c r="P93">
+        <v>2.25</v>
+      </c>
+      <c r="Q93">
+        <v>0.25</v>
+      </c>
+      <c r="R93">
+        <v>1.775</v>
+      </c>
+      <c r="S93">
+        <v>2.025</v>
+      </c>
+      <c r="T93">
+        <v>3.25</v>
+      </c>
+      <c r="U93">
+        <v>1.975</v>
+      </c>
+      <c r="V93">
+        <v>1.825</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>7936025</v>
+      </c>
+      <c r="C94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45362.5</v>
+      </c>
+      <c r="F94" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" t="s">
         <v>37</v>
       </c>
-      <c r="G91" t="s">
-        <v>38</v>
-      </c>
-      <c r="H91">
-        <v>2</v>
-      </c>
-      <c r="I91">
-        <v>2</v>
-      </c>
-      <c r="J91" t="s">
-        <v>42</v>
-      </c>
-      <c r="K91">
-        <v>5</v>
-      </c>
-      <c r="L91">
+      <c r="K94">
         <v>4.75</v>
       </c>
-      <c r="M91">
-        <v>1.45</v>
-      </c>
-      <c r="N91">
+      <c r="L94">
+        <v>4.333</v>
+      </c>
+      <c r="M94">
+        <v>1.55</v>
+      </c>
+      <c r="N94">
+        <v>4.333</v>
+      </c>
+      <c r="O94">
+        <v>4.2</v>
+      </c>
+      <c r="P94">
+        <v>1.6</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1.825</v>
+      </c>
+      <c r="S94">
+        <v>1.975</v>
+      </c>
+      <c r="T94">
+        <v>3.5</v>
+      </c>
+      <c r="U94">
+        <v>1.9</v>
+      </c>
+      <c r="V94">
+        <v>1.9</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>7936026</v>
+      </c>
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45362.58333333334</v>
+      </c>
+      <c r="F95" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K95">
+        <v>2.375</v>
+      </c>
+      <c r="L95">
+        <v>3.3</v>
+      </c>
+      <c r="M95">
+        <v>2.8</v>
+      </c>
+      <c r="N95">
+        <v>2.375</v>
+      </c>
+      <c r="O95">
+        <v>3.3</v>
+      </c>
+      <c r="P95">
+        <v>2.8</v>
+      </c>
+      <c r="Q95">
+        <v>-0.25</v>
+      </c>
+      <c r="R95">
+        <v>2.05</v>
+      </c>
+      <c r="S95">
+        <v>1.75</v>
+      </c>
+      <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
+        <v>1.925</v>
+      </c>
+      <c r="V95">
+        <v>1.875</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>7840814</v>
+      </c>
+      <c r="C96" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45363.64583333334</v>
+      </c>
+      <c r="F96" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" t="s">
+        <v>33</v>
+      </c>
+      <c r="K96">
+        <v>1.8</v>
+      </c>
+      <c r="L96">
+        <v>3.75</v>
+      </c>
+      <c r="M96">
+        <v>3.8</v>
+      </c>
+      <c r="N96">
+        <v>1.8</v>
+      </c>
+      <c r="O96">
+        <v>3.75</v>
+      </c>
+      <c r="P96">
+        <v>3.8</v>
+      </c>
+      <c r="Q96">
+        <v>-0.5</v>
+      </c>
+      <c r="R96">
+        <v>1.8</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>3</v>
+      </c>
+      <c r="U96">
+        <v>1.875</v>
+      </c>
+      <c r="V96">
+        <v>1.925</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>7840815</v>
+      </c>
+      <c r="C97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45363.64583333334</v>
+      </c>
+      <c r="F97" t="s">
+        <v>36</v>
+      </c>
+      <c r="G97" t="s">
+        <v>34</v>
+      </c>
+      <c r="K97">
+        <v>1.533</v>
+      </c>
+      <c r="L97">
+        <v>4.2</v>
+      </c>
+      <c r="M97">
         <v>5.25</v>
       </c>
-      <c r="O91">
-        <v>5</v>
-      </c>
-      <c r="P91">
-        <v>1.4</v>
-      </c>
-      <c r="Q91">
-        <v>1.25</v>
-      </c>
-      <c r="R91">
-        <v>2</v>
-      </c>
-      <c r="S91">
+      <c r="N97">
+        <v>1.533</v>
+      </c>
+      <c r="O97">
+        <v>4.2</v>
+      </c>
+      <c r="P97">
+        <v>5.25</v>
+      </c>
+      <c r="Q97">
+        <v>-1</v>
+      </c>
+      <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
+        <v>1.95</v>
+      </c>
+      <c r="T97">
+        <v>3</v>
+      </c>
+      <c r="U97">
         <v>1.8</v>
       </c>
-      <c r="T91">
-        <v>3.75</v>
-      </c>
-      <c r="U91">
-        <v>1.875</v>
-      </c>
-      <c r="V91">
-        <v>1.925</v>
-      </c>
-      <c r="W91">
-        <v>-1</v>
-      </c>
-      <c r="X91">
-        <v>4</v>
-      </c>
-      <c r="Y91">
-        <v>-1</v>
-      </c>
-      <c r="Z91">
-        <v>1</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
-      <c r="AB91">
-        <v>0.4375</v>
-      </c>
-      <c r="AC91">
-        <v>-0.5</v>
+      <c r="V97">
+        <v>2</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7004588</v>
+        <v>7004589</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,73 +1773,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N15">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X15">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7004589</v>
+        <v>7004588</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,73 +1862,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
+        <v>2.9</v>
+      </c>
+      <c r="L16">
+        <v>3.3</v>
+      </c>
+      <c r="M16">
+        <v>2.25</v>
+      </c>
+      <c r="N16">
+        <v>3.75</v>
+      </c>
+      <c r="O16">
+        <v>3.4</v>
+      </c>
+      <c r="P16">
+        <v>1.909</v>
+      </c>
+      <c r="Q16">
+        <v>0.5</v>
+      </c>
+      <c r="R16">
+        <v>1.85</v>
+      </c>
+      <c r="S16">
+        <v>1.95</v>
+      </c>
+      <c r="T16">
+        <v>2.5</v>
+      </c>
+      <c r="U16">
+        <v>1.85</v>
+      </c>
+      <c r="V16">
+        <v>1.95</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
         <v>2.4</v>
       </c>
-      <c r="L16">
-        <v>3.6</v>
-      </c>
-      <c r="M16">
-        <v>2.375</v>
-      </c>
-      <c r="N16">
-        <v>2.5</v>
-      </c>
-      <c r="O16">
-        <v>3.5</v>
-      </c>
-      <c r="P16">
-        <v>2.3</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>1.975</v>
-      </c>
-      <c r="S16">
-        <v>1.825</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
-      <c r="V16">
-        <v>1.8</v>
-      </c>
-      <c r="W16">
-        <v>1.5</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7004591</v>
+        <v>7003585</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>1.615</v>
+      </c>
+      <c r="L18">
         <v>4</v>
       </c>
-      <c r="J18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>4.5</v>
-      </c>
-      <c r="L18">
+      <c r="M18">
+        <v>4.333</v>
+      </c>
+      <c r="N18">
+        <v>1.533</v>
+      </c>
+      <c r="O18">
         <v>4.2</v>
       </c>
-      <c r="M18">
-        <v>1.55</v>
-      </c>
-      <c r="N18">
-        <v>3.3</v>
-      </c>
-      <c r="O18">
-        <v>3.8</v>
-      </c>
       <c r="P18">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7003585</v>
+        <v>7004591</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M19">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N19">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O19">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N27">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N28">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R28">
+        <v>1.775</v>
+      </c>
+      <c r="S28">
+        <v>2.025</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
+        <v>1.975</v>
+      </c>
+      <c r="V28">
         <v>1.825</v>
       </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="U28">
-        <v>2</v>
-      </c>
-      <c r="V28">
-        <v>1.8</v>
-      </c>
       <c r="W28">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z28">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7004598</v>
+        <v>7004599</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,73 +3019,73 @@
         <v>45198.5</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>3</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L29">
         <v>3.5</v>
       </c>
       <c r="M29">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N29">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O29">
         <v>3.4</v>
       </c>
       <c r="P29">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q29">
         <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z29">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7004599</v>
+        <v>7004598</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,73 +3108,73 @@
         <v>45198.5</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N30">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O30">
         <v>3.4</v>
       </c>
       <c r="P30">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q30">
         <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
+        <v>1.85</v>
+      </c>
+      <c r="V30">
+        <v>1.95</v>
+      </c>
+      <c r="W30">
         <v>1.8</v>
       </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7003589</v>
+        <v>7004606</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -3746,40 +3746,40 @@
         <v>43</v>
       </c>
       <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>5.5</v>
+      </c>
+      <c r="M37">
+        <v>1.3</v>
+      </c>
+      <c r="N37">
         <v>8</v>
       </c>
-      <c r="L37">
-        <v>6.5</v>
-      </c>
-      <c r="M37">
-        <v>1.2</v>
-      </c>
-      <c r="N37">
-        <v>8.5</v>
-      </c>
       <c r="O37">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P37">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3788,19 +3788,19 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7004606</v>
+        <v>7003589</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,13 +3820,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -3835,40 +3835,40 @@
         <v>43</v>
       </c>
       <c r="K38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L38">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M38">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="N38">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O38">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P38">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3877,19 +3877,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7004607</v>
+        <v>7004604</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,55 +3998,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>41</v>
       </c>
       <c r="K40">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N40">
         <v>1.75</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
+        <v>1.75</v>
+      </c>
+      <c r="S40">
         <v>1.95</v>
-      </c>
-      <c r="S40">
-        <v>1.85</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
         <v>0.75</v>
@@ -4058,16 +4058,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7004604</v>
+        <v>7004607</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,55 +4087,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>41</v>
       </c>
       <c r="K41">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N41">
         <v>1.75</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W41">
         <v>0.75</v>
@@ -4147,16 +4147,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB41">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7003482</v>
+        <v>7004610</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K45">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N45">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7004610</v>
+        <v>7003482</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L46">
+        <v>3.5</v>
+      </c>
+      <c r="M46">
+        <v>2.8</v>
+      </c>
+      <c r="N46">
+        <v>1.909</v>
+      </c>
+      <c r="O46">
         <v>3.6</v>
       </c>
-      <c r="M46">
-        <v>3.8</v>
-      </c>
-      <c r="N46">
-        <v>1.8</v>
-      </c>
-      <c r="O46">
-        <v>3.4</v>
-      </c>
       <c r="P46">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
+        <v>1.825</v>
+      </c>
+      <c r="T46">
+        <v>3.25</v>
+      </c>
+      <c r="U46">
+        <v>1.775</v>
+      </c>
+      <c r="V46">
         <v>1.925</v>
       </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>1.8</v>
-      </c>
-      <c r="V46">
-        <v>2</v>
-      </c>
       <c r="W46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7004615</v>
+        <v>7004613</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,40 +4888,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N50">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P50">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
         <v>1.825</v>
@@ -4930,7 +4930,7 @@
         <v>1.975</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U50">
         <v>1.975</v>
@@ -4939,25 +4939,25 @@
         <v>1.825</v>
       </c>
       <c r="W50">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>0.825</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
-      <c r="AB50">
-        <v>0.4875</v>
-      </c>
-      <c r="AC50">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7004613</v>
+        <v>7004615</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,40 +4977,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K51">
+        <v>2.1</v>
+      </c>
+      <c r="L51">
         <v>3.6</v>
       </c>
-      <c r="L51">
-        <v>4</v>
-      </c>
       <c r="M51">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N51">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>1.825</v>
@@ -5019,7 +5019,7 @@
         <v>1.975</v>
       </c>
       <c r="T51">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
         <v>1.975</v>
@@ -5028,25 +5028,25 @@
         <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7004622</v>
+        <v>7004621</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,10 +5956,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5980,38 +5980,38 @@
         <v>5</v>
       </c>
       <c r="N62">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O62">
+        <v>5</v>
+      </c>
+      <c r="P62">
+        <v>6</v>
+      </c>
+      <c r="Q62">
+        <v>-1.5</v>
+      </c>
+      <c r="R62">
+        <v>1.975</v>
+      </c>
+      <c r="S62">
+        <v>1.825</v>
+      </c>
+      <c r="T62">
+        <v>3.75</v>
+      </c>
+      <c r="U62">
+        <v>1.975</v>
+      </c>
+      <c r="V62">
+        <v>1.825</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
         <v>4</v>
       </c>
-      <c r="P62">
-        <v>3.6</v>
-      </c>
-      <c r="Q62">
-        <v>-0.5</v>
-      </c>
-      <c r="R62">
-        <v>1.8</v>
-      </c>
-      <c r="S62">
-        <v>2</v>
-      </c>
-      <c r="T62">
-        <v>3</v>
-      </c>
-      <c r="U62">
-        <v>1.8</v>
-      </c>
-      <c r="V62">
-        <v>2</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>3</v>
-      </c>
       <c r="Y62">
         <v>-1</v>
       </c>
@@ -6019,13 +6019,13 @@
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7004621</v>
+        <v>7004622</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,10 +6045,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6069,37 +6069,37 @@
         <v>5</v>
       </c>
       <c r="N63">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q63">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y63">
         <v>-1</v>
@@ -6108,13 +6108,13 @@
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7609335</v>
+        <v>7004627</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="L70">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M70">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="N70">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="O70">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R70">
         <v>2</v>
@@ -6710,19 +6710,19 @@
         <v>1.8</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X70">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
@@ -6734,10 +6734,10 @@
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7004627</v>
+        <v>7609335</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,40 +6757,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="L71">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M71">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="N71">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P71">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q71">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R71">
         <v>2</v>
@@ -6799,19 +6799,19 @@
         <v>1.8</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y71">
         <v>-1</v>
@@ -6823,10 +6823,10 @@
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7840800</v>
+        <v>7840684</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,61 +7380,61 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K78">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N78">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O78">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q78">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7443,13 +7443,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7840684</v>
+        <v>7840800</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,61 +7469,61 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M79">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N79">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P79">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R79">
+        <v>1.975</v>
+      </c>
+      <c r="S79">
+        <v>1.825</v>
+      </c>
+      <c r="T79">
+        <v>3.25</v>
+      </c>
+      <c r="U79">
+        <v>1.95</v>
+      </c>
+      <c r="V79">
         <v>1.85</v>
       </c>
-      <c r="S79">
-        <v>1.95</v>
-      </c>
-      <c r="T79">
-        <v>3</v>
-      </c>
-      <c r="U79">
-        <v>1.8</v>
-      </c>
-      <c r="V79">
-        <v>2</v>
-      </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X79">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
@@ -7532,13 +7532,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7840802</v>
+        <v>7840805</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,10 +7647,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7662,40 +7662,40 @@
         <v>43</v>
       </c>
       <c r="K81">
-        <v>2.4</v>
+        <v>1.062</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M81">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="N81">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P81">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R81">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
         <v>3.25</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7704,19 +7704,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.375</v>
+        <v>6</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
         <v>-0.5</v>
       </c>
       <c r="AC81">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7840805</v>
+        <v>7840802</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,10 +7736,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7751,40 +7751,40 @@
         <v>43</v>
       </c>
       <c r="K82">
-        <v>1.062</v>
+        <v>2.4</v>
       </c>
       <c r="L82">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M82">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="N82">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7793,19 +7793,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>6</v>
+        <v>1.375</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB82">
         <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7840685</v>
+        <v>7840803</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45352.5</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="L83">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="M83">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N83">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
         <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7840803</v>
+        <v>7840685</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45352.5</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="N84">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="O84">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7840807</v>
+        <v>7840806</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>3.6</v>
+      </c>
+      <c r="M87">
+        <v>3.2</v>
+      </c>
+      <c r="N87">
+        <v>2.2</v>
+      </c>
+      <c r="O87">
+        <v>3.5</v>
+      </c>
+      <c r="P87">
         <v>2.875</v>
       </c>
-      <c r="L87">
-        <v>4</v>
-      </c>
-      <c r="M87">
-        <v>2</v>
-      </c>
-      <c r="N87">
+      <c r="Q87">
+        <v>-0.25</v>
+      </c>
+      <c r="R87">
+        <v>1.95</v>
+      </c>
+      <c r="S87">
         <v>1.85</v>
       </c>
-      <c r="O87">
-        <v>3.8</v>
-      </c>
-      <c r="P87">
-        <v>3.4</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
+      <c r="T87">
+        <v>2.75</v>
+      </c>
+      <c r="U87">
+        <v>1.825</v>
+      </c>
+      <c r="V87">
+        <v>1.975</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
         <v>1.875</v>
       </c>
-      <c r="S87">
-        <v>1.925</v>
-      </c>
-      <c r="T87">
-        <v>3.25</v>
-      </c>
-      <c r="U87">
-        <v>1.95</v>
-      </c>
-      <c r="V87">
-        <v>1.75</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>2.8</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7840806</v>
+        <v>7840807</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>42</v>
+      </c>
+      <c r="K88">
+        <v>2.875</v>
+      </c>
+      <c r="L88">
         <v>4</v>
       </c>
-      <c r="J88" t="s">
-        <v>43</v>
-      </c>
-      <c r="K88">
-        <v>2</v>
-      </c>
-      <c r="L88">
-        <v>3.6</v>
-      </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
+        <v>1.925</v>
+      </c>
+      <c r="T88">
+        <v>3.25</v>
+      </c>
+      <c r="U88">
         <v>1.95</v>
       </c>
-      <c r="S88">
-        <v>1.85</v>
-      </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7840809</v>
+        <v>7840810</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="N90">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="O90">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q90">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U90">
+        <v>1.925</v>
+      </c>
+      <c r="V90">
         <v>1.875</v>
       </c>
-      <c r="V90">
-        <v>1.925</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X90">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7840810</v>
+        <v>7840809</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M91">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="N91">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P91">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R91">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
+        <v>1.875</v>
+      </c>
+      <c r="V91">
         <v>1.925</v>
       </c>
-      <c r="V91">
-        <v>1.875</v>
-      </c>
       <c r="W91">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC91">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7840811</v>
+        <v>7840687</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,61 +8626,76 @@
         <v>45361.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>41</v>
       </c>
       <c r="K92">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="L92">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="N92">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T92">
         <v>3.25</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA92">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB92">
+        <v>-0.5</v>
+      </c>
+      <c r="AC92">
+        <v>0.375</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8688,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7840687</v>
+        <v>7840811</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8700,40 +8715,49 @@
         <v>45361.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93" t="s">
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="L93">
+        <v>4.2</v>
+      </c>
+      <c r="M93">
+        <v>1.55</v>
+      </c>
+      <c r="N93">
         <v>3.6</v>
       </c>
-      <c r="M93">
-        <v>2.25</v>
-      </c>
-      <c r="N93">
-        <v>2.7</v>
-      </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U93">
         <v>1.975</v>
@@ -8742,19 +8766,25 @@
         <v>1.825</v>
       </c>
       <c r="W93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB93">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC93">
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8762,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7936025</v>
+        <v>7936026</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8771,43 +8801,52 @@
         <v>28</v>
       </c>
       <c r="E94" s="2">
-        <v>45362.5</v>
+        <v>45362.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>41</v>
       </c>
       <c r="K94">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="L94">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M94">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="N94">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="O94">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
         <v>1.9</v>
@@ -8816,19 +8855,25 @@
         <v>1.9</v>
       </c>
       <c r="W94">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA94">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB94">
+        <v>-1</v>
+      </c>
+      <c r="AC94">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8836,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7936026</v>
+        <v>7936025</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8845,64 +8890,79 @@
         <v>28</v>
       </c>
       <c r="E95" s="2">
-        <v>45362.58333333334</v>
+        <v>45362.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95" t="s">
+        <v>43</v>
       </c>
       <c r="K95">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="L95">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M95">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="N95">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="O95">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R95">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8910,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7840814</v>
+        <v>7840815</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8922,46 +8982,46 @@
         <v>45363.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K96">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="L96">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M96">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="N96">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O96">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P96">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
         <v>0</v>
@@ -8984,7 +9044,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7840815</v>
+        <v>7840814</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -8996,37 +9056,37 @@
         <v>45363.64583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K97">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="L97">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N97">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O97">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P97">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>3</v>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AC103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7004589</v>
+        <v>7004588</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,73 +1773,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
+        <v>2.9</v>
+      </c>
+      <c r="L15">
+        <v>3.3</v>
+      </c>
+      <c r="M15">
+        <v>2.25</v>
+      </c>
+      <c r="N15">
+        <v>3.75</v>
+      </c>
+      <c r="O15">
+        <v>3.4</v>
+      </c>
+      <c r="P15">
+        <v>1.909</v>
+      </c>
+      <c r="Q15">
+        <v>0.5</v>
+      </c>
+      <c r="R15">
+        <v>1.85</v>
+      </c>
+      <c r="S15">
+        <v>1.95</v>
+      </c>
+      <c r="T15">
+        <v>2.5</v>
+      </c>
+      <c r="U15">
+        <v>1.85</v>
+      </c>
+      <c r="V15">
+        <v>1.95</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
         <v>2.4</v>
       </c>
-      <c r="L15">
-        <v>3.6</v>
-      </c>
-      <c r="M15">
-        <v>2.375</v>
-      </c>
-      <c r="N15">
-        <v>2.5</v>
-      </c>
-      <c r="O15">
-        <v>3.5</v>
-      </c>
-      <c r="P15">
-        <v>2.3</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
-      <c r="V15">
-        <v>1.8</v>
-      </c>
-      <c r="W15">
-        <v>1.5</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7004588</v>
+        <v>7004589</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,73 +1862,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N16">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7003585</v>
+        <v>7004591</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M18">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N18">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O18">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7004591</v>
+        <v>7003585</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>1.615</v>
+      </c>
+      <c r="L19">
         <v>4</v>
       </c>
-      <c r="J19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>4.5</v>
-      </c>
-      <c r="L19">
+      <c r="M19">
+        <v>4.333</v>
+      </c>
+      <c r="N19">
+        <v>1.533</v>
+      </c>
+      <c r="O19">
         <v>4.2</v>
       </c>
-      <c r="M19">
-        <v>1.55</v>
-      </c>
-      <c r="N19">
-        <v>3.3</v>
-      </c>
-      <c r="O19">
-        <v>3.8</v>
-      </c>
       <c r="P19">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7003478</v>
+        <v>7003586</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="I21">
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>4.333</v>
+      </c>
+      <c r="M21">
+        <v>1.55</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>4.2</v>
+      </c>
+      <c r="P21">
+        <v>1.571</v>
+      </c>
+      <c r="Q21">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>3.6</v>
-      </c>
-      <c r="M21">
-        <v>3.25</v>
-      </c>
-      <c r="N21">
+      <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
         <v>1.95</v>
-      </c>
-      <c r="O21">
-        <v>3.6</v>
-      </c>
-      <c r="P21">
-        <v>3.4</v>
-      </c>
-      <c r="Q21">
-        <v>-0.5</v>
-      </c>
-      <c r="R21">
-        <v>1.975</v>
-      </c>
-      <c r="S21">
-        <v>1.825</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>0.571</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>0.95</v>
       </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7003586</v>
+        <v>7003478</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,73 +2396,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7004592</v>
+        <v>7004593</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N24">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P24">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>1.825</v>
+      </c>
+      <c r="V24">
+        <v>1.975</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
+        <v>0.571</v>
+      </c>
+      <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
+        <v>0.95</v>
+      </c>
+      <c r="AB24">
         <v>0</v>
       </c>
-      <c r="R24">
-        <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.875</v>
-      </c>
-      <c r="T24">
-        <v>2.75</v>
-      </c>
-      <c r="U24">
-        <v>1.75</v>
-      </c>
-      <c r="V24">
-        <v>1.95</v>
-      </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>2.6</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
+      <c r="AC24">
         <v>-0</v>
-      </c>
-      <c r="AB24">
-        <v>0.75</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7004593</v>
+        <v>7004592</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>2.4</v>
+      </c>
+      <c r="L25">
+        <v>3.6</v>
+      </c>
+      <c r="M25">
+        <v>2.4</v>
+      </c>
+      <c r="N25">
+        <v>2.4</v>
+      </c>
+      <c r="O25">
+        <v>3.6</v>
+      </c>
+      <c r="P25">
+        <v>2.45</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25">
-        <v>4</v>
-      </c>
-      <c r="L25">
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <v>1.727</v>
-      </c>
-      <c r="N25">
-        <v>4.75</v>
-      </c>
-      <c r="O25">
-        <v>4.333</v>
-      </c>
-      <c r="P25">
-        <v>1.571</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
+        <v>1.875</v>
+      </c>
+      <c r="T25">
+        <v>2.75</v>
+      </c>
+      <c r="U25">
+        <v>1.75</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <v>1.825</v>
-      </c>
-      <c r="V25">
-        <v>1.975</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y25">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N27">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R27">
+        <v>1.775</v>
+      </c>
+      <c r="S27">
+        <v>2.025</v>
+      </c>
+      <c r="T27">
+        <v>3.5</v>
+      </c>
+      <c r="U27">
+        <v>1.975</v>
+      </c>
+      <c r="V27">
         <v>1.825</v>
       </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
-      <c r="V27">
-        <v>1.8</v>
-      </c>
       <c r="W27">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z27">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7004599</v>
+        <v>7004598</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,73 +3019,73 @@
         <v>45198.5</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L29">
         <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N29">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O29">
         <v>3.4</v>
       </c>
       <c r="P29">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q29">
         <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
+        <v>1.85</v>
+      </c>
+      <c r="V29">
+        <v>1.95</v>
+      </c>
+      <c r="W29">
         <v>1.8</v>
       </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7004598</v>
+        <v>7004599</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,73 +3108,73 @@
         <v>45198.5</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
         <v>3</v>
       </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N30">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O30">
         <v>3.4</v>
       </c>
       <c r="P30">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q30">
         <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7004604</v>
+        <v>7004607</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,55 +3998,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>41</v>
       </c>
       <c r="K40">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N40">
         <v>1.75</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
         <v>0.75</v>
@@ -4058,16 +4058,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7004607</v>
+        <v>7004604</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,55 +4087,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>41</v>
       </c>
       <c r="K41">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N41">
         <v>1.75</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
+        <v>1.75</v>
+      </c>
+      <c r="S41">
         <v>1.95</v>
-      </c>
-      <c r="S41">
-        <v>1.85</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
         <v>0.75</v>
@@ -4147,16 +4147,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7004610</v>
+        <v>7003482</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
+        <v>3.5</v>
+      </c>
+      <c r="M45">
+        <v>2.8</v>
+      </c>
+      <c r="N45">
+        <v>1.909</v>
+      </c>
+      <c r="O45">
         <v>3.6</v>
       </c>
-      <c r="M45">
-        <v>3.8</v>
-      </c>
-      <c r="N45">
-        <v>1.8</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
+        <v>1.825</v>
+      </c>
+      <c r="T45">
+        <v>3.25</v>
+      </c>
+      <c r="U45">
+        <v>1.775</v>
+      </c>
+      <c r="V45">
         <v>1.925</v>
       </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>1.8</v>
-      </c>
-      <c r="V45">
-        <v>2</v>
-      </c>
       <c r="W45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7003482</v>
+        <v>7004610</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N46">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7004616</v>
+        <v>7003592</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L54">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="M54">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N54">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O54">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P54">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q54">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7003592</v>
+        <v>7004616</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K55">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L55">
+        <v>6.5</v>
+      </c>
+      <c r="M55">
+        <v>6.5</v>
+      </c>
+      <c r="N55">
+        <v>1.363</v>
+      </c>
+      <c r="O55">
         <v>5.75</v>
       </c>
-      <c r="M55">
-        <v>8</v>
-      </c>
-      <c r="N55">
-        <v>1.25</v>
-      </c>
-      <c r="O55">
-        <v>6</v>
-      </c>
       <c r="P55">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q55">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7004620</v>
+        <v>7003485</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L60">
+        <v>4.2</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>1.615</v>
+      </c>
+      <c r="O60">
         <v>3.75</v>
       </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>1.833</v>
-      </c>
-      <c r="O60">
-        <v>3.6</v>
-      </c>
       <c r="P60">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X60">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA60">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7003485</v>
+        <v>7004620</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,76 +5867,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O61">
+        <v>3.6</v>
+      </c>
+      <c r="P61">
         <v>3.75</v>
       </c>
-      <c r="P61">
-        <v>4.75</v>
-      </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7004621</v>
+        <v>7004622</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,10 +5956,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5980,37 +5980,37 @@
         <v>5</v>
       </c>
       <c r="N62">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q62">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y62">
         <v>-1</v>
@@ -6019,13 +6019,13 @@
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7004622</v>
+        <v>7004621</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,10 +6045,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6069,38 +6069,38 @@
         <v>5</v>
       </c>
       <c r="N63">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O63">
+        <v>5</v>
+      </c>
+      <c r="P63">
+        <v>6</v>
+      </c>
+      <c r="Q63">
+        <v>-1.5</v>
+      </c>
+      <c r="R63">
+        <v>1.975</v>
+      </c>
+      <c r="S63">
+        <v>1.825</v>
+      </c>
+      <c r="T63">
+        <v>3.75</v>
+      </c>
+      <c r="U63">
+        <v>1.975</v>
+      </c>
+      <c r="V63">
+        <v>1.825</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
         <v>4</v>
       </c>
-      <c r="P63">
-        <v>3.6</v>
-      </c>
-      <c r="Q63">
-        <v>-0.5</v>
-      </c>
-      <c r="R63">
-        <v>1.8</v>
-      </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>3</v>
-      </c>
-      <c r="U63">
-        <v>1.8</v>
-      </c>
-      <c r="V63">
-        <v>2</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>3</v>
-      </c>
       <c r="Y63">
         <v>-1</v>
       </c>
@@ -6108,13 +6108,13 @@
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7004627</v>
+        <v>7609335</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="L70">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M70">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="N70">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P70">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R70">
         <v>2</v>
@@ -6710,19 +6710,19 @@
         <v>1.8</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y70">
         <v>-1</v>
@@ -6734,10 +6734,10 @@
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7609335</v>
+        <v>7004627</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,40 +6757,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="L71">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M71">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="N71">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="O71">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P71">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R71">
         <v>2</v>
@@ -6799,19 +6799,19 @@
         <v>1.8</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X71">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
@@ -6823,10 +6823,10 @@
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7840799</v>
+        <v>7840798</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,13 +7113,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -7128,61 +7128,61 @@
         <v>43</v>
       </c>
       <c r="K75">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O75">
+        <v>3.8</v>
+      </c>
+      <c r="P75">
+        <v>2.875</v>
+      </c>
+      <c r="Q75">
+        <v>-0.25</v>
+      </c>
+      <c r="R75">
+        <v>1.825</v>
+      </c>
+      <c r="S75">
+        <v>1.975</v>
+      </c>
+      <c r="T75">
         <v>3.5</v>
       </c>
-      <c r="P75">
-        <v>2.05</v>
-      </c>
-      <c r="Q75">
-        <v>0.25</v>
-      </c>
-      <c r="R75">
-        <v>1.925</v>
-      </c>
-      <c r="S75">
+      <c r="U75">
+        <v>1.85</v>
+      </c>
+      <c r="V75">
+        <v>1.95</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
         <v>1.875</v>
       </c>
-      <c r="T75">
-        <v>3</v>
-      </c>
-      <c r="U75">
-        <v>1.95</v>
-      </c>
-      <c r="V75">
-        <v>1.85</v>
-      </c>
-      <c r="W75">
-        <v>-1</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>1.05</v>
-      </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7840798</v>
+        <v>7840799</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,13 +7202,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -7217,41 +7217,41 @@
         <v>43</v>
       </c>
       <c r="K76">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L76">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N76">
+        <v>3.1</v>
+      </c>
+      <c r="O76">
+        <v>3.5</v>
+      </c>
+      <c r="P76">
         <v>2.05</v>
       </c>
-      <c r="O76">
-        <v>3.8</v>
-      </c>
-      <c r="P76">
-        <v>2.875</v>
-      </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U76">
+        <v>1.95</v>
+      </c>
+      <c r="V76">
         <v>1.85</v>
       </c>
-      <c r="V76">
-        <v>1.95</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
@@ -7259,19 +7259,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.875</v>
+        <v>1.05</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7840810</v>
+        <v>7840809</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M90">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="N90">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P90">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U90">
+        <v>1.875</v>
+      </c>
+      <c r="V90">
         <v>1.925</v>
       </c>
-      <c r="V90">
-        <v>1.875</v>
-      </c>
       <c r="W90">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7840809</v>
+        <v>7840810</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L91">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="N91">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="O91">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q91">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T91">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U91">
+        <v>1.925</v>
+      </c>
+      <c r="V91">
         <v>1.875</v>
       </c>
-      <c r="V91">
-        <v>1.925</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X91">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7936026</v>
+        <v>7936025</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45362.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K94">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="L94">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M94">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="N94">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z94">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7936025</v>
+        <v>7936026</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45362.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
         <v>0</v>
       </c>
-      <c r="I95">
-        <v>2</v>
-      </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="L95">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="N95">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="Q95">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8987,6 +8987,15 @@
       <c r="G96" t="s">
         <v>34</v>
       </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96" t="s">
+        <v>42</v>
+      </c>
       <c r="K96">
         <v>1.533</v>
       </c>
@@ -8997,49 +9006,55 @@
         <v>5.25</v>
       </c>
       <c r="N96">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O96">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27">
+        <v>0.875</v>
+      </c>
+      <c r="AB96">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC96">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9061,6 +9076,15 @@
       <c r="G97" t="s">
         <v>33</v>
       </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97" t="s">
+        <v>43</v>
+      </c>
       <c r="K97">
         <v>1.8</v>
       </c>
@@ -9071,45 +9095,555 @@
         <v>3.8</v>
       </c>
       <c r="N97">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
         <v>3.75</v>
       </c>
       <c r="P97">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q97">
         <v>-0.5</v>
       </c>
       <c r="R97">
+        <v>1.9</v>
+      </c>
+      <c r="S97">
+        <v>1.9</v>
+      </c>
+      <c r="T97">
+        <v>3.25</v>
+      </c>
+      <c r="U97">
+        <v>1.825</v>
+      </c>
+      <c r="V97">
+        <v>1.975</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>2.3</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB97">
+        <v>0.825</v>
+      </c>
+      <c r="AC97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>7840688</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45366.64583333334</v>
+      </c>
+      <c r="F98" t="s">
+        <v>35</v>
+      </c>
+      <c r="G98" t="s">
+        <v>40</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>41</v>
+      </c>
+      <c r="K98">
+        <v>1.444</v>
+      </c>
+      <c r="L98">
+        <v>4.75</v>
+      </c>
+      <c r="M98">
+        <v>5.5</v>
+      </c>
+      <c r="N98">
+        <v>1.615</v>
+      </c>
+      <c r="O98">
+        <v>4.2</v>
+      </c>
+      <c r="P98">
+        <v>4.333</v>
+      </c>
+      <c r="Q98">
+        <v>-0.75</v>
+      </c>
+      <c r="R98">
         <v>1.8</v>
       </c>
-      <c r="S97">
-        <v>2</v>
-      </c>
-      <c r="T97">
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98">
+        <v>3.25</v>
+      </c>
+      <c r="U98">
+        <v>1.925</v>
+      </c>
+      <c r="V98">
+        <v>1.875</v>
+      </c>
+      <c r="W98">
+        <v>0.615</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
+        <v>0.8</v>
+      </c>
+      <c r="AA98">
+        <v>-1</v>
+      </c>
+      <c r="AB98">
+        <v>0.925</v>
+      </c>
+      <c r="AC98">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>7840816</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45366.64583333334</v>
+      </c>
+      <c r="F99" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" t="s">
+        <v>39</v>
+      </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99" t="s">
+        <v>41</v>
+      </c>
+      <c r="K99">
+        <v>1.166</v>
+      </c>
+      <c r="L99">
+        <v>7</v>
+      </c>
+      <c r="M99">
+        <v>11</v>
+      </c>
+      <c r="N99">
+        <v>1.285</v>
+      </c>
+      <c r="O99">
+        <v>5.5</v>
+      </c>
+      <c r="P99">
+        <v>8</v>
+      </c>
+      <c r="Q99">
+        <v>-1.75</v>
+      </c>
+      <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
+        <v>1.825</v>
+      </c>
+      <c r="T99">
+        <v>3.75</v>
+      </c>
+      <c r="U99">
+        <v>1.925</v>
+      </c>
+      <c r="V99">
+        <v>1.775</v>
+      </c>
+      <c r="W99">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
+        <v>0.4875</v>
+      </c>
+      <c r="AA99">
+        <v>-0.5</v>
+      </c>
+      <c r="AB99">
+        <v>0.925</v>
+      </c>
+      <c r="AC99">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>7004650</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45367.64583333334</v>
+      </c>
+      <c r="F100" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100" t="s">
+        <v>43</v>
+      </c>
+      <c r="K100">
+        <v>3.8</v>
+      </c>
+      <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
+        <v>1.8</v>
+      </c>
+      <c r="N100">
+        <v>4.75</v>
+      </c>
+      <c r="O100">
+        <v>4</v>
+      </c>
+      <c r="P100">
+        <v>1.571</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
+        <v>1.975</v>
+      </c>
+      <c r="T100">
         <v>3</v>
       </c>
-      <c r="U97">
+      <c r="U100">
+        <v>1.85</v>
+      </c>
+      <c r="V100">
+        <v>1.95</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>0.571</v>
+      </c>
+      <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>7003492</v>
+      </c>
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45367.64583333334</v>
+      </c>
+      <c r="F101" t="s">
+        <v>33</v>
+      </c>
+      <c r="G101" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>42</v>
+      </c>
+      <c r="K101">
+        <v>4.5</v>
+      </c>
+      <c r="L101">
+        <v>4.333</v>
+      </c>
+      <c r="M101">
+        <v>1.55</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101">
+        <v>4</v>
+      </c>
+      <c r="P101">
+        <v>1.666</v>
+      </c>
+      <c r="Q101">
+        <v>0.75</v>
+      </c>
+      <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
+        <v>1.85</v>
+      </c>
+      <c r="T101">
+        <v>3.25</v>
+      </c>
+      <c r="U101">
+        <v>1.775</v>
+      </c>
+      <c r="V101">
+        <v>1.925</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>3</v>
+      </c>
+      <c r="Y101">
+        <v>-1</v>
+      </c>
+      <c r="Z101">
+        <v>0.95</v>
+      </c>
+      <c r="AA101">
+        <v>-1</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>7840817</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45368.64583333334</v>
+      </c>
+      <c r="F102" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" t="s">
+        <v>31</v>
+      </c>
+      <c r="K102">
+        <v>4</v>
+      </c>
+      <c r="L102">
+        <v>3.6</v>
+      </c>
+      <c r="M102">
+        <v>1.75</v>
+      </c>
+      <c r="N102">
+        <v>3.8</v>
+      </c>
+      <c r="O102">
+        <v>3.75</v>
+      </c>
+      <c r="P102">
+        <v>1.75</v>
+      </c>
+      <c r="Q102">
+        <v>0.75</v>
+      </c>
+      <c r="R102">
         <v>1.8</v>
       </c>
-      <c r="V97">
-        <v>2</v>
-      </c>
-      <c r="W97">
+      <c r="S102">
+        <v>2</v>
+      </c>
+      <c r="T102">
+        <v>3</v>
+      </c>
+      <c r="U102">
+        <v>1.875</v>
+      </c>
+      <c r="V102">
+        <v>1.925</v>
+      </c>
+      <c r="W102">
         <v>0</v>
       </c>
-      <c r="X97">
+      <c r="X102">
         <v>0</v>
       </c>
-      <c r="Y97">
+      <c r="Y102">
         <v>0</v>
       </c>
-      <c r="Z97">
+      <c r="Z102">
         <v>0</v>
       </c>
-      <c r="AA97">
+      <c r="AA102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>7840818</v>
+      </c>
+      <c r="C103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45368.64583333334</v>
+      </c>
+      <c r="F103" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" t="s">
+        <v>36</v>
+      </c>
+      <c r="K103">
+        <v>2.5</v>
+      </c>
+      <c r="L103">
+        <v>3.4</v>
+      </c>
+      <c r="M103">
+        <v>2.5</v>
+      </c>
+      <c r="N103">
+        <v>2.1</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
+        <v>3</v>
+      </c>
+      <c r="Q103">
+        <v>-0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.875</v>
+      </c>
+      <c r="S103">
+        <v>1.925</v>
+      </c>
+      <c r="T103">
+        <v>3.5</v>
+      </c>
+      <c r="U103">
+        <v>1.95</v>
+      </c>
+      <c r="V103">
+        <v>1.85</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
         <v>0</v>
       </c>
     </row>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC103"/>
+  <dimension ref="A1:AC109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7004591</v>
+        <v>7003585</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>1.615</v>
+      </c>
+      <c r="L18">
         <v>4</v>
       </c>
-      <c r="J18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>4.5</v>
-      </c>
-      <c r="L18">
+      <c r="M18">
+        <v>4.333</v>
+      </c>
+      <c r="N18">
+        <v>1.533</v>
+      </c>
+      <c r="O18">
         <v>4.2</v>
       </c>
-      <c r="M18">
-        <v>1.55</v>
-      </c>
-      <c r="N18">
-        <v>3.3</v>
-      </c>
-      <c r="O18">
-        <v>3.8</v>
-      </c>
       <c r="P18">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7003585</v>
+        <v>7004591</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M19">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N19">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O19">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7003586</v>
+        <v>7003478</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7003478</v>
+        <v>7003586</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,73 +2396,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>3</v>
       </c>
-      <c r="I22">
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>4.333</v>
+      </c>
+      <c r="M22">
+        <v>1.55</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>4.2</v>
+      </c>
+      <c r="P22">
+        <v>1.571</v>
+      </c>
+      <c r="Q22">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>3.6</v>
-      </c>
-      <c r="M22">
-        <v>3.25</v>
-      </c>
-      <c r="N22">
+      <c r="R22">
+        <v>1.85</v>
+      </c>
+      <c r="S22">
         <v>1.95</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
-      <c r="P22">
-        <v>3.4</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.975</v>
-      </c>
-      <c r="S22">
-        <v>1.825</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>0.571</v>
+      </c>
+      <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
         <v>0.95</v>
       </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N27">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N28">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R28">
+        <v>1.775</v>
+      </c>
+      <c r="S28">
+        <v>2.025</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
+        <v>1.975</v>
+      </c>
+      <c r="V28">
         <v>1.825</v>
       </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="U28">
-        <v>2</v>
-      </c>
-      <c r="V28">
-        <v>1.8</v>
-      </c>
       <c r="W28">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z28">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7004607</v>
+        <v>7004604</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,55 +3998,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>41</v>
       </c>
       <c r="K40">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N40">
         <v>1.75</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
+        <v>1.75</v>
+      </c>
+      <c r="S40">
         <v>1.95</v>
-      </c>
-      <c r="S40">
-        <v>1.85</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
         <v>0.75</v>
@@ -4058,16 +4058,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7004604</v>
+        <v>7004607</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,55 +4087,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>41</v>
       </c>
       <c r="K41">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N41">
         <v>1.75</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W41">
         <v>0.75</v>
@@ -4147,16 +4147,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB41">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7004613</v>
+        <v>7004615</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,40 +4888,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K50">
+        <v>2.1</v>
+      </c>
+      <c r="L50">
         <v>3.6</v>
       </c>
-      <c r="L50">
-        <v>4</v>
-      </c>
       <c r="M50">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N50">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O50">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>1.825</v>
@@ -4930,7 +4930,7 @@
         <v>1.975</v>
       </c>
       <c r="T50">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
         <v>1.975</v>
@@ -4939,25 +4939,25 @@
         <v>1.825</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7004615</v>
+        <v>7004613</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,40 +4977,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N51">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O51">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
         <v>1.825</v>
@@ -5019,7 +5019,7 @@
         <v>1.975</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U51">
         <v>1.975</v>
@@ -5028,25 +5028,25 @@
         <v>1.825</v>
       </c>
       <c r="W51">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>0.825</v>
-      </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
-      <c r="AB51">
-        <v>0.4875</v>
-      </c>
-      <c r="AC51">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7003485</v>
+        <v>7004620</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L60">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O60">
+        <v>3.6</v>
+      </c>
+      <c r="P60">
         <v>3.75</v>
       </c>
-      <c r="P60">
-        <v>4.75</v>
-      </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7004620</v>
+        <v>7003485</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,76 +5867,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L61">
+        <v>4.2</v>
+      </c>
+      <c r="M61">
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <v>1.615</v>
+      </c>
+      <c r="O61">
         <v>3.75</v>
       </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>1.833</v>
-      </c>
-      <c r="O61">
-        <v>3.6</v>
-      </c>
       <c r="P61">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA61">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC61">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7609336</v>
+        <v>7004626</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,40 +6490,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M68">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N68">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O68">
         <v>3.75</v>
       </c>
       <c r="P68">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q68">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
         <v>1.925</v>
@@ -6541,25 +6541,25 @@
         <v>1.975</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA68">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7004626</v>
+        <v>7609336</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L69">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="N69">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O69">
         <v>3.75</v>
       </c>
       <c r="P69">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6630,25 +6630,25 @@
         <v>1.975</v>
       </c>
       <c r="W69">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7840798</v>
+        <v>7840799</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,13 +7113,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -7128,41 +7128,41 @@
         <v>43</v>
       </c>
       <c r="K75">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N75">
+        <v>3.1</v>
+      </c>
+      <c r="O75">
+        <v>3.5</v>
+      </c>
+      <c r="P75">
         <v>2.05</v>
       </c>
-      <c r="O75">
-        <v>3.8</v>
-      </c>
-      <c r="P75">
-        <v>2.875</v>
-      </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
+        <v>1.95</v>
+      </c>
+      <c r="V75">
         <v>1.85</v>
       </c>
-      <c r="V75">
-        <v>1.95</v>
-      </c>
       <c r="W75">
         <v>-1</v>
       </c>
@@ -7170,19 +7170,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.875</v>
+        <v>1.05</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7840799</v>
+        <v>7840798</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,13 +7202,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -7217,61 +7217,61 @@
         <v>43</v>
       </c>
       <c r="K76">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N76">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O76">
+        <v>3.8</v>
+      </c>
+      <c r="P76">
+        <v>2.875</v>
+      </c>
+      <c r="Q76">
+        <v>-0.25</v>
+      </c>
+      <c r="R76">
+        <v>1.825</v>
+      </c>
+      <c r="S76">
+        <v>1.975</v>
+      </c>
+      <c r="T76">
         <v>3.5</v>
       </c>
-      <c r="P76">
-        <v>2.05</v>
-      </c>
-      <c r="Q76">
-        <v>0.25</v>
-      </c>
-      <c r="R76">
-        <v>1.925</v>
-      </c>
-      <c r="S76">
+      <c r="U76">
+        <v>1.85</v>
+      </c>
+      <c r="V76">
+        <v>1.95</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
         <v>1.875</v>
       </c>
-      <c r="T76">
-        <v>3</v>
-      </c>
-      <c r="U76">
-        <v>1.95</v>
-      </c>
-      <c r="V76">
-        <v>1.85</v>
-      </c>
-      <c r="W76">
-        <v>-1</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>1.05</v>
-      </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7840809</v>
+        <v>7840810</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="N90">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="O90">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q90">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U90">
+        <v>1.925</v>
+      </c>
+      <c r="V90">
         <v>1.875</v>
       </c>
-      <c r="V90">
-        <v>1.925</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X90">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7840810</v>
+        <v>7840809</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M91">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="N91">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P91">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R91">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
+        <v>1.875</v>
+      </c>
+      <c r="V91">
         <v>1.925</v>
       </c>
-      <c r="V91">
-        <v>1.875</v>
-      </c>
       <c r="W91">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC91">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7840687</v>
+        <v>7840811</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45361.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="L92">
+        <v>4.2</v>
+      </c>
+      <c r="M92">
+        <v>1.55</v>
+      </c>
+      <c r="N92">
         <v>3.6</v>
       </c>
-      <c r="M92">
-        <v>2.25</v>
-      </c>
-      <c r="N92">
+      <c r="O92">
+        <v>4</v>
+      </c>
+      <c r="P92">
+        <v>1.75</v>
+      </c>
+      <c r="Q92">
+        <v>0.75</v>
+      </c>
+      <c r="R92">
+        <v>1.85</v>
+      </c>
+      <c r="S92">
+        <v>1.95</v>
+      </c>
+      <c r="T92">
+        <v>3.5</v>
+      </c>
+      <c r="U92">
+        <v>1.975</v>
+      </c>
+      <c r="V92">
+        <v>1.825</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
         <v>3</v>
       </c>
-      <c r="O92">
-        <v>3.6</v>
-      </c>
-      <c r="P92">
-        <v>2.05</v>
-      </c>
-      <c r="Q92">
-        <v>0.25</v>
-      </c>
-      <c r="R92">
-        <v>1.95</v>
-      </c>
-      <c r="S92">
-        <v>1.75</v>
-      </c>
-      <c r="T92">
-        <v>3.25</v>
-      </c>
-      <c r="U92">
-        <v>1.95</v>
-      </c>
-      <c r="V92">
-        <v>1.75</v>
-      </c>
-      <c r="W92">
-        <v>2</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7840811</v>
+        <v>7840687</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45361.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K93">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="L93">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93">
         <v>3.6</v>
       </c>
-      <c r="O93">
-        <v>4</v>
-      </c>
       <c r="P93">
+        <v>2.05</v>
+      </c>
+      <c r="Q93">
+        <v>0.25</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
         <v>1.75</v>
       </c>
-      <c r="Q93">
-        <v>0.75</v>
-      </c>
-      <c r="R93">
-        <v>1.85</v>
-      </c>
-      <c r="S93">
+      <c r="T93">
+        <v>3.25</v>
+      </c>
+      <c r="U93">
         <v>1.95</v>
       </c>
-      <c r="T93">
-        <v>3.5</v>
-      </c>
-      <c r="U93">
-        <v>1.975</v>
-      </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X93">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7936025</v>
+        <v>7936026</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45362.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
         <v>0</v>
       </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K94">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="L94">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M94">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="N94">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="Q94">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7936026</v>
+        <v>7936025</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45362.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K95">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="L95">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M95">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="N95">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7004650</v>
+        <v>7003492</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45367.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M100">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="N100">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O100">
         <v>4</v>
       </c>
       <c r="P100">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
+        <v>3.25</v>
+      </c>
+      <c r="U100">
+        <v>1.775</v>
+      </c>
+      <c r="V100">
+        <v>1.925</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
         <v>3</v>
       </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>1.95</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
       <c r="Y100">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7003492</v>
+        <v>7004650</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45367.64583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L101">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="N101">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O101">
         <v>4</v>
       </c>
       <c r="P101">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q101">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R101">
+        <v>1.825</v>
+      </c>
+      <c r="S101">
+        <v>1.975</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>1.85</v>
+      </c>
+      <c r="V101">
         <v>1.95</v>
       </c>
-      <c r="S101">
-        <v>1.85</v>
-      </c>
-      <c r="T101">
-        <v>3.25</v>
-      </c>
-      <c r="U101">
-        <v>1.775</v>
-      </c>
-      <c r="V101">
-        <v>1.925</v>
-      </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
         <v>0.95</v>
-      </c>
-      <c r="AA101">
-        <v>-1</v>
-      </c>
-      <c r="AB101">
-        <v>-1</v>
-      </c>
-      <c r="AC101">
-        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7840817</v>
+        <v>7840818</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,61 +9516,76 @@
         <v>45368.64583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>41</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
+        <v>2.5</v>
+      </c>
+      <c r="N102">
+        <v>2.3</v>
+      </c>
+      <c r="O102">
+        <v>3.5</v>
+      </c>
+      <c r="P102">
+        <v>2.7</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
         <v>1.75</v>
       </c>
-      <c r="N102">
-        <v>3.8</v>
-      </c>
-      <c r="O102">
-        <v>3.75</v>
-      </c>
-      <c r="P102">
-        <v>1.75</v>
-      </c>
-      <c r="Q102">
+      <c r="S102">
+        <v>2.05</v>
+      </c>
+      <c r="T102">
+        <v>3.5</v>
+      </c>
+      <c r="U102">
+        <v>1.925</v>
+      </c>
+      <c r="V102">
+        <v>1.875</v>
+      </c>
+      <c r="W102">
+        <v>1.3</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
+        <v>-1</v>
+      </c>
+      <c r="Z102">
         <v>0.75</v>
       </c>
-      <c r="R102">
-        <v>1.8</v>
-      </c>
-      <c r="S102">
-        <v>2</v>
-      </c>
-      <c r="T102">
-        <v>3</v>
-      </c>
-      <c r="U102">
-        <v>1.875</v>
-      </c>
-      <c r="V102">
-        <v>1.925</v>
-      </c>
-      <c r="W102">
-        <v>0</v>
-      </c>
-      <c r="X102">
-        <v>0</v>
-      </c>
-      <c r="Y102">
-        <v>0</v>
-      </c>
-      <c r="Z102">
-        <v>0</v>
-      </c>
       <c r="AA102">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
+        <v>0.875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9578,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7840818</v>
+        <v>7840817</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9590,60 +9605,519 @@
         <v>45368.64583333334</v>
       </c>
       <c r="F103" t="s">
+        <v>32</v>
+      </c>
+      <c r="G103" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>43</v>
+      </c>
+      <c r="K103">
+        <v>4</v>
+      </c>
+      <c r="L103">
+        <v>3.6</v>
+      </c>
+      <c r="M103">
+        <v>1.75</v>
+      </c>
+      <c r="N103">
+        <v>3.5</v>
+      </c>
+      <c r="O103">
+        <v>3.75</v>
+      </c>
+      <c r="P103">
+        <v>1.833</v>
+      </c>
+      <c r="Q103">
+        <v>0.5</v>
+      </c>
+      <c r="R103">
+        <v>1.975</v>
+      </c>
+      <c r="S103">
+        <v>1.825</v>
+      </c>
+      <c r="T103">
+        <v>3</v>
+      </c>
+      <c r="U103">
+        <v>1.8</v>
+      </c>
+      <c r="V103">
+        <v>2</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>0.833</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
+        <v>0.825</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>7003493</v>
+      </c>
+      <c r="C104" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45380.64583333334</v>
+      </c>
+      <c r="F104" t="s">
+        <v>40</v>
+      </c>
+      <c r="G104" t="s">
+        <v>33</v>
+      </c>
+      <c r="K104">
+        <v>2.55</v>
+      </c>
+      <c r="L104">
+        <v>3.5</v>
+      </c>
+      <c r="M104">
+        <v>2.375</v>
+      </c>
+      <c r="N104">
+        <v>2.55</v>
+      </c>
+      <c r="O104">
+        <v>3.5</v>
+      </c>
+      <c r="P104">
+        <v>2.375</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>1.975</v>
+      </c>
+      <c r="S104">
+        <v>1.825</v>
+      </c>
+      <c r="T104">
+        <v>3</v>
+      </c>
+      <c r="U104">
+        <v>1.825</v>
+      </c>
+      <c r="V104">
+        <v>1.975</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>7004654</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45380.64583333334</v>
+      </c>
+      <c r="F105" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" t="s">
+        <v>39</v>
+      </c>
+      <c r="K105">
+        <v>2.7</v>
+      </c>
+      <c r="L105">
+        <v>3.5</v>
+      </c>
+      <c r="M105">
+        <v>2.25</v>
+      </c>
+      <c r="N105">
+        <v>2.5</v>
+      </c>
+      <c r="O105">
+        <v>3.5</v>
+      </c>
+      <c r="P105">
+        <v>2.4</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>1.9</v>
+      </c>
+      <c r="S105">
+        <v>1.9</v>
+      </c>
+      <c r="T105">
+        <v>3</v>
+      </c>
+      <c r="U105">
+        <v>1.95</v>
+      </c>
+      <c r="V105">
+        <v>1.85</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>7004653</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45381.64583333334</v>
+      </c>
+      <c r="F106" t="s">
+        <v>31</v>
+      </c>
+      <c r="G106" t="s">
+        <v>29</v>
+      </c>
+      <c r="K106">
+        <v>3.5</v>
+      </c>
+      <c r="L106">
+        <v>3.6</v>
+      </c>
+      <c r="M106">
+        <v>1.85</v>
+      </c>
+      <c r="N106">
+        <v>3.5</v>
+      </c>
+      <c r="O106">
+        <v>3.6</v>
+      </c>
+      <c r="P106">
+        <v>1.85</v>
+      </c>
+      <c r="Q106">
+        <v>0.5</v>
+      </c>
+      <c r="R106">
+        <v>1.9</v>
+      </c>
+      <c r="S106">
+        <v>1.9</v>
+      </c>
+      <c r="T106">
+        <v>3</v>
+      </c>
+      <c r="U106">
+        <v>1.925</v>
+      </c>
+      <c r="V106">
+        <v>1.875</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>7004656</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45381.64583333334</v>
+      </c>
+      <c r="F107" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107" t="s">
         <v>37</v>
       </c>
-      <c r="G103" t="s">
+      <c r="K107">
+        <v>2.55</v>
+      </c>
+      <c r="L107">
+        <v>3.6</v>
+      </c>
+      <c r="M107">
+        <v>2.3</v>
+      </c>
+      <c r="N107">
+        <v>2.55</v>
+      </c>
+      <c r="O107">
+        <v>3.6</v>
+      </c>
+      <c r="P107">
+        <v>2.3</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>1.8</v>
+      </c>
+      <c r="T107">
+        <v>3.25</v>
+      </c>
+      <c r="U107">
+        <v>1.9</v>
+      </c>
+      <c r="V107">
+        <v>1.9</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>7882227</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45382.64583333334</v>
+      </c>
+      <c r="F108" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108" t="s">
+        <v>38</v>
+      </c>
+      <c r="K108">
+        <v>10</v>
+      </c>
+      <c r="L108">
+        <v>6.5</v>
+      </c>
+      <c r="M108">
+        <v>1.2</v>
+      </c>
+      <c r="N108">
+        <v>10</v>
+      </c>
+      <c r="O108">
+        <v>6.5</v>
+      </c>
+      <c r="P108">
+        <v>1.2</v>
+      </c>
+      <c r="Q108">
+        <v>2</v>
+      </c>
+      <c r="R108">
+        <v>1.95</v>
+      </c>
+      <c r="S108">
+        <v>1.85</v>
+      </c>
+      <c r="T108">
+        <v>3.5</v>
+      </c>
+      <c r="U108">
+        <v>1.85</v>
+      </c>
+      <c r="V108">
+        <v>1.95</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>7004655</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45382.64583333334</v>
+      </c>
+      <c r="F109" t="s">
         <v>36</v>
       </c>
-      <c r="K103">
-        <v>2.5</v>
-      </c>
-      <c r="L103">
-        <v>3.4</v>
-      </c>
-      <c r="M103">
-        <v>2.5</v>
-      </c>
-      <c r="N103">
+      <c r="G109" t="s">
+        <v>35</v>
+      </c>
+      <c r="K109">
         <v>2.1</v>
       </c>
-      <c r="O103">
-        <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>3</v>
-      </c>
-      <c r="Q103">
+      <c r="L109">
+        <v>3.75</v>
+      </c>
+      <c r="M109">
+        <v>2.8</v>
+      </c>
+      <c r="N109">
+        <v>2.1</v>
+      </c>
+      <c r="O109">
+        <v>3.75</v>
+      </c>
+      <c r="P109">
+        <v>2.8</v>
+      </c>
+      <c r="Q109">
         <v>-0.25</v>
       </c>
-      <c r="R103">
-        <v>1.875</v>
-      </c>
-      <c r="S103">
-        <v>1.925</v>
-      </c>
-      <c r="T103">
-        <v>3.5</v>
-      </c>
-      <c r="U103">
-        <v>1.95</v>
-      </c>
-      <c r="V103">
-        <v>1.85</v>
-      </c>
-      <c r="W103">
+      <c r="R109">
+        <v>1.9</v>
+      </c>
+      <c r="S109">
+        <v>1.9</v>
+      </c>
+      <c r="T109">
+        <v>3.25</v>
+      </c>
+      <c r="U109">
+        <v>1.8</v>
+      </c>
+      <c r="V109">
+        <v>2</v>
+      </c>
+      <c r="W109">
         <v>0</v>
       </c>
-      <c r="X103">
+      <c r="X109">
         <v>0</v>
       </c>
-      <c r="Y103">
+      <c r="Y109">
         <v>0</v>
       </c>
-      <c r="Z103">
+      <c r="Z109">
         <v>0</v>
       </c>
-      <c r="AA103">
+      <c r="AA109">
         <v>0</v>
       </c>
     </row>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N27">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R27">
+        <v>1.775</v>
+      </c>
+      <c r="S27">
+        <v>2.025</v>
+      </c>
+      <c r="T27">
+        <v>3.5</v>
+      </c>
+      <c r="U27">
+        <v>1.975</v>
+      </c>
+      <c r="V27">
         <v>1.825</v>
       </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
-      <c r="V27">
-        <v>1.8</v>
-      </c>
       <c r="W27">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z27">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7003482</v>
+        <v>7004610</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K45">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N45">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7004610</v>
+        <v>7003482</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L46">
+        <v>3.5</v>
+      </c>
+      <c r="M46">
+        <v>2.8</v>
+      </c>
+      <c r="N46">
+        <v>1.909</v>
+      </c>
+      <c r="O46">
         <v>3.6</v>
       </c>
-      <c r="M46">
-        <v>3.8</v>
-      </c>
-      <c r="N46">
-        <v>1.8</v>
-      </c>
-      <c r="O46">
-        <v>3.4</v>
-      </c>
       <c r="P46">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
+        <v>1.825</v>
+      </c>
+      <c r="T46">
+        <v>3.25</v>
+      </c>
+      <c r="U46">
+        <v>1.775</v>
+      </c>
+      <c r="V46">
         <v>1.925</v>
       </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>1.8</v>
-      </c>
-      <c r="V46">
-        <v>2</v>
-      </c>
       <c r="W46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7003592</v>
+        <v>7004616</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L54">
+        <v>6.5</v>
+      </c>
+      <c r="M54">
+        <v>6.5</v>
+      </c>
+      <c r="N54">
+        <v>1.363</v>
+      </c>
+      <c r="O54">
         <v>5.75</v>
       </c>
-      <c r="M54">
-        <v>8</v>
-      </c>
-      <c r="N54">
-        <v>1.25</v>
-      </c>
-      <c r="O54">
-        <v>6</v>
-      </c>
       <c r="P54">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q54">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7004616</v>
+        <v>7003592</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L55">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="M55">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N55">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O55">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P55">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T55">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7004620</v>
+        <v>7003485</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L60">
+        <v>4.2</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>1.615</v>
+      </c>
+      <c r="O60">
         <v>3.75</v>
       </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>1.833</v>
-      </c>
-      <c r="O60">
-        <v>3.6</v>
-      </c>
       <c r="P60">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X60">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA60">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7003485</v>
+        <v>7004620</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,76 +5867,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O61">
+        <v>3.6</v>
+      </c>
+      <c r="P61">
         <v>3.75</v>
       </c>
-      <c r="P61">
-        <v>4.75</v>
-      </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7609335</v>
+        <v>7004627</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="L70">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M70">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="N70">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="O70">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R70">
         <v>2</v>
@@ -6710,19 +6710,19 @@
         <v>1.8</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X70">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
@@ -6734,10 +6734,10 @@
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7004627</v>
+        <v>7609335</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,40 +6757,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="L71">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M71">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="N71">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P71">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q71">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R71">
         <v>2</v>
@@ -6799,19 +6799,19 @@
         <v>1.8</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y71">
         <v>-1</v>
@@ -6823,10 +6823,10 @@
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7840684</v>
+        <v>7840800</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,61 +7380,61 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M78">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R78">
+        <v>1.975</v>
+      </c>
+      <c r="S78">
+        <v>1.825</v>
+      </c>
+      <c r="T78">
+        <v>3.25</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
-        <v>3</v>
-      </c>
-      <c r="U78">
-        <v>1.8</v>
-      </c>
-      <c r="V78">
-        <v>2</v>
-      </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X78">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7443,13 +7443,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7840800</v>
+        <v>7840684</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,61 +7469,61 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K79">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N79">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O79">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q79">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y79">
         <v>-1</v>
@@ -7532,13 +7532,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
       <c r="AB79">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7840803</v>
+        <v>7840685</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45352.5</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="M83">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="N83">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="O83">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q83">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
         <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7840685</v>
+        <v>7840803</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45352.5</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="M84">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N84">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7840810</v>
+        <v>7840809</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M90">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="N90">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P90">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U90">
+        <v>1.875</v>
+      </c>
+      <c r="V90">
         <v>1.925</v>
       </c>
-      <c r="V90">
-        <v>1.875</v>
-      </c>
       <c r="W90">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7840809</v>
+        <v>7840810</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L91">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="N91">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="O91">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q91">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T91">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U91">
+        <v>1.925</v>
+      </c>
+      <c r="V91">
         <v>1.875</v>
       </c>
-      <c r="V91">
-        <v>1.925</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X91">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7840811</v>
+        <v>7840687</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45361.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K92">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="L92">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92">
         <v>3.6</v>
       </c>
-      <c r="O92">
-        <v>4</v>
-      </c>
       <c r="P92">
+        <v>2.05</v>
+      </c>
+      <c r="Q92">
+        <v>0.25</v>
+      </c>
+      <c r="R92">
+        <v>1.95</v>
+      </c>
+      <c r="S92">
         <v>1.75</v>
       </c>
-      <c r="Q92">
-        <v>0.75</v>
-      </c>
-      <c r="R92">
-        <v>1.85</v>
-      </c>
-      <c r="S92">
+      <c r="T92">
+        <v>3.25</v>
+      </c>
+      <c r="U92">
         <v>1.95</v>
       </c>
-      <c r="T92">
-        <v>3.5</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X92">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7840687</v>
+        <v>7840811</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45361.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="L93">
+        <v>4.2</v>
+      </c>
+      <c r="M93">
+        <v>1.55</v>
+      </c>
+      <c r="N93">
         <v>3.6</v>
       </c>
-      <c r="M93">
-        <v>2.25</v>
-      </c>
-      <c r="N93">
+      <c r="O93">
+        <v>4</v>
+      </c>
+      <c r="P93">
+        <v>1.75</v>
+      </c>
+      <c r="Q93">
+        <v>0.75</v>
+      </c>
+      <c r="R93">
+        <v>1.85</v>
+      </c>
+      <c r="S93">
+        <v>1.95</v>
+      </c>
+      <c r="T93">
+        <v>3.5</v>
+      </c>
+      <c r="U93">
+        <v>1.975</v>
+      </c>
+      <c r="V93">
+        <v>1.825</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
         <v>3</v>
       </c>
-      <c r="O93">
-        <v>3.6</v>
-      </c>
-      <c r="P93">
-        <v>2.05</v>
-      </c>
-      <c r="Q93">
-        <v>0.25</v>
-      </c>
-      <c r="R93">
-        <v>1.95</v>
-      </c>
-      <c r="S93">
-        <v>1.75</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
-      </c>
-      <c r="U93">
-        <v>1.95</v>
-      </c>
-      <c r="V93">
-        <v>1.75</v>
-      </c>
-      <c r="W93">
-        <v>2</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7840818</v>
+        <v>7840817</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,76 +9516,76 @@
         <v>45368.64583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102">
+        <v>4</v>
+      </c>
+      <c r="L102">
+        <v>3.6</v>
+      </c>
+      <c r="M102">
+        <v>1.75</v>
+      </c>
+      <c r="N102">
+        <v>3.5</v>
+      </c>
+      <c r="O102">
+        <v>3.75</v>
+      </c>
+      <c r="P102">
+        <v>1.833</v>
+      </c>
+      <c r="Q102">
+        <v>0.5</v>
+      </c>
+      <c r="R102">
+        <v>1.975</v>
+      </c>
+      <c r="S102">
+        <v>1.825</v>
+      </c>
+      <c r="T102">
         <v>3</v>
       </c>
-      <c r="I102">
+      <c r="U102">
+        <v>1.8</v>
+      </c>
+      <c r="V102">
+        <v>2</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
+        <v>0.833</v>
+      </c>
+      <c r="Z102">
+        <v>-1</v>
+      </c>
+      <c r="AA102">
+        <v>0.825</v>
+      </c>
+      <c r="AB102">
         <v>0</v>
       </c>
-      <c r="J102" t="s">
-        <v>41</v>
-      </c>
-      <c r="K102">
-        <v>2.5</v>
-      </c>
-      <c r="L102">
-        <v>3.4</v>
-      </c>
-      <c r="M102">
-        <v>2.5</v>
-      </c>
-      <c r="N102">
-        <v>2.3</v>
-      </c>
-      <c r="O102">
-        <v>3.5</v>
-      </c>
-      <c r="P102">
-        <v>2.7</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.75</v>
-      </c>
-      <c r="S102">
-        <v>2.05</v>
-      </c>
-      <c r="T102">
-        <v>3.5</v>
-      </c>
-      <c r="U102">
-        <v>1.925</v>
-      </c>
-      <c r="V102">
-        <v>1.875</v>
-      </c>
-      <c r="W102">
-        <v>1.3</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
-      <c r="Y102">
-        <v>-1</v>
-      </c>
-      <c r="Z102">
-        <v>0.75</v>
-      </c>
-      <c r="AA102">
-        <v>-1</v>
-      </c>
-      <c r="AB102">
-        <v>-1</v>
-      </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7840817</v>
+        <v>7840818</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45368.64583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
+        <v>2.5</v>
+      </c>
+      <c r="N103">
+        <v>2.3</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
+        <v>2.7</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
         <v>1.75</v>
       </c>
-      <c r="N103">
+      <c r="S103">
+        <v>2.05</v>
+      </c>
+      <c r="T103">
         <v>3.5</v>
       </c>
-      <c r="O103">
-        <v>3.75</v>
-      </c>
-      <c r="P103">
-        <v>1.833</v>
-      </c>
-      <c r="Q103">
-        <v>0.5</v>
-      </c>
-      <c r="R103">
-        <v>1.975</v>
-      </c>
-      <c r="S103">
-        <v>1.825</v>
-      </c>
-      <c r="T103">
-        <v>3</v>
-      </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9721,19 +9721,19 @@
         <v>0</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
         <v>3</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
         <v>0</v>
@@ -9795,19 +9795,19 @@
         <v>0</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
         <v>3</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
         <v>0</v>
@@ -9857,22 +9857,22 @@
         <v>1.85</v>
       </c>
       <c r="N106">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O106">
         <v>3.6</v>
       </c>
       <c r="P106">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="Q106">
         <v>0.5</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
         <v>3</v>
@@ -9931,22 +9931,22 @@
         <v>2.3</v>
       </c>
       <c r="N107">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="O107">
         <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
         <v>3.25</v>
@@ -10017,19 +10017,19 @@
         <v>2</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
         <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W108">
         <v>0</v>
@@ -10079,22 +10079,22 @@
         <v>2.8</v>
       </c>
       <c r="N109">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O109">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T109">
         <v>3.25</v>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC109"/>
+  <dimension ref="A1:AC107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7003585</v>
+        <v>7004591</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M18">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N18">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O18">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7004591</v>
+        <v>7003585</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>1.615</v>
+      </c>
+      <c r="L19">
         <v>4</v>
       </c>
-      <c r="J19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>4.5</v>
-      </c>
-      <c r="L19">
+      <c r="M19">
+        <v>4.333</v>
+      </c>
+      <c r="N19">
+        <v>1.533</v>
+      </c>
+      <c r="O19">
         <v>4.2</v>
       </c>
-      <c r="M19">
-        <v>1.55</v>
-      </c>
-      <c r="N19">
-        <v>3.3</v>
-      </c>
-      <c r="O19">
-        <v>3.8</v>
-      </c>
       <c r="P19">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N27">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N28">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R28">
+        <v>1.775</v>
+      </c>
+      <c r="S28">
+        <v>2.025</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
+        <v>1.975</v>
+      </c>
+      <c r="V28">
         <v>1.825</v>
       </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="U28">
-        <v>2</v>
-      </c>
-      <c r="V28">
-        <v>1.8</v>
-      </c>
       <c r="W28">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z28">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7004606</v>
+        <v>7003589</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -3746,40 +3746,40 @@
         <v>43</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L37">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M37">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="N37">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O37">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P37">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3788,19 +3788,19 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7003589</v>
+        <v>7004606</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,13 +3820,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -3835,40 +3835,40 @@
         <v>43</v>
       </c>
       <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>5.5</v>
+      </c>
+      <c r="M38">
+        <v>1.3</v>
+      </c>
+      <c r="N38">
         <v>8</v>
       </c>
-      <c r="L38">
-        <v>6.5</v>
-      </c>
-      <c r="M38">
-        <v>1.2</v>
-      </c>
-      <c r="N38">
-        <v>8.5</v>
-      </c>
       <c r="O38">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P38">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R38">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3877,19 +3877,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,73 +4176,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M42">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N42">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P42">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U42">
+        <v>1.95</v>
+      </c>
+      <c r="V42">
         <v>1.85</v>
       </c>
-      <c r="V42">
-        <v>1.95</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,73 +4265,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K43">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N43">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O43">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q43">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U43">
+        <v>1.85</v>
+      </c>
+      <c r="V43">
         <v>1.95</v>
       </c>
-      <c r="V43">
-        <v>1.85</v>
-      </c>
       <c r="W43">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7004610</v>
+        <v>7003482</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
+        <v>3.5</v>
+      </c>
+      <c r="M45">
+        <v>2.8</v>
+      </c>
+      <c r="N45">
+        <v>1.909</v>
+      </c>
+      <c r="O45">
         <v>3.6</v>
       </c>
-      <c r="M45">
-        <v>3.8</v>
-      </c>
-      <c r="N45">
-        <v>1.8</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
+        <v>1.825</v>
+      </c>
+      <c r="T45">
+        <v>3.25</v>
+      </c>
+      <c r="U45">
+        <v>1.775</v>
+      </c>
+      <c r="V45">
         <v>1.925</v>
       </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>1.8</v>
-      </c>
-      <c r="V45">
-        <v>2</v>
-      </c>
       <c r="W45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7003482</v>
+        <v>7004610</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N46">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7004616</v>
+        <v>7003592</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L54">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="M54">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N54">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O54">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P54">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q54">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7003592</v>
+        <v>7004616</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K55">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L55">
+        <v>6.5</v>
+      </c>
+      <c r="M55">
+        <v>6.5</v>
+      </c>
+      <c r="N55">
+        <v>1.363</v>
+      </c>
+      <c r="O55">
         <v>5.75</v>
       </c>
-      <c r="M55">
-        <v>8</v>
-      </c>
-      <c r="N55">
-        <v>1.25</v>
-      </c>
-      <c r="O55">
-        <v>6</v>
-      </c>
       <c r="P55">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q55">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7840805</v>
+        <v>7840802</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,10 +7647,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7662,40 +7662,40 @@
         <v>43</v>
       </c>
       <c r="K81">
-        <v>1.062</v>
+        <v>2.4</v>
       </c>
       <c r="L81">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="N81">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O81">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P81">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q81">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
         <v>3.25</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7704,19 +7704,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>6</v>
+        <v>1.375</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB81">
         <v>-0.5</v>
       </c>
       <c r="AC81">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7840802</v>
+        <v>7840805</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,10 +7736,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7751,40 +7751,40 @@
         <v>43</v>
       </c>
       <c r="K82">
-        <v>2.4</v>
+        <v>1.062</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M82">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="N82">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7793,19 +7793,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.375</v>
+        <v>6</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
         <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7840685</v>
+        <v>7840803</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45352.5</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="L83">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="M83">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N83">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
         <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7840803</v>
+        <v>7840685</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45352.5</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="N84">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="O84">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7840806</v>
+        <v>7840807</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>42</v>
+      </c>
+      <c r="K87">
+        <v>2.875</v>
+      </c>
+      <c r="L87">
         <v>4</v>
       </c>
-      <c r="J87" t="s">
-        <v>43</v>
-      </c>
-      <c r="K87">
-        <v>2</v>
-      </c>
-      <c r="L87">
-        <v>3.6</v>
-      </c>
       <c r="M87">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.925</v>
+      </c>
+      <c r="T87">
+        <v>3.25</v>
+      </c>
+      <c r="U87">
         <v>1.95</v>
       </c>
-      <c r="S87">
-        <v>1.85</v>
-      </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.825</v>
-      </c>
       <c r="V87">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y87">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7840807</v>
+        <v>7840806</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>3.6</v>
+      </c>
+      <c r="M88">
+        <v>3.2</v>
+      </c>
+      <c r="N88">
+        <v>2.2</v>
+      </c>
+      <c r="O88">
+        <v>3.5</v>
+      </c>
+      <c r="P88">
         <v>2.875</v>
       </c>
-      <c r="L88">
-        <v>4</v>
-      </c>
-      <c r="M88">
-        <v>2</v>
-      </c>
-      <c r="N88">
+      <c r="Q88">
+        <v>-0.25</v>
+      </c>
+      <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
         <v>1.85</v>
       </c>
-      <c r="O88">
-        <v>3.8</v>
-      </c>
-      <c r="P88">
-        <v>3.4</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
+      <c r="T88">
+        <v>2.75</v>
+      </c>
+      <c r="U88">
+        <v>1.825</v>
+      </c>
+      <c r="V88">
+        <v>1.975</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
         <v>1.875</v>
       </c>
-      <c r="S88">
-        <v>1.925</v>
-      </c>
-      <c r="T88">
-        <v>3.25</v>
-      </c>
-      <c r="U88">
-        <v>1.95</v>
-      </c>
-      <c r="V88">
-        <v>1.75</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
-      <c r="X88">
-        <v>2.8</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7936026</v>
+        <v>7936025</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45362.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K94">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="L94">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M94">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="N94">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z94">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7936025</v>
+        <v>7936026</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45362.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
         <v>0</v>
       </c>
-      <c r="I95">
-        <v>2</v>
-      </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="L95">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="N95">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="Q95">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7840815</v>
+        <v>7840814</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,73 +8982,73 @@
         <v>45363.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="L96">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N96">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P96">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T96">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
+        <v>1.825</v>
+      </c>
+      <c r="V96">
         <v>1.975</v>
       </c>
-      <c r="V96">
-        <v>1.825</v>
-      </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7840814</v>
+        <v>7840815</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45363.64583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97" t="s">
+        <v>42</v>
+      </c>
+      <c r="K97">
+        <v>1.533</v>
+      </c>
+      <c r="L97">
+        <v>4.2</v>
+      </c>
+      <c r="M97">
+        <v>5.25</v>
+      </c>
+      <c r="N97">
+        <v>1.7</v>
+      </c>
+      <c r="O97">
+        <v>4</v>
+      </c>
+      <c r="P97">
+        <v>3.8</v>
+      </c>
+      <c r="Q97">
+        <v>-0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.925</v>
+      </c>
+      <c r="S97">
+        <v>1.875</v>
+      </c>
+      <c r="T97">
+        <v>3.5</v>
+      </c>
+      <c r="U97">
+        <v>1.975</v>
+      </c>
+      <c r="V97">
+        <v>1.825</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
         <v>3</v>
       </c>
-      <c r="J97" t="s">
-        <v>43</v>
-      </c>
-      <c r="K97">
-        <v>1.8</v>
-      </c>
-      <c r="L97">
-        <v>3.75</v>
-      </c>
-      <c r="M97">
-        <v>3.8</v>
-      </c>
-      <c r="N97">
-        <v>1.909</v>
-      </c>
-      <c r="O97">
-        <v>3.75</v>
-      </c>
-      <c r="P97">
-        <v>3.3</v>
-      </c>
-      <c r="Q97">
-        <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.9</v>
-      </c>
-      <c r="S97">
-        <v>1.9</v>
-      </c>
-      <c r="T97">
-        <v>3.25</v>
-      </c>
-      <c r="U97">
-        <v>1.825</v>
-      </c>
-      <c r="V97">
-        <v>1.975</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
       <c r="Y97">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB97">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7840688</v>
+        <v>7840816</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,58 +9160,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
         <v>41</v>
       </c>
       <c r="K98">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L98">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="M98">
+        <v>11</v>
+      </c>
+      <c r="N98">
+        <v>1.285</v>
+      </c>
+      <c r="O98">
         <v>5.5</v>
       </c>
-      <c r="N98">
-        <v>1.615</v>
-      </c>
-      <c r="O98">
-        <v>4.2</v>
-      </c>
       <c r="P98">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U98">
         <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W98">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9220,10 +9220,10 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
         <v>0.925</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7840816</v>
+        <v>7840688</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,58 +9249,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>41</v>
       </c>
       <c r="K99">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L99">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="M99">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="N99">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O99">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="Q99">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T99">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
         <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9309,10 +9309,10 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>0.925</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7003493</v>
+        <v>7004653</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,34 +9691,34 @@
         <v>28</v>
       </c>
       <c r="E104" s="2">
-        <v>45380.64583333334</v>
+        <v>45381.64583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K104">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="N104">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O104">
         <v>3.5</v>
       </c>
       <c r="P104">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
         <v>2</v>
@@ -9730,10 +9730,10 @@
         <v>3</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
         <v>0</v>
@@ -9756,7 +9756,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7004654</v>
+        <v>7004656</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9765,49 +9765,49 @@
         <v>28</v>
       </c>
       <c r="E105" s="2">
-        <v>45380.64583333334</v>
+        <v>45381.64583333334</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K105">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N105">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
         <v>0</v>
@@ -9830,7 +9830,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7004653</v>
+        <v>7882227</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9839,49 +9839,49 @@
         <v>28</v>
       </c>
       <c r="E106" s="2">
-        <v>45381.64583333334</v>
+        <v>45382.64583333334</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K106">
+        <v>10</v>
+      </c>
+      <c r="L106">
+        <v>6.5</v>
+      </c>
+      <c r="M106">
+        <v>1.2</v>
+      </c>
+      <c r="N106">
+        <v>11</v>
+      </c>
+      <c r="O106">
+        <v>6.5</v>
+      </c>
+      <c r="P106">
+        <v>1.181</v>
+      </c>
+      <c r="Q106">
+        <v>2</v>
+      </c>
+      <c r="R106">
+        <v>1.95</v>
+      </c>
+      <c r="S106">
+        <v>1.85</v>
+      </c>
+      <c r="T106">
         <v>3.5</v>
       </c>
-      <c r="L106">
-        <v>3.6</v>
-      </c>
-      <c r="M106">
+      <c r="U106">
+        <v>1.95</v>
+      </c>
+      <c r="V106">
         <v>1.85</v>
-      </c>
-      <c r="N106">
-        <v>3.3</v>
-      </c>
-      <c r="O106">
-        <v>3.6</v>
-      </c>
-      <c r="P106">
-        <v>1.909</v>
-      </c>
-      <c r="Q106">
-        <v>0.5</v>
-      </c>
-      <c r="R106">
-        <v>1.825</v>
-      </c>
-      <c r="S106">
-        <v>1.975</v>
-      </c>
-      <c r="T106">
-        <v>3</v>
-      </c>
-      <c r="U106">
-        <v>1.925</v>
-      </c>
-      <c r="V106">
-        <v>1.875</v>
       </c>
       <c r="W106">
         <v>0</v>
@@ -9904,7 +9904,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7004656</v>
+        <v>7004655</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9913,49 +9913,49 @@
         <v>28</v>
       </c>
       <c r="E107" s="2">
-        <v>45381.64583333334</v>
+        <v>45382.64583333334</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K107">
+        <v>2.1</v>
+      </c>
+      <c r="L107">
+        <v>3.75</v>
+      </c>
+      <c r="M107">
+        <v>2.8</v>
+      </c>
+      <c r="N107">
+        <v>2.25</v>
+      </c>
+      <c r="O107">
+        <v>3.75</v>
+      </c>
+      <c r="P107">
         <v>2.55</v>
       </c>
-      <c r="L107">
-        <v>3.6</v>
-      </c>
-      <c r="M107">
-        <v>2.3</v>
-      </c>
-      <c r="N107">
-        <v>2.75</v>
-      </c>
-      <c r="O107">
-        <v>3.6</v>
-      </c>
-      <c r="P107">
-        <v>2.15</v>
-      </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T107">
         <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>0</v>
@@ -9970,154 +9970,6 @@
         <v>0</v>
       </c>
       <c r="AA107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>7882227</v>
-      </c>
-      <c r="C108" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" t="s">
-        <v>28</v>
-      </c>
-      <c r="E108" s="2">
-        <v>45382.64583333334</v>
-      </c>
-      <c r="F108" t="s">
-        <v>32</v>
-      </c>
-      <c r="G108" t="s">
-        <v>38</v>
-      </c>
-      <c r="K108">
-        <v>10</v>
-      </c>
-      <c r="L108">
-        <v>6.5</v>
-      </c>
-      <c r="M108">
-        <v>1.2</v>
-      </c>
-      <c r="N108">
-        <v>10</v>
-      </c>
-      <c r="O108">
-        <v>6.5</v>
-      </c>
-      <c r="P108">
-        <v>1.2</v>
-      </c>
-      <c r="Q108">
-        <v>2</v>
-      </c>
-      <c r="R108">
-        <v>1.9</v>
-      </c>
-      <c r="S108">
-        <v>1.9</v>
-      </c>
-      <c r="T108">
-        <v>3.5</v>
-      </c>
-      <c r="U108">
-        <v>2</v>
-      </c>
-      <c r="V108">
-        <v>1.8</v>
-      </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-      <c r="X108">
-        <v>0</v>
-      </c>
-      <c r="Y108">
-        <v>0</v>
-      </c>
-      <c r="Z108">
-        <v>0</v>
-      </c>
-      <c r="AA108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>7004655</v>
-      </c>
-      <c r="C109" t="s">
-        <v>28</v>
-      </c>
-      <c r="D109" t="s">
-        <v>28</v>
-      </c>
-      <c r="E109" s="2">
-        <v>45382.64583333334</v>
-      </c>
-      <c r="F109" t="s">
-        <v>36</v>
-      </c>
-      <c r="G109" t="s">
-        <v>35</v>
-      </c>
-      <c r="K109">
-        <v>2.1</v>
-      </c>
-      <c r="L109">
-        <v>3.75</v>
-      </c>
-      <c r="M109">
-        <v>2.8</v>
-      </c>
-      <c r="N109">
-        <v>2.3</v>
-      </c>
-      <c r="O109">
-        <v>3.6</v>
-      </c>
-      <c r="P109">
-        <v>2.55</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
-        <v>1.8</v>
-      </c>
-      <c r="S109">
-        <v>2</v>
-      </c>
-      <c r="T109">
-        <v>3.25</v>
-      </c>
-      <c r="U109">
-        <v>1.8</v>
-      </c>
-      <c r="V109">
-        <v>2</v>
-      </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-      <c r="X109">
-        <v>0</v>
-      </c>
-      <c r="Y109">
-        <v>0</v>
-      </c>
-      <c r="Z109">
-        <v>0</v>
-      </c>
-      <c r="AA109">
         <v>0</v>
       </c>
     </row>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC107"/>
+  <dimension ref="A1:AC105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7004591</v>
+        <v>7003585</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>1.615</v>
+      </c>
+      <c r="L18">
         <v>4</v>
       </c>
-      <c r="J18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>4.5</v>
-      </c>
-      <c r="L18">
+      <c r="M18">
+        <v>4.333</v>
+      </c>
+      <c r="N18">
+        <v>1.533</v>
+      </c>
+      <c r="O18">
         <v>4.2</v>
       </c>
-      <c r="M18">
-        <v>1.55</v>
-      </c>
-      <c r="N18">
-        <v>3.3</v>
-      </c>
-      <c r="O18">
-        <v>3.8</v>
-      </c>
       <c r="P18">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7003585</v>
+        <v>7004591</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M19">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N19">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O19">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N27">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R27">
+        <v>1.775</v>
+      </c>
+      <c r="S27">
+        <v>2.025</v>
+      </c>
+      <c r="T27">
+        <v>3.5</v>
+      </c>
+      <c r="U27">
+        <v>1.975</v>
+      </c>
+      <c r="V27">
         <v>1.825</v>
       </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
-      <c r="V27">
-        <v>1.8</v>
-      </c>
       <c r="W27">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z27">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7003482</v>
+        <v>7004610</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K45">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N45">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7004610</v>
+        <v>7003482</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L46">
+        <v>3.5</v>
+      </c>
+      <c r="M46">
+        <v>2.8</v>
+      </c>
+      <c r="N46">
+        <v>1.909</v>
+      </c>
+      <c r="O46">
         <v>3.6</v>
       </c>
-      <c r="M46">
-        <v>3.8</v>
-      </c>
-      <c r="N46">
-        <v>1.8</v>
-      </c>
-      <c r="O46">
-        <v>3.4</v>
-      </c>
       <c r="P46">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
+        <v>1.825</v>
+      </c>
+      <c r="T46">
+        <v>3.25</v>
+      </c>
+      <c r="U46">
+        <v>1.775</v>
+      </c>
+      <c r="V46">
         <v>1.925</v>
       </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>1.8</v>
-      </c>
-      <c r="V46">
-        <v>2</v>
-      </c>
       <c r="W46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7003592</v>
+        <v>7004616</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L54">
+        <v>6.5</v>
+      </c>
+      <c r="M54">
+        <v>6.5</v>
+      </c>
+      <c r="N54">
+        <v>1.363</v>
+      </c>
+      <c r="O54">
         <v>5.75</v>
       </c>
-      <c r="M54">
-        <v>8</v>
-      </c>
-      <c r="N54">
-        <v>1.25</v>
-      </c>
-      <c r="O54">
-        <v>6</v>
-      </c>
       <c r="P54">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q54">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7004616</v>
+        <v>7003592</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L55">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="M55">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N55">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O55">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P55">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T55">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7003485</v>
+        <v>7004620</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L60">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O60">
+        <v>3.6</v>
+      </c>
+      <c r="P60">
         <v>3.75</v>
       </c>
-      <c r="P60">
-        <v>4.75</v>
-      </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7004620</v>
+        <v>7003485</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,76 +5867,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L61">
+        <v>4.2</v>
+      </c>
+      <c r="M61">
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <v>1.615</v>
+      </c>
+      <c r="O61">
         <v>3.75</v>
       </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>1.833</v>
-      </c>
-      <c r="O61">
-        <v>3.6</v>
-      </c>
       <c r="P61">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA61">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC61">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7004626</v>
+        <v>7609336</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,40 +6490,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L68">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="N68">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O68">
         <v>3.75</v>
       </c>
       <c r="P68">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R68">
         <v>1.925</v>
@@ -6541,25 +6541,25 @@
         <v>1.975</v>
       </c>
       <c r="W68">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7609336</v>
+        <v>7004626</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M69">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O69">
         <v>3.75</v>
       </c>
       <c r="P69">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q69">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6630,25 +6630,25 @@
         <v>1.975</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7840807</v>
+        <v>7840806</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>3.6</v>
+      </c>
+      <c r="M87">
+        <v>3.2</v>
+      </c>
+      <c r="N87">
+        <v>2.2</v>
+      </c>
+      <c r="O87">
+        <v>3.5</v>
+      </c>
+      <c r="P87">
         <v>2.875</v>
       </c>
-      <c r="L87">
-        <v>4</v>
-      </c>
-      <c r="M87">
-        <v>2</v>
-      </c>
-      <c r="N87">
+      <c r="Q87">
+        <v>-0.25</v>
+      </c>
+      <c r="R87">
+        <v>1.95</v>
+      </c>
+      <c r="S87">
         <v>1.85</v>
       </c>
-      <c r="O87">
-        <v>3.8</v>
-      </c>
-      <c r="P87">
-        <v>3.4</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
+      <c r="T87">
+        <v>2.75</v>
+      </c>
+      <c r="U87">
+        <v>1.825</v>
+      </c>
+      <c r="V87">
+        <v>1.975</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
         <v>1.875</v>
       </c>
-      <c r="S87">
-        <v>1.925</v>
-      </c>
-      <c r="T87">
-        <v>3.25</v>
-      </c>
-      <c r="U87">
-        <v>1.95</v>
-      </c>
-      <c r="V87">
-        <v>1.75</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>2.8</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7840806</v>
+        <v>7840807</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>42</v>
+      </c>
+      <c r="K88">
+        <v>2.875</v>
+      </c>
+      <c r="L88">
         <v>4</v>
       </c>
-      <c r="J88" t="s">
-        <v>43</v>
-      </c>
-      <c r="K88">
-        <v>2</v>
-      </c>
-      <c r="L88">
-        <v>3.6</v>
-      </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
+        <v>1.925</v>
+      </c>
+      <c r="T88">
+        <v>3.25</v>
+      </c>
+      <c r="U88">
         <v>1.95</v>
       </c>
-      <c r="S88">
-        <v>1.85</v>
-      </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7840687</v>
+        <v>7840811</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45361.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="L92">
+        <v>4.2</v>
+      </c>
+      <c r="M92">
+        <v>1.55</v>
+      </c>
+      <c r="N92">
         <v>3.6</v>
       </c>
-      <c r="M92">
-        <v>2.25</v>
-      </c>
-      <c r="N92">
+      <c r="O92">
+        <v>4</v>
+      </c>
+      <c r="P92">
+        <v>1.75</v>
+      </c>
+      <c r="Q92">
+        <v>0.75</v>
+      </c>
+      <c r="R92">
+        <v>1.85</v>
+      </c>
+      <c r="S92">
+        <v>1.95</v>
+      </c>
+      <c r="T92">
+        <v>3.5</v>
+      </c>
+      <c r="U92">
+        <v>1.975</v>
+      </c>
+      <c r="V92">
+        <v>1.825</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
         <v>3</v>
       </c>
-      <c r="O92">
-        <v>3.6</v>
-      </c>
-      <c r="P92">
-        <v>2.05</v>
-      </c>
-      <c r="Q92">
-        <v>0.25</v>
-      </c>
-      <c r="R92">
-        <v>1.95</v>
-      </c>
-      <c r="S92">
-        <v>1.75</v>
-      </c>
-      <c r="T92">
-        <v>3.25</v>
-      </c>
-      <c r="U92">
-        <v>1.95</v>
-      </c>
-      <c r="V92">
-        <v>1.75</v>
-      </c>
-      <c r="W92">
-        <v>2</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7840811</v>
+        <v>7840687</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45361.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K93">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="L93">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93">
         <v>3.6</v>
       </c>
-      <c r="O93">
-        <v>4</v>
-      </c>
       <c r="P93">
+        <v>2.05</v>
+      </c>
+      <c r="Q93">
+        <v>0.25</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
         <v>1.75</v>
       </c>
-      <c r="Q93">
-        <v>0.75</v>
-      </c>
-      <c r="R93">
-        <v>1.85</v>
-      </c>
-      <c r="S93">
+      <c r="T93">
+        <v>3.25</v>
+      </c>
+      <c r="U93">
         <v>1.95</v>
       </c>
-      <c r="T93">
-        <v>3.5</v>
-      </c>
-      <c r="U93">
-        <v>1.975</v>
-      </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X93">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7840816</v>
+        <v>7840688</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,58 +9160,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>41</v>
       </c>
       <c r="K98">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L98">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="M98">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="N98">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O98">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="Q98">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
         <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9220,10 +9220,10 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>0.925</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7840688</v>
+        <v>7840816</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,58 +9249,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>41</v>
       </c>
       <c r="K99">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L99">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="M99">
+        <v>11</v>
+      </c>
+      <c r="N99">
+        <v>1.285</v>
+      </c>
+      <c r="O99">
         <v>5.5</v>
       </c>
-      <c r="N99">
-        <v>1.615</v>
-      </c>
-      <c r="O99">
-        <v>4.2</v>
-      </c>
       <c r="P99">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U99">
         <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W99">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9309,10 +9309,10 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
         <v>0.925</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7004653</v>
+        <v>7882227</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,49 +9691,49 @@
         <v>28</v>
       </c>
       <c r="E104" s="2">
-        <v>45381.64583333334</v>
+        <v>45382.64583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K104">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M104">
+        <v>1.2</v>
+      </c>
+      <c r="N104">
+        <v>10</v>
+      </c>
+      <c r="O104">
+        <v>6.5</v>
+      </c>
+      <c r="P104">
+        <v>1.2</v>
+      </c>
+      <c r="Q104">
+        <v>2</v>
+      </c>
+      <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
         <v>1.85</v>
       </c>
-      <c r="N104">
-        <v>3.1</v>
-      </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
-      <c r="P104">
-        <v>2</v>
-      </c>
-      <c r="Q104">
-        <v>0.25</v>
-      </c>
-      <c r="R104">
-        <v>2</v>
-      </c>
-      <c r="S104">
-        <v>1.8</v>
-      </c>
       <c r="T104">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
         <v>0</v>
@@ -9756,7 +9756,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7004656</v>
+        <v>7004655</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9765,49 +9765,49 @@
         <v>28</v>
       </c>
       <c r="E105" s="2">
-        <v>45381.64583333334</v>
+        <v>45382.64583333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K105">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="N105">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T105">
         <v>3.25</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W105">
         <v>0</v>
@@ -9822,154 +9822,6 @@
         <v>0</v>
       </c>
       <c r="AA105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>7882227</v>
-      </c>
-      <c r="C106" t="s">
-        <v>28</v>
-      </c>
-      <c r="D106" t="s">
-        <v>28</v>
-      </c>
-      <c r="E106" s="2">
-        <v>45382.64583333334</v>
-      </c>
-      <c r="F106" t="s">
-        <v>32</v>
-      </c>
-      <c r="G106" t="s">
-        <v>38</v>
-      </c>
-      <c r="K106">
-        <v>10</v>
-      </c>
-      <c r="L106">
-        <v>6.5</v>
-      </c>
-      <c r="M106">
-        <v>1.2</v>
-      </c>
-      <c r="N106">
-        <v>11</v>
-      </c>
-      <c r="O106">
-        <v>6.5</v>
-      </c>
-      <c r="P106">
-        <v>1.181</v>
-      </c>
-      <c r="Q106">
-        <v>2</v>
-      </c>
-      <c r="R106">
-        <v>1.95</v>
-      </c>
-      <c r="S106">
-        <v>1.85</v>
-      </c>
-      <c r="T106">
-        <v>3.5</v>
-      </c>
-      <c r="U106">
-        <v>1.95</v>
-      </c>
-      <c r="V106">
-        <v>1.85</v>
-      </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
-      <c r="X106">
-        <v>0</v>
-      </c>
-      <c r="Y106">
-        <v>0</v>
-      </c>
-      <c r="Z106">
-        <v>0</v>
-      </c>
-      <c r="AA106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>7004655</v>
-      </c>
-      <c r="C107" t="s">
-        <v>28</v>
-      </c>
-      <c r="D107" t="s">
-        <v>28</v>
-      </c>
-      <c r="E107" s="2">
-        <v>45382.64583333334</v>
-      </c>
-      <c r="F107" t="s">
-        <v>36</v>
-      </c>
-      <c r="G107" t="s">
-        <v>35</v>
-      </c>
-      <c r="K107">
-        <v>2.1</v>
-      </c>
-      <c r="L107">
-        <v>3.75</v>
-      </c>
-      <c r="M107">
-        <v>2.8</v>
-      </c>
-      <c r="N107">
-        <v>2.25</v>
-      </c>
-      <c r="O107">
-        <v>3.75</v>
-      </c>
-      <c r="P107">
-        <v>2.55</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
-        <v>1.775</v>
-      </c>
-      <c r="S107">
-        <v>2.025</v>
-      </c>
-      <c r="T107">
-        <v>3.25</v>
-      </c>
-      <c r="U107">
-        <v>1.8</v>
-      </c>
-      <c r="V107">
-        <v>2</v>
-      </c>
-      <c r="W107">
-        <v>0</v>
-      </c>
-      <c r="X107">
-        <v>0</v>
-      </c>
-      <c r="Y107">
-        <v>0</v>
-      </c>
-      <c r="Z107">
-        <v>0</v>
-      </c>
-      <c r="AA107">
         <v>0</v>
       </c>
     </row>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC105"/>
+  <dimension ref="A1:AC107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7003585</v>
+        <v>7004591</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M18">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N18">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O18">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7004591</v>
+        <v>7003585</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>1.615</v>
+      </c>
+      <c r="L19">
         <v>4</v>
       </c>
-      <c r="J19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>4.5</v>
-      </c>
-      <c r="L19">
+      <c r="M19">
+        <v>4.333</v>
+      </c>
+      <c r="N19">
+        <v>1.533</v>
+      </c>
+      <c r="O19">
         <v>4.2</v>
       </c>
-      <c r="M19">
-        <v>1.55</v>
-      </c>
-      <c r="N19">
-        <v>3.3</v>
-      </c>
-      <c r="O19">
-        <v>3.8</v>
-      </c>
       <c r="P19">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7004598</v>
+        <v>7004599</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,73 +3019,73 @@
         <v>45198.5</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>3</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L29">
         <v>3.5</v>
       </c>
       <c r="M29">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N29">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O29">
         <v>3.4</v>
       </c>
       <c r="P29">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q29">
         <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z29">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7004599</v>
+        <v>7004598</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,73 +3108,73 @@
         <v>45198.5</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N30">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O30">
         <v>3.4</v>
       </c>
       <c r="P30">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q30">
         <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
+        <v>1.85</v>
+      </c>
+      <c r="V30">
+        <v>1.95</v>
+      </c>
+      <c r="W30">
         <v>1.8</v>
       </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7003589</v>
+        <v>7004606</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -3746,40 +3746,40 @@
         <v>43</v>
       </c>
       <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>5.5</v>
+      </c>
+      <c r="M37">
+        <v>1.3</v>
+      </c>
+      <c r="N37">
         <v>8</v>
       </c>
-      <c r="L37">
-        <v>6.5</v>
-      </c>
-      <c r="M37">
-        <v>1.2</v>
-      </c>
-      <c r="N37">
-        <v>8.5</v>
-      </c>
       <c r="O37">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P37">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3788,19 +3788,19 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7004606</v>
+        <v>7003589</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,13 +3820,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -3835,40 +3835,40 @@
         <v>43</v>
       </c>
       <c r="K38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L38">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M38">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="N38">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O38">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P38">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3877,19 +3877,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7004604</v>
+        <v>7004607</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,55 +3998,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>41</v>
       </c>
       <c r="K40">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N40">
         <v>1.75</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
         <v>0.75</v>
@@ -4058,16 +4058,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7004607</v>
+        <v>7004604</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,55 +4087,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>41</v>
       </c>
       <c r="K41">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N41">
         <v>1.75</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
+        <v>1.75</v>
+      </c>
+      <c r="S41">
         <v>1.95</v>
-      </c>
-      <c r="S41">
-        <v>1.85</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
         <v>0.75</v>
@@ -4147,16 +4147,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,73 +4176,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K42">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N42">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O42">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q42">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U42">
+        <v>1.85</v>
+      </c>
+      <c r="V42">
         <v>1.95</v>
       </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
       <c r="W42">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,73 +4265,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M43">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N43">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P43">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U43">
+        <v>1.95</v>
+      </c>
+      <c r="V43">
         <v>1.85</v>
       </c>
-      <c r="V43">
-        <v>1.95</v>
-      </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7004616</v>
+        <v>7003592</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L54">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="M54">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N54">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O54">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P54">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q54">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7003592</v>
+        <v>7004616</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K55">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L55">
+        <v>6.5</v>
+      </c>
+      <c r="M55">
+        <v>6.5</v>
+      </c>
+      <c r="N55">
+        <v>1.363</v>
+      </c>
+      <c r="O55">
         <v>5.75</v>
       </c>
-      <c r="M55">
-        <v>8</v>
-      </c>
-      <c r="N55">
-        <v>1.25</v>
-      </c>
-      <c r="O55">
-        <v>6</v>
-      </c>
       <c r="P55">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q55">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7004620</v>
+        <v>7003485</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L60">
+        <v>4.2</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>1.615</v>
+      </c>
+      <c r="O60">
         <v>3.75</v>
       </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>1.833</v>
-      </c>
-      <c r="O60">
-        <v>3.6</v>
-      </c>
       <c r="P60">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X60">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA60">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7003485</v>
+        <v>7004620</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,76 +5867,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O61">
+        <v>3.6</v>
+      </c>
+      <c r="P61">
         <v>3.75</v>
       </c>
-      <c r="P61">
-        <v>4.75</v>
-      </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7004627</v>
+        <v>7609335</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="L70">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M70">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="N70">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P70">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R70">
         <v>2</v>
@@ -6710,19 +6710,19 @@
         <v>1.8</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y70">
         <v>-1</v>
@@ -6734,10 +6734,10 @@
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7609335</v>
+        <v>7004627</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,40 +6757,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="L71">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M71">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="N71">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="O71">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P71">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R71">
         <v>2</v>
@@ -6799,19 +6799,19 @@
         <v>1.8</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X71">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
@@ -6823,10 +6823,10 @@
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7840806</v>
+        <v>7840807</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>42</v>
+      </c>
+      <c r="K87">
+        <v>2.875</v>
+      </c>
+      <c r="L87">
         <v>4</v>
       </c>
-      <c r="J87" t="s">
-        <v>43</v>
-      </c>
-      <c r="K87">
-        <v>2</v>
-      </c>
-      <c r="L87">
-        <v>3.6</v>
-      </c>
       <c r="M87">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.925</v>
+      </c>
+      <c r="T87">
+        <v>3.25</v>
+      </c>
+      <c r="U87">
         <v>1.95</v>
       </c>
-      <c r="S87">
-        <v>1.85</v>
-      </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.825</v>
-      </c>
       <c r="V87">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y87">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7840807</v>
+        <v>7840806</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>3.6</v>
+      </c>
+      <c r="M88">
+        <v>3.2</v>
+      </c>
+      <c r="N88">
+        <v>2.2</v>
+      </c>
+      <c r="O88">
+        <v>3.5</v>
+      </c>
+      <c r="P88">
         <v>2.875</v>
       </c>
-      <c r="L88">
-        <v>4</v>
-      </c>
-      <c r="M88">
-        <v>2</v>
-      </c>
-      <c r="N88">
+      <c r="Q88">
+        <v>-0.25</v>
+      </c>
+      <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
         <v>1.85</v>
       </c>
-      <c r="O88">
-        <v>3.8</v>
-      </c>
-      <c r="P88">
-        <v>3.4</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
+      <c r="T88">
+        <v>2.75</v>
+      </c>
+      <c r="U88">
+        <v>1.825</v>
+      </c>
+      <c r="V88">
+        <v>1.975</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
         <v>1.875</v>
       </c>
-      <c r="S88">
-        <v>1.925</v>
-      </c>
-      <c r="T88">
-        <v>3.25</v>
-      </c>
-      <c r="U88">
-        <v>1.95</v>
-      </c>
-      <c r="V88">
-        <v>1.75</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
-      <c r="X88">
-        <v>2.8</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7840811</v>
+        <v>7840687</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45361.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K92">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="L92">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92">
         <v>3.6</v>
       </c>
-      <c r="O92">
-        <v>4</v>
-      </c>
       <c r="P92">
+        <v>2.05</v>
+      </c>
+      <c r="Q92">
+        <v>0.25</v>
+      </c>
+      <c r="R92">
+        <v>1.95</v>
+      </c>
+      <c r="S92">
         <v>1.75</v>
       </c>
-      <c r="Q92">
-        <v>0.75</v>
-      </c>
-      <c r="R92">
-        <v>1.85</v>
-      </c>
-      <c r="S92">
+      <c r="T92">
+        <v>3.25</v>
+      </c>
+      <c r="U92">
         <v>1.95</v>
       </c>
-      <c r="T92">
-        <v>3.5</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X92">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7840687</v>
+        <v>7840811</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45361.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="L93">
+        <v>4.2</v>
+      </c>
+      <c r="M93">
+        <v>1.55</v>
+      </c>
+      <c r="N93">
         <v>3.6</v>
       </c>
-      <c r="M93">
-        <v>2.25</v>
-      </c>
-      <c r="N93">
+      <c r="O93">
+        <v>4</v>
+      </c>
+      <c r="P93">
+        <v>1.75</v>
+      </c>
+      <c r="Q93">
+        <v>0.75</v>
+      </c>
+      <c r="R93">
+        <v>1.85</v>
+      </c>
+      <c r="S93">
+        <v>1.95</v>
+      </c>
+      <c r="T93">
+        <v>3.5</v>
+      </c>
+      <c r="U93">
+        <v>1.975</v>
+      </c>
+      <c r="V93">
+        <v>1.825</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
         <v>3</v>
       </c>
-      <c r="O93">
-        <v>3.6</v>
-      </c>
-      <c r="P93">
-        <v>2.05</v>
-      </c>
-      <c r="Q93">
-        <v>0.25</v>
-      </c>
-      <c r="R93">
-        <v>1.95</v>
-      </c>
-      <c r="S93">
-        <v>1.75</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
-      </c>
-      <c r="U93">
-        <v>1.95</v>
-      </c>
-      <c r="V93">
-        <v>1.75</v>
-      </c>
-      <c r="W93">
-        <v>2</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7936025</v>
+        <v>7936026</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45362.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
         <v>0</v>
       </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K94">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="L94">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M94">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="N94">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="Q94">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7936026</v>
+        <v>7936025</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45362.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K95">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="L95">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M95">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="N95">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7840814</v>
+        <v>7840815</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,73 +8982,73 @@
         <v>45363.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96" t="s">
+        <v>42</v>
+      </c>
+      <c r="K96">
+        <v>1.533</v>
+      </c>
+      <c r="L96">
+        <v>4.2</v>
+      </c>
+      <c r="M96">
+        <v>5.25</v>
+      </c>
+      <c r="N96">
+        <v>1.7</v>
+      </c>
+      <c r="O96">
+        <v>4</v>
+      </c>
+      <c r="P96">
+        <v>3.8</v>
+      </c>
+      <c r="Q96">
+        <v>-0.75</v>
+      </c>
+      <c r="R96">
+        <v>1.925</v>
+      </c>
+      <c r="S96">
+        <v>1.875</v>
+      </c>
+      <c r="T96">
+        <v>3.5</v>
+      </c>
+      <c r="U96">
+        <v>1.975</v>
+      </c>
+      <c r="V96">
+        <v>1.825</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
         <v>3</v>
       </c>
-      <c r="J96" t="s">
-        <v>43</v>
-      </c>
-      <c r="K96">
-        <v>1.8</v>
-      </c>
-      <c r="L96">
-        <v>3.75</v>
-      </c>
-      <c r="M96">
-        <v>3.8</v>
-      </c>
-      <c r="N96">
-        <v>1.909</v>
-      </c>
-      <c r="O96">
-        <v>3.75</v>
-      </c>
-      <c r="P96">
-        <v>3.3</v>
-      </c>
-      <c r="Q96">
-        <v>-0.5</v>
-      </c>
-      <c r="R96">
-        <v>1.9</v>
-      </c>
-      <c r="S96">
-        <v>1.9</v>
-      </c>
-      <c r="T96">
-        <v>3.25</v>
-      </c>
-      <c r="U96">
-        <v>1.825</v>
-      </c>
-      <c r="V96">
-        <v>1.975</v>
-      </c>
-      <c r="W96">
-        <v>-1</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
       <c r="Y96">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB96">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7840815</v>
+        <v>7840814</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45363.64583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K97">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="L97">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N97">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P97">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T97">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
+        <v>1.825</v>
+      </c>
+      <c r="V97">
         <v>1.975</v>
       </c>
-      <c r="V97">
-        <v>1.825</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB97">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7003492</v>
+        <v>7004650</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45367.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L100">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O100">
         <v>4</v>
       </c>
       <c r="P100">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q100">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
+        <v>1.975</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.85</v>
+      </c>
+      <c r="V100">
         <v>1.95</v>
       </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>3.25</v>
-      </c>
-      <c r="U100">
-        <v>1.775</v>
-      </c>
-      <c r="V100">
-        <v>1.925</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.95</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
-      <c r="AC100">
-        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7004650</v>
+        <v>7003492</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45367.64583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K101">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M101">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="N101">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O101">
         <v>4</v>
       </c>
       <c r="P101">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
+        <v>3.25</v>
+      </c>
+      <c r="U101">
+        <v>1.775</v>
+      </c>
+      <c r="V101">
+        <v>1.925</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
         <v>3</v>
       </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>1.95</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
       <c r="Y101">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7882227</v>
+        <v>7003493</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9691,64 +9691,79 @@
         <v>28</v>
       </c>
       <c r="E104" s="2">
-        <v>45382.64583333334</v>
+        <v>45380.64583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>10</v>
+        <v>2.55</v>
       </c>
       <c r="L104">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>1.2</v>
+        <v>2.375</v>
       </c>
       <c r="N104">
-        <v>10</v>
+        <v>2.875</v>
       </c>
       <c r="O104">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q104">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
+        <v>1.875</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
+        <v>0.825</v>
+      </c>
+      <c r="AA104">
+        <v>-1</v>
+      </c>
+      <c r="AB104">
         <v>0</v>
       </c>
-      <c r="X104">
-        <v>0</v>
-      </c>
-      <c r="Y104">
-        <v>0</v>
-      </c>
-      <c r="Z104">
-        <v>0</v>
-      </c>
-      <c r="AA104">
-        <v>0</v>
+      <c r="AC104">
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9756,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7004655</v>
+        <v>7004654</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9765,64 +9780,257 @@
         <v>28</v>
       </c>
       <c r="E105" s="2">
-        <v>45382.64583333334</v>
+        <v>45380.64583333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105" t="s">
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="N105">
+        <v>2.7</v>
+      </c>
+      <c r="O105">
+        <v>3.5</v>
+      </c>
+      <c r="P105">
         <v>2.25</v>
       </c>
-      <c r="O105">
-        <v>3.75</v>
-      </c>
-      <c r="P105">
-        <v>2.6</v>
-      </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
+        <v>1.975</v>
+      </c>
+      <c r="T105">
+        <v>3</v>
+      </c>
+      <c r="U105">
+        <v>1.925</v>
+      </c>
+      <c r="V105">
+        <v>1.875</v>
+      </c>
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>1.25</v>
+      </c>
+      <c r="Z105">
+        <v>-1</v>
+      </c>
+      <c r="AA105">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>7004656</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45381.64583333334</v>
+      </c>
+      <c r="F106" t="s">
+        <v>30</v>
+      </c>
+      <c r="G106" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>43</v>
+      </c>
+      <c r="K106">
+        <v>2.55</v>
+      </c>
+      <c r="L106">
+        <v>3.6</v>
+      </c>
+      <c r="M106">
+        <v>2.3</v>
+      </c>
+      <c r="N106">
+        <v>2.4</v>
+      </c>
+      <c r="O106">
+        <v>3.6</v>
+      </c>
+      <c r="P106">
+        <v>2.375</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>1.95</v>
+      </c>
+      <c r="S106">
+        <v>1.85</v>
+      </c>
+      <c r="T106">
+        <v>3.25</v>
+      </c>
+      <c r="U106">
         <v>1.775</v>
       </c>
-      <c r="T105">
-        <v>3.25</v>
-      </c>
-      <c r="U105">
-        <v>1.8</v>
-      </c>
-      <c r="V105">
-        <v>2</v>
-      </c>
-      <c r="W105">
-        <v>0</v>
-      </c>
-      <c r="X105">
-        <v>0</v>
-      </c>
-      <c r="Y105">
-        <v>0</v>
-      </c>
-      <c r="Z105">
-        <v>0</v>
-      </c>
-      <c r="AA105">
-        <v>0</v>
+      <c r="V106">
+        <v>1.925</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
+        <v>1.375</v>
+      </c>
+      <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>7004653</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45381.64583333334</v>
+      </c>
+      <c r="F107" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>5</v>
+      </c>
+      <c r="J107" t="s">
+        <v>43</v>
+      </c>
+      <c r="K107">
+        <v>3.5</v>
+      </c>
+      <c r="L107">
+        <v>3.6</v>
+      </c>
+      <c r="M107">
+        <v>1.85</v>
+      </c>
+      <c r="N107">
+        <v>3.4</v>
+      </c>
+      <c r="O107">
+        <v>3.6</v>
+      </c>
+      <c r="P107">
+        <v>1.85</v>
+      </c>
+      <c r="Q107">
+        <v>0.5</v>
+      </c>
+      <c r="R107">
+        <v>1.9</v>
+      </c>
+      <c r="S107">
+        <v>1.9</v>
+      </c>
+      <c r="T107">
+        <v>3</v>
+      </c>
+      <c r="U107">
+        <v>1.925</v>
+      </c>
+      <c r="V107">
+        <v>1.875</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB107">
+        <v>0.925</v>
+      </c>
+      <c r="AC107">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC107"/>
+  <dimension ref="A1:AC111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7004588</v>
+        <v>7004589</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,73 +1773,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N15">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X15">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7004589</v>
+        <v>7004588</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,73 +1862,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16">
+        <v>2.9</v>
+      </c>
+      <c r="L16">
+        <v>3.3</v>
+      </c>
+      <c r="M16">
+        <v>2.25</v>
+      </c>
+      <c r="N16">
+        <v>3.75</v>
+      </c>
+      <c r="O16">
+        <v>3.4</v>
+      </c>
+      <c r="P16">
+        <v>1.909</v>
+      </c>
+      <c r="Q16">
+        <v>0.5</v>
+      </c>
+      <c r="R16">
+        <v>1.85</v>
+      </c>
+      <c r="S16">
+        <v>1.95</v>
+      </c>
+      <c r="T16">
+        <v>2.5</v>
+      </c>
+      <c r="U16">
+        <v>1.85</v>
+      </c>
+      <c r="V16">
+        <v>1.95</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
         <v>2.4</v>
       </c>
-      <c r="L16">
-        <v>3.6</v>
-      </c>
-      <c r="M16">
-        <v>2.375</v>
-      </c>
-      <c r="N16">
-        <v>2.5</v>
-      </c>
-      <c r="O16">
-        <v>3.5</v>
-      </c>
-      <c r="P16">
-        <v>2.3</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>1.975</v>
-      </c>
-      <c r="S16">
-        <v>1.825</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
-      <c r="V16">
-        <v>1.8</v>
-      </c>
-      <c r="W16">
-        <v>1.5</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7004591</v>
+        <v>7003585</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>1.615</v>
+      </c>
+      <c r="L18">
         <v>4</v>
       </c>
-      <c r="J18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>4.5</v>
-      </c>
-      <c r="L18">
+      <c r="M18">
+        <v>4.333</v>
+      </c>
+      <c r="N18">
+        <v>1.533</v>
+      </c>
+      <c r="O18">
         <v>4.2</v>
       </c>
-      <c r="M18">
-        <v>1.55</v>
-      </c>
-      <c r="N18">
-        <v>3.3</v>
-      </c>
-      <c r="O18">
-        <v>3.8</v>
-      </c>
       <c r="P18">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7003585</v>
+        <v>7004591</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M19">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N19">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O19">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7003478</v>
+        <v>7003586</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="I21">
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>4.333</v>
+      </c>
+      <c r="M21">
+        <v>1.55</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>4.2</v>
+      </c>
+      <c r="P21">
+        <v>1.571</v>
+      </c>
+      <c r="Q21">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>3.6</v>
-      </c>
-      <c r="M21">
-        <v>3.25</v>
-      </c>
-      <c r="N21">
+      <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
         <v>1.95</v>
-      </c>
-      <c r="O21">
-        <v>3.6</v>
-      </c>
-      <c r="P21">
-        <v>3.4</v>
-      </c>
-      <c r="Q21">
-        <v>-0.5</v>
-      </c>
-      <c r="R21">
-        <v>1.975</v>
-      </c>
-      <c r="S21">
-        <v>1.825</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>0.571</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>0.95</v>
       </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7003586</v>
+        <v>7003478</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,73 +2396,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7004606</v>
+        <v>7003589</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -3746,40 +3746,40 @@
         <v>43</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L37">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M37">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="N37">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O37">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P37">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3788,19 +3788,19 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7003589</v>
+        <v>7004606</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,13 +3820,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -3835,40 +3835,40 @@
         <v>43</v>
       </c>
       <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>5.5</v>
+      </c>
+      <c r="M38">
+        <v>1.3</v>
+      </c>
+      <c r="N38">
         <v>8</v>
       </c>
-      <c r="L38">
-        <v>6.5</v>
-      </c>
-      <c r="M38">
-        <v>1.2</v>
-      </c>
-      <c r="N38">
-        <v>8.5</v>
-      </c>
       <c r="O38">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P38">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R38">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3877,19 +3877,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,73 +4176,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M42">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N42">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P42">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U42">
+        <v>1.95</v>
+      </c>
+      <c r="V42">
         <v>1.85</v>
       </c>
-      <c r="V42">
-        <v>1.95</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,73 +4265,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K43">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N43">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O43">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q43">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U43">
+        <v>1.85</v>
+      </c>
+      <c r="V43">
         <v>1.95</v>
       </c>
-      <c r="V43">
-        <v>1.85</v>
-      </c>
       <c r="W43">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7004615</v>
+        <v>7004613</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,40 +4888,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N50">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P50">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
         <v>1.825</v>
@@ -4930,7 +4930,7 @@
         <v>1.975</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U50">
         <v>1.975</v>
@@ -4939,25 +4939,25 @@
         <v>1.825</v>
       </c>
       <c r="W50">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>0.825</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
-      <c r="AB50">
-        <v>0.4875</v>
-      </c>
-      <c r="AC50">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7004613</v>
+        <v>7004615</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,40 +4977,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K51">
+        <v>2.1</v>
+      </c>
+      <c r="L51">
         <v>3.6</v>
       </c>
-      <c r="L51">
-        <v>4</v>
-      </c>
       <c r="M51">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N51">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>1.825</v>
@@ -5019,7 +5019,7 @@
         <v>1.975</v>
       </c>
       <c r="T51">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
         <v>1.975</v>
@@ -5028,25 +5028,25 @@
         <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7003592</v>
+        <v>7004616</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L54">
+        <v>6.5</v>
+      </c>
+      <c r="M54">
+        <v>6.5</v>
+      </c>
+      <c r="N54">
+        <v>1.363</v>
+      </c>
+      <c r="O54">
         <v>5.75</v>
       </c>
-      <c r="M54">
-        <v>8</v>
-      </c>
-      <c r="N54">
-        <v>1.25</v>
-      </c>
-      <c r="O54">
-        <v>6</v>
-      </c>
       <c r="P54">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q54">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7004616</v>
+        <v>7003592</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L55">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="M55">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N55">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O55">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P55">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T55">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7004618</v>
+        <v>7004619</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,31 +5422,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M56">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N56">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O56">
         <v>3.8</v>
@@ -5458,40 +5458,40 @@
         <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X56">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7004619</v>
+        <v>7004618</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,31 +5511,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K57">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L57">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N57">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O57">
         <v>3.8</v>
@@ -5547,40 +5547,40 @@
         <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7003485</v>
+        <v>7004620</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L60">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O60">
+        <v>3.6</v>
+      </c>
+      <c r="P60">
         <v>3.75</v>
       </c>
-      <c r="P60">
-        <v>4.75</v>
-      </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7004620</v>
+        <v>7003485</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,76 +5867,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L61">
+        <v>4.2</v>
+      </c>
+      <c r="M61">
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <v>1.615</v>
+      </c>
+      <c r="O61">
         <v>3.75</v>
       </c>
-      <c r="M61">
-        <v>4</v>
-      </c>
-      <c r="N61">
-        <v>1.833</v>
-      </c>
-      <c r="O61">
-        <v>3.6</v>
-      </c>
       <c r="P61">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA61">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC61">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7004622</v>
+        <v>7004621</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,10 +5956,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5980,38 +5980,38 @@
         <v>5</v>
       </c>
       <c r="N62">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O62">
+        <v>5</v>
+      </c>
+      <c r="P62">
+        <v>6</v>
+      </c>
+      <c r="Q62">
+        <v>-1.5</v>
+      </c>
+      <c r="R62">
+        <v>1.975</v>
+      </c>
+      <c r="S62">
+        <v>1.825</v>
+      </c>
+      <c r="T62">
+        <v>3.75</v>
+      </c>
+      <c r="U62">
+        <v>1.975</v>
+      </c>
+      <c r="V62">
+        <v>1.825</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
         <v>4</v>
       </c>
-      <c r="P62">
-        <v>3.6</v>
-      </c>
-      <c r="Q62">
-        <v>-0.5</v>
-      </c>
-      <c r="R62">
-        <v>1.8</v>
-      </c>
-      <c r="S62">
-        <v>2</v>
-      </c>
-      <c r="T62">
-        <v>3</v>
-      </c>
-      <c r="U62">
-        <v>1.8</v>
-      </c>
-      <c r="V62">
-        <v>2</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>3</v>
-      </c>
       <c r="Y62">
         <v>-1</v>
       </c>
@@ -6019,13 +6019,13 @@
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7004621</v>
+        <v>7004622</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,10 +6045,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6069,37 +6069,37 @@
         <v>5</v>
       </c>
       <c r="N63">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q63">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y63">
         <v>-1</v>
@@ -6108,13 +6108,13 @@
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7609336</v>
+        <v>7004626</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,40 +6490,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M68">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N68">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O68">
         <v>3.75</v>
       </c>
       <c r="P68">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q68">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
         <v>1.925</v>
@@ -6541,25 +6541,25 @@
         <v>1.975</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA68">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7004626</v>
+        <v>7609336</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L69">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="N69">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O69">
         <v>3.75</v>
       </c>
       <c r="P69">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6630,25 +6630,25 @@
         <v>1.975</v>
       </c>
       <c r="W69">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7840800</v>
+        <v>7840684</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,61 +7380,61 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K78">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N78">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O78">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q78">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7443,13 +7443,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7840684</v>
+        <v>7840800</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,61 +7469,61 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M79">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N79">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P79">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R79">
+        <v>1.975</v>
+      </c>
+      <c r="S79">
+        <v>1.825</v>
+      </c>
+      <c r="T79">
+        <v>3.25</v>
+      </c>
+      <c r="U79">
+        <v>1.95</v>
+      </c>
+      <c r="V79">
         <v>1.85</v>
       </c>
-      <c r="S79">
-        <v>1.95</v>
-      </c>
-      <c r="T79">
-        <v>3</v>
-      </c>
-      <c r="U79">
-        <v>1.8</v>
-      </c>
-      <c r="V79">
-        <v>2</v>
-      </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X79">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
@@ -7532,13 +7532,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7840802</v>
+        <v>7840805</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,10 +7647,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7662,40 +7662,40 @@
         <v>43</v>
       </c>
       <c r="K81">
-        <v>2.4</v>
+        <v>1.062</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M81">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="N81">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P81">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R81">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
         <v>3.25</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7704,19 +7704,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.375</v>
+        <v>6</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
         <v>-0.5</v>
       </c>
       <c r="AC81">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7840805</v>
+        <v>7840802</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,10 +7736,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7751,40 +7751,40 @@
         <v>43</v>
       </c>
       <c r="K82">
-        <v>1.062</v>
+        <v>2.4</v>
       </c>
       <c r="L82">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M82">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="N82">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7793,19 +7793,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>6</v>
+        <v>1.375</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB82">
         <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7840803</v>
+        <v>7840685</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45352.5</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="M83">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="N83">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="O83">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q83">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
         <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7840685</v>
+        <v>7840803</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45352.5</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="M84">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N84">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7840807</v>
+        <v>7840806</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>3.6</v>
+      </c>
+      <c r="M87">
+        <v>3.2</v>
+      </c>
+      <c r="N87">
+        <v>2.2</v>
+      </c>
+      <c r="O87">
+        <v>3.5</v>
+      </c>
+      <c r="P87">
         <v>2.875</v>
       </c>
-      <c r="L87">
-        <v>4</v>
-      </c>
-      <c r="M87">
-        <v>2</v>
-      </c>
-      <c r="N87">
+      <c r="Q87">
+        <v>-0.25</v>
+      </c>
+      <c r="R87">
+        <v>1.95</v>
+      </c>
+      <c r="S87">
         <v>1.85</v>
       </c>
-      <c r="O87">
-        <v>3.8</v>
-      </c>
-      <c r="P87">
-        <v>3.4</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
+      <c r="T87">
+        <v>2.75</v>
+      </c>
+      <c r="U87">
+        <v>1.825</v>
+      </c>
+      <c r="V87">
+        <v>1.975</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
         <v>1.875</v>
       </c>
-      <c r="S87">
-        <v>1.925</v>
-      </c>
-      <c r="T87">
-        <v>3.25</v>
-      </c>
-      <c r="U87">
-        <v>1.95</v>
-      </c>
-      <c r="V87">
-        <v>1.75</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>2.8</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7840806</v>
+        <v>7840807</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>42</v>
+      </c>
+      <c r="K88">
+        <v>2.875</v>
+      </c>
+      <c r="L88">
         <v>4</v>
       </c>
-      <c r="J88" t="s">
-        <v>43</v>
-      </c>
-      <c r="K88">
-        <v>2</v>
-      </c>
-      <c r="L88">
-        <v>3.6</v>
-      </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
+        <v>1.925</v>
+      </c>
+      <c r="T88">
+        <v>3.25</v>
+      </c>
+      <c r="U88">
         <v>1.95</v>
       </c>
-      <c r="S88">
-        <v>1.85</v>
-      </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7840687</v>
+        <v>7840811</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45361.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="L92">
+        <v>4.2</v>
+      </c>
+      <c r="M92">
+        <v>1.55</v>
+      </c>
+      <c r="N92">
         <v>3.6</v>
       </c>
-      <c r="M92">
-        <v>2.25</v>
-      </c>
-      <c r="N92">
+      <c r="O92">
+        <v>4</v>
+      </c>
+      <c r="P92">
+        <v>1.75</v>
+      </c>
+      <c r="Q92">
+        <v>0.75</v>
+      </c>
+      <c r="R92">
+        <v>1.85</v>
+      </c>
+      <c r="S92">
+        <v>1.95</v>
+      </c>
+      <c r="T92">
+        <v>3.5</v>
+      </c>
+      <c r="U92">
+        <v>1.975</v>
+      </c>
+      <c r="V92">
+        <v>1.825</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
         <v>3</v>
       </c>
-      <c r="O92">
-        <v>3.6</v>
-      </c>
-      <c r="P92">
-        <v>2.05</v>
-      </c>
-      <c r="Q92">
-        <v>0.25</v>
-      </c>
-      <c r="R92">
-        <v>1.95</v>
-      </c>
-      <c r="S92">
-        <v>1.75</v>
-      </c>
-      <c r="T92">
-        <v>3.25</v>
-      </c>
-      <c r="U92">
-        <v>1.95</v>
-      </c>
-      <c r="V92">
-        <v>1.75</v>
-      </c>
-      <c r="W92">
-        <v>2</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7840811</v>
+        <v>7840687</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45361.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K93">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="L93">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93">
         <v>3.6</v>
       </c>
-      <c r="O93">
-        <v>4</v>
-      </c>
       <c r="P93">
+        <v>2.05</v>
+      </c>
+      <c r="Q93">
+        <v>0.25</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
         <v>1.75</v>
       </c>
-      <c r="Q93">
-        <v>0.75</v>
-      </c>
-      <c r="R93">
-        <v>1.85</v>
-      </c>
-      <c r="S93">
+      <c r="T93">
+        <v>3.25</v>
+      </c>
+      <c r="U93">
         <v>1.95</v>
       </c>
-      <c r="T93">
-        <v>3.5</v>
-      </c>
-      <c r="U93">
-        <v>1.975</v>
-      </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X93">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7936026</v>
+        <v>7936025</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45362.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K94">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="L94">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M94">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="N94">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z94">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7936025</v>
+        <v>7936026</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45362.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
         <v>0</v>
       </c>
-      <c r="I95">
-        <v>2</v>
-      </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="L95">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="N95">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="Q95">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7840688</v>
+        <v>7840816</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,58 +9160,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
         <v>41</v>
       </c>
       <c r="K98">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L98">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="M98">
+        <v>11</v>
+      </c>
+      <c r="N98">
+        <v>1.285</v>
+      </c>
+      <c r="O98">
         <v>5.5</v>
       </c>
-      <c r="N98">
-        <v>1.615</v>
-      </c>
-      <c r="O98">
-        <v>4.2</v>
-      </c>
       <c r="P98">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U98">
         <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W98">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9220,10 +9220,10 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
         <v>0.925</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7840816</v>
+        <v>7840688</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,58 +9249,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>41</v>
       </c>
       <c r="K99">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L99">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="M99">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="N99">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O99">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="Q99">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T99">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
         <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9309,10 +9309,10 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>0.925</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7004650</v>
+        <v>7003492</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45367.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M100">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="N100">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O100">
         <v>4</v>
       </c>
       <c r="P100">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
+        <v>3.25</v>
+      </c>
+      <c r="U100">
+        <v>1.775</v>
+      </c>
+      <c r="V100">
+        <v>1.925</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
         <v>3</v>
       </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>1.95</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
       <c r="Y100">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7003492</v>
+        <v>7004650</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45367.64583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L101">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="N101">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O101">
         <v>4</v>
       </c>
       <c r="P101">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q101">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R101">
+        <v>1.825</v>
+      </c>
+      <c r="S101">
+        <v>1.975</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>1.85</v>
+      </c>
+      <c r="V101">
         <v>1.95</v>
       </c>
-      <c r="S101">
-        <v>1.85</v>
-      </c>
-      <c r="T101">
-        <v>3.25</v>
-      </c>
-      <c r="U101">
-        <v>1.775</v>
-      </c>
-      <c r="V101">
-        <v>1.925</v>
-      </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
         <v>0.95</v>
-      </c>
-      <c r="AA101">
-        <v>-1</v>
-      </c>
-      <c r="AB101">
-        <v>-1</v>
-      </c>
-      <c r="AC101">
-        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7840817</v>
+        <v>7840818</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,76 +9516,76 @@
         <v>45368.64583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
+        <v>2.5</v>
+      </c>
+      <c r="N102">
+        <v>2.3</v>
+      </c>
+      <c r="O102">
+        <v>3.5</v>
+      </c>
+      <c r="P102">
+        <v>2.7</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
         <v>1.75</v>
       </c>
-      <c r="N102">
+      <c r="S102">
+        <v>2.05</v>
+      </c>
+      <c r="T102">
         <v>3.5</v>
       </c>
-      <c r="O102">
-        <v>3.75</v>
-      </c>
-      <c r="P102">
-        <v>1.833</v>
-      </c>
-      <c r="Q102">
-        <v>0.5</v>
-      </c>
-      <c r="R102">
-        <v>1.975</v>
-      </c>
-      <c r="S102">
-        <v>1.825</v>
-      </c>
-      <c r="T102">
-        <v>3</v>
-      </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7840818</v>
+        <v>7840817</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45368.64583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>43</v>
+      </c>
+      <c r="K103">
+        <v>4</v>
+      </c>
+      <c r="L103">
+        <v>3.6</v>
+      </c>
+      <c r="M103">
+        <v>1.75</v>
+      </c>
+      <c r="N103">
+        <v>3.5</v>
+      </c>
+      <c r="O103">
+        <v>3.75</v>
+      </c>
+      <c r="P103">
+        <v>1.833</v>
+      </c>
+      <c r="Q103">
+        <v>0.5</v>
+      </c>
+      <c r="R103">
+        <v>1.975</v>
+      </c>
+      <c r="S103">
+        <v>1.825</v>
+      </c>
+      <c r="T103">
         <v>3</v>
       </c>
-      <c r="I103">
+      <c r="U103">
+        <v>1.8</v>
+      </c>
+      <c r="V103">
+        <v>2</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>0.833</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
+        <v>0.825</v>
+      </c>
+      <c r="AB103">
         <v>0</v>
       </c>
-      <c r="J103" t="s">
-        <v>41</v>
-      </c>
-      <c r="K103">
-        <v>2.5</v>
-      </c>
-      <c r="L103">
-        <v>3.4</v>
-      </c>
-      <c r="M103">
-        <v>2.5</v>
-      </c>
-      <c r="N103">
-        <v>2.3</v>
-      </c>
-      <c r="O103">
-        <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>2.7</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>1.75</v>
-      </c>
-      <c r="S103">
-        <v>2.05</v>
-      </c>
-      <c r="T103">
-        <v>3.5</v>
-      </c>
-      <c r="U103">
-        <v>1.925</v>
-      </c>
-      <c r="V103">
-        <v>1.875</v>
-      </c>
-      <c r="W103">
-        <v>1.3</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>0.75</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
       <c r="AC103">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10031,6 +10031,332 @@
       </c>
       <c r="AC107">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>7004655</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45382.64583333334</v>
+      </c>
+      <c r="F108" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" t="s">
+        <v>35</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>41</v>
+      </c>
+      <c r="K108">
+        <v>2.1</v>
+      </c>
+      <c r="L108">
+        <v>3.75</v>
+      </c>
+      <c r="M108">
+        <v>2.8</v>
+      </c>
+      <c r="N108">
+        <v>2.25</v>
+      </c>
+      <c r="O108">
+        <v>3.75</v>
+      </c>
+      <c r="P108">
+        <v>2.6</v>
+      </c>
+      <c r="Q108">
+        <v>-0.25</v>
+      </c>
+      <c r="R108">
+        <v>1.975</v>
+      </c>
+      <c r="S108">
+        <v>1.825</v>
+      </c>
+      <c r="T108">
+        <v>3.5</v>
+      </c>
+      <c r="U108">
+        <v>1.925</v>
+      </c>
+      <c r="V108">
+        <v>1.775</v>
+      </c>
+      <c r="W108">
+        <v>1.25</v>
+      </c>
+      <c r="X108">
+        <v>-1</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>7882227</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45382.64583333334</v>
+      </c>
+      <c r="F109" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" t="s">
+        <v>38</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>43</v>
+      </c>
+      <c r="K109">
+        <v>10</v>
+      </c>
+      <c r="L109">
+        <v>6.5</v>
+      </c>
+      <c r="M109">
+        <v>1.2</v>
+      </c>
+      <c r="N109">
+        <v>11</v>
+      </c>
+      <c r="O109">
+        <v>7.5</v>
+      </c>
+      <c r="P109">
+        <v>1.142</v>
+      </c>
+      <c r="Q109">
+        <v>2.25</v>
+      </c>
+      <c r="R109">
+        <v>1.95</v>
+      </c>
+      <c r="S109">
+        <v>1.85</v>
+      </c>
+      <c r="T109">
+        <v>3.75</v>
+      </c>
+      <c r="U109">
+        <v>1.825</v>
+      </c>
+      <c r="V109">
+        <v>1.975</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="Z109">
+        <v>0.95</v>
+      </c>
+      <c r="AA109">
+        <v>-1</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>7004660</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45387.64583333334</v>
+      </c>
+      <c r="F110" t="s">
+        <v>29</v>
+      </c>
+      <c r="G110" t="s">
+        <v>30</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>3.75</v>
+      </c>
+      <c r="M110">
+        <v>3.2</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110">
+        <v>3.75</v>
+      </c>
+      <c r="P110">
+        <v>3.2</v>
+      </c>
+      <c r="Q110">
+        <v>-0.25</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
+        <v>2</v>
+      </c>
+      <c r="T110">
+        <v>3</v>
+      </c>
+      <c r="U110">
+        <v>1.825</v>
+      </c>
+      <c r="V110">
+        <v>1.975</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>8022181</v>
+      </c>
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45387.64583333334</v>
+      </c>
+      <c r="F111" t="s">
+        <v>35</v>
+      </c>
+      <c r="G111" t="s">
+        <v>38</v>
+      </c>
+      <c r="K111">
+        <v>4.5</v>
+      </c>
+      <c r="L111">
+        <v>4.333</v>
+      </c>
+      <c r="M111">
+        <v>1.6</v>
+      </c>
+      <c r="N111">
+        <v>4.5</v>
+      </c>
+      <c r="O111">
+        <v>4.333</v>
+      </c>
+      <c r="P111">
+        <v>1.6</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>1.85</v>
+      </c>
+      <c r="S111">
+        <v>1.95</v>
+      </c>
+      <c r="T111">
+        <v>3.5</v>
+      </c>
+      <c r="U111">
+        <v>1.85</v>
+      </c>
+      <c r="V111">
+        <v>1.95</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7003585</v>
+        <v>7004591</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M18">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N18">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O18">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7004591</v>
+        <v>7003585</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>1.615</v>
+      </c>
+      <c r="L19">
         <v>4</v>
       </c>
-      <c r="J19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>4.5</v>
-      </c>
-      <c r="L19">
+      <c r="M19">
+        <v>4.333</v>
+      </c>
+      <c r="N19">
+        <v>1.533</v>
+      </c>
+      <c r="O19">
         <v>4.2</v>
       </c>
-      <c r="M19">
-        <v>1.55</v>
-      </c>
-      <c r="N19">
-        <v>3.3</v>
-      </c>
-      <c r="O19">
-        <v>3.8</v>
-      </c>
       <c r="P19">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7003586</v>
+        <v>7003478</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7003478</v>
+        <v>7003586</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,73 +2396,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>3</v>
       </c>
-      <c r="I22">
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>4.333</v>
+      </c>
+      <c r="M22">
+        <v>1.55</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>4.2</v>
+      </c>
+      <c r="P22">
+        <v>1.571</v>
+      </c>
+      <c r="Q22">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>3.6</v>
-      </c>
-      <c r="M22">
-        <v>3.25</v>
-      </c>
-      <c r="N22">
+      <c r="R22">
+        <v>1.85</v>
+      </c>
+      <c r="S22">
         <v>1.95</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
-      <c r="P22">
-        <v>3.4</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.975</v>
-      </c>
-      <c r="S22">
-        <v>1.825</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>0.571</v>
+      </c>
+      <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
         <v>0.95</v>
       </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N27">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N28">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R28">
+        <v>1.775</v>
+      </c>
+      <c r="S28">
+        <v>2.025</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
+        <v>1.975</v>
+      </c>
+      <c r="V28">
         <v>1.825</v>
       </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="U28">
-        <v>2</v>
-      </c>
-      <c r="V28">
-        <v>1.8</v>
-      </c>
       <c r="W28">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z28">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7004599</v>
+        <v>7004598</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,73 +3019,73 @@
         <v>45198.5</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L29">
         <v>3.5</v>
       </c>
       <c r="M29">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N29">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O29">
         <v>3.4</v>
       </c>
       <c r="P29">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q29">
         <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
+        <v>1.85</v>
+      </c>
+      <c r="V29">
+        <v>1.95</v>
+      </c>
+      <c r="W29">
         <v>1.8</v>
       </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7004598</v>
+        <v>7004599</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,73 +3108,73 @@
         <v>45198.5</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
         <v>3</v>
       </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N30">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O30">
         <v>3.4</v>
       </c>
       <c r="P30">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q30">
         <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7003589</v>
+        <v>7004606</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -3746,40 +3746,40 @@
         <v>43</v>
       </c>
       <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>5.5</v>
+      </c>
+      <c r="M37">
+        <v>1.3</v>
+      </c>
+      <c r="N37">
         <v>8</v>
       </c>
-      <c r="L37">
-        <v>6.5</v>
-      </c>
-      <c r="M37">
-        <v>1.2</v>
-      </c>
-      <c r="N37">
-        <v>8.5</v>
-      </c>
       <c r="O37">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P37">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3788,19 +3788,19 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7004606</v>
+        <v>7003589</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,13 +3820,13 @@
         <v>45227.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -3835,40 +3835,40 @@
         <v>43</v>
       </c>
       <c r="K38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L38">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M38">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="N38">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O38">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P38">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3877,19 +3877,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7004607</v>
+        <v>7004604</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,55 +3998,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>41</v>
       </c>
       <c r="K40">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N40">
         <v>1.75</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
+        <v>1.75</v>
+      </c>
+      <c r="S40">
         <v>1.95</v>
-      </c>
-      <c r="S40">
-        <v>1.85</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
         <v>0.75</v>
@@ -4058,16 +4058,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7004604</v>
+        <v>7004607</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,55 +4087,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>41</v>
       </c>
       <c r="K41">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N41">
         <v>1.75</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W41">
         <v>0.75</v>
@@ -4147,16 +4147,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB41">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7004616</v>
+        <v>7003592</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L54">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="M54">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N54">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O54">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P54">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q54">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7003592</v>
+        <v>7004616</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K55">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L55">
+        <v>6.5</v>
+      </c>
+      <c r="M55">
+        <v>6.5</v>
+      </c>
+      <c r="N55">
+        <v>1.363</v>
+      </c>
+      <c r="O55">
         <v>5.75</v>
       </c>
-      <c r="M55">
-        <v>8</v>
-      </c>
-      <c r="N55">
-        <v>1.25</v>
-      </c>
-      <c r="O55">
-        <v>6</v>
-      </c>
       <c r="P55">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q55">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7004619</v>
+        <v>7004618</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,31 +5422,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L56">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N56">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O56">
         <v>3.8</v>
@@ -5458,40 +5458,40 @@
         <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7004618</v>
+        <v>7004619</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,31 +5511,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K57">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M57">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N57">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O57">
         <v>3.8</v>
@@ -5547,40 +5547,40 @@
         <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X57">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7004626</v>
+        <v>7609336</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,40 +6490,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L68">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="N68">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O68">
         <v>3.75</v>
       </c>
       <c r="P68">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R68">
         <v>1.925</v>
@@ -6541,25 +6541,25 @@
         <v>1.975</v>
       </c>
       <c r="W68">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7609336</v>
+        <v>7004626</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M69">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O69">
         <v>3.75</v>
       </c>
       <c r="P69">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q69">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6630,25 +6630,25 @@
         <v>1.975</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7840684</v>
+        <v>7840800</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,61 +7380,61 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K78">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M78">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P78">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R78">
+        <v>1.975</v>
+      </c>
+      <c r="S78">
+        <v>1.825</v>
+      </c>
+      <c r="T78">
+        <v>3.25</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="S78">
-        <v>1.95</v>
-      </c>
-      <c r="T78">
-        <v>3</v>
-      </c>
-      <c r="U78">
-        <v>1.8</v>
-      </c>
-      <c r="V78">
-        <v>2</v>
-      </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X78">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7443,13 +7443,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7840800</v>
+        <v>7840684</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,61 +7469,61 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K79">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N79">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O79">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q79">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y79">
         <v>-1</v>
@@ -7532,13 +7532,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
       <c r="AB79">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7840685</v>
+        <v>7840803</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45352.5</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="L83">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="M83">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N83">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
         <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7840803</v>
+        <v>7840685</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45352.5</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="N84">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="O84">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7840811</v>
+        <v>7840687</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45361.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K92">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="L92">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92">
         <v>3.6</v>
       </c>
-      <c r="O92">
-        <v>4</v>
-      </c>
       <c r="P92">
+        <v>2.05</v>
+      </c>
+      <c r="Q92">
+        <v>0.25</v>
+      </c>
+      <c r="R92">
+        <v>1.95</v>
+      </c>
+      <c r="S92">
         <v>1.75</v>
       </c>
-      <c r="Q92">
-        <v>0.75</v>
-      </c>
-      <c r="R92">
-        <v>1.85</v>
-      </c>
-      <c r="S92">
+      <c r="T92">
+        <v>3.25</v>
+      </c>
+      <c r="U92">
         <v>1.95</v>
       </c>
-      <c r="T92">
-        <v>3.5</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X92">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7840687</v>
+        <v>7840811</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45361.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="L93">
+        <v>4.2</v>
+      </c>
+      <c r="M93">
+        <v>1.55</v>
+      </c>
+      <c r="N93">
         <v>3.6</v>
       </c>
-      <c r="M93">
-        <v>2.25</v>
-      </c>
-      <c r="N93">
+      <c r="O93">
+        <v>4</v>
+      </c>
+      <c r="P93">
+        <v>1.75</v>
+      </c>
+      <c r="Q93">
+        <v>0.75</v>
+      </c>
+      <c r="R93">
+        <v>1.85</v>
+      </c>
+      <c r="S93">
+        <v>1.95</v>
+      </c>
+      <c r="T93">
+        <v>3.5</v>
+      </c>
+      <c r="U93">
+        <v>1.975</v>
+      </c>
+      <c r="V93">
+        <v>1.825</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
         <v>3</v>
       </c>
-      <c r="O93">
-        <v>3.6</v>
-      </c>
-      <c r="P93">
-        <v>2.05</v>
-      </c>
-      <c r="Q93">
-        <v>0.25</v>
-      </c>
-      <c r="R93">
-        <v>1.95</v>
-      </c>
-      <c r="S93">
-        <v>1.75</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
-      </c>
-      <c r="U93">
-        <v>1.95</v>
-      </c>
-      <c r="V93">
-        <v>1.75</v>
-      </c>
-      <c r="W93">
-        <v>2</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7936025</v>
+        <v>7936026</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45362.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
         <v>0</v>
       </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K94">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="L94">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M94">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="N94">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="Q94">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7936026</v>
+        <v>7936025</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45362.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K95">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="L95">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M95">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="N95">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7840815</v>
+        <v>7840814</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,73 +8982,73 @@
         <v>45363.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="L96">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N96">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P96">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T96">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
+        <v>1.825</v>
+      </c>
+      <c r="V96">
         <v>1.975</v>
       </c>
-      <c r="V96">
-        <v>1.825</v>
-      </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7840814</v>
+        <v>7840815</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45363.64583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97" t="s">
+        <v>42</v>
+      </c>
+      <c r="K97">
+        <v>1.533</v>
+      </c>
+      <c r="L97">
+        <v>4.2</v>
+      </c>
+      <c r="M97">
+        <v>5.25</v>
+      </c>
+      <c r="N97">
+        <v>1.7</v>
+      </c>
+      <c r="O97">
+        <v>4</v>
+      </c>
+      <c r="P97">
+        <v>3.8</v>
+      </c>
+      <c r="Q97">
+        <v>-0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.925</v>
+      </c>
+      <c r="S97">
+        <v>1.875</v>
+      </c>
+      <c r="T97">
+        <v>3.5</v>
+      </c>
+      <c r="U97">
+        <v>1.975</v>
+      </c>
+      <c r="V97">
+        <v>1.825</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
         <v>3</v>
       </c>
-      <c r="J97" t="s">
-        <v>43</v>
-      </c>
-      <c r="K97">
-        <v>1.8</v>
-      </c>
-      <c r="L97">
-        <v>3.75</v>
-      </c>
-      <c r="M97">
-        <v>3.8</v>
-      </c>
-      <c r="N97">
-        <v>1.909</v>
-      </c>
-      <c r="O97">
-        <v>3.75</v>
-      </c>
-      <c r="P97">
-        <v>3.3</v>
-      </c>
-      <c r="Q97">
-        <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.9</v>
-      </c>
-      <c r="S97">
-        <v>1.9</v>
-      </c>
-      <c r="T97">
-        <v>3.25</v>
-      </c>
-      <c r="U97">
-        <v>1.825</v>
-      </c>
-      <c r="V97">
-        <v>1.975</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
       <c r="Y97">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB97">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7840816</v>
+        <v>7840688</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,58 +9160,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>41</v>
       </c>
       <c r="K98">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L98">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="M98">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="N98">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O98">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="Q98">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
         <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9220,10 +9220,10 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>0.925</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7840688</v>
+        <v>7840816</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,58 +9249,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>41</v>
       </c>
       <c r="K99">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L99">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="M99">
+        <v>11</v>
+      </c>
+      <c r="N99">
+        <v>1.285</v>
+      </c>
+      <c r="O99">
         <v>5.5</v>
       </c>
-      <c r="N99">
-        <v>1.615</v>
-      </c>
-      <c r="O99">
-        <v>4.2</v>
-      </c>
       <c r="P99">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U99">
         <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W99">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9309,10 +9309,10 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
         <v>0.925</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7003492</v>
+        <v>7004650</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45367.64583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L100">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O100">
         <v>4</v>
       </c>
       <c r="P100">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q100">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
+        <v>1.975</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.85</v>
+      </c>
+      <c r="V100">
         <v>1.95</v>
       </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>3.25</v>
-      </c>
-      <c r="U100">
-        <v>1.775</v>
-      </c>
-      <c r="V100">
-        <v>1.925</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.95</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
-      <c r="AC100">
-        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7004650</v>
+        <v>7003492</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,76 +9427,76 @@
         <v>45367.64583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K101">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M101">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="N101">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O101">
         <v>4</v>
       </c>
       <c r="P101">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
+        <v>3.25</v>
+      </c>
+      <c r="U101">
+        <v>1.775</v>
+      </c>
+      <c r="V101">
+        <v>1.925</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
         <v>3</v>
       </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>1.95</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
       <c r="Y101">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7840818</v>
+        <v>7840817</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,76 +9516,76 @@
         <v>45368.64583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102">
+        <v>4</v>
+      </c>
+      <c r="L102">
+        <v>3.6</v>
+      </c>
+      <c r="M102">
+        <v>1.75</v>
+      </c>
+      <c r="N102">
+        <v>3.5</v>
+      </c>
+      <c r="O102">
+        <v>3.75</v>
+      </c>
+      <c r="P102">
+        <v>1.833</v>
+      </c>
+      <c r="Q102">
+        <v>0.5</v>
+      </c>
+      <c r="R102">
+        <v>1.975</v>
+      </c>
+      <c r="S102">
+        <v>1.825</v>
+      </c>
+      <c r="T102">
         <v>3</v>
       </c>
-      <c r="I102">
+      <c r="U102">
+        <v>1.8</v>
+      </c>
+      <c r="V102">
+        <v>2</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
+        <v>0.833</v>
+      </c>
+      <c r="Z102">
+        <v>-1</v>
+      </c>
+      <c r="AA102">
+        <v>0.825</v>
+      </c>
+      <c r="AB102">
         <v>0</v>
       </c>
-      <c r="J102" t="s">
-        <v>41</v>
-      </c>
-      <c r="K102">
-        <v>2.5</v>
-      </c>
-      <c r="L102">
-        <v>3.4</v>
-      </c>
-      <c r="M102">
-        <v>2.5</v>
-      </c>
-      <c r="N102">
-        <v>2.3</v>
-      </c>
-      <c r="O102">
-        <v>3.5</v>
-      </c>
-      <c r="P102">
-        <v>2.7</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.75</v>
-      </c>
-      <c r="S102">
-        <v>2.05</v>
-      </c>
-      <c r="T102">
-        <v>3.5</v>
-      </c>
-      <c r="U102">
-        <v>1.925</v>
-      </c>
-      <c r="V102">
-        <v>1.875</v>
-      </c>
-      <c r="W102">
-        <v>1.3</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
-      <c r="Y102">
-        <v>-1</v>
-      </c>
-      <c r="Z102">
-        <v>0.75</v>
-      </c>
-      <c r="AA102">
-        <v>-1</v>
-      </c>
-      <c r="AB102">
-        <v>-1</v>
-      </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7840817</v>
+        <v>7840818</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45368.64583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
+        <v>2.5</v>
+      </c>
+      <c r="N103">
+        <v>2.3</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
+        <v>2.7</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
         <v>1.75</v>
       </c>
-      <c r="N103">
+      <c r="S103">
+        <v>2.05</v>
+      </c>
+      <c r="T103">
         <v>3.5</v>
       </c>
-      <c r="O103">
-        <v>3.75</v>
-      </c>
-      <c r="P103">
-        <v>1.833</v>
-      </c>
-      <c r="Q103">
-        <v>0.5</v>
-      </c>
-      <c r="R103">
-        <v>1.975</v>
-      </c>
-      <c r="S103">
-        <v>1.825</v>
-      </c>
-      <c r="T103">
-        <v>3</v>
-      </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7004656</v>
+        <v>7004653</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,55 +9872,55 @@
         <v>45381.64583333334</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J106" t="s">
         <v>43</v>
       </c>
       <c r="K106">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L106">
         <v>3.6</v>
       </c>
       <c r="M106">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="N106">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O106">
         <v>3.6</v>
       </c>
       <c r="P106">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U106">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9929,19 +9929,19 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7004653</v>
+        <v>7004656</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,56 +9961,56 @@
         <v>45381.64583333334</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
         <v>1</v>
-      </c>
-      <c r="I107">
-        <v>5</v>
       </c>
       <c r="J107" t="s">
         <v>43</v>
       </c>
       <c r="K107">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L107">
         <v>3.6</v>
       </c>
       <c r="M107">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="N107">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O107">
         <v>3.6</v>
       </c>
       <c r="P107">
+        <v>2.375</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
         <v>1.85</v>
       </c>
-      <c r="Q107">
-        <v>0.5</v>
-      </c>
-      <c r="R107">
-        <v>1.9</v>
-      </c>
-      <c r="S107">
-        <v>1.9</v>
-      </c>
       <c r="T107">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
+        <v>1.775</v>
+      </c>
+      <c r="V107">
         <v>1.925</v>
       </c>
-      <c r="V107">
-        <v>1.875</v>
-      </c>
       <c r="W107">
         <v>-1</v>
       </c>
@@ -10018,19 +10018,19 @@
         <v>-1</v>
       </c>
       <c r="Y107">
+        <v>1.375</v>
+      </c>
+      <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z107">
-        <v>-1</v>
-      </c>
-      <c r="AA107">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
         <v>0.925</v>
-      </c>
-      <c r="AC107">
-        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7004660</v>
+        <v>8022181</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,31 +10228,31 @@
         <v>45387.64583333334</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L110">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M110">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O110">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P110">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R110">
         <v>1.8</v>
@@ -10261,7 +10261,7 @@
         <v>2</v>
       </c>
       <c r="T110">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U110">
         <v>1.825</v>
@@ -10290,7 +10290,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>8022181</v>
+        <v>7004660</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10302,46 +10302,46 @@
         <v>45387.64583333334</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K111">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L111">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M111">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="N111">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O111">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q111">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T111">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W111">
         <v>0</v>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7609336</v>
+        <v>7004626</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,40 +6490,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M68">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N68">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O68">
         <v>3.75</v>
       </c>
       <c r="P68">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q68">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
         <v>1.925</v>
@@ -6541,25 +6541,25 @@
         <v>1.975</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA68">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7004626</v>
+        <v>7609336</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L69">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="N69">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O69">
         <v>3.75</v>
       </c>
       <c r="P69">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6630,25 +6630,25 @@
         <v>1.975</v>
       </c>
       <c r="W69">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7840805</v>
+        <v>7840802</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,10 +7647,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7662,40 +7662,40 @@
         <v>43</v>
       </c>
       <c r="K81">
-        <v>1.062</v>
+        <v>2.4</v>
       </c>
       <c r="L81">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="N81">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O81">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P81">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q81">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
         <v>3.25</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7704,19 +7704,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>6</v>
+        <v>1.375</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB81">
         <v>-0.5</v>
       </c>
       <c r="AC81">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7840802</v>
+        <v>7840805</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,10 +7736,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7751,40 +7751,40 @@
         <v>43</v>
       </c>
       <c r="K82">
-        <v>2.4</v>
+        <v>1.062</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M82">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="N82">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7793,19 +7793,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.375</v>
+        <v>6</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
         <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7840803</v>
+        <v>7840685</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45352.5</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="M83">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="N83">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="O83">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q83">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
         <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7840685</v>
+        <v>7840803</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45352.5</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="M84">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N84">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7840809</v>
+        <v>7840810</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="N90">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="O90">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q90">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U90">
+        <v>1.925</v>
+      </c>
+      <c r="V90">
         <v>1.875</v>
       </c>
-      <c r="V90">
-        <v>1.925</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X90">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7840810</v>
+        <v>7840809</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M91">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="N91">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P91">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R91">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
+        <v>1.875</v>
+      </c>
+      <c r="V91">
         <v>1.925</v>
       </c>
-      <c r="V91">
-        <v>1.875</v>
-      </c>
       <c r="W91">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC91">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7840817</v>
+        <v>7840818</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,76 +9516,76 @@
         <v>45368.64583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
+        <v>2.5</v>
+      </c>
+      <c r="N102">
+        <v>2.3</v>
+      </c>
+      <c r="O102">
+        <v>3.5</v>
+      </c>
+      <c r="P102">
+        <v>2.7</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
         <v>1.75</v>
       </c>
-      <c r="N102">
+      <c r="S102">
+        <v>2.05</v>
+      </c>
+      <c r="T102">
         <v>3.5</v>
       </c>
-      <c r="O102">
-        <v>3.75</v>
-      </c>
-      <c r="P102">
-        <v>1.833</v>
-      </c>
-      <c r="Q102">
-        <v>0.5</v>
-      </c>
-      <c r="R102">
-        <v>1.975</v>
-      </c>
-      <c r="S102">
-        <v>1.825</v>
-      </c>
-      <c r="T102">
-        <v>3</v>
-      </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7840818</v>
+        <v>7840817</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45368.64583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>43</v>
+      </c>
+      <c r="K103">
+        <v>4</v>
+      </c>
+      <c r="L103">
+        <v>3.6</v>
+      </c>
+      <c r="M103">
+        <v>1.75</v>
+      </c>
+      <c r="N103">
+        <v>3.5</v>
+      </c>
+      <c r="O103">
+        <v>3.75</v>
+      </c>
+      <c r="P103">
+        <v>1.833</v>
+      </c>
+      <c r="Q103">
+        <v>0.5</v>
+      </c>
+      <c r="R103">
+        <v>1.975</v>
+      </c>
+      <c r="S103">
+        <v>1.825</v>
+      </c>
+      <c r="T103">
         <v>3</v>
       </c>
-      <c r="I103">
+      <c r="U103">
+        <v>1.8</v>
+      </c>
+      <c r="V103">
+        <v>2</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>0.833</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
+        <v>0.825</v>
+      </c>
+      <c r="AB103">
         <v>0</v>
       </c>
-      <c r="J103" t="s">
-        <v>41</v>
-      </c>
-      <c r="K103">
-        <v>2.5</v>
-      </c>
-      <c r="L103">
-        <v>3.4</v>
-      </c>
-      <c r="M103">
-        <v>2.5</v>
-      </c>
-      <c r="N103">
-        <v>2.3</v>
-      </c>
-      <c r="O103">
-        <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>2.7</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>1.75</v>
-      </c>
-      <c r="S103">
-        <v>2.05</v>
-      </c>
-      <c r="T103">
-        <v>3.5</v>
-      </c>
-      <c r="U103">
-        <v>1.925</v>
-      </c>
-      <c r="V103">
-        <v>1.875</v>
-      </c>
-      <c r="W103">
-        <v>1.3</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>0.75</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
       <c r="AC103">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7004655</v>
+        <v>7882227</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="L108">
+        <v>6.5</v>
+      </c>
+      <c r="M108">
+        <v>1.2</v>
+      </c>
+      <c r="N108">
+        <v>11</v>
+      </c>
+      <c r="O108">
+        <v>7.5</v>
+      </c>
+      <c r="P108">
+        <v>1.142</v>
+      </c>
+      <c r="Q108">
+        <v>2.25</v>
+      </c>
+      <c r="R108">
+        <v>1.95</v>
+      </c>
+      <c r="S108">
+        <v>1.85</v>
+      </c>
+      <c r="T108">
         <v>3.75</v>
       </c>
-      <c r="M108">
-        <v>2.8</v>
-      </c>
-      <c r="N108">
-        <v>2.25</v>
-      </c>
-      <c r="O108">
-        <v>3.75</v>
-      </c>
-      <c r="P108">
-        <v>2.6</v>
-      </c>
-      <c r="Q108">
-        <v>-0.25</v>
-      </c>
-      <c r="R108">
+      <c r="U108">
+        <v>1.825</v>
+      </c>
+      <c r="V108">
         <v>1.975</v>
       </c>
-      <c r="S108">
-        <v>1.825</v>
-      </c>
-      <c r="T108">
-        <v>3.5</v>
-      </c>
-      <c r="U108">
-        <v>1.925</v>
-      </c>
-      <c r="V108">
-        <v>1.775</v>
-      </c>
       <c r="W108">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z108">
+        <v>0.95</v>
+      </c>
+      <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA108">
-        <v>-1</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7882227</v>
+        <v>7004655</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,67 +10139,67 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K109">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="L109">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="N109">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="O109">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P109">
-        <v>1.142</v>
+        <v>2.6</v>
       </c>
       <c r="Q109">
-        <v>2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
         <v>-1</v>
@@ -10208,7 +10208,7 @@
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10243,22 +10243,22 @@
         <v>1.6</v>
       </c>
       <c r="N110">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O110">
         <v>4.5</v>
       </c>
       <c r="P110">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q110">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T110">
         <v>3.5</v>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7004626</v>
+        <v>7609336</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,40 +6490,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L68">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="N68">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O68">
         <v>3.75</v>
       </c>
       <c r="P68">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R68">
         <v>1.925</v>
@@ -6541,25 +6541,25 @@
         <v>1.975</v>
       </c>
       <c r="W68">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7609336</v>
+        <v>7004626</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45280.47916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M69">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O69">
         <v>3.75</v>
       </c>
       <c r="P69">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q69">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6630,25 +6630,25 @@
         <v>1.975</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7840802</v>
+        <v>7840805</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,10 +7647,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7662,40 +7662,40 @@
         <v>43</v>
       </c>
       <c r="K81">
-        <v>2.4</v>
+        <v>1.062</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M81">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="N81">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P81">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R81">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
         <v>3.25</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7704,19 +7704,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.375</v>
+        <v>6</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
         <v>-0.5</v>
       </c>
       <c r="AC81">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7840805</v>
+        <v>7840802</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,10 +7736,10 @@
         <v>45351.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7751,40 +7751,40 @@
         <v>43</v>
       </c>
       <c r="K82">
-        <v>1.062</v>
+        <v>2.4</v>
       </c>
       <c r="L82">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M82">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="N82">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7793,19 +7793,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>6</v>
+        <v>1.375</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB82">
         <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7840685</v>
+        <v>7840803</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45352.5</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="L83">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="M83">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="N83">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
         <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7840803</v>
+        <v>7840685</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45352.5</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="N84">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="O84">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>3.5</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7840810</v>
+        <v>7840809</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M90">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="N90">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P90">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U90">
+        <v>1.875</v>
+      </c>
+      <c r="V90">
         <v>1.925</v>
       </c>
-      <c r="V90">
-        <v>1.875</v>
-      </c>
       <c r="W90">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7840809</v>
+        <v>7840810</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L91">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="N91">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="O91">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q91">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T91">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U91">
+        <v>1.925</v>
+      </c>
+      <c r="V91">
         <v>1.875</v>
       </c>
-      <c r="V91">
-        <v>1.925</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X91">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7840818</v>
+        <v>7840817</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,76 +9516,76 @@
         <v>45368.64583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102">
+        <v>4</v>
+      </c>
+      <c r="L102">
+        <v>3.6</v>
+      </c>
+      <c r="M102">
+        <v>1.75</v>
+      </c>
+      <c r="N102">
+        <v>3.5</v>
+      </c>
+      <c r="O102">
+        <v>3.75</v>
+      </c>
+      <c r="P102">
+        <v>1.833</v>
+      </c>
+      <c r="Q102">
+        <v>0.5</v>
+      </c>
+      <c r="R102">
+        <v>1.975</v>
+      </c>
+      <c r="S102">
+        <v>1.825</v>
+      </c>
+      <c r="T102">
         <v>3</v>
       </c>
-      <c r="I102">
+      <c r="U102">
+        <v>1.8</v>
+      </c>
+      <c r="V102">
+        <v>2</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
+        <v>0.833</v>
+      </c>
+      <c r="Z102">
+        <v>-1</v>
+      </c>
+      <c r="AA102">
+        <v>0.825</v>
+      </c>
+      <c r="AB102">
         <v>0</v>
       </c>
-      <c r="J102" t="s">
-        <v>41</v>
-      </c>
-      <c r="K102">
-        <v>2.5</v>
-      </c>
-      <c r="L102">
-        <v>3.4</v>
-      </c>
-      <c r="M102">
-        <v>2.5</v>
-      </c>
-      <c r="N102">
-        <v>2.3</v>
-      </c>
-      <c r="O102">
-        <v>3.5</v>
-      </c>
-      <c r="P102">
-        <v>2.7</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.75</v>
-      </c>
-      <c r="S102">
-        <v>2.05</v>
-      </c>
-      <c r="T102">
-        <v>3.5</v>
-      </c>
-      <c r="U102">
-        <v>1.925</v>
-      </c>
-      <c r="V102">
-        <v>1.875</v>
-      </c>
-      <c r="W102">
-        <v>1.3</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
-      <c r="Y102">
-        <v>-1</v>
-      </c>
-      <c r="Z102">
-        <v>0.75</v>
-      </c>
-      <c r="AA102">
-        <v>-1</v>
-      </c>
-      <c r="AB102">
-        <v>-1</v>
-      </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7840817</v>
+        <v>7840818</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45368.64583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
+        <v>2.5</v>
+      </c>
+      <c r="N103">
+        <v>2.3</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
+        <v>2.7</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
         <v>1.75</v>
       </c>
-      <c r="N103">
+      <c r="S103">
+        <v>2.05</v>
+      </c>
+      <c r="T103">
         <v>3.5</v>
       </c>
-      <c r="O103">
-        <v>3.75</v>
-      </c>
-      <c r="P103">
-        <v>1.833</v>
-      </c>
-      <c r="Q103">
-        <v>0.5</v>
-      </c>
-      <c r="R103">
-        <v>1.975</v>
-      </c>
-      <c r="S103">
-        <v>1.825</v>
-      </c>
-      <c r="T103">
-        <v>3</v>
-      </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7882227</v>
+        <v>7004655</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,67 +10050,67 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K108">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="N108">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="O108">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P108">
-        <v>1.142</v>
+        <v>2.6</v>
       </c>
       <c r="Q108">
-        <v>2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA108">
         <v>-1</v>
@@ -10119,7 +10119,7 @@
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7004655</v>
+        <v>7882227</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,76 +10139,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K109">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="L109">
+        <v>6.5</v>
+      </c>
+      <c r="M109">
+        <v>1.2</v>
+      </c>
+      <c r="N109">
+        <v>11</v>
+      </c>
+      <c r="O109">
+        <v>7.5</v>
+      </c>
+      <c r="P109">
+        <v>1.142</v>
+      </c>
+      <c r="Q109">
+        <v>2.25</v>
+      </c>
+      <c r="R109">
+        <v>1.95</v>
+      </c>
+      <c r="S109">
+        <v>1.85</v>
+      </c>
+      <c r="T109">
         <v>3.75</v>
       </c>
-      <c r="M109">
-        <v>2.8</v>
-      </c>
-      <c r="N109">
-        <v>2.25</v>
-      </c>
-      <c r="O109">
-        <v>3.75</v>
-      </c>
-      <c r="P109">
-        <v>2.6</v>
-      </c>
-      <c r="Q109">
-        <v>-0.25</v>
-      </c>
-      <c r="R109">
+      <c r="U109">
+        <v>1.825</v>
+      </c>
+      <c r="V109">
         <v>1.975</v>
       </c>
-      <c r="S109">
-        <v>1.825</v>
-      </c>
-      <c r="T109">
-        <v>3.5</v>
-      </c>
-      <c r="U109">
-        <v>1.925</v>
-      </c>
-      <c r="V109">
-        <v>1.775</v>
-      </c>
       <c r="W109">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z109">
+        <v>0.95</v>
+      </c>
+      <c r="AA109">
+        <v>-1</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
-      <c r="AC109">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10243,31 +10243,31 @@
         <v>1.6</v>
       </c>
       <c r="N110">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O110">
         <v>4.5</v>
       </c>
       <c r="P110">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="Q110">
         <v>1</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
         <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
         <v>0</v>
@@ -10317,31 +10317,31 @@
         <v>3.2</v>
       </c>
       <c r="N111">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O111">
         <v>3.75</v>
       </c>
       <c r="P111">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q111">
         <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U111">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V111">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W111">
         <v>0</v>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC111"/>
+  <dimension ref="A1:AC113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7004589</v>
+        <v>7004588</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,73 +1773,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
+        <v>2.9</v>
+      </c>
+      <c r="L15">
+        <v>3.3</v>
+      </c>
+      <c r="M15">
+        <v>2.25</v>
+      </c>
+      <c r="N15">
+        <v>3.75</v>
+      </c>
+      <c r="O15">
+        <v>3.4</v>
+      </c>
+      <c r="P15">
+        <v>1.909</v>
+      </c>
+      <c r="Q15">
+        <v>0.5</v>
+      </c>
+      <c r="R15">
+        <v>1.85</v>
+      </c>
+      <c r="S15">
+        <v>1.95</v>
+      </c>
+      <c r="T15">
+        <v>2.5</v>
+      </c>
+      <c r="U15">
+        <v>1.85</v>
+      </c>
+      <c r="V15">
+        <v>1.95</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
         <v>2.4</v>
       </c>
-      <c r="L15">
-        <v>3.6</v>
-      </c>
-      <c r="M15">
-        <v>2.375</v>
-      </c>
-      <c r="N15">
-        <v>2.5</v>
-      </c>
-      <c r="O15">
-        <v>3.5</v>
-      </c>
-      <c r="P15">
-        <v>2.3</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
-      <c r="V15">
-        <v>1.8</v>
-      </c>
-      <c r="W15">
-        <v>1.5</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7004588</v>
+        <v>7004589</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,73 +1862,73 @@
         <v>45170.59375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N16">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7004604</v>
+        <v>7004607</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,55 +3998,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>41</v>
       </c>
       <c r="K40">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N40">
         <v>1.75</v>
       </c>
       <c r="O40">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
         <v>0.75</v>
@@ -4058,16 +4058,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7004607</v>
+        <v>7004604</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,55 +4087,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
         <v>41</v>
       </c>
       <c r="K41">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N41">
         <v>1.75</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
+        <v>1.75</v>
+      </c>
+      <c r="S41">
         <v>1.95</v>
-      </c>
-      <c r="S41">
-        <v>1.85</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
         <v>0.75</v>
@@ -4147,16 +4147,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,73 +4176,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K42">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N42">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O42">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q42">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U42">
+        <v>1.85</v>
+      </c>
+      <c r="V42">
         <v>1.95</v>
       </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
       <c r="W42">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,73 +4265,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M43">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N43">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P43">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U43">
+        <v>1.95</v>
+      </c>
+      <c r="V43">
         <v>1.85</v>
       </c>
-      <c r="V43">
-        <v>1.95</v>
-      </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7004613</v>
+        <v>7004615</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,40 +4888,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K50">
+        <v>2.1</v>
+      </c>
+      <c r="L50">
         <v>3.6</v>
       </c>
-      <c r="L50">
-        <v>4</v>
-      </c>
       <c r="M50">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N50">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O50">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>1.825</v>
@@ -4930,7 +4930,7 @@
         <v>1.975</v>
       </c>
       <c r="T50">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
         <v>1.975</v>
@@ -4939,25 +4939,25 @@
         <v>1.825</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7004615</v>
+        <v>7004613</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,40 +4977,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N51">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O51">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
         <v>1.825</v>
@@ -5019,7 +5019,7 @@
         <v>1.975</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U51">
         <v>1.975</v>
@@ -5028,25 +5028,25 @@
         <v>1.825</v>
       </c>
       <c r="W51">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>0.825</v>
-      </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
-      <c r="AB51">
-        <v>0.4875</v>
-      </c>
-      <c r="AC51">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7609335</v>
+        <v>7004627</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="L70">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M70">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="N70">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="O70">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R70">
         <v>2</v>
@@ -6710,19 +6710,19 @@
         <v>1.8</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X70">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
@@ -6734,10 +6734,10 @@
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7004627</v>
+        <v>7609335</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,40 +6757,40 @@
         <v>45280.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="L71">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M71">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="N71">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P71">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q71">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R71">
         <v>2</v>
@@ -6799,19 +6799,19 @@
         <v>1.8</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y71">
         <v>-1</v>
@@ -6823,10 +6823,10 @@
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7840799</v>
+        <v>7840798</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,13 +7113,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -7128,61 +7128,61 @@
         <v>43</v>
       </c>
       <c r="K75">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O75">
+        <v>3.8</v>
+      </c>
+      <c r="P75">
+        <v>2.875</v>
+      </c>
+      <c r="Q75">
+        <v>-0.25</v>
+      </c>
+      <c r="R75">
+        <v>1.825</v>
+      </c>
+      <c r="S75">
+        <v>1.975</v>
+      </c>
+      <c r="T75">
         <v>3.5</v>
       </c>
-      <c r="P75">
-        <v>2.05</v>
-      </c>
-      <c r="Q75">
-        <v>0.25</v>
-      </c>
-      <c r="R75">
-        <v>1.925</v>
-      </c>
-      <c r="S75">
+      <c r="U75">
+        <v>1.85</v>
+      </c>
+      <c r="V75">
+        <v>1.95</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
         <v>1.875</v>
       </c>
-      <c r="T75">
-        <v>3</v>
-      </c>
-      <c r="U75">
-        <v>1.95</v>
-      </c>
-      <c r="V75">
-        <v>1.85</v>
-      </c>
-      <c r="W75">
-        <v>-1</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>1.05</v>
-      </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7840798</v>
+        <v>7840799</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,13 +7202,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -7217,41 +7217,41 @@
         <v>43</v>
       </c>
       <c r="K76">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L76">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N76">
+        <v>3.1</v>
+      </c>
+      <c r="O76">
+        <v>3.5</v>
+      </c>
+      <c r="P76">
         <v>2.05</v>
       </c>
-      <c r="O76">
-        <v>3.8</v>
-      </c>
-      <c r="P76">
-        <v>2.875</v>
-      </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U76">
+        <v>1.95</v>
+      </c>
+      <c r="V76">
         <v>1.85</v>
       </c>
-      <c r="V76">
-        <v>1.95</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
@@ -7259,19 +7259,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.875</v>
+        <v>1.05</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7840806</v>
+        <v>7840807</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>42</v>
+      </c>
+      <c r="K87">
+        <v>2.875</v>
+      </c>
+      <c r="L87">
         <v>4</v>
       </c>
-      <c r="J87" t="s">
-        <v>43</v>
-      </c>
-      <c r="K87">
-        <v>2</v>
-      </c>
-      <c r="L87">
-        <v>3.6</v>
-      </c>
       <c r="M87">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.925</v>
+      </c>
+      <c r="T87">
+        <v>3.25</v>
+      </c>
+      <c r="U87">
         <v>1.95</v>
       </c>
-      <c r="S87">
-        <v>1.85</v>
-      </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.825</v>
-      </c>
       <c r="V87">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y87">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7840807</v>
+        <v>7840806</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>3.6</v>
+      </c>
+      <c r="M88">
+        <v>3.2</v>
+      </c>
+      <c r="N88">
+        <v>2.2</v>
+      </c>
+      <c r="O88">
+        <v>3.5</v>
+      </c>
+      <c r="P88">
         <v>2.875</v>
       </c>
-      <c r="L88">
-        <v>4</v>
-      </c>
-      <c r="M88">
-        <v>2</v>
-      </c>
-      <c r="N88">
+      <c r="Q88">
+        <v>-0.25</v>
+      </c>
+      <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
         <v>1.85</v>
       </c>
-      <c r="O88">
-        <v>3.8</v>
-      </c>
-      <c r="P88">
-        <v>3.4</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
+      <c r="T88">
+        <v>2.75</v>
+      </c>
+      <c r="U88">
+        <v>1.825</v>
+      </c>
+      <c r="V88">
+        <v>1.975</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
         <v>1.875</v>
       </c>
-      <c r="S88">
-        <v>1.925</v>
-      </c>
-      <c r="T88">
-        <v>3.25</v>
-      </c>
-      <c r="U88">
-        <v>1.95</v>
-      </c>
-      <c r="V88">
-        <v>1.75</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
-      <c r="X88">
-        <v>2.8</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7840809</v>
+        <v>7840810</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="N90">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="O90">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q90">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U90">
+        <v>1.925</v>
+      </c>
+      <c r="V90">
         <v>1.875</v>
       </c>
-      <c r="V90">
-        <v>1.925</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X90">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7840810</v>
+        <v>7840809</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M91">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="N91">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P91">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R91">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
+        <v>1.875</v>
+      </c>
+      <c r="V91">
         <v>1.925</v>
       </c>
-      <c r="V91">
-        <v>1.875</v>
-      </c>
       <c r="W91">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC91">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>8022181</v>
+        <v>7004660</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,61 +10228,76 @@
         <v>45387.64583333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
+        <v>4</v>
+      </c>
+      <c r="J110" t="s">
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L110">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="N110">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="O110">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q110">
+        <v>-0.5</v>
+      </c>
+      <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
+        <v>1.85</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110">
+        <v>1.8</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>2.4</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB110">
         <v>1</v>
       </c>
-      <c r="R110">
-        <v>2</v>
-      </c>
-      <c r="S110">
-        <v>1.8</v>
-      </c>
-      <c r="T110">
-        <v>3.5</v>
-      </c>
-      <c r="U110">
-        <v>1.9</v>
-      </c>
-      <c r="V110">
-        <v>1.9</v>
-      </c>
-      <c r="W110">
-        <v>0</v>
-      </c>
-      <c r="X110">
-        <v>0</v>
-      </c>
-      <c r="Y110">
-        <v>0</v>
-      </c>
-      <c r="Z110">
-        <v>0</v>
-      </c>
-      <c r="AA110">
-        <v>0</v>
+      <c r="AC110">
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10290,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7004660</v>
+        <v>8022181</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10302,60 +10317,223 @@
         <v>45387.64583333334</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>41</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L111">
+        <v>4.333</v>
+      </c>
+      <c r="M111">
+        <v>1.6</v>
+      </c>
+      <c r="N111">
+        <v>4</v>
+      </c>
+      <c r="O111">
+        <v>4.2</v>
+      </c>
+      <c r="P111">
+        <v>1.666</v>
+      </c>
+      <c r="Q111">
+        <v>0.75</v>
+      </c>
+      <c r="R111">
+        <v>1.95</v>
+      </c>
+      <c r="S111">
+        <v>1.85</v>
+      </c>
+      <c r="T111">
+        <v>3.5</v>
+      </c>
+      <c r="U111">
+        <v>1.85</v>
+      </c>
+      <c r="V111">
+        <v>1.95</v>
+      </c>
+      <c r="W111">
+        <v>3</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>-1</v>
+      </c>
+      <c r="Z111">
+        <v>0.95</v>
+      </c>
+      <c r="AA111">
+        <v>-1</v>
+      </c>
+      <c r="AB111">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC111">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>7004657</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45388.64583333334</v>
+      </c>
+      <c r="F112" t="s">
+        <v>40</v>
+      </c>
+      <c r="G112" t="s">
+        <v>31</v>
+      </c>
+      <c r="K112">
+        <v>2.25</v>
+      </c>
+      <c r="L112">
+        <v>3.25</v>
+      </c>
+      <c r="M112">
+        <v>2.75</v>
+      </c>
+      <c r="N112">
+        <v>2.625</v>
+      </c>
+      <c r="O112">
+        <v>3.25</v>
+      </c>
+      <c r="P112">
+        <v>2.3</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>1.975</v>
+      </c>
+      <c r="S112">
+        <v>1.825</v>
+      </c>
+      <c r="T112">
+        <v>3</v>
+      </c>
+      <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
+        <v>1.85</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>7003494</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45388.64583333334</v>
+      </c>
+      <c r="F113" t="s">
+        <v>33</v>
+      </c>
+      <c r="G113" t="s">
+        <v>32</v>
+      </c>
+      <c r="K113">
+        <v>1.4</v>
+      </c>
+      <c r="L113">
+        <v>4</v>
+      </c>
+      <c r="M113">
+        <v>6.5</v>
+      </c>
+      <c r="N113">
+        <v>1.7</v>
+      </c>
+      <c r="O113">
         <v>3.75</v>
       </c>
-      <c r="M111">
-        <v>3.2</v>
-      </c>
-      <c r="N111">
-        <v>2.15</v>
-      </c>
-      <c r="O111">
-        <v>3.75</v>
-      </c>
-      <c r="P111">
-        <v>2.9</v>
-      </c>
-      <c r="Q111">
-        <v>-0.25</v>
-      </c>
-      <c r="R111">
-        <v>1.9</v>
-      </c>
-      <c r="S111">
-        <v>1.9</v>
-      </c>
-      <c r="T111">
+      <c r="P113">
+        <v>4</v>
+      </c>
+      <c r="Q113">
+        <v>-0.75</v>
+      </c>
+      <c r="R113">
+        <v>1.975</v>
+      </c>
+      <c r="S113">
+        <v>1.825</v>
+      </c>
+      <c r="T113">
         <v>3.25</v>
       </c>
-      <c r="U111">
-        <v>2.025</v>
-      </c>
-      <c r="V111">
-        <v>1.775</v>
-      </c>
-      <c r="W111">
+      <c r="U113">
+        <v>1.975</v>
+      </c>
+      <c r="V113">
+        <v>1.825</v>
+      </c>
+      <c r="W113">
         <v>0</v>
       </c>
-      <c r="X111">
+      <c r="X113">
         <v>0</v>
       </c>
-      <c r="Y111">
+      <c r="Y113">
         <v>0</v>
       </c>
-      <c r="Z111">
+      <c r="Z113">
         <v>0</v>
       </c>
-      <c r="AA111">
+      <c r="AA113">
         <v>0</v>
       </c>
     </row>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC113"/>
+  <dimension ref="A1:AC115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7004591</v>
+        <v>7003585</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>1.615</v>
+      </c>
+      <c r="L18">
         <v>4</v>
       </c>
-      <c r="J18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>4.5</v>
-      </c>
-      <c r="L18">
+      <c r="M18">
+        <v>4.333</v>
+      </c>
+      <c r="N18">
+        <v>1.533</v>
+      </c>
+      <c r="O18">
         <v>4.2</v>
       </c>
-      <c r="M18">
-        <v>1.55</v>
-      </c>
-      <c r="N18">
-        <v>3.3</v>
-      </c>
-      <c r="O18">
-        <v>3.8</v>
-      </c>
       <c r="P18">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7003585</v>
+        <v>7004591</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45171.59375</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M19">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N19">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O19">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N27">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R27">
+        <v>1.775</v>
+      </c>
+      <c r="S27">
+        <v>2.025</v>
+      </c>
+      <c r="T27">
+        <v>3.5</v>
+      </c>
+      <c r="U27">
+        <v>1.975</v>
+      </c>
+      <c r="V27">
         <v>1.825</v>
       </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
-      <c r="V27">
-        <v>1.8</v>
-      </c>
       <c r="W27">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z27">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7840798</v>
+        <v>7840799</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,13 +7113,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -7128,41 +7128,41 @@
         <v>43</v>
       </c>
       <c r="K75">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N75">
+        <v>3.1</v>
+      </c>
+      <c r="O75">
+        <v>3.5</v>
+      </c>
+      <c r="P75">
         <v>2.05</v>
       </c>
-      <c r="O75">
-        <v>3.8</v>
-      </c>
-      <c r="P75">
-        <v>2.875</v>
-      </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
+        <v>1.95</v>
+      </c>
+      <c r="V75">
         <v>1.85</v>
       </c>
-      <c r="V75">
-        <v>1.95</v>
-      </c>
       <c r="W75">
         <v>-1</v>
       </c>
@@ -7170,19 +7170,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.875</v>
+        <v>1.05</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7840799</v>
+        <v>7840798</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,13 +7202,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -7217,61 +7217,61 @@
         <v>43</v>
       </c>
       <c r="K76">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N76">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O76">
+        <v>3.8</v>
+      </c>
+      <c r="P76">
+        <v>2.875</v>
+      </c>
+      <c r="Q76">
+        <v>-0.25</v>
+      </c>
+      <c r="R76">
+        <v>1.825</v>
+      </c>
+      <c r="S76">
+        <v>1.975</v>
+      </c>
+      <c r="T76">
         <v>3.5</v>
       </c>
-      <c r="P76">
-        <v>2.05</v>
-      </c>
-      <c r="Q76">
-        <v>0.25</v>
-      </c>
-      <c r="R76">
-        <v>1.925</v>
-      </c>
-      <c r="S76">
+      <c r="U76">
+        <v>1.85</v>
+      </c>
+      <c r="V76">
+        <v>1.95</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
         <v>1.875</v>
       </c>
-      <c r="T76">
-        <v>3</v>
-      </c>
-      <c r="U76">
-        <v>1.95</v>
-      </c>
-      <c r="V76">
-        <v>1.85</v>
-      </c>
-      <c r="W76">
-        <v>-1</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>1.05</v>
-      </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7840807</v>
+        <v>7840806</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>3.6</v>
+      </c>
+      <c r="M87">
+        <v>3.2</v>
+      </c>
+      <c r="N87">
+        <v>2.2</v>
+      </c>
+      <c r="O87">
+        <v>3.5</v>
+      </c>
+      <c r="P87">
         <v>2.875</v>
       </c>
-      <c r="L87">
-        <v>4</v>
-      </c>
-      <c r="M87">
-        <v>2</v>
-      </c>
-      <c r="N87">
+      <c r="Q87">
+        <v>-0.25</v>
+      </c>
+      <c r="R87">
+        <v>1.95</v>
+      </c>
+      <c r="S87">
         <v>1.85</v>
       </c>
-      <c r="O87">
-        <v>3.8</v>
-      </c>
-      <c r="P87">
-        <v>3.4</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
+      <c r="T87">
+        <v>2.75</v>
+      </c>
+      <c r="U87">
+        <v>1.825</v>
+      </c>
+      <c r="V87">
+        <v>1.975</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
         <v>1.875</v>
       </c>
-      <c r="S87">
-        <v>1.925</v>
-      </c>
-      <c r="T87">
-        <v>3.25</v>
-      </c>
-      <c r="U87">
-        <v>1.95</v>
-      </c>
-      <c r="V87">
-        <v>1.75</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>2.8</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7840806</v>
+        <v>7840807</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45356.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>42</v>
+      </c>
+      <c r="K88">
+        <v>2.875</v>
+      </c>
+      <c r="L88">
         <v>4</v>
       </c>
-      <c r="J88" t="s">
-        <v>43</v>
-      </c>
-      <c r="K88">
-        <v>2</v>
-      </c>
-      <c r="L88">
-        <v>3.6</v>
-      </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
+        <v>1.925</v>
+      </c>
+      <c r="T88">
+        <v>3.25</v>
+      </c>
+      <c r="U88">
         <v>1.95</v>
       </c>
-      <c r="S88">
-        <v>1.85</v>
-      </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7936026</v>
+        <v>7936025</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45362.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K94">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="L94">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M94">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="N94">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z94">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7936025</v>
+        <v>7936026</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45362.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
         <v>0</v>
       </c>
-      <c r="I95">
-        <v>2</v>
-      </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="L95">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="N95">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="Q95">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7840814</v>
+        <v>7840815</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,73 +8982,73 @@
         <v>45363.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96" t="s">
+        <v>42</v>
+      </c>
+      <c r="K96">
+        <v>1.533</v>
+      </c>
+      <c r="L96">
+        <v>4.2</v>
+      </c>
+      <c r="M96">
+        <v>5.25</v>
+      </c>
+      <c r="N96">
+        <v>1.7</v>
+      </c>
+      <c r="O96">
+        <v>4</v>
+      </c>
+      <c r="P96">
+        <v>3.8</v>
+      </c>
+      <c r="Q96">
+        <v>-0.75</v>
+      </c>
+      <c r="R96">
+        <v>1.925</v>
+      </c>
+      <c r="S96">
+        <v>1.875</v>
+      </c>
+      <c r="T96">
+        <v>3.5</v>
+      </c>
+      <c r="U96">
+        <v>1.975</v>
+      </c>
+      <c r="V96">
+        <v>1.825</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
         <v>3</v>
       </c>
-      <c r="J96" t="s">
-        <v>43</v>
-      </c>
-      <c r="K96">
-        <v>1.8</v>
-      </c>
-      <c r="L96">
-        <v>3.75</v>
-      </c>
-      <c r="M96">
-        <v>3.8</v>
-      </c>
-      <c r="N96">
-        <v>1.909</v>
-      </c>
-      <c r="O96">
-        <v>3.75</v>
-      </c>
-      <c r="P96">
-        <v>3.3</v>
-      </c>
-      <c r="Q96">
-        <v>-0.5</v>
-      </c>
-      <c r="R96">
-        <v>1.9</v>
-      </c>
-      <c r="S96">
-        <v>1.9</v>
-      </c>
-      <c r="T96">
-        <v>3.25</v>
-      </c>
-      <c r="U96">
-        <v>1.825</v>
-      </c>
-      <c r="V96">
-        <v>1.975</v>
-      </c>
-      <c r="W96">
-        <v>-1</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
       <c r="Y96">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB96">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7840815</v>
+        <v>7840814</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45363.64583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K97">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="L97">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N97">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P97">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T97">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
+        <v>1.825</v>
+      </c>
+      <c r="V97">
         <v>1.975</v>
       </c>
-      <c r="V97">
-        <v>1.825</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB97">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7840688</v>
+        <v>7840816</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,58 +9160,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
         <v>41</v>
       </c>
       <c r="K98">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L98">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="M98">
+        <v>11</v>
+      </c>
+      <c r="N98">
+        <v>1.285</v>
+      </c>
+      <c r="O98">
         <v>5.5</v>
       </c>
-      <c r="N98">
-        <v>1.615</v>
-      </c>
-      <c r="O98">
-        <v>4.2</v>
-      </c>
       <c r="P98">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U98">
         <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W98">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9220,10 +9220,10 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
         <v>0.925</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7840816</v>
+        <v>7840688</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,58 +9249,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>41</v>
       </c>
       <c r="K99">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L99">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="M99">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="N99">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="O99">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="Q99">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T99">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
         <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.2849999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9309,10 +9309,10 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>0.925</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7004655</v>
+        <v>7882227</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="L108">
+        <v>6.5</v>
+      </c>
+      <c r="M108">
+        <v>1.2</v>
+      </c>
+      <c r="N108">
+        <v>11</v>
+      </c>
+      <c r="O108">
+        <v>7.5</v>
+      </c>
+      <c r="P108">
+        <v>1.142</v>
+      </c>
+      <c r="Q108">
+        <v>2.25</v>
+      </c>
+      <c r="R108">
+        <v>1.95</v>
+      </c>
+      <c r="S108">
+        <v>1.85</v>
+      </c>
+      <c r="T108">
         <v>3.75</v>
       </c>
-      <c r="M108">
-        <v>2.8</v>
-      </c>
-      <c r="N108">
-        <v>2.25</v>
-      </c>
-      <c r="O108">
-        <v>3.75</v>
-      </c>
-      <c r="P108">
-        <v>2.6</v>
-      </c>
-      <c r="Q108">
-        <v>-0.25</v>
-      </c>
-      <c r="R108">
+      <c r="U108">
+        <v>1.825</v>
+      </c>
+      <c r="V108">
         <v>1.975</v>
       </c>
-      <c r="S108">
-        <v>1.825</v>
-      </c>
-      <c r="T108">
-        <v>3.5</v>
-      </c>
-      <c r="U108">
-        <v>1.925</v>
-      </c>
-      <c r="V108">
-        <v>1.775</v>
-      </c>
       <c r="W108">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z108">
+        <v>0.95</v>
+      </c>
+      <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA108">
-        <v>-1</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7882227</v>
+        <v>7004655</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,67 +10139,67 @@
         <v>45382.64583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K109">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="L109">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="N109">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="O109">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P109">
-        <v>1.142</v>
+        <v>2.6</v>
       </c>
       <c r="Q109">
-        <v>2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
         <v>-1</v>
@@ -10208,7 +10208,7 @@
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10421,22 +10421,22 @@
         <v>2.75</v>
       </c>
       <c r="N112">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="O112">
         <v>3.25</v>
       </c>
       <c r="P112">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q112">
         <v>0</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
         <v>3</v>
@@ -10495,22 +10495,22 @@
         <v>6.5</v>
       </c>
       <c r="N113">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O113">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
         <v>3.25</v>
@@ -10534,6 +10534,154 @@
         <v>0</v>
       </c>
       <c r="AA113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>7004659</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45389.64583333334</v>
+      </c>
+      <c r="F114" t="s">
+        <v>36</v>
+      </c>
+      <c r="G114" t="s">
+        <v>39</v>
+      </c>
+      <c r="K114">
+        <v>1.5</v>
+      </c>
+      <c r="L114">
+        <v>3.6</v>
+      </c>
+      <c r="M114">
+        <v>6</v>
+      </c>
+      <c r="N114">
+        <v>1.571</v>
+      </c>
+      <c r="O114">
+        <v>3.6</v>
+      </c>
+      <c r="P114">
+        <v>5.25</v>
+      </c>
+      <c r="Q114">
+        <v>-0.75</v>
+      </c>
+      <c r="R114">
+        <v>1.725</v>
+      </c>
+      <c r="S114">
+        <v>2.075</v>
+      </c>
+      <c r="T114">
+        <v>3.25</v>
+      </c>
+      <c r="U114">
+        <v>1.875</v>
+      </c>
+      <c r="V114">
+        <v>1.925</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>7004658</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45389.64583333334</v>
+      </c>
+      <c r="F115" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" t="s">
+        <v>34</v>
+      </c>
+      <c r="K115">
+        <v>1.571</v>
+      </c>
+      <c r="L115">
+        <v>3.25</v>
+      </c>
+      <c r="M115">
+        <v>6</v>
+      </c>
+      <c r="N115">
+        <v>1.727</v>
+      </c>
+      <c r="O115">
+        <v>3.25</v>
+      </c>
+      <c r="P115">
+        <v>4.5</v>
+      </c>
+      <c r="Q115">
+        <v>-0.75</v>
+      </c>
+      <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
+        <v>1.95</v>
+      </c>
+      <c r="T115">
+        <v>3.25</v>
+      </c>
+      <c r="U115">
+        <v>1.85</v>
+      </c>
+      <c r="V115">
+        <v>1.95</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
         <v>0</v>
       </c>
     </row>

--- a/Qatar Stars League/Qatar Stars League.xlsx
+++ b/Qatar Stars League/Qatar Stars League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7003478</v>
+        <v>7003586</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="I21">
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>4.333</v>
+      </c>
+      <c r="M21">
+        <v>1.55</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>4.2</v>
+      </c>
+      <c r="P21">
+        <v>1.571</v>
+      </c>
+      <c r="Q21">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>3.6</v>
-      </c>
-      <c r="M21">
-        <v>3.25</v>
-      </c>
-      <c r="N21">
+      <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
         <v>1.95</v>
-      </c>
-      <c r="O21">
-        <v>3.6</v>
-      </c>
-      <c r="P21">
-        <v>3.4</v>
-      </c>
-      <c r="Q21">
-        <v>-0.5</v>
-      </c>
-      <c r="R21">
-        <v>1.975</v>
-      </c>
-      <c r="S21">
-        <v>1.825</v>
       </c>
       <c r="T21">
         <v>3</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>0.571</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>0.95</v>
       </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7003586</v>
+        <v>7003478</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,73 +2396,73 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7004593</v>
+        <v>7004592</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>2.4</v>
+      </c>
+      <c r="L24">
+        <v>3.6</v>
+      </c>
+      <c r="M24">
+        <v>2.4</v>
+      </c>
+      <c r="N24">
+        <v>2.4</v>
+      </c>
+      <c r="O24">
+        <v>3.6</v>
+      </c>
+      <c r="P24">
+        <v>2.45</v>
+      </c>
+      <c r="Q24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-      <c r="M24">
-        <v>1.727</v>
-      </c>
-      <c r="N24">
-        <v>4.75</v>
-      </c>
-      <c r="O24">
-        <v>4.333</v>
-      </c>
-      <c r="P24">
-        <v>1.571</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
+        <v>1.875</v>
+      </c>
+      <c r="T24">
+        <v>2.75</v>
+      </c>
+      <c r="U24">
+        <v>1.75</v>
+      </c>
+      <c r="V24">
         <v>1.95</v>
       </c>
-      <c r="T24">
-        <v>3</v>
-      </c>
-      <c r="U24">
-        <v>1.825</v>
-      </c>
-      <c r="V24">
-        <v>1.975</v>
-      </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y24">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7004592</v>
+        <v>7004593</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="N25">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P25">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1.85</v>
+      </c>
+      <c r="S25">
+        <v>1.95</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>1.825</v>
+      </c>
+      <c r="V25">
+        <v>1.975</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
+        <v>0.571</v>
+      </c>
+      <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
+        <v>0.95</v>
+      </c>
+      <c r="AB25">
         <v>0</v>
       </c>
-      <c r="R25">
-        <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.875</v>
-      </c>
-      <c r="T25">
-        <v>2.75</v>
-      </c>
-      <c r="U25">
-        <v>1.75</v>
-      </c>
-      <c r="V25">
-        <v>1.95</v>
-      </c>
-      <c r="W25">
-        <v>-1</v>
-      </c>
-      <c r="X25">
-        <v>2.6</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
+      <c r="AC25">
         <v>-0</v>
-      </c>
-      <c r="AB25">
-        <v>0.75</v>
-      </c>
-      <c r="AC25">
-        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7004596</v>
+        <v>7004597</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="N27">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7004597</v>
+        <v>7004596</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="N28">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R28">
+        <v>1.775</v>
+      </c>
+      <c r="S28">
+        <v>2.025</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
+        <v>1.975</v>
+      </c>
+      <c r="V28">
         <v>1.825</v>
       </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="U28">
-        <v>2</v>
-      </c>
-      <c r="V28">
-        <v>1.8</v>
-      </c>
       <c r="W28">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z28">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7004607</v>
+        <v>7004604</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,55 +3998,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>41</v>
       </c>
       <c r="K40">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L40">
         <v>3.75</v>
       </c>
       <c r="M40">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N40">
         <v>1.75</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
+        <v>1.75</v>
+      </c>
+      <c r="S40">
         <v>1.95</v>
-      </c>
-      <c r="S40">
-        <v>1.85</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
         <v>0.75</v>
@@ -4058,16 +4058,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7004604</v>
+        <v>7004607</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,55 +4087,55 @@
         <v>45228.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>41</v>
       </c>
       <c r="K41">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L41">
         <v>3.75</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N41">
         <v>1.75</v>
       </c>
       <c r="O41">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W41">
         <v>0.75</v>
@@ -4147,16 +4147,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB41">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4164,7 +4164,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7004611</v>
+        <v>7003590</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4176,73 +4176,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>1.125</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="M42">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N42">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P42">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U42">
+        <v>1.95</v>
+      </c>
+      <c r="V42">
         <v>1.85</v>
       </c>
-      <c r="V42">
-        <v>1.95</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7003590</v>
+        <v>7004611</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,73 +4265,73 @@
         <v>45232.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K43">
-        <v>1.125</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N43">
-        <v>1.2</v>
+        <v>3.75</v>
       </c>
       <c r="O43">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="Q43">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U43">
+        <v>1.85</v>
+      </c>
+      <c r="V43">
         <v>1.95</v>
       </c>
-      <c r="V43">
-        <v>1.85</v>
-      </c>
       <c r="W43">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7004610</v>
+        <v>7003482</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
+        <v>3.5</v>
+      </c>
+      <c r="M45">
+        <v>2.8</v>
+      </c>
+      <c r="N45">
+        <v>1.909</v>
+      </c>
+      <c r="O45">
         <v>3.6</v>
       </c>
-      <c r="M45">
-        <v>3.8</v>
-      </c>
-      <c r="N45">
-        <v>1.8</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
+        <v>1.825</v>
+      </c>
+      <c r="T45">
+        <v>3.25</v>
+      </c>
+      <c r="U45">
+        <v>1.775</v>
+      </c>
+      <c r="V45">
         <v>1.925</v>
       </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>1.8</v>
-      </c>
-      <c r="V45">
-        <v>2</v>
-      </c>
       <c r="W45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7003482</v>
+        <v>7004610</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45233.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N46">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7004615</v>
+        <v>7004613</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,40 +4888,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N50">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P50">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
         <v>1.825</v>
@@ -4930,7 +4930,7 @@
         <v>1.975</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U50">
         <v>1.975</v>
@@ -4939,25 +4939,25 @@
         <v>1.825</v>
       </c>
       <c r="W50">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>0.825</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
-      <c r="AB50">
-        <v>0.4875</v>
-      </c>
-      <c r="AC50">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7004613</v>
+        <v>7004615</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,40 +4977,40 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K51">
+        <v>2.1</v>
+      </c>
+      <c r="L51">
         <v>3.6</v>
       </c>
-      <c r="L51">
-        <v>4</v>
-      </c>
       <c r="M51">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="N51">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>1.825</v>
@@ -5019,7 +5019,7 @@
         <v>1.975</v>
       </c>
       <c r="T51">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
         <v>1.975</v>
@@ -5028,25 +5028,25 @@
         <v>1.825</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7003592</v>
+        <v>7004616</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L54">
+        <v>6.5</v>
+      </c>
+      <c r="M54">
+        <v>6.5</v>
+      </c>
+      <c r="N54">
+        <v>1.363</v>
+      </c>
+      <c r="O54">
         <v>5.75</v>
       </c>
-      <c r="M54">
-        <v>8</v>
-      </c>
-      <c r="N54">
-        <v>1.25</v>
-      </c>
-      <c r="O54">
-        <v>6</v>
-      </c>
       <c r="P54">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q54">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7004616</v>
+        <v>7003592</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45261.5625</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="L55">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="M55">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N55">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O55">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P55">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R55">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T55">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7004618</v>
+        <v>7004619</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,31 +5422,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M56">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N56">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O56">
         <v>3.8</v>
@@ -5458,40 +5458,40 @@
         <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X56">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7004619</v>
+        <v>7004618</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,31 +5511,31 @@
         <v>45262.47916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K57">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L57">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N57">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O57">
         <v>3.8</v>
@@ -5547,40 +5547,40 @@
         <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7004620</v>
+        <v>7003485</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L60">
+        <v>4.2</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>1.615</v>
+      </c>
+      <c r="O60">
         <v>3.75</v>
       </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>1.833</v>
-      </c>
-      <c r="O60">
-        <v>3.6</v>
-      </c>
       <c r="P60">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X60">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA60">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7003485</v>
+        <v>7004620</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,76 +5867,76 @@
         <v>45268.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O61">
+        <v>3.6</v>
+      </c>
+      <c r="P61">
         <v>3.75</v>
       </c>
-      <c r="P61">
-        <v>4.75</v>
-      </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7004621</v>
+        <v>7004622</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,10 +5956,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5980,37 +5980,37 @@
         <v>5</v>
       </c>
       <c r="N62">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q62">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y62">
         <v>-1</v>
@@ -6019,13 +6019,13 @@
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7004622</v>
+        <v>7004621</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,10 +6045,10 @@
         <v>45269.47916666666</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6069,38 +6069,38 @@
         <v>5</v>
       </c>
       <c r="N63">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O63">
+        <v>5</v>
+      </c>
+      <c r="P63">
+        <v>6</v>
+      </c>
+      <c r="Q63">
+        <v>-1.5</v>
+      </c>
+      <c r="R63">
+        <v>1.975</v>
+      </c>
+      <c r="S63">
+        <v>1.825</v>
+      </c>
+      <c r="T63">
+        <v>3.75</v>
+      </c>
+      <c r="U63">
+        <v>1.975</v>
+      </c>
+      <c r="V63">
+        <v>1.825</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
         <v>4</v>
       </c>
-      <c r="P63">
-        <v>3.6</v>
-      </c>
-      <c r="Q63">
-        <v>-0.5</v>
-      </c>
-      <c r="R63">
-        <v>1.8</v>
-      </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>3</v>
-      </c>
-      <c r="U63">
-        <v>1.8</v>
-      </c>
-      <c r="V63">
-        <v>2</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>3</v>
-      </c>
       <c r="Y63">
         <v>-1</v>
       </c>
@@ -6108,13 +6108,13 @@
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7004627</v>
+        <v>7609335</v>
       </c>
       <c r="C70"